--- a/target/classes/中级工应知应会题库.xlsx
+++ b/target/classes/中级工应知应会题库.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="1380">
   <si>
     <t>试题编号</t>
   </si>
@@ -4126,6 +4126,48 @@
   </si>
   <si>
     <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.06666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 17题	您的得分： 76.47058823529412	做题时长约为2.1333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 4题	您的得分： 100.0	做题时长约为0.16666666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 5题	您的得分： 60.0	做题时长约为0.36666666666666664Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.1Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.16666666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 6题	您的得分： 100.0	做题时长约为1.4166666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 10题	您的得分： 90.0	做题时长约为0.6166666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 6题	您的得分： 83.33333333333334	做题时长约为0.43333333333333335Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 13题	您的得分： 84.61538461538461	做题时长约为422.45Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 10题	您的得分： 60.0	做题时长约为1.2166666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 4题	您的得分： 100.0	做题时长约为0.38333333333333336Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 4题	您的得分： 100.0	做题时长约为0.5833333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 4题	您的得分： 100.0	做题时长约为0.23333333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 16题	您的得分： 81.25	做题时长约为1.5Min</t>
   </si>
 </sst>
 </file>
@@ -4232,7 +4274,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="919">
+  <cellXfs count="1040">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5092,40 +5134,161 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5844,10 +6007,10 @@
         <v>62</v>
       </c>
       <c r="R12" t="n">
-        <v>2.799999999999999</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="T12" t="n">
-        <v>1.722817223025E12</v>
+        <v>1.723423664806E12</v>
       </c>
       <c r="AA12" t="s">
         <v>1347</v>
@@ -6608,6 +6771,9 @@
       <c r="T35" t="n">
         <v>1.721611306549E12</v>
       </c>
+      <c r="AA35" t="s">
+        <v>1361</v>
+      </c>
     </row>
     <row ht="128.25" r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
@@ -6638,6 +6804,9 @@
       <c r="T36" t="n">
         <v>1.721640866267E12</v>
       </c>
+      <c r="AA36" t="s">
+        <v>1366</v>
+      </c>
     </row>
     <row ht="114" r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
@@ -6668,6 +6837,9 @@
       <c r="T37" t="n">
         <v>1.721611393539E12</v>
       </c>
+      <c r="AA37" t="s">
+        <v>1367</v>
+      </c>
     </row>
     <row ht="99.75" r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
@@ -6698,6 +6870,9 @@
       <c r="T38" t="n">
         <v>1.721640868308E12</v>
       </c>
+      <c r="AA38" t="s">
+        <v>1368</v>
+      </c>
     </row>
     <row ht="171" r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
@@ -6728,6 +6903,9 @@
       <c r="T39" t="n">
         <v>1.721640870173E12</v>
       </c>
+      <c r="AA39" t="s">
+        <v>1369</v>
+      </c>
     </row>
     <row ht="171" r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
@@ -6758,6 +6936,9 @@
       <c r="T40" t="n">
         <v>1.721611422841E12</v>
       </c>
+      <c r="AA40" t="s">
+        <v>1369</v>
+      </c>
     </row>
     <row ht="156.75" r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
@@ -6788,6 +6969,9 @@
       <c r="T41" t="n">
         <v>1.721611427909E12</v>
       </c>
+      <c r="AA41" t="s">
+        <v>1359</v>
+      </c>
     </row>
     <row ht="57" r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
@@ -6818,6 +7002,9 @@
       <c r="T42" t="n">
         <v>1.721611430862E12</v>
       </c>
+      <c r="AA42" t="s">
+        <v>1370</v>
+      </c>
     </row>
     <row ht="99.75" r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
@@ -6848,6 +7035,9 @@
       <c r="T43" t="n">
         <v>1.72161155929E12</v>
       </c>
+      <c r="AA43" t="s">
+        <v>1371</v>
+      </c>
     </row>
     <row ht="57" r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
@@ -6878,6 +7068,9 @@
       <c r="T44" t="n">
         <v>1.721611567498E12</v>
       </c>
+      <c r="AA44" t="s">
+        <v>1372</v>
+      </c>
     </row>
     <row ht="42.75" r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
@@ -6908,6 +7101,9 @@
       <c r="T45" t="n">
         <v>1.721640872394E12</v>
       </c>
+      <c r="AA45" t="s">
+        <v>1361</v>
+      </c>
     </row>
     <row ht="42.75" r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
@@ -6938,6 +7134,9 @@
       <c r="T46" t="n">
         <v>1.721640873927E12</v>
       </c>
+      <c r="AA46" t="s">
+        <v>1356</v>
+      </c>
     </row>
     <row ht="57" r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
@@ -6968,6 +7167,9 @@
       <c r="T47" t="n">
         <v>1.721640875159E12</v>
       </c>
+      <c r="AA47" t="s">
+        <v>1355</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
@@ -6998,6 +7200,9 @@
       <c r="T48" t="n">
         <v>1.721611590255E12</v>
       </c>
+      <c r="AA48" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row ht="28.5" r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
@@ -7028,6 +7233,9 @@
       <c r="T49" t="n">
         <v>1.721640878211E12</v>
       </c>
+      <c r="AA49" t="s">
+        <v>1361</v>
+      </c>
     </row>
     <row ht="128.25" r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
@@ -7058,6 +7266,9 @@
       <c r="T50" t="n">
         <v>1.721640880948E12</v>
       </c>
+      <c r="AA50" t="s">
+        <v>1356</v>
+      </c>
     </row>
     <row ht="256.5" r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
@@ -7088,6 +7299,9 @@
       <c r="T51" t="n">
         <v>1.721640884489E12</v>
       </c>
+      <c r="AA51" t="s">
+        <v>1365</v>
+      </c>
     </row>
     <row ht="71.25" r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
@@ -7118,6 +7332,9 @@
       <c r="T52" t="n">
         <v>1.721640891232E12</v>
       </c>
+      <c r="AA52" t="s">
+        <v>1374</v>
+      </c>
     </row>
     <row ht="114" r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
@@ -7148,6 +7365,9 @@
       <c r="T53" t="n">
         <v>1.721611731411E12</v>
       </c>
+      <c r="AA53" t="s">
+        <v>1359</v>
+      </c>
     </row>
     <row ht="114" r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
@@ -7178,6 +7398,9 @@
       <c r="T54" t="n">
         <v>1.72164089311E12</v>
       </c>
+      <c r="AA54" t="s">
+        <v>1369</v>
+      </c>
     </row>
     <row ht="213.75" r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
@@ -7208,6 +7431,9 @@
       <c r="T55" t="n">
         <v>1.72164090438E12</v>
       </c>
+      <c r="AA55" t="s">
+        <v>1359</v>
+      </c>
     </row>
     <row ht="57" r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
@@ -7238,6 +7464,9 @@
       <c r="T56" t="n">
         <v>1.721640912568E12</v>
       </c>
+      <c r="AA56" t="s">
+        <v>1375</v>
+      </c>
     </row>
     <row ht="57" r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
@@ -7268,6 +7497,9 @@
       <c r="T57" t="n">
         <v>1.721611806284E12</v>
       </c>
+      <c r="AA57" t="s">
+        <v>1376</v>
+      </c>
     </row>
     <row ht="99.75" r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
@@ -7298,6 +7530,9 @@
       <c r="T58" t="n">
         <v>1.721611811403E12</v>
       </c>
+      <c r="AA58" t="s">
+        <v>1377</v>
+      </c>
     </row>
     <row ht="114" r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
@@ -7328,6 +7563,9 @@
       <c r="T59" t="n">
         <v>1.721611819852E12</v>
       </c>
+      <c r="AA59" t="s">
+        <v>1378</v>
+      </c>
     </row>
     <row ht="71.25" r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
@@ -7358,6 +7596,9 @@
       <c r="T60" t="n">
         <v>1.721640916923E12</v>
       </c>
+      <c r="AA60" t="s">
+        <v>1379</v>
+      </c>
     </row>
     <row ht="114" r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
@@ -7803,10 +8044,10 @@
         <v>350</v>
       </c>
       <c r="R75" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T75" t="n">
-        <v>1.722816435896E12</v>
+        <v>1.723423667212E12</v>
       </c>
     </row>
     <row ht="142.5" r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -9301,10 +9542,10 @@
         <v>557</v>
       </c>
       <c r="R125" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.1999999999999993</v>
       </c>
       <c r="T125" t="n">
-        <v>1.722816444099E12</v>
+        <v>1.723423827115E12</v>
       </c>
     </row>
     <row ht="156.75" r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -9481,10 +9722,10 @@
         <v>587</v>
       </c>
       <c r="R131" t="n">
-        <v>2.4499999999999997</v>
+        <v>1.3499999999999992</v>
       </c>
       <c r="T131" t="n">
-        <v>1.722817225396E12</v>
+        <v>1.723423687239E12</v>
       </c>
     </row>
     <row ht="142.5" r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -10289,10 +10530,10 @@
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
       <c r="R159" t="n">
-        <v>2.5499999999999994</v>
+        <v>1.149999999999999</v>
       </c>
       <c r="T159" t="n">
-        <v>1.722817226433E12</v>
+        <v>1.723423829086E12</v>
       </c>
     </row>
     <row ht="128.25" r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -12771,10 +13012,10 @@
         <v>781</v>
       </c>
       <c r="R254" t="n">
-        <v>2.1999999999999993</v>
+        <v>1.4499999999999988</v>
       </c>
       <c r="T254" t="n">
-        <v>1.722816909818E12</v>
+        <v>1.723195071934E12</v>
       </c>
     </row>
     <row ht="342" r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -12891,10 +13132,10 @@
         <v>803</v>
       </c>
       <c r="R258" t="n">
-        <v>2.2499999999999996</v>
+        <v>1.1999999999999993</v>
       </c>
       <c r="T258" t="n">
-        <v>1.72281691197E12</v>
+        <v>1.723423831751E12</v>
       </c>
     </row>
     <row ht="85.5" r="259" spans="1:8" x14ac:dyDescent="0.2">
@@ -13041,10 +13282,10 @@
         <v>829</v>
       </c>
       <c r="R263" t="n">
-        <v>2.1999999999999993</v>
+        <v>1.149999999999999</v>
       </c>
       <c r="T263" t="n">
-        <v>1.722816916549E12</v>
+        <v>1.723423838603E12</v>
       </c>
     </row>
     <row ht="99.75" r="264" spans="1:8" x14ac:dyDescent="0.2">
@@ -13071,10 +13312,10 @@
         <v>834</v>
       </c>
       <c r="R264" t="n">
-        <v>2.499999999999999</v>
+        <v>1.3499999999999979</v>
       </c>
       <c r="T264" t="n">
-        <v>1.722817228972E12</v>
+        <v>1.723423693197E12</v>
       </c>
     </row>
     <row ht="85.5" r="265" spans="1:8" x14ac:dyDescent="0.2">
@@ -13251,10 +13492,10 @@
         <v>865</v>
       </c>
       <c r="R270" t="n">
-        <v>2.2499999999999996</v>
+        <v>1.1999999999999993</v>
       </c>
       <c r="T270" t="n">
-        <v>1.722816920307E12</v>
+        <v>1.723423843809E12</v>
       </c>
     </row>
     <row ht="99.75" r="271" spans="1:8" x14ac:dyDescent="0.2">
@@ -13341,10 +13582,10 @@
         <v>431</v>
       </c>
       <c r="R273" t="n">
-        <v>2.5499999999999994</v>
+        <v>1.149999999999999</v>
       </c>
       <c r="T273" t="n">
-        <v>1.72281723076E12</v>
+        <v>1.723423847383E12</v>
       </c>
     </row>
     <row ht="85.5" r="274" spans="1:8" x14ac:dyDescent="0.2">
@@ -13491,10 +13732,10 @@
         <v>901</v>
       </c>
       <c r="R278" t="n">
-        <v>2.5999999999999996</v>
+        <v>1.149999999999999</v>
       </c>
       <c r="T278" t="n">
-        <v>1.722817009698E12</v>
+        <v>1.723423857126E12</v>
       </c>
     </row>
     <row ht="85.5" r="279" spans="1:8" x14ac:dyDescent="0.2">
@@ -13581,10 +13822,10 @@
         <v>914</v>
       </c>
       <c r="R281" t="n">
-        <v>1.5499999999999994</v>
+        <v>2.5499999999999994</v>
       </c>
       <c r="T281" t="n">
-        <v>1.722816816145E12</v>
+        <v>1.723423876165E12</v>
       </c>
     </row>
     <row ht="57" r="282" spans="1:8" x14ac:dyDescent="0.2">
@@ -14091,10 +14332,10 @@
         <v>996</v>
       </c>
       <c r="R298" t="n">
-        <v>2.5499999999999994</v>
+        <v>2.499999999999999</v>
       </c>
       <c r="T298" t="n">
-        <v>1.722817012391E12</v>
+        <v>1.723423879846E12</v>
       </c>
     </row>
     <row ht="85.5" r="299" spans="1:8" x14ac:dyDescent="0.2">
@@ -14181,10 +14422,10 @@
         <v>1011</v>
       </c>
       <c r="R301" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.1999999999999993</v>
       </c>
       <c r="T301" t="n">
-        <v>1.722816824107E12</v>
+        <v>1.723423882752E12</v>
       </c>
     </row>
     <row ht="156.75" r="302" spans="1:8" x14ac:dyDescent="0.2">
@@ -14211,10 +14452,10 @@
         <v>1016</v>
       </c>
       <c r="R302" t="n">
-        <v>3.4999999999999996</v>
+        <v>2.699999999999999</v>
       </c>
       <c r="T302" t="n">
-        <v>1.722817336178E12</v>
+        <v>1.723423887406E12</v>
       </c>
     </row>
     <row ht="213.75" r="303" spans="1:8" x14ac:dyDescent="0.2">
@@ -15997,10 +16238,10 @@
       <c r="G363" s="6"/>
       <c r="H363" s="6"/>
       <c r="R363" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.1999999999999993</v>
       </c>
       <c r="T363" t="n">
-        <v>1.722816832786E12</v>
+        <v>1.723423892675E12</v>
       </c>
     </row>
     <row ht="142.5" r="364" spans="1:8" x14ac:dyDescent="0.2">
@@ -16805,10 +17046,10 @@
         <v>1285</v>
       </c>
       <c r="R393" t="n">
-        <v>2.499999999999999</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="T393" t="n">
-        <v>1.722817240111E12</v>
+        <v>1.723423710442E12</v>
       </c>
     </row>
     <row ht="228" r="394" spans="1:8" x14ac:dyDescent="0.2">
@@ -16865,10 +17106,10 @@
         <v>1294</v>
       </c>
       <c r="R395" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.1999999999999993</v>
       </c>
       <c r="T395" t="n">
-        <v>1.722816848209E12</v>
+        <v>1.723423898628E12</v>
       </c>
     </row>
     <row ht="142.5" r="396" spans="1:8" x14ac:dyDescent="0.2">
@@ -16895,10 +17136,10 @@
         <v>1298</v>
       </c>
       <c r="R396" t="n">
-        <v>2.5499999999999994</v>
+        <v>1.4499999999999988</v>
       </c>
       <c r="T396" t="n">
-        <v>1.72281724204E12</v>
+        <v>1.723195103242E12</v>
       </c>
     </row>
     <row ht="99.75" r="397" spans="1:8" x14ac:dyDescent="0.2">
@@ -16985,10 +17226,10 @@
         <v>1313</v>
       </c>
       <c r="R399" t="n">
-        <v>2.2499999999999996</v>
+        <v>1.1999999999999993</v>
       </c>
       <c r="T399" t="n">
-        <v>1.722817103666E12</v>
+        <v>1.723423905589E12</v>
       </c>
     </row>
     <row ht="85.5" r="400" spans="1:8" x14ac:dyDescent="0.2">
@@ -17015,10 +17256,10 @@
         <v>1319</v>
       </c>
       <c r="R400" t="n">
-        <v>2.5499999999999994</v>
+        <v>1.3499999999999983</v>
       </c>
       <c r="T400" t="n">
-        <v>1.722817108541E12</v>
+        <v>1.72342391375E12</v>
       </c>
     </row>
     <row ht="71.25" r="401" spans="1:8" x14ac:dyDescent="0.2">
@@ -17045,10 +17286,10 @@
         <v>1324</v>
       </c>
       <c r="R401" t="n">
-        <v>2.5999999999999996</v>
+        <v>1.149999999999999</v>
       </c>
       <c r="T401" t="n">
-        <v>1.722817110442E12</v>
+        <v>1.723423916118E12</v>
       </c>
     </row>
     <row ht="71.25" r="402" spans="1:8" x14ac:dyDescent="0.2">

--- a/target/classes/中级工应知应会题库.xlsx
+++ b/target/classes/中级工应知应会题库.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="1380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3379" uniqueCount="1391">
   <si>
     <t>试题编号</t>
   </si>
@@ -4168,6 +4168,39 @@
   </si>
   <si>
     <t>您一共做了: 16题	您的得分： 81.25	做题时长约为1.5Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 66.66666666666666	做题时长约为17.7Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.21666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.13333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 10题	您的得分： 80.0	做题时长约为1.5166666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.13333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 16题	您的得分： 100.0	做题时长约为424.28333333333336Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 40题	您的得分： 57.49999999999999	做题时长约为7.266666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 17题	您的得分： 94.11764705882352	做题时长约为1.1Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 17题	您的得分： 100.0	做题时长约为1.1166666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 17题	您的得分： 100.0	做题时长约为22.566666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 32题	您的得分： 96.875	做题时长约为53.416666666666664Min</t>
   </si>
 </sst>
 </file>
@@ -4274,7 +4307,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1040">
+  <cellXfs count="1214">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5289,18 +5322,192 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6007,10 +6214,10 @@
         <v>62</v>
       </c>
       <c r="R12" t="n">
-        <v>1.3999999999999986</v>
+        <v>0.6999999999999985</v>
       </c>
       <c r="T12" t="n">
-        <v>1.723423664806E12</v>
+        <v>1.72362337209E12</v>
       </c>
       <c r="AA12" t="s">
         <v>1347</v>
@@ -6172,10 +6379,10 @@
         <v>88</v>
       </c>
       <c r="R17" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T17" t="n">
-        <v>1.721957273925E12</v>
+        <v>1.723708313541E12</v>
       </c>
       <c r="AA17" t="s">
         <v>1352</v>
@@ -7629,6 +7836,9 @@
       <c r="T61" t="n">
         <v>1.721640919261E12</v>
       </c>
+      <c r="AA61" t="s">
+        <v>1380</v>
+      </c>
     </row>
     <row ht="142.5" r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
@@ -7659,6 +7869,9 @@
       <c r="T62" t="n">
         <v>1.721640925152E12</v>
       </c>
+      <c r="AA62" t="s">
+        <v>1365</v>
+      </c>
     </row>
     <row ht="114" r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
@@ -7689,6 +7902,9 @@
       <c r="T63" t="n">
         <v>1.721611866282E12</v>
       </c>
+      <c r="AA63" t="s">
+        <v>1356</v>
+      </c>
     </row>
     <row ht="185.25" r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
@@ -7719,6 +7935,9 @@
       <c r="T64" t="n">
         <v>1.721611876331E12</v>
       </c>
+      <c r="AA64" t="s">
+        <v>1381</v>
+      </c>
     </row>
     <row ht="128.25" r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
@@ -7749,6 +7968,9 @@
       <c r="T65" t="n">
         <v>1.72161188525E12</v>
       </c>
+      <c r="AA65" t="s">
+        <v>1365</v>
+      </c>
     </row>
     <row ht="114" r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
@@ -7779,6 +8001,9 @@
       <c r="T66" t="n">
         <v>1.721611891015E12</v>
       </c>
+      <c r="AA66" t="s">
+        <v>1382</v>
+      </c>
     </row>
     <row ht="256.5" r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
@@ -7809,6 +8034,9 @@
       <c r="T67" t="n">
         <v>1.72161189849E12</v>
       </c>
+      <c r="AA67" t="s">
+        <v>1362</v>
+      </c>
     </row>
     <row ht="128.25" r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
@@ -7839,6 +8067,9 @@
       <c r="T68" t="n">
         <v>1.721640926728E12</v>
       </c>
+      <c r="AA68" t="s">
+        <v>1383</v>
+      </c>
     </row>
     <row ht="85.5" r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
@@ -7869,6 +8100,9 @@
       <c r="T69" t="n">
         <v>1.721611944616E12</v>
       </c>
+      <c r="AA69" t="s">
+        <v>1359</v>
+      </c>
     </row>
     <row ht="71.25" r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
@@ -7899,6 +8133,9 @@
       <c r="T70" t="n">
         <v>1.72161195401E12</v>
       </c>
+      <c r="AA70" t="s">
+        <v>1356</v>
+      </c>
     </row>
     <row ht="71.25" r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
@@ -7929,6 +8166,9 @@
       <c r="T71" t="n">
         <v>1.721640929831E12</v>
       </c>
+      <c r="AA71" t="s">
+        <v>1384</v>
+      </c>
     </row>
     <row ht="71.25" r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
@@ -7959,6 +8199,9 @@
       <c r="T72" t="n">
         <v>1.721640937409E12</v>
       </c>
+      <c r="AA72" t="s">
+        <v>1359</v>
+      </c>
     </row>
     <row ht="99.75" r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
@@ -7989,6 +8232,9 @@
       <c r="T73" t="n">
         <v>1.721612027153E12</v>
       </c>
+      <c r="AA73" t="s">
+        <v>1385</v>
+      </c>
     </row>
     <row ht="213.75" r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
@@ -8019,6 +8265,9 @@
       <c r="T74" t="n">
         <v>1.72161203387E12</v>
       </c>
+      <c r="AA74" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row ht="114" r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
@@ -8044,10 +8293,13 @@
         <v>350</v>
       </c>
       <c r="R75" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T75" t="n">
-        <v>1.723423667212E12</v>
+        <v>1.723708315866E12</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>1387</v>
       </c>
     </row>
     <row ht="142.5" r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -8079,6 +8331,9 @@
       <c r="T76" t="n">
         <v>1.721612046036E12</v>
       </c>
+      <c r="AA76" t="s">
+        <v>1361</v>
+      </c>
     </row>
     <row ht="142.5" r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
@@ -8109,6 +8364,9 @@
       <c r="T77" t="n">
         <v>1.72161205153E12</v>
       </c>
+      <c r="AA77" t="s">
+        <v>1355</v>
+      </c>
     </row>
     <row ht="99.75" r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
@@ -8139,6 +8397,9 @@
       <c r="T78" t="n">
         <v>1.721612060001E12</v>
       </c>
+      <c r="AA78" t="s">
+        <v>1356</v>
+      </c>
     </row>
     <row ht="71.25" r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
@@ -8169,6 +8430,9 @@
       <c r="T79" t="n">
         <v>1.721612517028E12</v>
       </c>
+      <c r="AA79" t="s">
+        <v>1356</v>
+      </c>
     </row>
     <row ht="114" r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
@@ -8199,6 +8463,9 @@
       <c r="T80" t="n">
         <v>1.721612520967E12</v>
       </c>
+      <c r="AA80" t="s">
+        <v>1388</v>
+      </c>
     </row>
     <row ht="85.5" r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
@@ -8229,6 +8496,9 @@
       <c r="T81" t="n">
         <v>1.721612527265E12</v>
       </c>
+      <c r="AA81" t="s">
+        <v>1389</v>
+      </c>
     </row>
     <row ht="85.5" r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
@@ -8259,6 +8529,9 @@
       <c r="T82" t="n">
         <v>1.721612532551E12</v>
       </c>
+      <c r="AA82" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row ht="171" r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
@@ -8312,10 +8585,10 @@
       </c>
       <c r="H84" s="5"/>
       <c r="R84" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T84" t="n">
-        <v>1.721957636363E12</v>
+        <v>1.723623395484E12</v>
       </c>
     </row>
     <row ht="199.5" r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -8912,10 +9185,10 @@
         <v>120</v>
       </c>
       <c r="R104" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T104" t="n">
-        <v>1.721957638819E12</v>
+        <v>1.723708318321E12</v>
       </c>
     </row>
     <row ht="71.25" r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -9422,10 +9695,10 @@
         <v>540</v>
       </c>
       <c r="R121" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T121" t="n">
-        <v>1.721957640639E12</v>
+        <v>1.723708320218E12</v>
       </c>
     </row>
     <row ht="57" r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -9542,10 +9815,10 @@
         <v>557</v>
       </c>
       <c r="R125" t="n">
-        <v>1.1999999999999993</v>
+        <v>0.49999999999999933</v>
       </c>
       <c r="T125" t="n">
-        <v>1.723423827115E12</v>
+        <v>1.723708394133E12</v>
       </c>
     </row>
     <row ht="156.75" r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -9722,10 +9995,10 @@
         <v>587</v>
       </c>
       <c r="R131" t="n">
-        <v>1.3499999999999992</v>
+        <v>0.6499999999999992</v>
       </c>
       <c r="T131" t="n">
-        <v>1.723423687239E12</v>
+        <v>1.723623569897E12</v>
       </c>
     </row>
     <row ht="142.5" r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -10112,10 +10385,10 @@
         <v>637</v>
       </c>
       <c r="R144" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T144" t="n">
-        <v>1.721957694134E12</v>
+        <v>1.723708492914E12</v>
       </c>
     </row>
     <row ht="28.5" r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -10142,10 +10415,10 @@
         <v>637</v>
       </c>
       <c r="R145" t="n">
-        <v>0.9499999999999998</v>
+        <v>1.8999999999999995</v>
       </c>
       <c r="T145" t="n">
-        <v>1.721957703762E12</v>
+        <v>1.723711270668E12</v>
       </c>
     </row>
     <row ht="28.5" r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -10530,10 +10803,10 @@
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
       <c r="R159" t="n">
-        <v>1.149999999999999</v>
+        <v>0.44999999999999907</v>
       </c>
       <c r="T159" t="n">
-        <v>1.723423829086E12</v>
+        <v>1.72371127336E12</v>
       </c>
     </row>
     <row ht="128.25" r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -10634,10 +10907,10 @@
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
       <c r="R163" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T163" t="n">
-        <v>1.721957714825E12</v>
+        <v>1.723623625996E12</v>
       </c>
     </row>
     <row ht="185.25" r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -10842,10 +11115,10 @@
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
       <c r="R171" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T171" t="n">
-        <v>1.721957716922E12</v>
+        <v>1.723623631008E12</v>
       </c>
     </row>
     <row ht="85.5" r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -11648,10 +11921,10 @@
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
       <c r="R202" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T202" t="n">
-        <v>1.721957718526E12</v>
+        <v>1.723711275132E12</v>
       </c>
     </row>
     <row ht="199.5" r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -11674,10 +11947,10 @@
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="R203" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T203" t="n">
-        <v>1.721957723016E12</v>
+        <v>1.723711277854E12</v>
       </c>
     </row>
     <row ht="57" r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -11960,10 +12233,10 @@
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
       <c r="R214" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T214" t="n">
-        <v>1.722816460044E12</v>
+        <v>1.723711279189E12</v>
       </c>
     </row>
     <row ht="199.5" r="215" spans="1:8" x14ac:dyDescent="0.2">
@@ -12246,10 +12519,10 @@
       <c r="G225" s="5"/>
       <c r="H225" s="5"/>
       <c r="R225" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T225" t="n">
-        <v>1.721957727543E12</v>
+        <v>1.723623642298E12</v>
       </c>
     </row>
     <row ht="85.5" r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -12558,10 +12831,10 @@
       <c r="G237" s="5"/>
       <c r="H237" s="5"/>
       <c r="R237" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T237" t="n">
-        <v>1.721957729599E12</v>
+        <v>1.723623644636E12</v>
       </c>
     </row>
     <row ht="285" r="238" spans="1:8" x14ac:dyDescent="0.2">
@@ -12870,10 +13143,10 @@
       <c r="G249" s="5"/>
       <c r="H249" s="5"/>
       <c r="R249" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T249" t="n">
-        <v>1.721957732244E12</v>
+        <v>1.723623651812E12</v>
       </c>
     </row>
     <row ht="171" r="250" spans="1:8" x14ac:dyDescent="0.2">
@@ -12922,10 +13195,10 @@
       <c r="G251" s="5"/>
       <c r="H251" s="5"/>
       <c r="R251" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T251" t="n">
-        <v>1.721957733912E12</v>
+        <v>1.723711280441E12</v>
       </c>
     </row>
     <row ht="171" r="252" spans="1:8" x14ac:dyDescent="0.2">
@@ -13012,10 +13285,10 @@
         <v>781</v>
       </c>
       <c r="R254" t="n">
-        <v>1.4499999999999988</v>
+        <v>0.7499999999999988</v>
       </c>
       <c r="T254" t="n">
-        <v>1.723195071934E12</v>
+        <v>1.723623660314E12</v>
       </c>
     </row>
     <row ht="342" r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -13132,10 +13405,10 @@
         <v>803</v>
       </c>
       <c r="R258" t="n">
-        <v>1.1999999999999993</v>
+        <v>0.49999999999999933</v>
       </c>
       <c r="T258" t="n">
-        <v>1.723423831751E12</v>
+        <v>1.723711283301E12</v>
       </c>
     </row>
     <row ht="85.5" r="259" spans="1:8" x14ac:dyDescent="0.2">
@@ -13282,10 +13555,10 @@
         <v>829</v>
       </c>
       <c r="R263" t="n">
-        <v>1.149999999999999</v>
+        <v>0.44999999999999907</v>
       </c>
       <c r="T263" t="n">
-        <v>1.723423838603E12</v>
+        <v>1.723711288173E12</v>
       </c>
     </row>
     <row ht="99.75" r="264" spans="1:8" x14ac:dyDescent="0.2">
@@ -13312,10 +13585,10 @@
         <v>834</v>
       </c>
       <c r="R264" t="n">
-        <v>1.3499999999999979</v>
+        <v>0.6499999999999979</v>
       </c>
       <c r="T264" t="n">
-        <v>1.723423693197E12</v>
+        <v>1.723623662001E12</v>
       </c>
     </row>
     <row ht="85.5" r="265" spans="1:8" x14ac:dyDescent="0.2">
@@ -13372,10 +13645,10 @@
         <v>844</v>
       </c>
       <c r="R266" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T266" t="n">
-        <v>1.72195784283E12</v>
+        <v>1.723623671737E12</v>
       </c>
     </row>
     <row ht="85.5" r="267" spans="1:8" x14ac:dyDescent="0.2">
@@ -13402,10 +13675,10 @@
         <v>849</v>
       </c>
       <c r="R267" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T267" t="n">
-        <v>1.721957941911E12</v>
+        <v>1.723711290775E12</v>
       </c>
     </row>
     <row ht="42.75" r="268" spans="1:8" x14ac:dyDescent="0.2">
@@ -13462,10 +13735,10 @@
         <v>860</v>
       </c>
       <c r="R269" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T269" t="n">
-        <v>1.721957944607E12</v>
+        <v>1.723711293113E12</v>
       </c>
     </row>
     <row ht="71.25" r="270" spans="1:8" x14ac:dyDescent="0.2">
@@ -13492,10 +13765,10 @@
         <v>865</v>
       </c>
       <c r="R270" t="n">
-        <v>1.1999999999999993</v>
+        <v>0.49999999999999933</v>
       </c>
       <c r="T270" t="n">
-        <v>1.723423843809E12</v>
+        <v>1.723711295339E12</v>
       </c>
     </row>
     <row ht="99.75" r="271" spans="1:8" x14ac:dyDescent="0.2">
@@ -13582,10 +13855,10 @@
         <v>431</v>
       </c>
       <c r="R273" t="n">
-        <v>1.149999999999999</v>
+        <v>0.44999999999999907</v>
       </c>
       <c r="T273" t="n">
-        <v>1.723423847383E12</v>
+        <v>1.723711298043E12</v>
       </c>
     </row>
     <row ht="85.5" r="274" spans="1:8" x14ac:dyDescent="0.2">
@@ -13732,10 +14005,10 @@
         <v>901</v>
       </c>
       <c r="R278" t="n">
-        <v>1.149999999999999</v>
+        <v>0.44999999999999907</v>
       </c>
       <c r="T278" t="n">
-        <v>1.723423857126E12</v>
+        <v>1.723711302373E12</v>
       </c>
     </row>
     <row ht="85.5" r="279" spans="1:8" x14ac:dyDescent="0.2">
@@ -13822,10 +14095,10 @@
         <v>914</v>
       </c>
       <c r="R281" t="n">
-        <v>2.5499999999999994</v>
+        <v>0.7499999999999988</v>
       </c>
       <c r="T281" t="n">
-        <v>1.723423876165E12</v>
+        <v>1.723623686481E12</v>
       </c>
     </row>
     <row ht="57" r="282" spans="1:8" x14ac:dyDescent="0.2">
@@ -13942,10 +14215,10 @@
         <v>935</v>
       </c>
       <c r="R285" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T285" t="n">
-        <v>1.721958000293E12</v>
+        <v>1.723623688682E12</v>
       </c>
     </row>
     <row ht="85.5" r="286" spans="1:8" x14ac:dyDescent="0.2">
@@ -14122,10 +14395,10 @@
         <v>961</v>
       </c>
       <c r="R291" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T291" t="n">
-        <v>1.721958003054E12</v>
+        <v>1.723623693953E12</v>
       </c>
     </row>
     <row ht="185.25" r="292" spans="1:8" x14ac:dyDescent="0.2">
@@ -14332,10 +14605,10 @@
         <v>996</v>
       </c>
       <c r="R298" t="n">
-        <v>2.499999999999999</v>
+        <v>0.6999999999999985</v>
       </c>
       <c r="T298" t="n">
-        <v>1.723423879846E12</v>
+        <v>1.723623696247E12</v>
       </c>
     </row>
     <row ht="85.5" r="299" spans="1:8" x14ac:dyDescent="0.2">
@@ -14422,10 +14695,10 @@
         <v>1011</v>
       </c>
       <c r="R301" t="n">
-        <v>1.1999999999999993</v>
+        <v>0.49999999999999933</v>
       </c>
       <c r="T301" t="n">
-        <v>1.723423882752E12</v>
+        <v>1.723711304277E12</v>
       </c>
     </row>
     <row ht="156.75" r="302" spans="1:8" x14ac:dyDescent="0.2">
@@ -14452,10 +14725,10 @@
         <v>1016</v>
       </c>
       <c r="R302" t="n">
-        <v>2.699999999999999</v>
+        <v>0.5999999999999985</v>
       </c>
       <c r="T302" t="n">
-        <v>1.723423887406E12</v>
+        <v>1.723623699633E12</v>
       </c>
     </row>
     <row ht="213.75" r="303" spans="1:8" x14ac:dyDescent="0.2">
@@ -14542,10 +14815,10 @@
         <v>99.992000000000004</v>
       </c>
       <c r="R305" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T305" t="n">
-        <v>1.721958078439E12</v>
+        <v>1.723623703271E12</v>
       </c>
     </row>
     <row ht="409.5" r="306" spans="1:8" x14ac:dyDescent="0.2">
@@ -14572,10 +14845,10 @@
         <v>99.933000000000007</v>
       </c>
       <c r="R306" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T306" t="n">
-        <v>1.722816830948E12</v>
+        <v>1.72371130824E12</v>
       </c>
     </row>
     <row ht="313.5" r="307" spans="1:8" x14ac:dyDescent="0.2">
@@ -15142,10 +15415,10 @@
         <v>1098</v>
       </c>
       <c r="R325" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T325" t="n">
-        <v>1.721958128954E12</v>
+        <v>1.723623724177E12</v>
       </c>
     </row>
     <row ht="171" r="326" spans="1:8" x14ac:dyDescent="0.2">
@@ -15262,10 +15535,10 @@
         <v>1110</v>
       </c>
       <c r="R329" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T329" t="n">
-        <v>1.721958130755E12</v>
+        <v>1.723623730801E12</v>
       </c>
     </row>
     <row ht="356.25" r="330" spans="1:8" x14ac:dyDescent="0.2">
@@ -15532,10 +15805,10 @@
         <v>1154</v>
       </c>
       <c r="R338" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T338" t="n">
-        <v>1.72195813372E12</v>
+        <v>1.723623733962E12</v>
       </c>
     </row>
     <row ht="71.25" r="339" spans="1:8" x14ac:dyDescent="0.2">
@@ -15622,10 +15895,10 @@
         <v>1169</v>
       </c>
       <c r="R341" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.49999999999999933</v>
       </c>
       <c r="T341" t="n">
-        <v>1.721958142594E12</v>
+        <v>1.72371139123E12</v>
       </c>
     </row>
     <row ht="57" r="342" spans="1:8" x14ac:dyDescent="0.2">
@@ -15772,10 +16045,10 @@
         <v>1194</v>
       </c>
       <c r="R346" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T346" t="n">
-        <v>1.7219581438E12</v>
+        <v>1.723711393666E12</v>
       </c>
     </row>
     <row ht="71.25" r="347" spans="1:8" x14ac:dyDescent="0.2">
@@ -15922,10 +16195,10 @@
         <v>6.6124999999999998</v>
       </c>
       <c r="R351" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T351" t="n">
-        <v>1.7219581477E12</v>
+        <v>1.723711449143E12</v>
       </c>
     </row>
     <row ht="85.5" r="352" spans="1:8" x14ac:dyDescent="0.2">
@@ -16238,10 +16511,10 @@
       <c r="G363" s="6"/>
       <c r="H363" s="6"/>
       <c r="R363" t="n">
-        <v>1.1999999999999993</v>
+        <v>0.49999999999999933</v>
       </c>
       <c r="T363" t="n">
-        <v>1.723423892675E12</v>
+        <v>1.723711451164E12</v>
       </c>
     </row>
     <row ht="142.5" r="364" spans="1:8" x14ac:dyDescent="0.2">
@@ -16446,10 +16719,10 @@
       <c r="G371" s="6"/>
       <c r="H371" s="6"/>
       <c r="R371" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T371" t="n">
-        <v>1.721958158623E12</v>
+        <v>1.723711452795E12</v>
       </c>
     </row>
     <row ht="114" r="372" spans="1:8" x14ac:dyDescent="0.2">
@@ -16680,10 +16953,10 @@
       <c r="G380" s="6"/>
       <c r="H380" s="6"/>
       <c r="R380" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T380" t="n">
-        <v>1.721958160806E12</v>
+        <v>1.723711455166E12</v>
       </c>
     </row>
     <row ht="85.5" r="381" spans="1:8" x14ac:dyDescent="0.2">
@@ -16956,10 +17229,10 @@
         <v>1271</v>
       </c>
       <c r="R390" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T390" t="n">
-        <v>1.721958429604E12</v>
+        <v>1.723711502058E12</v>
       </c>
     </row>
     <row ht="185.25" r="391" spans="1:8" x14ac:dyDescent="0.2">
@@ -17016,10 +17289,10 @@
         <v>1280</v>
       </c>
       <c r="R392" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T392" t="n">
-        <v>1.721958473235E12</v>
+        <v>1.723711506024E12</v>
       </c>
     </row>
     <row ht="156.75" r="393" spans="1:8" x14ac:dyDescent="0.2">
@@ -17046,10 +17319,10 @@
         <v>1285</v>
       </c>
       <c r="R393" t="n">
-        <v>1.3999999999999986</v>
+        <v>0.6999999999999985</v>
       </c>
       <c r="T393" t="n">
-        <v>1.723423710442E12</v>
+        <v>1.723623793183E12</v>
       </c>
     </row>
     <row ht="228" r="394" spans="1:8" x14ac:dyDescent="0.2">
@@ -17106,10 +17379,10 @@
         <v>1294</v>
       </c>
       <c r="R395" t="n">
-        <v>1.1999999999999993</v>
+        <v>0.49999999999999933</v>
       </c>
       <c r="T395" t="n">
-        <v>1.723423898628E12</v>
+        <v>1.723711510956E12</v>
       </c>
     </row>
     <row ht="142.5" r="396" spans="1:8" x14ac:dyDescent="0.2">
@@ -17136,10 +17409,10 @@
         <v>1298</v>
       </c>
       <c r="R396" t="n">
-        <v>1.4499999999999988</v>
+        <v>0.7499999999999988</v>
       </c>
       <c r="T396" t="n">
-        <v>1.723195103242E12</v>
+        <v>1.723623795041E12</v>
       </c>
     </row>
     <row ht="99.75" r="397" spans="1:8" x14ac:dyDescent="0.2">
@@ -17226,10 +17499,10 @@
         <v>1313</v>
       </c>
       <c r="R399" t="n">
-        <v>1.1999999999999993</v>
+        <v>0.49999999999999933</v>
       </c>
       <c r="T399" t="n">
-        <v>1.723423905589E12</v>
+        <v>1.723711514188E12</v>
       </c>
     </row>
     <row ht="85.5" r="400" spans="1:8" x14ac:dyDescent="0.2">
@@ -17256,10 +17529,10 @@
         <v>1319</v>
       </c>
       <c r="R400" t="n">
-        <v>1.3499999999999983</v>
+        <v>0.5999999999999981</v>
       </c>
       <c r="T400" t="n">
-        <v>1.72342391375E12</v>
+        <v>1.723623803545E12</v>
       </c>
     </row>
     <row ht="71.25" r="401" spans="1:8" x14ac:dyDescent="0.2">
@@ -17286,10 +17559,10 @@
         <v>1324</v>
       </c>
       <c r="R401" t="n">
-        <v>1.149999999999999</v>
+        <v>0.44999999999999907</v>
       </c>
       <c r="T401" t="n">
-        <v>1.723423916118E12</v>
+        <v>1.723711515802E12</v>
       </c>
     </row>
     <row ht="71.25" r="402" spans="1:8" x14ac:dyDescent="0.2">

--- a/target/classes/中级工应知应会题库.xlsx
+++ b/target/classes/中级工应知应会题库.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3379" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3388" uniqueCount="1400">
   <si>
     <t>试题编号</t>
   </si>
@@ -4201,6 +4201,33 @@
   </si>
   <si>
     <t>您一共做了: 32题	您的得分： 96.875	做题时长约为53.416666666666664Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 50.0	做题时长约为1.0833333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 81.0	做题时长约为90.33333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 74.0	做题时长约为32.0Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 78.0	做题时长约为37.35Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 63.0	做题时长约为21.85Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.7833333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 106题	您的得分： 86.79245283018868	做题时长约为54.78333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 14题	您的得分： 92.85714285714286	做题时长约为0.8666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 9题	您的得分： 77.77777777777779	做题时长约为1.2Min</t>
   </si>
 </sst>
 </file>
@@ -4307,7 +4334,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1214">
+  <cellXfs count="1747">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5508,29 +5535,562 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5881,10 +6441,10 @@
         <v>13</v>
       </c>
       <c r="R2" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T2" t="n">
-        <v>1.721640339311E12</v>
+        <v>1.72403075885E12</v>
       </c>
       <c r="AA2" t="s">
         <v>1337</v>
@@ -5917,7 +6477,7 @@
         <v>0.0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.721607789012E12</v>
+        <v>1.724030783175E12</v>
       </c>
       <c r="AA3" t="s">
         <v>1338</v>
@@ -5950,13 +6510,13 @@
         <v>0.0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.721607793891E12</v>
+        <v>1.724030789839E12</v>
       </c>
       <c r="AA4" t="s">
         <v>1339</v>
       </c>
       <c r="AB4" t="n">
-        <v>401.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row ht="114" r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -5983,10 +6543,10 @@
         <v>30</v>
       </c>
       <c r="R5" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T5" t="n">
-        <v>1.721640342972E12</v>
+        <v>1.724030839008E12</v>
       </c>
       <c r="AA5" t="s">
         <v>1340</v>
@@ -6019,7 +6579,7 @@
         <v>0.0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.721607866181E12</v>
+        <v>1.72403087063E12</v>
       </c>
       <c r="AA6" t="s">
         <v>1341</v>
@@ -6049,10 +6609,10 @@
         <v>41</v>
       </c>
       <c r="R7" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T7" t="n">
-        <v>1.721640557121E12</v>
+        <v>1.724030873957E12</v>
       </c>
       <c r="AA7" t="s">
         <v>1342</v>
@@ -6082,10 +6642,10 @@
         <v>46</v>
       </c>
       <c r="R8" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T8" t="n">
-        <v>1.721640575497E12</v>
+        <v>1.72403088074E12</v>
       </c>
       <c r="AA8" t="s">
         <v>1343</v>
@@ -6115,10 +6675,10 @@
         <v>51</v>
       </c>
       <c r="R9" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T9" t="n">
-        <v>1.721640733457E12</v>
+        <v>1.724030884776E12</v>
       </c>
       <c r="AA9" t="s">
         <v>1344</v>
@@ -6151,7 +6711,7 @@
         <v>0.0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.721607935308E12</v>
+        <v>1.724030888684E12</v>
       </c>
       <c r="AA10" t="s">
         <v>1345</v>
@@ -6181,10 +6741,10 @@
         <v>62</v>
       </c>
       <c r="R11" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T11" t="n">
-        <v>1.721640740179E12</v>
+        <v>1.724030958682E12</v>
       </c>
       <c r="AA11" t="s">
         <v>1346</v>
@@ -6214,10 +6774,10 @@
         <v>62</v>
       </c>
       <c r="R12" t="n">
-        <v>0.6999999999999985</v>
+        <v>0.34999999999999853</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72362337209E12</v>
+        <v>1.724030963002E12</v>
       </c>
       <c r="AA12" t="s">
         <v>1347</v>
@@ -6250,7 +6810,7 @@
         <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.72160804786E12</v>
+        <v>1.724030965139E12</v>
       </c>
       <c r="AA13" t="s">
         <v>1348</v>
@@ -6280,10 +6840,10 @@
         <v>73</v>
       </c>
       <c r="R14" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T14" t="n">
-        <v>1.721640769413E12</v>
+        <v>1.72403099837E12</v>
       </c>
       <c r="AA14" t="s">
         <v>1349</v>
@@ -6316,7 +6876,7 @@
         <v>0.0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.721608152183E12</v>
+        <v>1.724031000922E12</v>
       </c>
       <c r="AA15" t="s">
         <v>1350</v>
@@ -6349,7 +6909,7 @@
         <v>0.0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.721608156028E12</v>
+        <v>1.724031010465E12</v>
       </c>
       <c r="AA16" t="s">
         <v>1351</v>
@@ -6379,10 +6939,10 @@
         <v>88</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T17" t="n">
-        <v>1.723708313541E12</v>
+        <v>1.724031012969E12</v>
       </c>
       <c r="AA17" t="s">
         <v>1352</v>
@@ -6415,7 +6975,7 @@
         <v>0.0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.721608172859E12</v>
+        <v>1.724031047772E12</v>
       </c>
       <c r="AA18" t="s">
         <v>1353</v>
@@ -6445,10 +7005,10 @@
         <v>30</v>
       </c>
       <c r="R19" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.721640801704E12</v>
+        <v>1.724052787307E12</v>
       </c>
       <c r="AA19" t="s">
         <v>1354</v>
@@ -6478,10 +7038,10 @@
         <v>120</v>
       </c>
       <c r="R20" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.721640803644E12</v>
+        <v>1.724052792524E12</v>
       </c>
       <c r="AA20" t="s">
         <v>1350</v>
@@ -6514,7 +7074,7 @@
         <v>0.0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.721608190619E12</v>
+        <v>1.724031065498E12</v>
       </c>
       <c r="AA21" t="s">
         <v>1355</v>
@@ -6544,10 +7104,10 @@
         <v>105</v>
       </c>
       <c r="R22" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T22" t="n">
-        <v>1.721640805098E12</v>
+        <v>1.724031072592E12</v>
       </c>
       <c r="AA22" t="s">
         <v>1356</v>
@@ -6580,7 +7140,7 @@
         <v>0.0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.721608544688E12</v>
+        <v>1.724031085873E12</v>
       </c>
       <c r="AA23" t="s">
         <v>1357</v>
@@ -6610,10 +7170,10 @@
         <v>115</v>
       </c>
       <c r="R24" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T24" t="n">
-        <v>1.721640811425E12</v>
+        <v>1.724031090581E12</v>
       </c>
       <c r="AA24" t="s">
         <v>1358</v>
@@ -6643,10 +7203,10 @@
         <v>120</v>
       </c>
       <c r="R25" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T25" t="n">
-        <v>1.721640830314E12</v>
+        <v>1.724031280437E12</v>
       </c>
       <c r="AA25" t="s">
         <v>1351</v>
@@ -6676,10 +7236,10 @@
         <v>120</v>
       </c>
       <c r="R26" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.721640833099E12</v>
+        <v>1.724052794636E12</v>
       </c>
       <c r="AA26" t="s">
         <v>1359</v>
@@ -6712,7 +7272,7 @@
         <v>0.0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.721610521122E12</v>
+        <v>1.724031343785E12</v>
       </c>
       <c r="AA27" t="s">
         <v>1356</v>
@@ -6745,7 +7305,7 @@
         <v>0.0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.721610533076E12</v>
+        <v>1.724031347138E12</v>
       </c>
       <c r="AA28" t="s">
         <v>1360</v>
@@ -6778,7 +7338,7 @@
         <v>0.0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.721611182385E12</v>
+        <v>1.724031384268E12</v>
       </c>
       <c r="AA29" t="s">
         <v>1361</v>
@@ -6808,10 +7368,10 @@
         <v>140</v>
       </c>
       <c r="R30" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T30" t="n">
-        <v>1.721640835328E12</v>
+        <v>1.724052797393E12</v>
       </c>
       <c r="AA30" t="s">
         <v>1355</v>
@@ -6844,7 +7404,7 @@
         <v>0.0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.721611282311E12</v>
+        <v>1.724031475346E12</v>
       </c>
       <c r="AA31" t="s">
         <v>1362</v>
@@ -6874,10 +7434,10 @@
         <v>150</v>
       </c>
       <c r="R32" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T32" t="n">
-        <v>1.721640839381E12</v>
+        <v>1.724031484132E12</v>
       </c>
       <c r="AA32" t="s">
         <v>1363</v>
@@ -6907,10 +7467,10 @@
         <v>155</v>
       </c>
       <c r="R33" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T33" t="n">
-        <v>1.721640862942E12</v>
+        <v>1.72403153788E12</v>
       </c>
       <c r="AA33" t="s">
         <v>1364</v>
@@ -6940,10 +7500,10 @@
         <v>5</v>
       </c>
       <c r="R34" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T34" t="n">
-        <v>1.721611301423E12</v>
+        <v>1.724052799609E12</v>
       </c>
       <c r="AA34" t="s">
         <v>1365</v>
@@ -6976,7 +7536,7 @@
         <v>0.0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.721611306549E12</v>
+        <v>1.724031817406E12</v>
       </c>
       <c r="AA35" t="s">
         <v>1361</v>
@@ -7006,10 +7566,10 @@
         <v>166</v>
       </c>
       <c r="R36" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T36" t="n">
-        <v>1.721640866267E12</v>
+        <v>1.724031834845E12</v>
       </c>
       <c r="AA36" t="s">
         <v>1366</v>
@@ -7042,7 +7602,7 @@
         <v>0.0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.721611393539E12</v>
+        <v>1.724031865088E12</v>
       </c>
       <c r="AA37" t="s">
         <v>1367</v>
@@ -7072,10 +7632,10 @@
         <v>75</v>
       </c>
       <c r="R38" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T38" t="n">
-        <v>1.721640868308E12</v>
+        <v>1.724031868117E12</v>
       </c>
       <c r="AA38" t="s">
         <v>1368</v>
@@ -7105,10 +7665,10 @@
         <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T39" t="n">
-        <v>1.721640870173E12</v>
+        <v>1.724052833934E12</v>
       </c>
       <c r="AA39" t="s">
         <v>1369</v>
@@ -7141,7 +7701,7 @@
         <v>0.0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.721611422841E12</v>
+        <v>1.724032017591E12</v>
       </c>
       <c r="AA40" t="s">
         <v>1369</v>
@@ -7174,7 +7734,7 @@
         <v>0.0</v>
       </c>
       <c r="T41" t="n">
-        <v>1.721611427909E12</v>
+        <v>1.72403202406E12</v>
       </c>
       <c r="AA41" t="s">
         <v>1359</v>
@@ -7207,7 +7767,7 @@
         <v>0.0</v>
       </c>
       <c r="T42" t="n">
-        <v>1.721611430862E12</v>
+        <v>1.724032026734E12</v>
       </c>
       <c r="AA42" t="s">
         <v>1370</v>
@@ -7237,10 +7797,10 @@
         <v>195</v>
       </c>
       <c r="R43" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T43" t="n">
-        <v>1.72161155929E12</v>
+        <v>1.72405284387E12</v>
       </c>
       <c r="AA43" t="s">
         <v>1371</v>
@@ -7273,7 +7833,7 @@
         <v>0.0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.721611567498E12</v>
+        <v>1.724032675114E12</v>
       </c>
       <c r="AA44" t="s">
         <v>1372</v>
@@ -7303,10 +7863,10 @@
         <v>205</v>
       </c>
       <c r="R45" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T45" t="n">
-        <v>1.721640872394E12</v>
+        <v>1.724052862178E12</v>
       </c>
       <c r="AA45" t="s">
         <v>1361</v>
@@ -7336,10 +7896,10 @@
         <v>210</v>
       </c>
       <c r="R46" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T46" t="n">
-        <v>1.721640873927E12</v>
+        <v>1.724032839531E12</v>
       </c>
       <c r="AA46" t="s">
         <v>1356</v>
@@ -7369,10 +7929,10 @@
         <v>215</v>
       </c>
       <c r="R47" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T47" t="n">
-        <v>1.721640875159E12</v>
+        <v>1.724032842104E12</v>
       </c>
       <c r="AA47" t="s">
         <v>1355</v>
@@ -7405,7 +7965,7 @@
         <v>0.0</v>
       </c>
       <c r="T48" t="n">
-        <v>1.721611590255E12</v>
+        <v>1.724032853751E12</v>
       </c>
       <c r="AA48" t="s">
         <v>1373</v>
@@ -7435,10 +7995,10 @@
         <v>225</v>
       </c>
       <c r="R49" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T49" t="n">
-        <v>1.721640878211E12</v>
+        <v>1.724052871716E12</v>
       </c>
       <c r="AA49" t="s">
         <v>1361</v>
@@ -7468,10 +8028,10 @@
         <v>230</v>
       </c>
       <c r="R50" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T50" t="n">
-        <v>1.721640880948E12</v>
+        <v>1.724032919572E12</v>
       </c>
       <c r="AA50" t="s">
         <v>1356</v>
@@ -7501,10 +8061,10 @@
         <v>235</v>
       </c>
       <c r="R51" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T51" t="n">
-        <v>1.721640884489E12</v>
+        <v>1.724032931533E12</v>
       </c>
       <c r="AA51" t="s">
         <v>1365</v>
@@ -7534,10 +8094,10 @@
         <v>240</v>
       </c>
       <c r="R52" t="n">
-        <v>0.65</v>
+        <v>2.15</v>
       </c>
       <c r="T52" t="n">
-        <v>1.721640891232E12</v>
+        <v>1.724134707764E12</v>
       </c>
       <c r="AA52" t="s">
         <v>1374</v>
@@ -7570,7 +8130,7 @@
         <v>0.0</v>
       </c>
       <c r="T53" t="n">
-        <v>1.721611731411E12</v>
+        <v>1.724032952617E12</v>
       </c>
       <c r="AA53" t="s">
         <v>1359</v>
@@ -7600,10 +8160,10 @@
         <v>250</v>
       </c>
       <c r="R54" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T54" t="n">
-        <v>1.72164089311E12</v>
+        <v>1.724052992271E12</v>
       </c>
       <c r="AA54" t="s">
         <v>1369</v>
@@ -7633,10 +8193,10 @@
         <v>255</v>
       </c>
       <c r="R55" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T55" t="n">
-        <v>1.72164090438E12</v>
+        <v>1.724033030104E12</v>
       </c>
       <c r="AA55" t="s">
         <v>1359</v>
@@ -7666,10 +8226,10 @@
         <v>260</v>
       </c>
       <c r="R56" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T56" t="n">
-        <v>1.721640912568E12</v>
+        <v>1.724033052672E12</v>
       </c>
       <c r="AA56" t="s">
         <v>1375</v>
@@ -7702,7 +8262,7 @@
         <v>0.0</v>
       </c>
       <c r="T57" t="n">
-        <v>1.721611806284E12</v>
+        <v>1.724033061506E12</v>
       </c>
       <c r="AA57" t="s">
         <v>1376</v>
@@ -7735,7 +8295,7 @@
         <v>0.0</v>
       </c>
       <c r="T58" t="n">
-        <v>1.721611811403E12</v>
+        <v>1.724033067126E12</v>
       </c>
       <c r="AA58" t="s">
         <v>1377</v>
@@ -7768,7 +8328,7 @@
         <v>0.0</v>
       </c>
       <c r="T59" t="n">
-        <v>1.721611819852E12</v>
+        <v>1.724033073176E12</v>
       </c>
       <c r="AA59" t="s">
         <v>1378</v>
@@ -7798,10 +8358,10 @@
         <v>276</v>
       </c>
       <c r="R60" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T60" t="n">
-        <v>1.721640916923E12</v>
+        <v>1.724033082524E12</v>
       </c>
       <c r="AA60" t="s">
         <v>1379</v>
@@ -7831,10 +8391,10 @@
         <v>281</v>
       </c>
       <c r="R61" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T61" t="n">
-        <v>1.721640919261E12</v>
+        <v>1.724053032615E12</v>
       </c>
       <c r="AA61" t="s">
         <v>1380</v>
@@ -7864,10 +8424,10 @@
         <v>286</v>
       </c>
       <c r="R62" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T62" t="n">
-        <v>1.721640925152E12</v>
+        <v>1.724053037381E12</v>
       </c>
       <c r="AA62" t="s">
         <v>1365</v>
@@ -7900,7 +8460,7 @@
         <v>0.0</v>
       </c>
       <c r="T63" t="n">
-        <v>1.721611866282E12</v>
+        <v>1.724033114143E12</v>
       </c>
       <c r="AA63" t="s">
         <v>1356</v>
@@ -7933,7 +8493,7 @@
         <v>0.0</v>
       </c>
       <c r="T64" t="n">
-        <v>1.721611876331E12</v>
+        <v>1.724033122507E12</v>
       </c>
       <c r="AA64" t="s">
         <v>1381</v>
@@ -7966,7 +8526,7 @@
         <v>0.0</v>
       </c>
       <c r="T65" t="n">
-        <v>1.72161188525E12</v>
+        <v>1.724033130194E12</v>
       </c>
       <c r="AA65" t="s">
         <v>1365</v>
@@ -7999,7 +8559,7 @@
         <v>0.0</v>
       </c>
       <c r="T66" t="n">
-        <v>1.721611891015E12</v>
+        <v>1.724033163077E12</v>
       </c>
       <c r="AA66" t="s">
         <v>1382</v>
@@ -8032,7 +8592,7 @@
         <v>0.0</v>
       </c>
       <c r="T67" t="n">
-        <v>1.72161189849E12</v>
+        <v>1.72403317324E12</v>
       </c>
       <c r="AA67" t="s">
         <v>1362</v>
@@ -8062,10 +8622,10 @@
         <v>316</v>
       </c>
       <c r="R68" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T68" t="n">
-        <v>1.721640926728E12</v>
+        <v>1.724033177869E12</v>
       </c>
       <c r="AA68" t="s">
         <v>1383</v>
@@ -8098,7 +8658,7 @@
         <v>0.0</v>
       </c>
       <c r="T69" t="n">
-        <v>1.721611944616E12</v>
+        <v>1.724033251543E12</v>
       </c>
       <c r="AA69" t="s">
         <v>1359</v>
@@ -8131,7 +8691,7 @@
         <v>0.0</v>
       </c>
       <c r="T70" t="n">
-        <v>1.72161195401E12</v>
+        <v>1.724033259023E12</v>
       </c>
       <c r="AA70" t="s">
         <v>1356</v>
@@ -8161,10 +8721,10 @@
         <v>330</v>
       </c>
       <c r="R71" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T71" t="n">
-        <v>1.721640929831E12</v>
+        <v>1.724053055392E12</v>
       </c>
       <c r="AA71" t="s">
         <v>1384</v>
@@ -8194,10 +8754,10 @@
         <v>335</v>
       </c>
       <c r="R72" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T72" t="n">
-        <v>1.721640937409E12</v>
+        <v>1.724033302636E12</v>
       </c>
       <c r="AA72" t="s">
         <v>1359</v>
@@ -8230,7 +8790,7 @@
         <v>0.0</v>
       </c>
       <c r="T73" t="n">
-        <v>1.721612027153E12</v>
+        <v>1.724033333874E12</v>
       </c>
       <c r="AA73" t="s">
         <v>1385</v>
@@ -8263,7 +8823,7 @@
         <v>0.0</v>
       </c>
       <c r="T74" t="n">
-        <v>1.72161203387E12</v>
+        <v>1.724033346359E12</v>
       </c>
       <c r="AA74" t="s">
         <v>1386</v>
@@ -8293,10 +8853,10 @@
         <v>350</v>
       </c>
       <c r="R75" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T75" t="n">
-        <v>1.723708315866E12</v>
+        <v>1.724033350208E12</v>
       </c>
       <c r="AA75" t="s">
         <v>1387</v>
@@ -8329,7 +8889,7 @@
         <v>0.0</v>
       </c>
       <c r="T76" t="n">
-        <v>1.721612046036E12</v>
+        <v>1.724033422897E12</v>
       </c>
       <c r="AA76" t="s">
         <v>1361</v>
@@ -8362,7 +8922,7 @@
         <v>0.0</v>
       </c>
       <c r="T77" t="n">
-        <v>1.72161205153E12</v>
+        <v>1.724033434601E12</v>
       </c>
       <c r="AA77" t="s">
         <v>1355</v>
@@ -8395,7 +8955,7 @@
         <v>0.0</v>
       </c>
       <c r="T78" t="n">
-        <v>1.721612060001E12</v>
+        <v>1.724033443943E12</v>
       </c>
       <c r="AA78" t="s">
         <v>1356</v>
@@ -8428,7 +8988,7 @@
         <v>0.0</v>
       </c>
       <c r="T79" t="n">
-        <v>1.721612517028E12</v>
+        <v>1.724033453643E12</v>
       </c>
       <c r="AA79" t="s">
         <v>1356</v>
@@ -8461,7 +9021,7 @@
         <v>0.0</v>
       </c>
       <c r="T80" t="n">
-        <v>1.721612520967E12</v>
+        <v>1.72403384481E12</v>
       </c>
       <c r="AA80" t="s">
         <v>1388</v>
@@ -8494,7 +9054,7 @@
         <v>0.0</v>
       </c>
       <c r="T81" t="n">
-        <v>1.721612527265E12</v>
+        <v>1.724033851108E12</v>
       </c>
       <c r="AA81" t="s">
         <v>1389</v>
@@ -8527,7 +9087,7 @@
         <v>0.0</v>
       </c>
       <c r="T82" t="n">
-        <v>1.721612532551E12</v>
+        <v>1.724033869715E12</v>
       </c>
       <c r="AA82" t="s">
         <v>1390</v>
@@ -8557,10 +9117,13 @@
         <v>376</v>
       </c>
       <c r="R83" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T83" t="n">
-        <v>1.721612535981E12</v>
+        <v>1.724053091091E12</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>1391</v>
       </c>
     </row>
     <row ht="114" r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -8585,10 +9148,13 @@
       </c>
       <c r="H84" s="5"/>
       <c r="R84" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="T84" t="n">
-        <v>1.723623395484E12</v>
+        <v>1.724033897865E12</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>1392</v>
       </c>
     </row>
     <row ht="199.5" r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -8615,10 +9181,13 @@
         <v>389</v>
       </c>
       <c r="R85" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T85" t="n">
-        <v>1.721640952549E12</v>
+        <v>1.724053103894E12</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>1393</v>
       </c>
     </row>
     <row ht="71.25" r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -8648,7 +9217,10 @@
         <v>0.0</v>
       </c>
       <c r="T86" t="n">
-        <v>1.721612698194E12</v>
+        <v>1.724033980934E12</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>1394</v>
       </c>
     </row>
     <row ht="71.25" r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -8675,10 +9247,13 @@
         <v>224</v>
       </c>
       <c r="R87" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T87" t="n">
-        <v>1.721612728778E12</v>
+        <v>1.724053114233E12</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>1395</v>
       </c>
     </row>
     <row ht="28.5" r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -8708,7 +9283,10 @@
         <v>0.0</v>
       </c>
       <c r="T88" t="n">
-        <v>1.721612732229E12</v>
+        <v>1.72403400751E12</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>1396</v>
       </c>
     </row>
     <row ht="114" r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -8738,7 +9316,10 @@
         <v>0.0</v>
       </c>
       <c r="T89" t="n">
-        <v>1.72161273872E12</v>
+        <v>1.724035640983E12</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>1397</v>
       </c>
     </row>
     <row ht="171" r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -8768,7 +9349,10 @@
         <v>0.0</v>
       </c>
       <c r="T90" t="n">
-        <v>1.721612767988E12</v>
+        <v>1.724035661528E12</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>1398</v>
       </c>
     </row>
     <row ht="156.75" r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -8795,10 +9379,13 @@
         <v>411</v>
       </c>
       <c r="R91" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T91" t="n">
-        <v>1.72164095725E12</v>
+        <v>1.724053395888E12</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>1399</v>
       </c>
     </row>
     <row ht="71.25" r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -8828,7 +9415,7 @@
         <v>0.0</v>
       </c>
       <c r="T92" t="n">
-        <v>1.721613163335E12</v>
+        <v>1.724035679763E12</v>
       </c>
     </row>
     <row ht="85.5" r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -8858,7 +9445,7 @@
         <v>0.0</v>
       </c>
       <c r="T93" t="n">
-        <v>1.721613208796E12</v>
+        <v>1.724035684284E12</v>
       </c>
     </row>
     <row ht="85.5" r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -8888,7 +9475,7 @@
         <v>0.0</v>
       </c>
       <c r="T94" t="n">
-        <v>1.721613213875E12</v>
+        <v>1.724035687992E12</v>
       </c>
     </row>
     <row ht="85.5" r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -8915,10 +9502,10 @@
         <v>431</v>
       </c>
       <c r="R95" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T95" t="n">
-        <v>1.721640961755E12</v>
+        <v>1.72405339945E12</v>
       </c>
     </row>
     <row ht="142.5" r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -8945,10 +9532,10 @@
         <v>11</v>
       </c>
       <c r="R96" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T96" t="n">
-        <v>1.721640964161E12</v>
+        <v>1.724035714686E12</v>
       </c>
     </row>
     <row ht="185.25" r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -8978,7 +9565,7 @@
         <v>0.0</v>
       </c>
       <c r="T97" t="n">
-        <v>1.721613301E12</v>
+        <v>1.724036153257E12</v>
       </c>
     </row>
     <row ht="128.25" r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -9008,7 +9595,7 @@
         <v>0.0</v>
       </c>
       <c r="T98" t="n">
-        <v>1.721613365411E12</v>
+        <v>1.724036160964E12</v>
       </c>
     </row>
     <row ht="28.5" r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -9038,7 +9625,7 @@
         <v>0.0</v>
       </c>
       <c r="T99" t="n">
-        <v>1.721613368604E12</v>
+        <v>1.724036163347E12</v>
       </c>
     </row>
     <row ht="99.75" r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -9068,7 +9655,7 @@
         <v>0.0</v>
       </c>
       <c r="T100" t="n">
-        <v>1.721613515369E12</v>
+        <v>1.724036170279E12</v>
       </c>
     </row>
     <row ht="85.5" r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -9095,10 +9682,10 @@
         <v>454</v>
       </c>
       <c r="R101" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T101" t="n">
-        <v>1.721640967163E12</v>
+        <v>1.724036174661E12</v>
       </c>
     </row>
     <row ht="114" r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -9128,7 +9715,7 @@
         <v>0.0</v>
       </c>
       <c r="T102" t="n">
-        <v>1.721613940973E12</v>
+        <v>1.724036386893E12</v>
       </c>
     </row>
     <row ht="185.25" r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -9158,7 +9745,7 @@
         <v>0.0</v>
       </c>
       <c r="T103" t="n">
-        <v>1.721613952262E12</v>
+        <v>1.724036394738E12</v>
       </c>
     </row>
     <row ht="71.25" r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -9185,10 +9772,10 @@
         <v>120</v>
       </c>
       <c r="R104" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T104" t="n">
-        <v>1.723708318321E12</v>
+        <v>1.724036398212E12</v>
       </c>
     </row>
     <row ht="71.25" r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -9218,7 +9805,7 @@
         <v>0.0</v>
       </c>
       <c r="T105" t="n">
-        <v>1.721613996251E12</v>
+        <v>1.724036488732E12</v>
       </c>
     </row>
     <row ht="185.25" r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -9245,10 +9832,10 @@
         <v>15</v>
       </c>
       <c r="R106" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T106" t="n">
-        <v>1.721640979682E12</v>
+        <v>1.724053402737E12</v>
       </c>
     </row>
     <row ht="85.5" r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -9275,10 +9862,10 @@
         <v>479</v>
       </c>
       <c r="R107" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T107" t="n">
-        <v>1.72164100352E12</v>
+        <v>1.72403651039E12</v>
       </c>
     </row>
     <row ht="171" r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -9308,7 +9895,7 @@
         <v>0.0</v>
       </c>
       <c r="T108" t="n">
-        <v>1.721614027355E12</v>
+        <v>1.724036559969E12</v>
       </c>
     </row>
     <row ht="142.5" r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -9335,10 +9922,10 @@
         <v>485</v>
       </c>
       <c r="R109" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T109" t="n">
-        <v>1.721641008403E12</v>
+        <v>1.724053651543E12</v>
       </c>
     </row>
     <row ht="114" r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -9368,7 +9955,7 @@
         <v>0.0</v>
       </c>
       <c r="T110" t="n">
-        <v>1.72161404706E12</v>
+        <v>1.724036593442E12</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -9398,7 +9985,7 @@
         <v>0.0</v>
       </c>
       <c r="T111" t="n">
-        <v>1.721614056935E12</v>
+        <v>1.724036800559E12</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -9428,7 +10015,7 @@
         <v>0.0</v>
       </c>
       <c r="T112" t="n">
-        <v>1.721614062126E12</v>
+        <v>1.724036803623E12</v>
       </c>
     </row>
     <row ht="99.75" r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -9458,7 +10045,7 @@
         <v>0.0</v>
       </c>
       <c r="T113" t="n">
-        <v>1.72161417707E12</v>
+        <v>1.724036811692E12</v>
       </c>
     </row>
     <row ht="213.75" r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -9488,7 +10075,7 @@
         <v>0.0</v>
       </c>
       <c r="T114" t="n">
-        <v>1.721614185122E12</v>
+        <v>1.724036867744E12</v>
       </c>
     </row>
     <row ht="99.75" r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -9515,10 +10102,10 @@
         <v>511</v>
       </c>
       <c r="R115" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T115" t="n">
-        <v>1.721614210784E12</v>
+        <v>1.724053658176E12</v>
       </c>
     </row>
     <row ht="114" r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -9548,7 +10135,7 @@
         <v>0.0</v>
       </c>
       <c r="T116" t="n">
-        <v>1.721614215621E12</v>
+        <v>1.724036908999E12</v>
       </c>
     </row>
     <row ht="128.25" r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -9575,10 +10162,10 @@
         <v>521</v>
       </c>
       <c r="R117" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T117" t="n">
-        <v>1.721641038156E12</v>
+        <v>1.724053661473E12</v>
       </c>
     </row>
     <row ht="71.25" r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -9605,10 +10192,10 @@
         <v>526</v>
       </c>
       <c r="R118" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T118" t="n">
-        <v>1.721641039926E12</v>
+        <v>1.724053664011E12</v>
       </c>
     </row>
     <row ht="71.25" r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -9638,7 +10225,7 @@
         <v>0.0</v>
       </c>
       <c r="T119" t="n">
-        <v>1.721614238357E12</v>
+        <v>1.724037007729E12</v>
       </c>
     </row>
     <row ht="114" r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -9668,7 +10255,7 @@
         <v>0.0</v>
       </c>
       <c r="T120" t="n">
-        <v>1.721614240816E12</v>
+        <v>1.724037049891E12</v>
       </c>
     </row>
     <row ht="99.75" r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -9695,10 +10282,10 @@
         <v>540</v>
       </c>
       <c r="R121" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T121" t="n">
-        <v>1.723708320218E12</v>
+        <v>1.72403705263E12</v>
       </c>
     </row>
     <row ht="57" r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -9725,10 +10312,10 @@
         <v>545</v>
       </c>
       <c r="R122" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T122" t="n">
-        <v>1.721641057018E12</v>
+        <v>1.724053671662E12</v>
       </c>
     </row>
     <row ht="99.75" r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -9758,7 +10345,7 @@
         <v>0.0</v>
       </c>
       <c r="T123" t="n">
-        <v>1.721614277348E12</v>
+        <v>1.724037085917E12</v>
       </c>
     </row>
     <row ht="71.25" r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -9785,10 +10372,10 @@
         <v>552</v>
       </c>
       <c r="R124" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T124" t="n">
-        <v>1.72164106202E12</v>
+        <v>1.724037090958E12</v>
       </c>
     </row>
     <row ht="185.25" r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -9815,10 +10402,10 @@
         <v>557</v>
       </c>
       <c r="R125" t="n">
-        <v>0.49999999999999933</v>
+        <v>0.14999999999999936</v>
       </c>
       <c r="T125" t="n">
-        <v>1.723708394133E12</v>
+        <v>1.724037095016E12</v>
       </c>
     </row>
     <row ht="156.75" r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -9845,10 +10432,10 @@
         <v>562</v>
       </c>
       <c r="R126" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T126" t="n">
-        <v>1.721641075607E12</v>
+        <v>1.724037098002E12</v>
       </c>
     </row>
     <row ht="142.5" r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -9878,7 +10465,7 @@
         <v>0.0</v>
       </c>
       <c r="T127" t="n">
-        <v>1.721614313045E12</v>
+        <v>1.724037137785E12</v>
       </c>
     </row>
     <row ht="99.75" r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -9908,7 +10495,7 @@
         <v>0.0</v>
       </c>
       <c r="T128" t="n">
-        <v>1.721614322782E12</v>
+        <v>1.724037142215E12</v>
       </c>
     </row>
     <row ht="213.75" r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -9938,7 +10525,7 @@
         <v>0.0</v>
       </c>
       <c r="T129" t="n">
-        <v>1.721614326558E12</v>
+        <v>1.724037168405E12</v>
       </c>
     </row>
     <row ht="142.5" r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -9968,7 +10555,7 @@
         <v>0.0</v>
       </c>
       <c r="T130" t="n">
-        <v>1.721614335466E12</v>
+        <v>1.724037229043E12</v>
       </c>
     </row>
     <row ht="99.75" r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -9995,10 +10582,10 @@
         <v>587</v>
       </c>
       <c r="R131" t="n">
-        <v>0.6499999999999992</v>
+        <v>1.3999999999999992</v>
       </c>
       <c r="T131" t="n">
-        <v>1.723623569897E12</v>
+        <v>1.724053690843E12</v>
       </c>
     </row>
     <row ht="142.5" r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -10028,7 +10615,7 @@
         <v>0.0</v>
       </c>
       <c r="T132" t="n">
-        <v>1.721614348242E12</v>
+        <v>1.724037263111E12</v>
       </c>
     </row>
     <row ht="85.5" r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -10058,7 +10645,7 @@
         <v>0.0</v>
       </c>
       <c r="T133" t="n">
-        <v>1.721614353737E12</v>
+        <v>1.724037281537E12</v>
       </c>
     </row>
     <row ht="242.25" r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -10085,10 +10672,10 @@
         <v>602</v>
       </c>
       <c r="R134" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T134" t="n">
-        <v>1.721641093489E12</v>
+        <v>1.724053693584E12</v>
       </c>
     </row>
     <row ht="114" r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -10118,7 +10705,7 @@
         <v>0.0</v>
       </c>
       <c r="T135" t="n">
-        <v>1.721614366495E12</v>
+        <v>1.724037295975E12</v>
       </c>
     </row>
     <row ht="128.25" r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -10145,10 +10732,10 @@
         <v>612</v>
       </c>
       <c r="R136" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T136" t="n">
-        <v>1.721641097136E12</v>
+        <v>1.724037303254E12</v>
       </c>
     </row>
     <row ht="171" r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -10175,10 +10762,10 @@
         <v>614</v>
       </c>
       <c r="R137" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T137" t="n">
-        <v>1.721641107709E12</v>
+        <v>1.724053697795E12</v>
       </c>
     </row>
     <row ht="185.25" r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -10205,10 +10792,10 @@
         <v>614</v>
       </c>
       <c r="R138" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T138" t="n">
-        <v>1.721641112142E12</v>
+        <v>1.724053728504E12</v>
       </c>
     </row>
     <row ht="342" r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -10238,7 +10825,7 @@
         <v>0.0</v>
       </c>
       <c r="T139" t="n">
-        <v>1.72161450513E12</v>
+        <v>1.72403736386E12</v>
       </c>
     </row>
     <row ht="156.75" r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -10265,10 +10852,10 @@
         <v>614</v>
       </c>
       <c r="R140" t="n">
-        <v>0.65</v>
+        <v>2.15</v>
       </c>
       <c r="T140" t="n">
-        <v>1.721641116637E12</v>
+        <v>1.724134711643E12</v>
       </c>
     </row>
     <row ht="228" r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -10295,10 +10882,10 @@
         <v>622</v>
       </c>
       <c r="R141" t="n">
-        <v>0.0</v>
+        <v>1.75</v>
       </c>
       <c r="T141" t="n">
-        <v>1.721614574826E12</v>
+        <v>1.724057642287E12</v>
       </c>
     </row>
     <row ht="242.25" r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -10325,10 +10912,10 @@
         <v>627</v>
       </c>
       <c r="R142" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T142" t="n">
-        <v>1.721641121007E12</v>
+        <v>1.724037497767E12</v>
       </c>
     </row>
     <row ht="99.75" r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -10355,10 +10942,10 @@
         <v>632</v>
       </c>
       <c r="R143" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T143" t="n">
-        <v>1.721641123611E12</v>
+        <v>1.724054280053E12</v>
       </c>
     </row>
     <row ht="28.5" r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -10385,10 +10972,10 @@
         <v>637</v>
       </c>
       <c r="R144" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T144" t="n">
-        <v>1.723708492914E12</v>
+        <v>1.724037514332E12</v>
       </c>
     </row>
     <row ht="28.5" r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -10415,10 +11002,10 @@
         <v>637</v>
       </c>
       <c r="R145" t="n">
-        <v>1.8999999999999995</v>
+        <v>2.0499999999999994</v>
       </c>
       <c r="T145" t="n">
-        <v>1.723711270668E12</v>
+        <v>1.724134719202E12</v>
       </c>
     </row>
     <row ht="28.5" r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -10445,10 +11032,10 @@
         <v>637</v>
       </c>
       <c r="R146" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T146" t="n">
-        <v>1.721614614474E12</v>
+        <v>1.72405438863E12</v>
       </c>
     </row>
     <row ht="28.5" r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -10475,10 +11062,10 @@
         <v>637</v>
       </c>
       <c r="R147" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T147" t="n">
-        <v>1.721641145563E12</v>
+        <v>1.724037558046E12</v>
       </c>
     </row>
     <row ht="71.25" r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -10505,10 +11092,10 @@
         <v>645</v>
       </c>
       <c r="R148" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T148" t="n">
-        <v>1.721641149828E12</v>
+        <v>1.724054412688E12</v>
       </c>
     </row>
     <row ht="114" r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -10535,10 +11122,10 @@
         <v>650</v>
       </c>
       <c r="R149" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T149" t="n">
-        <v>1.721614688791E12</v>
+        <v>1.724054433129E12</v>
       </c>
     </row>
     <row ht="85.5" r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -10568,7 +11155,7 @@
         <v>0.0</v>
       </c>
       <c r="T150" t="n">
-        <v>1.721614692693E12</v>
+        <v>1.724037583525E12</v>
       </c>
     </row>
     <row ht="99.75" r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -10598,7 +11185,7 @@
         <v>0.0</v>
       </c>
       <c r="T151" t="n">
-        <v>1.721614699102E12</v>
+        <v>1.724037592609E12</v>
       </c>
     </row>
     <row ht="85.5" r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -10621,10 +11208,10 @@
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
       <c r="R152" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T152" t="n">
-        <v>1.721641152735E12</v>
+        <v>1.724037602131E12</v>
       </c>
     </row>
     <row ht="171" r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -10650,7 +11237,7 @@
         <v>0.0</v>
       </c>
       <c r="T153" t="n">
-        <v>1.721614712996E12</v>
+        <v>1.724037605616E12</v>
       </c>
     </row>
     <row ht="99.75" r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -10676,7 +11263,7 @@
         <v>0.0</v>
       </c>
       <c r="T154" t="n">
-        <v>1.721614715693E12</v>
+        <v>1.724037609201E12</v>
       </c>
     </row>
     <row ht="114" r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -10702,7 +11289,7 @@
         <v>0.0</v>
       </c>
       <c r="T155" t="n">
-        <v>1.721614719062E12</v>
+        <v>1.724037612862E12</v>
       </c>
     </row>
     <row ht="156.75" r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -10728,7 +11315,7 @@
         <v>0.0</v>
       </c>
       <c r="T156" t="n">
-        <v>1.721614722475E12</v>
+        <v>1.724037638738E12</v>
       </c>
     </row>
     <row ht="142.5" r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -10754,7 +11341,7 @@
         <v>0.0</v>
       </c>
       <c r="T157" t="n">
-        <v>1.721614726027E12</v>
+        <v>1.724037685636E12</v>
       </c>
     </row>
     <row ht="71.25" r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -10780,7 +11367,7 @@
         <v>0.0</v>
       </c>
       <c r="T158" t="n">
-        <v>1.721614731035E12</v>
+        <v>1.724037712676E12</v>
       </c>
     </row>
     <row ht="128.25" r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -10803,10 +11390,10 @@
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
       <c r="R159" t="n">
-        <v>0.44999999999999907</v>
+        <v>0.09999999999999909</v>
       </c>
       <c r="T159" t="n">
-        <v>1.72371127336E12</v>
+        <v>1.724037715996E12</v>
       </c>
     </row>
     <row ht="128.25" r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -10832,7 +11419,7 @@
         <v>0.0</v>
       </c>
       <c r="T160" t="n">
-        <v>1.721614739335E12</v>
+        <v>1.724037718517E12</v>
       </c>
     </row>
     <row ht="199.5" r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -10858,7 +11445,7 @@
         <v>0.0</v>
       </c>
       <c r="T161" t="n">
-        <v>1.721614744855E12</v>
+        <v>1.724037721584E12</v>
       </c>
     </row>
     <row ht="99.75" r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -10884,7 +11471,7 @@
         <v>0.0</v>
       </c>
       <c r="T162" t="n">
-        <v>1.72161474758E12</v>
+        <v>1.724037725481E12</v>
       </c>
     </row>
     <row ht="270.75" r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -10907,10 +11494,10 @@
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
       <c r="R163" t="n">
-        <v>0.5999999999999999</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="T163" t="n">
-        <v>1.723623625996E12</v>
+        <v>1.724054444257E12</v>
       </c>
     </row>
     <row ht="185.25" r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -10933,10 +11520,10 @@
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
       <c r="R164" t="n">
-        <v>0.65</v>
+        <v>2.15</v>
       </c>
       <c r="T164" t="n">
-        <v>1.721641167481E12</v>
+        <v>1.724134721492E12</v>
       </c>
     </row>
     <row ht="99.75" r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -10962,7 +11549,7 @@
         <v>0.0</v>
       </c>
       <c r="T165" t="n">
-        <v>1.721614763832E12</v>
+        <v>1.72403773927E12</v>
       </c>
     </row>
     <row ht="142.5" r="166" spans="1:8" x14ac:dyDescent="0.2">
@@ -10985,10 +11572,10 @@
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
       <c r="R166" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T166" t="n">
-        <v>1.721641172549E12</v>
+        <v>1.724037741062E12</v>
       </c>
     </row>
     <row ht="156.75" r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -11014,7 +11601,7 @@
         <v>0.0</v>
       </c>
       <c r="T167" t="n">
-        <v>1.72161488617E12</v>
+        <v>1.724037745528E12</v>
       </c>
     </row>
     <row ht="71.25" r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -11040,7 +11627,7 @@
         <v>0.0</v>
       </c>
       <c r="T168" t="n">
-        <v>1.721614888073E12</v>
+        <v>1.724037747359E12</v>
       </c>
     </row>
     <row ht="114" r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -11066,7 +11653,7 @@
         <v>0.0</v>
       </c>
       <c r="T169" t="n">
-        <v>1.721614889786E12</v>
+        <v>1.724037749703E12</v>
       </c>
     </row>
     <row ht="228" r="170" spans="1:8" x14ac:dyDescent="0.2">
@@ -11089,10 +11676,10 @@
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
       <c r="R170" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T170" t="n">
-        <v>1.721641175914E12</v>
+        <v>1.724055076664E12</v>
       </c>
     </row>
     <row ht="156.75" r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -11115,10 +11702,10 @@
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
       <c r="R171" t="n">
-        <v>0.5999999999999999</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="T171" t="n">
-        <v>1.723623631008E12</v>
+        <v>1.724055078984E12</v>
       </c>
     </row>
     <row ht="85.5" r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -11144,7 +11731,7 @@
         <v>0.0</v>
       </c>
       <c r="T172" t="n">
-        <v>1.721614901238E12</v>
+        <v>1.724037981671E12</v>
       </c>
     </row>
     <row ht="114" r="173" spans="1:8" x14ac:dyDescent="0.2">
@@ -11167,10 +11754,10 @@
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
       <c r="R173" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T173" t="n">
-        <v>1.721641184449E12</v>
+        <v>1.724037988821E12</v>
       </c>
     </row>
     <row ht="71.25" r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -11196,7 +11783,7 @@
         <v>0.0</v>
       </c>
       <c r="T174" t="n">
-        <v>1.721614941191E12</v>
+        <v>1.724037992233E12</v>
       </c>
     </row>
     <row ht="71.25" r="175" spans="1:8" x14ac:dyDescent="0.2">
@@ -11219,10 +11806,10 @@
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
       <c r="R175" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T175" t="n">
-        <v>1.721641186074E12</v>
+        <v>1.724037993905E12</v>
       </c>
     </row>
     <row ht="242.25" r="176" spans="1:8" x14ac:dyDescent="0.2">
@@ -11248,7 +11835,7 @@
         <v>0.0</v>
       </c>
       <c r="T176" t="n">
-        <v>1.721615017001E12</v>
+        <v>1.724038009969E12</v>
       </c>
     </row>
     <row ht="114" r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -11274,7 +11861,7 @@
         <v>0.0</v>
       </c>
       <c r="T177" t="n">
-        <v>1.721615020268E12</v>
+        <v>1.724038013564E12</v>
       </c>
     </row>
     <row ht="99.75" r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -11297,10 +11884,10 @@
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
       <c r="R178" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T178" t="n">
-        <v>1.721641187745E12</v>
+        <v>1.724038021107E12</v>
       </c>
     </row>
     <row ht="142.5" r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -11326,7 +11913,7 @@
         <v>0.0</v>
       </c>
       <c r="T179" t="n">
-        <v>1.721615081784E12</v>
+        <v>1.7240380294E12</v>
       </c>
     </row>
     <row ht="42.75" r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -11352,7 +11939,7 @@
         <v>0.0</v>
       </c>
       <c r="T180" t="n">
-        <v>1.72161508413E12</v>
+        <v>1.724038031734E12</v>
       </c>
     </row>
     <row ht="128.25" r="181" spans="1:8" x14ac:dyDescent="0.2">
@@ -11375,10 +11962,10 @@
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
       <c r="R181" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T181" t="n">
-        <v>1.721641191015E12</v>
+        <v>1.724055081515E12</v>
       </c>
     </row>
     <row ht="156.75" r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -11404,7 +11991,7 @@
         <v>0.0</v>
       </c>
       <c r="T182" t="n">
-        <v>1.721615131266E12</v>
+        <v>1.724038046442E12</v>
       </c>
     </row>
     <row ht="171" r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -11427,10 +12014,10 @@
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
       <c r="R183" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T183" t="n">
-        <v>1.721641193246E12</v>
+        <v>1.7240380489E12</v>
       </c>
     </row>
     <row ht="242.25" r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -11456,7 +12043,7 @@
         <v>0.0</v>
       </c>
       <c r="T184" t="n">
-        <v>1.721615141734E12</v>
+        <v>1.724038194316E12</v>
       </c>
     </row>
     <row ht="114" r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -11482,7 +12069,7 @@
         <v>0.0</v>
       </c>
       <c r="T185" t="n">
-        <v>1.721615145408E12</v>
+        <v>1.724038196943E12</v>
       </c>
     </row>
     <row ht="114" r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -11508,7 +12095,7 @@
         <v>0.0</v>
       </c>
       <c r="T186" t="n">
-        <v>1.721615150229E12</v>
+        <v>1.724038199992E12</v>
       </c>
     </row>
     <row ht="199.5" r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -11534,7 +12121,7 @@
         <v>0.0</v>
       </c>
       <c r="T187" t="n">
-        <v>1.721615153255E12</v>
+        <v>1.724038216798E12</v>
       </c>
     </row>
     <row ht="85.5" r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -11560,7 +12147,7 @@
         <v>0.0</v>
       </c>
       <c r="T188" t="n">
-        <v>1.721615156371E12</v>
+        <v>1.724038230971E12</v>
       </c>
     </row>
     <row ht="99.75" r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -11583,10 +12170,10 @@
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
       <c r="R189" t="n">
-        <v>0.0</v>
+        <v>1.75</v>
       </c>
       <c r="T189" t="n">
-        <v>1.721615160423E12</v>
+        <v>1.724057652246E12</v>
       </c>
     </row>
     <row ht="242.25" r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -11612,7 +12199,7 @@
         <v>0.0</v>
       </c>
       <c r="T190" t="n">
-        <v>1.721615163431E12</v>
+        <v>1.72403824996E12</v>
       </c>
     </row>
     <row ht="199.5" r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -11638,7 +12225,7 @@
         <v>0.0</v>
       </c>
       <c r="T191" t="n">
-        <v>1.721615167207E12</v>
+        <v>1.724038255112E12</v>
       </c>
     </row>
     <row ht="99.75" r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -11664,7 +12251,7 @@
         <v>0.0</v>
       </c>
       <c r="T192" t="n">
-        <v>1.7216151707E12</v>
+        <v>1.724038258484E12</v>
       </c>
     </row>
     <row ht="99.75" r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -11690,7 +12277,7 @@
         <v>0.0</v>
       </c>
       <c r="T193" t="n">
-        <v>1.721615173922E12</v>
+        <v>1.724038279614E12</v>
       </c>
     </row>
     <row ht="85.5" r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -11713,10 +12300,10 @@
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
       <c r="R194" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T194" t="n">
-        <v>1.721641195625E12</v>
+        <v>1.724055096569E12</v>
       </c>
     </row>
     <row ht="156.75" r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -11742,7 +12329,7 @@
         <v>0.0</v>
       </c>
       <c r="T195" t="n">
-        <v>1.721615268655E12</v>
+        <v>1.724038286133E12</v>
       </c>
     </row>
     <row ht="171" r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -11768,7 +12355,7 @@
         <v>0.0</v>
       </c>
       <c r="T196" t="n">
-        <v>1.721615271159E12</v>
+        <v>1.724038289391E12</v>
       </c>
     </row>
     <row ht="99.75" r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -11791,10 +12378,10 @@
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="R197" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T197" t="n">
-        <v>1.72164119743E12</v>
+        <v>1.724055128485E12</v>
       </c>
     </row>
     <row ht="213.75" r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -11817,10 +12404,10 @@
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
       <c r="R198" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T198" t="n">
-        <v>1.72164120058E12</v>
+        <v>1.72405533116E12</v>
       </c>
     </row>
     <row ht="114" r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -11846,7 +12433,7 @@
         <v>0.0</v>
       </c>
       <c r="T199" t="n">
-        <v>1.721615286908E12</v>
+        <v>1.724038298227E12</v>
       </c>
     </row>
     <row ht="142.5" r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -11872,7 +12459,7 @@
         <v>0.0</v>
       </c>
       <c r="T200" t="n">
-        <v>1.721615289608E12</v>
+        <v>1.724038300355E12</v>
       </c>
     </row>
     <row ht="342" r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -11895,10 +12482,10 @@
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
       <c r="R201" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T201" t="n">
-        <v>1.721615291842E12</v>
+        <v>1.724055337504E12</v>
       </c>
     </row>
     <row ht="256.5" r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -11921,10 +12508,10 @@
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
       <c r="R202" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T202" t="n">
-        <v>1.723711275132E12</v>
+        <v>1.724048577168E12</v>
       </c>
     </row>
     <row ht="199.5" r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -11947,10 +12534,10 @@
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="R203" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T203" t="n">
-        <v>1.723711277854E12</v>
+        <v>1.724048582367E12</v>
       </c>
     </row>
     <row ht="57" r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -11976,7 +12563,7 @@
         <v>0.0</v>
       </c>
       <c r="T204" t="n">
-        <v>1.721615382439E12</v>
+        <v>1.724048585583E12</v>
       </c>
     </row>
     <row ht="171" r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -11999,10 +12586,10 @@
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
       <c r="R205" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T205" t="n">
-        <v>1.721641212263E12</v>
+        <v>1.724055340476E12</v>
       </c>
     </row>
     <row ht="99.75" r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -12028,7 +12615,7 @@
         <v>0.0</v>
       </c>
       <c r="T206" t="n">
-        <v>1.721615393722E12</v>
+        <v>1.724048603401E12</v>
       </c>
     </row>
     <row ht="114" r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -12054,7 +12641,7 @@
         <v>0.0</v>
       </c>
       <c r="T207" t="n">
-        <v>1.721615398045E12</v>
+        <v>1.724048611652E12</v>
       </c>
     </row>
     <row ht="213.75" r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -12080,7 +12667,7 @@
         <v>0.0</v>
       </c>
       <c r="T208" t="n">
-        <v>1.721615409168E12</v>
+        <v>1.724048619722E12</v>
       </c>
     </row>
     <row ht="185.25" r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -12106,7 +12693,7 @@
         <v>0.0</v>
       </c>
       <c r="T209" t="n">
-        <v>1.72161541439E12</v>
+        <v>1.724048622877E12</v>
       </c>
     </row>
     <row ht="171" r="210" spans="1:8" x14ac:dyDescent="0.2">
@@ -12132,7 +12719,7 @@
         <v>0.0</v>
       </c>
       <c r="T210" t="n">
-        <v>1.721615417808E12</v>
+        <v>1.724048626812E12</v>
       </c>
     </row>
     <row ht="142.5" r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -12158,7 +12745,7 @@
         <v>0.0</v>
       </c>
       <c r="T211" t="n">
-        <v>1.721615421654E12</v>
+        <v>1.724048631845E12</v>
       </c>
     </row>
     <row ht="114" r="212" spans="1:8" x14ac:dyDescent="0.2">
@@ -12184,7 +12771,7 @@
         <v>0.0</v>
       </c>
       <c r="T212" t="n">
-        <v>1.721615425404E12</v>
+        <v>1.724048643992E12</v>
       </c>
     </row>
     <row ht="199.5" r="213" spans="1:8" x14ac:dyDescent="0.2">
@@ -12210,7 +12797,7 @@
         <v>0.0</v>
       </c>
       <c r="T213" t="n">
-        <v>1.721615428885E12</v>
+        <v>1.724048649431E12</v>
       </c>
     </row>
     <row ht="71.25" r="214" spans="1:8" x14ac:dyDescent="0.2">
@@ -12233,10 +12820,10 @@
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
       <c r="R214" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T214" t="n">
-        <v>1.723711279189E12</v>
+        <v>1.724048651331E12</v>
       </c>
     </row>
     <row ht="199.5" r="215" spans="1:8" x14ac:dyDescent="0.2">
@@ -12262,7 +12849,7 @@
         <v>0.0</v>
       </c>
       <c r="T215" t="n">
-        <v>1.721615437561E12</v>
+        <v>1.724048703864E12</v>
       </c>
     </row>
     <row ht="142.5" r="216" spans="1:8" x14ac:dyDescent="0.2">
@@ -12288,7 +12875,7 @@
         <v>0.0</v>
       </c>
       <c r="T216" t="n">
-        <v>1.721615440174E12</v>
+        <v>1.72404870786E12</v>
       </c>
     </row>
     <row ht="71.25" r="217" spans="1:8" x14ac:dyDescent="0.2">
@@ -12314,7 +12901,7 @@
         <v>0.0</v>
       </c>
       <c r="T217" t="n">
-        <v>1.721615444429E12</v>
+        <v>1.724048712193E12</v>
       </c>
     </row>
     <row ht="85.5" r="218" spans="1:8" x14ac:dyDescent="0.2">
@@ -12340,7 +12927,7 @@
         <v>0.0</v>
       </c>
       <c r="T218" t="n">
-        <v>1.721615446159E12</v>
+        <v>1.724048714798E12</v>
       </c>
     </row>
     <row ht="156.75" r="219" spans="1:8" x14ac:dyDescent="0.2">
@@ -12366,7 +12953,7 @@
         <v>0.0</v>
       </c>
       <c r="T219" t="n">
-        <v>1.721615448321E12</v>
+        <v>1.72404871874E12</v>
       </c>
     </row>
     <row ht="99.75" r="220" spans="1:8" x14ac:dyDescent="0.2">
@@ -12392,7 +12979,7 @@
         <v>0.0</v>
       </c>
       <c r="T220" t="n">
-        <v>1.721615450361E12</v>
+        <v>1.724048721645E12</v>
       </c>
     </row>
     <row ht="99.75" r="221" spans="1:8" x14ac:dyDescent="0.2">
@@ -12418,7 +13005,7 @@
         <v>0.0</v>
       </c>
       <c r="T221" t="n">
-        <v>1.721615452981E12</v>
+        <v>1.724048929318E12</v>
       </c>
     </row>
     <row ht="213.75" r="222" spans="1:8" x14ac:dyDescent="0.2">
@@ -12444,7 +13031,7 @@
         <v>0.0</v>
       </c>
       <c r="T222" t="n">
-        <v>1.721615456241E12</v>
+        <v>1.724048935475E12</v>
       </c>
     </row>
     <row ht="99.75" r="223" spans="1:8" x14ac:dyDescent="0.2">
@@ -12467,10 +13054,10 @@
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
       <c r="R223" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T223" t="n">
-        <v>1.721641218816E12</v>
+        <v>1.724055343579E12</v>
       </c>
     </row>
     <row ht="71.25" r="224" spans="1:8" x14ac:dyDescent="0.2">
@@ -12493,10 +13080,10 @@
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
       <c r="R224" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T224" t="n">
-        <v>1.721641222941E12</v>
+        <v>1.724049185656E12</v>
       </c>
     </row>
     <row ht="99.75" r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -12519,10 +13106,10 @@
       <c r="G225" s="5"/>
       <c r="H225" s="5"/>
       <c r="R225" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="T225" t="n">
-        <v>1.723623642298E12</v>
+        <v>1.724049190515E12</v>
       </c>
     </row>
     <row ht="85.5" r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -12545,10 +13132,10 @@
       <c r="G226" s="5"/>
       <c r="H226" s="5"/>
       <c r="R226" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T226" t="n">
-        <v>1.721615585378E12</v>
+        <v>1.724055345578E12</v>
       </c>
     </row>
     <row ht="99.75" r="227" spans="1:8" x14ac:dyDescent="0.2">
@@ -12571,10 +13158,10 @@
       <c r="G227" s="5"/>
       <c r="H227" s="5"/>
       <c r="R227" t="n">
-        <v>0.0</v>
+        <v>1.75</v>
       </c>
       <c r="T227" t="n">
-        <v>1.721615588147E12</v>
+        <v>1.724057654534E12</v>
       </c>
     </row>
     <row ht="185.25" r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -12597,10 +13184,10 @@
       <c r="G228" s="5"/>
       <c r="H228" s="5"/>
       <c r="R228" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T228" t="n">
-        <v>1.721641229659E12</v>
+        <v>1.724049221753E12</v>
       </c>
     </row>
     <row ht="85.5" r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -12623,10 +13210,10 @@
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
       <c r="R229" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T229" t="n">
-        <v>1.721641233453E12</v>
+        <v>1.724049224102E12</v>
       </c>
     </row>
     <row ht="213.75" r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -12652,7 +13239,7 @@
         <v>0.0</v>
       </c>
       <c r="T230" t="n">
-        <v>1.721617545278E12</v>
+        <v>1.724049231196E12</v>
       </c>
     </row>
     <row ht="128.25" r="231" spans="1:8" x14ac:dyDescent="0.2">
@@ -12678,7 +13265,7 @@
         <v>0.0</v>
       </c>
       <c r="T231" t="n">
-        <v>1.72161754952E12</v>
+        <v>1.724049235009E12</v>
       </c>
     </row>
     <row ht="142.5" r="232" spans="1:8" x14ac:dyDescent="0.2">
@@ -12701,10 +13288,10 @@
       <c r="G232" s="5"/>
       <c r="H232" s="5"/>
       <c r="R232" t="n">
-        <v>0.65</v>
+        <v>3.4</v>
       </c>
       <c r="T232" t="n">
-        <v>1.721641236969E12</v>
+        <v>1.724134725343E12</v>
       </c>
     </row>
     <row ht="57" r="233" spans="1:8" x14ac:dyDescent="0.2">
@@ -12730,7 +13317,7 @@
         <v>0.0</v>
       </c>
       <c r="T233" t="n">
-        <v>1.721617594123E12</v>
+        <v>1.724049244866E12</v>
       </c>
     </row>
     <row ht="71.25" r="234" spans="1:8" x14ac:dyDescent="0.2">
@@ -12753,10 +13340,10 @@
       <c r="G234" s="5"/>
       <c r="H234" s="5"/>
       <c r="R234" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T234" t="n">
-        <v>1.721617596714E12</v>
+        <v>1.724055379169E12</v>
       </c>
     </row>
     <row ht="156.75" r="235" spans="1:8" x14ac:dyDescent="0.2">
@@ -12779,10 +13366,10 @@
       <c r="G235" s="5"/>
       <c r="H235" s="5"/>
       <c r="R235" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T235" t="n">
-        <v>1.721617604146E12</v>
+        <v>1.724055382306E12</v>
       </c>
     </row>
     <row ht="85.5" r="236" spans="1:8" x14ac:dyDescent="0.2">
@@ -12805,10 +13392,10 @@
       <c r="G236" s="5"/>
       <c r="H236" s="5"/>
       <c r="R236" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T236" t="n">
-        <v>1.721641240696E12</v>
+        <v>1.724049262576E12</v>
       </c>
     </row>
     <row ht="185.25" r="237" spans="1:8" x14ac:dyDescent="0.2">
@@ -12831,10 +13418,10 @@
       <c r="G237" s="5"/>
       <c r="H237" s="5"/>
       <c r="R237" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="T237" t="n">
-        <v>1.723623644636E12</v>
+        <v>1.724049264686E12</v>
       </c>
     </row>
     <row ht="285" r="238" spans="1:8" x14ac:dyDescent="0.2">
@@ -12860,7 +13447,7 @@
         <v>0.0</v>
       </c>
       <c r="T238" t="n">
-        <v>1.721617634154E12</v>
+        <v>1.724049297014E12</v>
       </c>
     </row>
     <row ht="142.5" r="239" spans="1:8" x14ac:dyDescent="0.2">
@@ -12886,7 +13473,7 @@
         <v>0.0</v>
       </c>
       <c r="T239" t="n">
-        <v>1.721617639134E12</v>
+        <v>1.724049301579E12</v>
       </c>
     </row>
     <row ht="171" r="240" spans="1:8" x14ac:dyDescent="0.2">
@@ -12912,7 +13499,7 @@
         <v>0.0</v>
       </c>
       <c r="T240" t="n">
-        <v>1.721617680177E12</v>
+        <v>1.724049358384E12</v>
       </c>
     </row>
     <row ht="99.75" r="241" spans="1:8" x14ac:dyDescent="0.2">
@@ -12938,7 +13525,7 @@
         <v>0.0</v>
       </c>
       <c r="T241" t="n">
-        <v>1.72161768255E12</v>
+        <v>1.724049360882E12</v>
       </c>
     </row>
     <row ht="99.75" r="242" spans="1:8" x14ac:dyDescent="0.2">
@@ -12964,7 +13551,7 @@
         <v>0.0</v>
       </c>
       <c r="T242" t="n">
-        <v>1.721617687362E12</v>
+        <v>1.724049365639E12</v>
       </c>
     </row>
     <row ht="213.75" r="243" spans="1:8" x14ac:dyDescent="0.2">
@@ -12990,7 +13577,7 @@
         <v>0.0</v>
       </c>
       <c r="T243" t="n">
-        <v>1.721617690453E12</v>
+        <v>1.724049414959E12</v>
       </c>
     </row>
     <row ht="228" r="244" spans="1:8" x14ac:dyDescent="0.2">
@@ -13016,7 +13603,7 @@
         <v>0.0</v>
       </c>
       <c r="T244" t="n">
-        <v>1.721617692632E12</v>
+        <v>1.724049420518E12</v>
       </c>
     </row>
     <row ht="171" r="245" spans="1:8" x14ac:dyDescent="0.2">
@@ -13039,10 +13626,10 @@
       <c r="G245" s="5"/>
       <c r="H245" s="5"/>
       <c r="R245" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T245" t="n">
-        <v>1.721641249449E12</v>
+        <v>1.724049426065E12</v>
       </c>
     </row>
     <row ht="327.75" r="246" spans="1:8" x14ac:dyDescent="0.2">
@@ -13068,7 +13655,7 @@
         <v>0.0</v>
       </c>
       <c r="T246" t="n">
-        <v>1.721617705902E12</v>
+        <v>1.724049428673E12</v>
       </c>
     </row>
     <row ht="185.25" r="247" spans="1:8" x14ac:dyDescent="0.2">
@@ -13091,10 +13678,10 @@
       <c r="G247" s="5"/>
       <c r="H247" s="5"/>
       <c r="R247" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T247" t="n">
-        <v>1.721617709964E12</v>
+        <v>1.724055384376E12</v>
       </c>
     </row>
     <row ht="171" r="248" spans="1:8" x14ac:dyDescent="0.2">
@@ -13120,7 +13707,7 @@
         <v>0.0</v>
       </c>
       <c r="T248" t="n">
-        <v>1.721617712975E12</v>
+        <v>1.724049439759E12</v>
       </c>
     </row>
     <row ht="185.25" r="249" spans="1:8" x14ac:dyDescent="0.2">
@@ -13143,10 +13730,10 @@
       <c r="G249" s="5"/>
       <c r="H249" s="5"/>
       <c r="R249" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="T249" t="n">
-        <v>1.723623651812E12</v>
+        <v>1.724049450583E12</v>
       </c>
     </row>
     <row ht="171" r="250" spans="1:8" x14ac:dyDescent="0.2">
@@ -13172,7 +13759,7 @@
         <v>0.0</v>
       </c>
       <c r="T250" t="n">
-        <v>1.721617728001E12</v>
+        <v>1.724049458508E12</v>
       </c>
     </row>
     <row ht="99.75" r="251" spans="1:8" x14ac:dyDescent="0.2">
@@ -13195,10 +13782,10 @@
       <c r="G251" s="5"/>
       <c r="H251" s="5"/>
       <c r="R251" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T251" t="n">
-        <v>1.723711280441E12</v>
+        <v>1.724049460236E12</v>
       </c>
     </row>
     <row ht="171" r="252" spans="1:8" x14ac:dyDescent="0.2">
@@ -13225,10 +13812,10 @@
         <v>769</v>
       </c>
       <c r="R252" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T252" t="n">
-        <v>1.721641265132E12</v>
+        <v>1.724055388248E12</v>
       </c>
     </row>
     <row ht="99.75" r="253" spans="1:8" x14ac:dyDescent="0.2">
@@ -13255,10 +13842,10 @@
         <v>775</v>
       </c>
       <c r="R253" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T253" t="n">
-        <v>1.721641268396E12</v>
+        <v>1.724055392739E12</v>
       </c>
     </row>
     <row ht="85.5" r="254" spans="1:8" x14ac:dyDescent="0.2">
@@ -13285,10 +13872,10 @@
         <v>781</v>
       </c>
       <c r="R254" t="n">
-        <v>0.7499999999999988</v>
+        <v>0.3999999999999988</v>
       </c>
       <c r="T254" t="n">
-        <v>1.723623660314E12</v>
+        <v>1.724049502052E12</v>
       </c>
     </row>
     <row ht="342" r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -13315,10 +13902,10 @@
         <v>786</v>
       </c>
       <c r="R255" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T255" t="n">
-        <v>1.721641279235E12</v>
+        <v>1.724049577414E12</v>
       </c>
     </row>
     <row ht="142.5" r="256" spans="1:8" x14ac:dyDescent="0.2">
@@ -13345,10 +13932,10 @@
         <v>792</v>
       </c>
       <c r="R256" t="n">
-        <v>0.65</v>
+        <v>3.4</v>
       </c>
       <c r="T256" t="n">
-        <v>1.721641290837E12</v>
+        <v>1.724134755608E12</v>
       </c>
     </row>
     <row ht="71.25" r="257" spans="1:8" x14ac:dyDescent="0.2">
@@ -13378,7 +13965,7 @@
         <v>0.0</v>
       </c>
       <c r="T257" t="n">
-        <v>1.72161792591E12</v>
+        <v>1.724049618582E12</v>
       </c>
     </row>
     <row ht="71.25" r="258" spans="1:8" x14ac:dyDescent="0.2">
@@ -13405,10 +13992,10 @@
         <v>803</v>
       </c>
       <c r="R258" t="n">
-        <v>0.49999999999999933</v>
+        <v>0.14999999999999936</v>
       </c>
       <c r="T258" t="n">
-        <v>1.723711283301E12</v>
+        <v>1.724049621047E12</v>
       </c>
     </row>
     <row ht="85.5" r="259" spans="1:8" x14ac:dyDescent="0.2">
@@ -13438,7 +14025,7 @@
         <v>0.0</v>
       </c>
       <c r="T259" t="n">
-        <v>1.721618038204E12</v>
+        <v>1.724049626267E12</v>
       </c>
     </row>
     <row ht="71.25" r="260" spans="1:8" x14ac:dyDescent="0.2">
@@ -13465,10 +14052,10 @@
         <v>814</v>
       </c>
       <c r="R260" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T260" t="n">
-        <v>1.721641304635E12</v>
+        <v>1.724049639004E12</v>
       </c>
     </row>
     <row ht="99.75" r="261" spans="1:8" x14ac:dyDescent="0.2">
@@ -13498,7 +14085,7 @@
         <v>0.0</v>
       </c>
       <c r="T261" t="n">
-        <v>1.721618049935E12</v>
+        <v>1.724049673753E12</v>
       </c>
     </row>
     <row ht="99.75" r="262" spans="1:8" x14ac:dyDescent="0.2">
@@ -13525,10 +14112,10 @@
         <v>825</v>
       </c>
       <c r="R262" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T262" t="n">
-        <v>1.721641310176E12</v>
+        <v>1.724055429801E12</v>
       </c>
     </row>
     <row ht="85.5" r="263" spans="1:8" x14ac:dyDescent="0.2">
@@ -13555,10 +14142,10 @@
         <v>829</v>
       </c>
       <c r="R263" t="n">
-        <v>0.44999999999999907</v>
+        <v>0.09999999999999909</v>
       </c>
       <c r="T263" t="n">
-        <v>1.723711288173E12</v>
+        <v>1.724049712389E12</v>
       </c>
     </row>
     <row ht="99.75" r="264" spans="1:8" x14ac:dyDescent="0.2">
@@ -13585,10 +14172,10 @@
         <v>834</v>
       </c>
       <c r="R264" t="n">
-        <v>0.6499999999999979</v>
+        <v>0.29999999999999793</v>
       </c>
       <c r="T264" t="n">
-        <v>1.723623662001E12</v>
+        <v>1.724049736368E12</v>
       </c>
     </row>
     <row ht="85.5" r="265" spans="1:8" x14ac:dyDescent="0.2">
@@ -13615,10 +14202,10 @@
         <v>839</v>
       </c>
       <c r="R265" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T265" t="n">
-        <v>1.72161810511E12</v>
+        <v>1.724055439885E12</v>
       </c>
     </row>
     <row ht="156.75" r="266" spans="1:8" x14ac:dyDescent="0.2">
@@ -13645,10 +14232,10 @@
         <v>844</v>
       </c>
       <c r="R266" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="T266" t="n">
-        <v>1.723623671737E12</v>
+        <v>1.724049761939E12</v>
       </c>
     </row>
     <row ht="85.5" r="267" spans="1:8" x14ac:dyDescent="0.2">
@@ -13675,10 +14262,10 @@
         <v>849</v>
       </c>
       <c r="R267" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T267" t="n">
-        <v>1.723711290775E12</v>
+        <v>1.724049780186E12</v>
       </c>
     </row>
     <row ht="42.75" r="268" spans="1:8" x14ac:dyDescent="0.2">
@@ -13705,10 +14292,10 @@
         <v>854</v>
       </c>
       <c r="R268" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T268" t="n">
-        <v>1.721618125322E12</v>
+        <v>1.724055450413E12</v>
       </c>
     </row>
     <row ht="57" r="269" spans="1:8" x14ac:dyDescent="0.2">
@@ -13735,10 +14322,10 @@
         <v>860</v>
       </c>
       <c r="R269" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T269" t="n">
-        <v>1.723711293113E12</v>
+        <v>1.724049804969E12</v>
       </c>
     </row>
     <row ht="71.25" r="270" spans="1:8" x14ac:dyDescent="0.2">
@@ -13765,10 +14352,10 @@
         <v>865</v>
       </c>
       <c r="R270" t="n">
-        <v>0.49999999999999933</v>
+        <v>0.14999999999999936</v>
       </c>
       <c r="T270" t="n">
-        <v>1.723711295339E12</v>
+        <v>1.724049810629E12</v>
       </c>
     </row>
     <row ht="99.75" r="271" spans="1:8" x14ac:dyDescent="0.2">
@@ -13795,10 +14382,10 @@
         <v>870</v>
       </c>
       <c r="R271" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T271" t="n">
-        <v>1.721692999208E12</v>
+        <v>1.72405545417E12</v>
       </c>
     </row>
     <row ht="85.5" r="272" spans="1:8" x14ac:dyDescent="0.2">
@@ -13828,7 +14415,7 @@
         <v>0.0</v>
       </c>
       <c r="T272" t="n">
-        <v>1.721618177451E12</v>
+        <v>1.724049841505E12</v>
       </c>
     </row>
     <row ht="85.5" r="273" spans="1:8" x14ac:dyDescent="0.2">
@@ -13855,10 +14442,10 @@
         <v>431</v>
       </c>
       <c r="R273" t="n">
-        <v>0.44999999999999907</v>
+        <v>0.09999999999999909</v>
       </c>
       <c r="T273" t="n">
-        <v>1.723711298043E12</v>
+        <v>1.724049900441E12</v>
       </c>
     </row>
     <row ht="85.5" r="274" spans="1:8" x14ac:dyDescent="0.2">
@@ -13885,10 +14472,10 @@
         <v>881</v>
       </c>
       <c r="R274" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T274" t="n">
-        <v>1.721618220691E12</v>
+        <v>1.724055457034E12</v>
       </c>
     </row>
     <row ht="71.25" r="275" spans="1:8" x14ac:dyDescent="0.2">
@@ -13915,10 +14502,10 @@
         <v>886</v>
       </c>
       <c r="R275" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T275" t="n">
-        <v>1.72169301823E12</v>
+        <v>1.724049924116E12</v>
       </c>
     </row>
     <row ht="142.5" r="276" spans="1:8" x14ac:dyDescent="0.2">
@@ -13948,7 +14535,7 @@
         <v>0.0</v>
       </c>
       <c r="T276" t="n">
-        <v>1.721618262239E12</v>
+        <v>1.724049933205E12</v>
       </c>
     </row>
     <row ht="185.25" r="277" spans="1:8" x14ac:dyDescent="0.2">
@@ -13975,10 +14562,10 @@
         <v>896</v>
       </c>
       <c r="R277" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T277" t="n">
-        <v>1.721693020218E12</v>
+        <v>1.724055461423E12</v>
       </c>
     </row>
     <row ht="85.5" r="278" spans="1:8" x14ac:dyDescent="0.2">
@@ -14005,10 +14592,10 @@
         <v>901</v>
       </c>
       <c r="R278" t="n">
-        <v>0.44999999999999907</v>
+        <v>0.09999999999999909</v>
       </c>
       <c r="T278" t="n">
-        <v>1.723711302373E12</v>
+        <v>1.724049997147E12</v>
       </c>
     </row>
     <row ht="85.5" r="279" spans="1:8" x14ac:dyDescent="0.2">
@@ -14038,7 +14625,7 @@
         <v>0.0</v>
       </c>
       <c r="T279" t="n">
-        <v>1.721618316145E12</v>
+        <v>1.724050038558E12</v>
       </c>
     </row>
     <row ht="71.25" r="280" spans="1:8" x14ac:dyDescent="0.2">
@@ -14065,10 +14652,10 @@
         <v>911</v>
       </c>
       <c r="R280" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T280" t="n">
-        <v>1.7216930362E12</v>
+        <v>1.724055463328E12</v>
       </c>
     </row>
     <row ht="156.75" r="281" spans="1:8" x14ac:dyDescent="0.2">
@@ -14095,10 +14682,10 @@
         <v>914</v>
       </c>
       <c r="R281" t="n">
-        <v>0.7499999999999988</v>
+        <v>0.3999999999999988</v>
       </c>
       <c r="T281" t="n">
-        <v>1.723623686481E12</v>
+        <v>1.724050066433E12</v>
       </c>
     </row>
     <row ht="57" r="282" spans="1:8" x14ac:dyDescent="0.2">
@@ -14128,7 +14715,7 @@
         <v>0.0</v>
       </c>
       <c r="T282" t="n">
-        <v>1.721618337845E12</v>
+        <v>1.724050072153E12</v>
       </c>
     </row>
     <row ht="128.25" r="283" spans="1:8" x14ac:dyDescent="0.2">
@@ -14158,7 +14745,7 @@
         <v>0.0</v>
       </c>
       <c r="T283" t="n">
-        <v>1.721618340324E12</v>
+        <v>1.724050078602E12</v>
       </c>
     </row>
     <row ht="57" r="284" spans="1:8" x14ac:dyDescent="0.2">
@@ -14185,10 +14772,10 @@
         <v>930</v>
       </c>
       <c r="R284" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T284" t="n">
-        <v>1.721693046003E12</v>
+        <v>1.724055465302E12</v>
       </c>
     </row>
     <row ht="71.25" r="285" spans="1:8" x14ac:dyDescent="0.2">
@@ -14215,10 +14802,10 @@
         <v>935</v>
       </c>
       <c r="R285" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="T285" t="n">
-        <v>1.723623688682E12</v>
+        <v>1.72405010681E12</v>
       </c>
     </row>
     <row ht="85.5" r="286" spans="1:8" x14ac:dyDescent="0.2">
@@ -14248,7 +14835,7 @@
         <v>0.0</v>
       </c>
       <c r="T286" t="n">
-        <v>1.721618353089E12</v>
+        <v>1.72405011062E12</v>
       </c>
     </row>
     <row ht="71.25" r="287" spans="1:8" x14ac:dyDescent="0.2">
@@ -14278,7 +14865,7 @@
         <v>0.0</v>
       </c>
       <c r="T287" t="n">
-        <v>1.721618356994E12</v>
+        <v>1.724050204349E12</v>
       </c>
     </row>
     <row ht="114" r="288" spans="1:8" x14ac:dyDescent="0.2">
@@ -14308,7 +14895,7 @@
         <v>0.0</v>
       </c>
       <c r="T288" t="n">
-        <v>1.721618360788E12</v>
+        <v>1.724050271305E12</v>
       </c>
     </row>
     <row ht="85.5" r="289" spans="1:8" x14ac:dyDescent="0.2">
@@ -14338,7 +14925,7 @@
         <v>0.0</v>
       </c>
       <c r="T289" t="n">
-        <v>1.721618423305E12</v>
+        <v>1.724050292488E12</v>
       </c>
     </row>
     <row ht="99.75" r="290" spans="1:8" x14ac:dyDescent="0.2">
@@ -14368,7 +14955,7 @@
         <v>0.0</v>
       </c>
       <c r="T290" t="n">
-        <v>1.721618445533E12</v>
+        <v>1.724050298331E12</v>
       </c>
     </row>
     <row ht="99.75" r="291" spans="1:8" x14ac:dyDescent="0.2">
@@ -14395,10 +14982,10 @@
         <v>961</v>
       </c>
       <c r="R291" t="n">
-        <v>0.5999999999999999</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="T291" t="n">
-        <v>1.723623693953E12</v>
+        <v>1.724055476744E12</v>
       </c>
     </row>
     <row ht="185.25" r="292" spans="1:8" x14ac:dyDescent="0.2">
@@ -14428,7 +15015,7 @@
         <v>0.0</v>
       </c>
       <c r="T292" t="n">
-        <v>1.721618455336E12</v>
+        <v>1.724050318942E12</v>
       </c>
     </row>
     <row ht="42.75" r="293" spans="1:8" x14ac:dyDescent="0.2">
@@ -14455,10 +15042,10 @@
         <v>971</v>
       </c>
       <c r="R293" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T293" t="n">
-        <v>1.721693085541E12</v>
+        <v>1.724055479897E12</v>
       </c>
     </row>
     <row ht="114" r="294" spans="1:8" x14ac:dyDescent="0.2">
@@ -14488,7 +15075,7 @@
         <v>0.0</v>
       </c>
       <c r="T294" t="n">
-        <v>1.721618521467E12</v>
+        <v>1.724050484949E12</v>
       </c>
     </row>
     <row ht="356.25" r="295" spans="1:8" x14ac:dyDescent="0.2">
@@ -14518,7 +15105,7 @@
         <v>0.0</v>
       </c>
       <c r="T295" t="n">
-        <v>1.721618523416E12</v>
+        <v>1.724050559131E12</v>
       </c>
     </row>
     <row ht="57" r="296" spans="1:8" x14ac:dyDescent="0.2">
@@ -14548,7 +15135,7 @@
         <v>0.0</v>
       </c>
       <c r="T296" t="n">
-        <v>1.721618525068E12</v>
+        <v>1.724050562926E12</v>
       </c>
     </row>
     <row ht="156.75" r="297" spans="1:8" x14ac:dyDescent="0.2">
@@ -14575,10 +15162,10 @@
         <v>991</v>
       </c>
       <c r="R297" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T297" t="n">
-        <v>1.721693092612E12</v>
+        <v>1.724055484541E12</v>
       </c>
     </row>
     <row ht="85.5" r="298" spans="1:8" x14ac:dyDescent="0.2">
@@ -14605,10 +15192,10 @@
         <v>996</v>
       </c>
       <c r="R298" t="n">
-        <v>0.6999999999999985</v>
+        <v>0.34999999999999853</v>
       </c>
       <c r="T298" t="n">
-        <v>1.723623696247E12</v>
+        <v>1.724050783156E12</v>
       </c>
     </row>
     <row ht="85.5" r="299" spans="1:8" x14ac:dyDescent="0.2">
@@ -14638,7 +15225,7 @@
         <v>0.0</v>
       </c>
       <c r="T299" t="n">
-        <v>1.721618551847E12</v>
+        <v>1.724050790391E12</v>
       </c>
     </row>
     <row ht="199.5" r="300" spans="1:8" x14ac:dyDescent="0.2">
@@ -14668,7 +15255,7 @@
         <v>0.0</v>
       </c>
       <c r="T300" t="n">
-        <v>1.721618554374E12</v>
+        <v>1.724050811689E12</v>
       </c>
     </row>
     <row ht="71.25" r="301" spans="1:8" x14ac:dyDescent="0.2">
@@ -14695,10 +15282,10 @@
         <v>1011</v>
       </c>
       <c r="R301" t="n">
-        <v>0.49999999999999933</v>
+        <v>0.14999999999999936</v>
       </c>
       <c r="T301" t="n">
-        <v>1.723711304277E12</v>
+        <v>1.724050814674E12</v>
       </c>
     </row>
     <row ht="156.75" r="302" spans="1:8" x14ac:dyDescent="0.2">
@@ -14725,10 +15312,10 @@
         <v>1016</v>
       </c>
       <c r="R302" t="n">
-        <v>0.5999999999999985</v>
+        <v>0.24999999999999856</v>
       </c>
       <c r="T302" t="n">
-        <v>1.723623699633E12</v>
+        <v>1.724051440413E12</v>
       </c>
     </row>
     <row ht="213.75" r="303" spans="1:8" x14ac:dyDescent="0.2">
@@ -14755,10 +15342,10 @@
         <v>1021</v>
       </c>
       <c r="R303" t="n">
-        <v>0.65</v>
+        <v>2.15</v>
       </c>
       <c r="T303" t="n">
-        <v>1.721693122576E12</v>
+        <v>1.724134766322E12</v>
       </c>
     </row>
     <row ht="409.5" r="304" spans="1:8" x14ac:dyDescent="0.2">
@@ -14785,10 +15372,10 @@
         <v>99.980999999999995</v>
       </c>
       <c r="R304" t="n">
-        <v>0.0</v>
+        <v>1.75</v>
       </c>
       <c r="T304" t="n">
-        <v>1.721618627621E12</v>
+        <v>1.724057674635E12</v>
       </c>
     </row>
     <row ht="409.5" r="305" spans="1:8" x14ac:dyDescent="0.2">
@@ -14815,10 +15402,10 @@
         <v>99.992000000000004</v>
       </c>
       <c r="R305" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="T305" t="n">
-        <v>1.723623703271E12</v>
+        <v>1.724051519418E12</v>
       </c>
     </row>
     <row ht="409.5" r="306" spans="1:8" x14ac:dyDescent="0.2">
@@ -14845,10 +15432,10 @@
         <v>99.933000000000007</v>
       </c>
       <c r="R306" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T306" t="n">
-        <v>1.72371130824E12</v>
+        <v>1.724051522689E12</v>
       </c>
     </row>
     <row ht="313.5" r="307" spans="1:8" x14ac:dyDescent="0.2">
@@ -14875,10 +15462,10 @@
         <v>16</v>
       </c>
       <c r="R307" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T307" t="n">
-        <v>1.721693142641E12</v>
+        <v>1.72405555947E12</v>
       </c>
     </row>
     <row ht="85.5" r="308" spans="1:8" x14ac:dyDescent="0.2">
@@ -14908,7 +15495,7 @@
         <v>0.0</v>
       </c>
       <c r="T308" t="n">
-        <v>1.72161882152E12</v>
+        <v>1.72405156778E12</v>
       </c>
     </row>
     <row ht="128.25" r="309" spans="1:8" x14ac:dyDescent="0.2">
@@ -14935,10 +15522,10 @@
         <v>1031</v>
       </c>
       <c r="R309" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T309" t="n">
-        <v>1.721693153993E12</v>
+        <v>1.724055585243E12</v>
       </c>
     </row>
     <row ht="85.5" r="310" spans="1:8" x14ac:dyDescent="0.2">
@@ -14968,7 +15555,7 @@
         <v>0.0</v>
       </c>
       <c r="T310" t="n">
-        <v>1.721618877782E12</v>
+        <v>1.724051586842E12</v>
       </c>
     </row>
     <row ht="85.5" r="311" spans="1:8" x14ac:dyDescent="0.2">
@@ -14998,7 +15585,7 @@
         <v>0.0</v>
       </c>
       <c r="T311" t="n">
-        <v>1.721618883673E12</v>
+        <v>1.724051591612E12</v>
       </c>
     </row>
     <row ht="28.5" r="312" spans="1:8" x14ac:dyDescent="0.2">
@@ -15028,7 +15615,7 @@
         <v>0.0</v>
       </c>
       <c r="T312" t="n">
-        <v>1.721618886615E12</v>
+        <v>1.724051594554E12</v>
       </c>
     </row>
     <row ht="71.25" r="313" spans="1:8" x14ac:dyDescent="0.2">
@@ -15055,10 +15642,10 @@
         <v>1051</v>
       </c>
       <c r="R313" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T313" t="n">
-        <v>1.721693161764E12</v>
+        <v>1.724051630971E12</v>
       </c>
     </row>
     <row ht="142.5" r="314" spans="1:8" x14ac:dyDescent="0.2">
@@ -15085,10 +15672,10 @@
         <v>1056</v>
       </c>
       <c r="R314" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T314" t="n">
-        <v>1.72169316528E12</v>
+        <v>1.72405174207E12</v>
       </c>
     </row>
     <row ht="71.25" r="315" spans="1:8" x14ac:dyDescent="0.2">
@@ -15115,10 +15702,10 @@
         <v>250</v>
       </c>
       <c r="R315" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T315" t="n">
-        <v>1.721635538786E12</v>
+        <v>1.724055589001E12</v>
       </c>
     </row>
     <row ht="57" r="316" spans="1:8" x14ac:dyDescent="0.2">
@@ -15148,7 +15735,7 @@
         <v>0.0</v>
       </c>
       <c r="T316" t="n">
-        <v>1.721635545796E12</v>
+        <v>1.724051753512E12</v>
       </c>
     </row>
     <row ht="114" r="317" spans="1:8" x14ac:dyDescent="0.2">
@@ -15175,10 +15762,10 @@
         <v>1064</v>
       </c>
       <c r="R317" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T317" t="n">
-        <v>1.721693168779E12</v>
+        <v>1.724051760914E12</v>
       </c>
     </row>
     <row ht="85.5" r="318" spans="1:8" x14ac:dyDescent="0.2">
@@ -15205,10 +15792,10 @@
         <v>1069</v>
       </c>
       <c r="R318" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T318" t="n">
-        <v>1.721693174569E12</v>
+        <v>1.724051817475E12</v>
       </c>
     </row>
     <row ht="99.75" r="319" spans="1:8" x14ac:dyDescent="0.2">
@@ -15235,10 +15822,10 @@
         <v>1072</v>
       </c>
       <c r="R319" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T319" t="n">
-        <v>1.721693199786E12</v>
+        <v>1.724051822155E12</v>
       </c>
     </row>
     <row ht="128.25" r="320" spans="1:8" x14ac:dyDescent="0.2">
@@ -15265,10 +15852,10 @@
         <v>1072</v>
       </c>
       <c r="R320" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T320" t="n">
-        <v>1.72169321336E12</v>
+        <v>1.724055599853E12</v>
       </c>
     </row>
     <row ht="114" r="321" spans="1:8" x14ac:dyDescent="0.2">
@@ -15298,7 +15885,7 @@
         <v>0.0</v>
       </c>
       <c r="T321" t="n">
-        <v>1.721635638586E12</v>
+        <v>1.724051841824E12</v>
       </c>
     </row>
     <row ht="213.75" r="322" spans="1:8" x14ac:dyDescent="0.2">
@@ -15325,10 +15912,10 @@
         <v>1083</v>
       </c>
       <c r="R322" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T322" t="n">
-        <v>1.721635647215E12</v>
+        <v>1.724055679805E12</v>
       </c>
     </row>
     <row ht="57" r="323" spans="1:8" x14ac:dyDescent="0.2">
@@ -15355,10 +15942,10 @@
         <v>1088</v>
       </c>
       <c r="R323" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T323" t="n">
-        <v>1.721693221291E12</v>
+        <v>1.724051858486E12</v>
       </c>
     </row>
     <row ht="128.25" r="324" spans="1:8" x14ac:dyDescent="0.2">
@@ -15385,10 +15972,10 @@
         <v>1093</v>
       </c>
       <c r="R324" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T324" t="n">
-        <v>1.72169322421E12</v>
+        <v>1.724051866279E12</v>
       </c>
     </row>
     <row ht="128.25" r="325" spans="1:8" x14ac:dyDescent="0.2">
@@ -15415,10 +16002,10 @@
         <v>1098</v>
       </c>
       <c r="R325" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="T325" t="n">
-        <v>1.723623724177E12</v>
+        <v>1.724051871124E12</v>
       </c>
     </row>
     <row ht="171" r="326" spans="1:8" x14ac:dyDescent="0.2">
@@ -15445,10 +16032,10 @@
         <v>1103</v>
       </c>
       <c r="R326" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T326" t="n">
-        <v>1.721693257559E12</v>
+        <v>1.724055685604E12</v>
       </c>
     </row>
     <row ht="185.25" r="327" spans="1:8" x14ac:dyDescent="0.2">
@@ -15475,10 +16062,10 @@
         <v>1103</v>
       </c>
       <c r="R327" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T327" t="n">
-        <v>1.721693268683E12</v>
+        <v>1.724055689672E12</v>
       </c>
     </row>
     <row ht="185.25" r="328" spans="1:8" x14ac:dyDescent="0.2">
@@ -15505,10 +16092,10 @@
         <v>1103</v>
       </c>
       <c r="R328" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T328" t="n">
-        <v>1.721693271978E12</v>
+        <v>1.724055693156E12</v>
       </c>
     </row>
     <row ht="57" r="329" spans="1:8" x14ac:dyDescent="0.2">
@@ -15535,10 +16122,10 @@
         <v>1110</v>
       </c>
       <c r="R329" t="n">
-        <v>0.5999999999999999</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="T329" t="n">
-        <v>1.723623730801E12</v>
+        <v>1.724134769161E12</v>
       </c>
     </row>
     <row ht="356.25" r="330" spans="1:8" x14ac:dyDescent="0.2">
@@ -15565,10 +16152,10 @@
         <v>1115</v>
       </c>
       <c r="R330" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T330" t="n">
-        <v>1.72169343317E12</v>
+        <v>1.724055727141E12</v>
       </c>
     </row>
     <row ht="213.75" r="331" spans="1:8" x14ac:dyDescent="0.2">
@@ -15595,10 +16182,10 @@
         <v>1119</v>
       </c>
       <c r="R331" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T331" t="n">
-        <v>1.721693438586E12</v>
+        <v>1.724055736605E12</v>
       </c>
     </row>
     <row ht="142.5" r="332" spans="1:8" x14ac:dyDescent="0.2">
@@ -15628,7 +16215,7 @@
         <v>0.0</v>
       </c>
       <c r="T332" t="n">
-        <v>1.721635934616E12</v>
+        <v>1.724052067329E12</v>
       </c>
     </row>
     <row ht="142.5" r="333" spans="1:8" x14ac:dyDescent="0.2">
@@ -15658,7 +16245,7 @@
         <v>0.0</v>
       </c>
       <c r="T333" t="n">
-        <v>1.721635937541E12</v>
+        <v>1.724052080424E12</v>
       </c>
     </row>
     <row ht="128.25" r="334" spans="1:8" x14ac:dyDescent="0.2">
@@ -15685,10 +16272,10 @@
         <v>1134</v>
       </c>
       <c r="R334" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T334" t="n">
-        <v>1.721635954237E12</v>
+        <v>1.72405574547E12</v>
       </c>
     </row>
     <row ht="114" r="335" spans="1:8" x14ac:dyDescent="0.2">
@@ -15715,10 +16302,10 @@
         <v>1139</v>
       </c>
       <c r="R335" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T335" t="n">
-        <v>1.721693442329E12</v>
+        <v>1.724055749698E12</v>
       </c>
     </row>
     <row ht="99.75" r="336" spans="1:8" x14ac:dyDescent="0.2">
@@ -15745,10 +16332,10 @@
         <v>1144</v>
       </c>
       <c r="R336" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T336" t="n">
-        <v>1.721693448845E12</v>
+        <v>1.724055753992E12</v>
       </c>
     </row>
     <row ht="156.75" r="337" spans="1:8" x14ac:dyDescent="0.2">
@@ -15775,10 +16362,10 @@
         <v>1149</v>
       </c>
       <c r="R337" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T337" t="n">
-        <v>1.721693454725E12</v>
+        <v>1.724055757357E12</v>
       </c>
     </row>
     <row ht="57" r="338" spans="1:8" x14ac:dyDescent="0.2">
@@ -15805,10 +16392,10 @@
         <v>1154</v>
       </c>
       <c r="R338" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="T338" t="n">
-        <v>1.723623733962E12</v>
+        <v>1.72405217116E12</v>
       </c>
     </row>
     <row ht="71.25" r="339" spans="1:8" x14ac:dyDescent="0.2">
@@ -15835,10 +16422,10 @@
         <v>1159</v>
       </c>
       <c r="R339" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T339" t="n">
-        <v>1.721693477447E12</v>
+        <v>1.724052176792E12</v>
       </c>
     </row>
     <row ht="42.75" r="340" spans="1:8" x14ac:dyDescent="0.2">
@@ -15868,7 +16455,7 @@
         <v>0.0</v>
       </c>
       <c r="T340" t="n">
-        <v>1.721636010385E12</v>
+        <v>1.724052180027E12</v>
       </c>
     </row>
     <row ht="114" r="341" spans="1:8" x14ac:dyDescent="0.2">
@@ -15895,10 +16482,10 @@
         <v>1169</v>
       </c>
       <c r="R341" t="n">
-        <v>0.49999999999999933</v>
+        <v>1.2499999999999993</v>
       </c>
       <c r="T341" t="n">
-        <v>1.72371139123E12</v>
+        <v>1.724055762771E12</v>
       </c>
     </row>
     <row ht="57" r="342" spans="1:8" x14ac:dyDescent="0.2">
@@ -15928,7 +16515,7 @@
         <v>0.0</v>
       </c>
       <c r="T342" t="n">
-        <v>1.721636024139E12</v>
+        <v>1.72405219116E12</v>
       </c>
     </row>
     <row ht="71.25" r="343" spans="1:8" x14ac:dyDescent="0.2">
@@ -15955,10 +16542,10 @@
         <v>1179</v>
       </c>
       <c r="R343" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T343" t="n">
-        <v>1.721693521681E12</v>
+        <v>1.724055766644E12</v>
       </c>
     </row>
     <row ht="270.75" r="344" spans="1:8" x14ac:dyDescent="0.2">
@@ -15988,7 +16575,7 @@
         <v>0.0</v>
       </c>
       <c r="T344" t="n">
-        <v>1.721636042365E12</v>
+        <v>1.724052221507E12</v>
       </c>
     </row>
     <row ht="114" r="345" spans="1:8" x14ac:dyDescent="0.2">
@@ -16015,10 +16602,10 @@
         <v>1189</v>
       </c>
       <c r="R345" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T345" t="n">
-        <v>1.721636047105E12</v>
+        <v>1.724055950517E12</v>
       </c>
     </row>
     <row ht="85.5" r="346" spans="1:8" x14ac:dyDescent="0.2">
@@ -16045,10 +16632,10 @@
         <v>1194</v>
       </c>
       <c r="R346" t="n">
-        <v>0.5499999999999996</v>
+        <v>1.2999999999999996</v>
       </c>
       <c r="T346" t="n">
-        <v>1.723711393666E12</v>
+        <v>1.724055954855E12</v>
       </c>
     </row>
     <row ht="71.25" r="347" spans="1:8" x14ac:dyDescent="0.2">
@@ -16078,7 +16665,7 @@
         <v>0.0</v>
       </c>
       <c r="T347" t="n">
-        <v>1.721636066568E12</v>
+        <v>1.724052279387E12</v>
       </c>
     </row>
     <row ht="42.75" r="348" spans="1:8" x14ac:dyDescent="0.2">
@@ -16108,7 +16695,7 @@
         <v>0.0</v>
       </c>
       <c r="T348" t="n">
-        <v>1.721636069338E12</v>
+        <v>1.724052282673E12</v>
       </c>
     </row>
     <row ht="57" r="349" spans="1:8" x14ac:dyDescent="0.2">
@@ -16138,7 +16725,7 @@
         <v>0.0</v>
       </c>
       <c r="T349" t="n">
-        <v>1.72163607357E12</v>
+        <v>1.724052285365E12</v>
       </c>
     </row>
     <row ht="42.75" r="350" spans="1:8" x14ac:dyDescent="0.2">
@@ -16165,10 +16752,10 @@
         <v>1214</v>
       </c>
       <c r="R350" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T350" t="n">
-        <v>1.721693529435E12</v>
+        <v>1.724052289415E12</v>
       </c>
     </row>
     <row ht="99.75" r="351" spans="1:8" x14ac:dyDescent="0.2">
@@ -16195,10 +16782,10 @@
         <v>6.6124999999999998</v>
       </c>
       <c r="R351" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T351" t="n">
-        <v>1.723711449143E12</v>
+        <v>1.724052295357E12</v>
       </c>
     </row>
     <row ht="85.5" r="352" spans="1:8" x14ac:dyDescent="0.2">
@@ -16228,7 +16815,7 @@
         <v>0.0</v>
       </c>
       <c r="T352" t="n">
-        <v>1.721636099858E12</v>
+        <v>1.724052299417E12</v>
       </c>
     </row>
     <row ht="85.5" r="353" spans="1:8" x14ac:dyDescent="0.2">
@@ -16251,10 +16838,10 @@
       <c r="G353" s="6"/>
       <c r="H353" s="6"/>
       <c r="R353" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T353" t="n">
-        <v>1.721693538387E12</v>
+        <v>1.724055959896E12</v>
       </c>
     </row>
     <row ht="85.5" r="354" spans="1:8" x14ac:dyDescent="0.2">
@@ -16280,7 +16867,7 @@
         <v>0.0</v>
       </c>
       <c r="T354" t="n">
-        <v>1.721636186329E12</v>
+        <v>1.72405231002E12</v>
       </c>
     </row>
     <row ht="185.25" r="355" spans="1:8" x14ac:dyDescent="0.2">
@@ -16306,7 +16893,7 @@
         <v>0.0</v>
       </c>
       <c r="T355" t="n">
-        <v>1.721636193689E12</v>
+        <v>1.724052315822E12</v>
       </c>
     </row>
     <row ht="256.5" r="356" spans="1:8" x14ac:dyDescent="0.2">
@@ -16329,10 +16916,10 @@
       <c r="G356" s="6"/>
       <c r="H356" s="6"/>
       <c r="R356" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T356" t="n">
-        <v>1.721693540734E12</v>
+        <v>1.724055962304E12</v>
       </c>
     </row>
     <row ht="142.5" r="357" spans="1:8" x14ac:dyDescent="0.2">
@@ -16355,10 +16942,10 @@
       <c r="G357" s="6"/>
       <c r="H357" s="6"/>
       <c r="R357" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T357" t="n">
-        <v>1.721636199688E12</v>
+        <v>1.724055966272E12</v>
       </c>
     </row>
     <row ht="285" r="358" spans="1:8" x14ac:dyDescent="0.2">
@@ -16384,7 +16971,7 @@
         <v>0.0</v>
       </c>
       <c r="T358" t="n">
-        <v>1.721636201498E12</v>
+        <v>1.72405234415E12</v>
       </c>
     </row>
     <row ht="228" r="359" spans="1:8" x14ac:dyDescent="0.2">
@@ -16410,7 +16997,7 @@
         <v>0.0</v>
       </c>
       <c r="T359" t="n">
-        <v>1.721636202976E12</v>
+        <v>1.724052348319E12</v>
       </c>
     </row>
     <row ht="99.75" r="360" spans="1:8" x14ac:dyDescent="0.2">
@@ -16436,7 +17023,7 @@
         <v>0.0</v>
       </c>
       <c r="T360" t="n">
-        <v>1.721636206914E12</v>
+        <v>1.724052350916E12</v>
       </c>
     </row>
     <row ht="199.5" r="361" spans="1:8" x14ac:dyDescent="0.2">
@@ -16459,10 +17046,10 @@
       <c r="G361" s="6"/>
       <c r="H361" s="6"/>
       <c r="R361" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T361" t="n">
-        <v>1.721693543349E12</v>
+        <v>1.724052354755E12</v>
       </c>
     </row>
     <row ht="242.25" r="362" spans="1:8" x14ac:dyDescent="0.2">
@@ -16488,7 +17075,7 @@
         <v>0.0</v>
       </c>
       <c r="T362" t="n">
-        <v>1.721636211575E12</v>
+        <v>1.724052360169E12</v>
       </c>
     </row>
     <row ht="85.5" r="363" spans="1:8" x14ac:dyDescent="0.2">
@@ -16511,10 +17098,10 @@
       <c r="G363" s="6"/>
       <c r="H363" s="6"/>
       <c r="R363" t="n">
-        <v>0.49999999999999933</v>
+        <v>0.14999999999999936</v>
       </c>
       <c r="T363" t="n">
-        <v>1.723711451164E12</v>
+        <v>1.724052362019E12</v>
       </c>
     </row>
     <row ht="142.5" r="364" spans="1:8" x14ac:dyDescent="0.2">
@@ -16540,7 +17127,7 @@
         <v>0.0</v>
       </c>
       <c r="T364" t="n">
-        <v>1.721636217598E12</v>
+        <v>1.724052365312E12</v>
       </c>
     </row>
     <row ht="114" r="365" spans="1:8" x14ac:dyDescent="0.2">
@@ -16566,7 +17153,7 @@
         <v>0.0</v>
       </c>
       <c r="T365" t="n">
-        <v>1.721636219889E12</v>
+        <v>1.724052367641E12</v>
       </c>
     </row>
     <row ht="114" r="366" spans="1:8" x14ac:dyDescent="0.2">
@@ -16589,10 +17176,10 @@
       <c r="G366" s="6"/>
       <c r="H366" s="6"/>
       <c r="R366" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T366" t="n">
-        <v>1.721693567334E12</v>
+        <v>1.724052371584E12</v>
       </c>
     </row>
     <row ht="128.25" r="367" spans="1:8" x14ac:dyDescent="0.2">
@@ -16615,10 +17202,10 @@
       <c r="G367" s="6"/>
       <c r="H367" s="6"/>
       <c r="R367" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T367" t="n">
-        <v>1.721693571762E12</v>
+        <v>1.724055979161E12</v>
       </c>
     </row>
     <row ht="128.25" r="368" spans="1:8" x14ac:dyDescent="0.2">
@@ -16644,7 +17231,7 @@
         <v>0.0</v>
       </c>
       <c r="T368" t="n">
-        <v>1.721636233435E12</v>
+        <v>1.724052399151E12</v>
       </c>
     </row>
     <row ht="114" r="369" spans="1:8" x14ac:dyDescent="0.2">
@@ -16670,7 +17257,7 @@
         <v>0.0</v>
       </c>
       <c r="T369" t="n">
-        <v>1.721636238707E12</v>
+        <v>1.724052402757E12</v>
       </c>
     </row>
     <row ht="185.25" r="370" spans="1:8" x14ac:dyDescent="0.2">
@@ -16693,10 +17280,10 @@
       <c r="G370" s="6"/>
       <c r="H370" s="6"/>
       <c r="R370" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T370" t="n">
-        <v>1.721693575143E12</v>
+        <v>1.724055982695E12</v>
       </c>
     </row>
     <row ht="142.5" r="371" spans="1:8" x14ac:dyDescent="0.2">
@@ -16719,10 +17306,10 @@
       <c r="G371" s="6"/>
       <c r="H371" s="6"/>
       <c r="R371" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T371" t="n">
-        <v>1.723711452795E12</v>
+        <v>1.724052411042E12</v>
       </c>
     </row>
     <row ht="114" r="372" spans="1:8" x14ac:dyDescent="0.2">
@@ -16745,10 +17332,10 @@
       <c r="G372" s="6"/>
       <c r="H372" s="6"/>
       <c r="R372" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T372" t="n">
-        <v>1.72169358452E12</v>
+        <v>1.724055984754E12</v>
       </c>
     </row>
     <row ht="99.75" r="373" spans="1:8" x14ac:dyDescent="0.2">
@@ -16771,10 +17358,10 @@
       <c r="G373" s="6"/>
       <c r="H373" s="6"/>
       <c r="R373" t="n">
-        <v>0.0</v>
+        <v>1.75</v>
       </c>
       <c r="T373" t="n">
-        <v>1.721636259248E12</v>
+        <v>1.724057681144E12</v>
       </c>
     </row>
     <row ht="185.25" r="374" spans="1:8" x14ac:dyDescent="0.2">
@@ -16800,7 +17387,7 @@
         <v>0.0</v>
       </c>
       <c r="T374" t="n">
-        <v>1.72163626347E12</v>
+        <v>1.724052427137E12</v>
       </c>
     </row>
     <row ht="142.5" r="375" spans="1:8" x14ac:dyDescent="0.2">
@@ -16826,7 +17413,7 @@
         <v>0.0</v>
       </c>
       <c r="T375" t="n">
-        <v>1.721636266394E12</v>
+        <v>1.724052432486E12</v>
       </c>
     </row>
     <row ht="171" r="376" spans="1:8" x14ac:dyDescent="0.2">
@@ -16852,7 +17439,7 @@
         <v>0.0</v>
       </c>
       <c r="T376" t="n">
-        <v>1.721636269294E12</v>
+        <v>1.724052435304E12</v>
       </c>
     </row>
     <row ht="199.5" r="377" spans="1:8" x14ac:dyDescent="0.2">
@@ -16875,10 +17462,10 @@
       <c r="G377" s="6"/>
       <c r="H377" s="6"/>
       <c r="R377" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T377" t="n">
-        <v>1.721693588325E12</v>
+        <v>1.724055994546E12</v>
       </c>
     </row>
     <row ht="171" r="378" spans="1:8" x14ac:dyDescent="0.2">
@@ -16904,7 +17491,7 @@
         <v>0.0</v>
       </c>
       <c r="T378" t="n">
-        <v>1.721636277489E12</v>
+        <v>1.724052449213E12</v>
       </c>
     </row>
     <row ht="128.25" r="379" spans="1:8" x14ac:dyDescent="0.2">
@@ -16930,7 +17517,7 @@
         <v>0.0</v>
       </c>
       <c r="T379" t="n">
-        <v>1.721636280905E12</v>
+        <v>1.724052462022E12</v>
       </c>
     </row>
     <row ht="156.75" r="380" spans="1:8" x14ac:dyDescent="0.2">
@@ -16953,10 +17540,10 @@
       <c r="G380" s="6"/>
       <c r="H380" s="6"/>
       <c r="R380" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T380" t="n">
-        <v>1.723711455166E12</v>
+        <v>1.724052465745E12</v>
       </c>
     </row>
     <row ht="85.5" r="381" spans="1:8" x14ac:dyDescent="0.2">
@@ -16979,10 +17566,10 @@
       <c r="G381" s="6"/>
       <c r="H381" s="6"/>
       <c r="R381" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T381" t="n">
-        <v>1.721636299006E12</v>
+        <v>1.724055997604E12</v>
       </c>
     </row>
     <row ht="114" r="382" spans="1:8" x14ac:dyDescent="0.2">
@@ -17008,7 +17595,7 @@
         <v>0.0</v>
       </c>
       <c r="T382" t="n">
-        <v>1.721636302357E12</v>
+        <v>1.724052473866E12</v>
       </c>
     </row>
     <row ht="285" r="383" spans="1:8" x14ac:dyDescent="0.2">
@@ -17034,7 +17621,7 @@
         <v>0.0</v>
       </c>
       <c r="T383" t="n">
-        <v>1.72163630513E12</v>
+        <v>1.724052478155E12</v>
       </c>
     </row>
     <row ht="128.25" r="384" spans="1:8" x14ac:dyDescent="0.2">
@@ -17060,7 +17647,7 @@
         <v>0.0</v>
       </c>
       <c r="T384" t="n">
-        <v>1.721636307687E12</v>
+        <v>1.724052480893E12</v>
       </c>
     </row>
     <row ht="42.75" r="385" spans="1:8" x14ac:dyDescent="0.2">
@@ -17083,10 +17670,10 @@
       <c r="G385" s="6"/>
       <c r="H385" s="6"/>
       <c r="R385" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T385" t="n">
-        <v>1.721693595166E12</v>
+        <v>1.724056000101E12</v>
       </c>
     </row>
     <row ht="171" r="386" spans="1:8" x14ac:dyDescent="0.2">
@@ -17112,7 +17699,7 @@
         <v>0.0</v>
       </c>
       <c r="T386" t="n">
-        <v>1.721636351164E12</v>
+        <v>1.724052519924E12</v>
       </c>
     </row>
     <row ht="57" r="387" spans="1:8" x14ac:dyDescent="0.2">
@@ -17139,10 +17726,10 @@
         <v>1256</v>
       </c>
       <c r="R387" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T387" t="n">
-        <v>1.721636359788E12</v>
+        <v>1.72405600661E12</v>
       </c>
     </row>
     <row ht="85.5" r="388" spans="1:8" x14ac:dyDescent="0.2">
@@ -17169,10 +17756,10 @@
         <v>1261</v>
       </c>
       <c r="R388" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T388" t="n">
-        <v>1.721693601445E12</v>
+        <v>1.724056008555E12</v>
       </c>
     </row>
     <row ht="85.5" r="389" spans="1:8" x14ac:dyDescent="0.2">
@@ -17199,10 +17786,10 @@
         <v>1266</v>
       </c>
       <c r="R389" t="n">
-        <v>0.65</v>
+        <v>3.4</v>
       </c>
       <c r="T389" t="n">
-        <v>1.721693611414E12</v>
+        <v>1.724134777318E12</v>
       </c>
     </row>
     <row ht="213.75" r="390" spans="1:8" x14ac:dyDescent="0.2">
@@ -17229,10 +17816,10 @@
         <v>1271</v>
       </c>
       <c r="R390" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T390" t="n">
-        <v>1.723711502058E12</v>
+        <v>1.724052570999E12</v>
       </c>
     </row>
     <row ht="185.25" r="391" spans="1:8" x14ac:dyDescent="0.2">
@@ -17262,7 +17849,7 @@
         <v>0.0</v>
       </c>
       <c r="T391" t="n">
-        <v>1.721636506548E12</v>
+        <v>1.724052579769E12</v>
       </c>
     </row>
     <row ht="57" r="392" spans="1:8" x14ac:dyDescent="0.2">
@@ -17289,10 +17876,10 @@
         <v>1280</v>
       </c>
       <c r="R392" t="n">
-        <v>0.5499999999999996</v>
+        <v>1.2999999999999996</v>
       </c>
       <c r="T392" t="n">
-        <v>1.723711506024E12</v>
+        <v>1.724056042979E12</v>
       </c>
     </row>
     <row ht="156.75" r="393" spans="1:8" x14ac:dyDescent="0.2">
@@ -17319,10 +17906,10 @@
         <v>1285</v>
       </c>
       <c r="R393" t="n">
-        <v>0.6999999999999985</v>
+        <v>0.34999999999999853</v>
       </c>
       <c r="T393" t="n">
-        <v>1.723623793183E12</v>
+        <v>1.724052594299E12</v>
       </c>
     </row>
     <row ht="228" r="394" spans="1:8" x14ac:dyDescent="0.2">
@@ -17349,10 +17936,10 @@
         <v>1289</v>
       </c>
       <c r="R394" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T394" t="n">
-        <v>1.721693636745E12</v>
+        <v>1.724052602832E12</v>
       </c>
     </row>
     <row ht="128.25" r="395" spans="1:8" x14ac:dyDescent="0.2">
@@ -17379,10 +17966,10 @@
         <v>1294</v>
       </c>
       <c r="R395" t="n">
-        <v>0.49999999999999933</v>
+        <v>1.2499999999999993</v>
       </c>
       <c r="T395" t="n">
-        <v>1.723711510956E12</v>
+        <v>1.724056055898E12</v>
       </c>
     </row>
     <row ht="142.5" r="396" spans="1:8" x14ac:dyDescent="0.2">
@@ -17409,10 +17996,10 @@
         <v>1298</v>
       </c>
       <c r="R396" t="n">
-        <v>0.7499999999999988</v>
+        <v>0.3999999999999988</v>
       </c>
       <c r="T396" t="n">
-        <v>1.723623795041E12</v>
+        <v>1.724052615594E12</v>
       </c>
     </row>
     <row ht="99.75" r="397" spans="1:8" x14ac:dyDescent="0.2">
@@ -17439,10 +18026,10 @@
         <v>1303</v>
       </c>
       <c r="R397" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T397" t="n">
-        <v>1.721637214255E12</v>
+        <v>1.724056062576E12</v>
       </c>
     </row>
     <row ht="57" r="398" spans="1:8" x14ac:dyDescent="0.2">
@@ -17472,7 +18059,7 @@
         <v>0.0</v>
       </c>
       <c r="T398" t="n">
-        <v>1.721637321206E12</v>
+        <v>1.724052666018E12</v>
       </c>
     </row>
     <row ht="57" r="399" spans="1:8" x14ac:dyDescent="0.2">
@@ -17499,10 +18086,10 @@
         <v>1313</v>
       </c>
       <c r="R399" t="n">
-        <v>0.49999999999999933</v>
+        <v>0.14999999999999936</v>
       </c>
       <c r="T399" t="n">
-        <v>1.723711514188E12</v>
+        <v>1.724052670509E12</v>
       </c>
     </row>
     <row ht="85.5" r="400" spans="1:8" x14ac:dyDescent="0.2">
@@ -17529,10 +18116,10 @@
         <v>1319</v>
       </c>
       <c r="R400" t="n">
-        <v>0.5999999999999981</v>
+        <v>0.2499999999999981</v>
       </c>
       <c r="T400" t="n">
-        <v>1.723623803545E12</v>
+        <v>1.724052685471E12</v>
       </c>
     </row>
     <row ht="71.25" r="401" spans="1:8" x14ac:dyDescent="0.2">
@@ -17559,10 +18146,10 @@
         <v>1324</v>
       </c>
       <c r="R401" t="n">
-        <v>0.44999999999999907</v>
+        <v>0.09999999999999909</v>
       </c>
       <c r="T401" t="n">
-        <v>1.723711515802E12</v>
+        <v>1.724052695058E12</v>
       </c>
     </row>
     <row ht="71.25" r="402" spans="1:8" x14ac:dyDescent="0.2">
@@ -17589,10 +18176,10 @@
         <v>1329</v>
       </c>
       <c r="R402" t="n">
-        <v>0.65</v>
+        <v>1.0499999999999998</v>
       </c>
       <c r="T402" t="n">
-        <v>1.721693670906E12</v>
+        <v>1.724056069857E12</v>
       </c>
     </row>
     <row ht="57" r="403" spans="1:8" x14ac:dyDescent="0.2">
@@ -17622,7 +18209,7 @@
         <v>0.0</v>
       </c>
       <c r="T403" t="n">
-        <v>1.721637524145E12</v>
+        <v>1.724052747166E12</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/中级工应知应会题库.xlsx
+++ b/target/classes/中级工应知应会题库.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3388" uniqueCount="1400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="1392">
   <si>
     <t>试题编号</t>
   </si>
@@ -4203,31 +4203,7 @@
     <t>您一共做了: 32题	您的得分： 96.875	做题时长约为53.416666666666664Min</t>
   </si>
   <si>
-    <t>您一共做了: 2题	您的得分： 50.0	做题时长约为1.0833333333333333Min</t>
-  </si>
-  <si>
-    <t>您一共做了: 100题	您的得分： 81.0	做题时长约为90.33333333333333Min</t>
-  </si>
-  <si>
-    <t>您一共做了: 100题	您的得分： 74.0	做题时长约为32.0Min</t>
-  </si>
-  <si>
-    <t>您一共做了: 100题	您的得分： 78.0	做题时长约为37.35Min</t>
-  </si>
-  <si>
-    <t>您一共做了: 100题	您的得分： 63.0	做题时长约为21.85Min</t>
-  </si>
-  <si>
-    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.7833333333333333Min</t>
-  </si>
-  <si>
-    <t>您一共做了: 106题	您的得分： 86.79245283018868	做题时长约为54.78333333333333Min</t>
-  </si>
-  <si>
-    <t>您一共做了: 14题	您的得分： 92.85714285714286	做题时长约为0.8666666666666667Min</t>
-  </si>
-  <si>
-    <t>您一共做了: 9题	您的得分： 77.77777777777779	做题时长约为1.2Min</t>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.13333333333333333Min</t>
   </si>
 </sst>
 </file>
@@ -4334,7 +4310,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1747">
+  <cellXfs count="1216">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5567,537 +5543,6 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -6441,10 +5886,10 @@
         <v>13</v>
       </c>
       <c r="R2" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72403075885E12</v>
+        <v>1.721640339311E12</v>
       </c>
       <c r="AA2" t="s">
         <v>1337</v>
@@ -6477,7 +5922,7 @@
         <v>0.0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.724030783175E12</v>
+        <v>1.721607789012E12</v>
       </c>
       <c r="AA3" t="s">
         <v>1338</v>
@@ -6510,13 +5955,13 @@
         <v>0.0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.724030789839E12</v>
+        <v>1.721607793891E12</v>
       </c>
       <c r="AA4" t="s">
         <v>1339</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.0</v>
+        <v>401.0</v>
       </c>
     </row>
     <row ht="114" r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -6543,10 +5988,10 @@
         <v>30</v>
       </c>
       <c r="R5" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T5" t="n">
-        <v>1.724030839008E12</v>
+        <v>1.721640342972E12</v>
       </c>
       <c r="AA5" t="s">
         <v>1340</v>
@@ -6579,7 +6024,7 @@
         <v>0.0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.72403087063E12</v>
+        <v>1.721607866181E12</v>
       </c>
       <c r="AA6" t="s">
         <v>1341</v>
@@ -6609,10 +6054,10 @@
         <v>41</v>
       </c>
       <c r="R7" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T7" t="n">
-        <v>1.724030873957E12</v>
+        <v>1.721640557121E12</v>
       </c>
       <c r="AA7" t="s">
         <v>1342</v>
@@ -6642,10 +6087,10 @@
         <v>46</v>
       </c>
       <c r="R8" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72403088074E12</v>
+        <v>1.721640575497E12</v>
       </c>
       <c r="AA8" t="s">
         <v>1343</v>
@@ -6675,10 +6120,10 @@
         <v>51</v>
       </c>
       <c r="R9" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T9" t="n">
-        <v>1.724030884776E12</v>
+        <v>1.721640733457E12</v>
       </c>
       <c r="AA9" t="s">
         <v>1344</v>
@@ -6711,7 +6156,7 @@
         <v>0.0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.724030888684E12</v>
+        <v>1.721607935308E12</v>
       </c>
       <c r="AA10" t="s">
         <v>1345</v>
@@ -6741,10 +6186,10 @@
         <v>62</v>
       </c>
       <c r="R11" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T11" t="n">
-        <v>1.724030958682E12</v>
+        <v>1.721640740179E12</v>
       </c>
       <c r="AA11" t="s">
         <v>1346</v>
@@ -6774,10 +6219,10 @@
         <v>62</v>
       </c>
       <c r="R12" t="n">
-        <v>0.34999999999999853</v>
+        <v>0.6999999999999985</v>
       </c>
       <c r="T12" t="n">
-        <v>1.724030963002E12</v>
+        <v>1.72362337209E12</v>
       </c>
       <c r="AA12" t="s">
         <v>1347</v>
@@ -6810,7 +6255,7 @@
         <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.724030965139E12</v>
+        <v>1.72160804786E12</v>
       </c>
       <c r="AA13" t="s">
         <v>1348</v>
@@ -6840,10 +6285,10 @@
         <v>73</v>
       </c>
       <c r="R14" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T14" t="n">
-        <v>1.72403099837E12</v>
+        <v>1.721640769413E12</v>
       </c>
       <c r="AA14" t="s">
         <v>1349</v>
@@ -6876,7 +6321,7 @@
         <v>0.0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.724031000922E12</v>
+        <v>1.721608152183E12</v>
       </c>
       <c r="AA15" t="s">
         <v>1350</v>
@@ -6909,7 +6354,7 @@
         <v>0.0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.724031010465E12</v>
+        <v>1.721608156028E12</v>
       </c>
       <c r="AA16" t="s">
         <v>1351</v>
@@ -6939,10 +6384,10 @@
         <v>88</v>
       </c>
       <c r="R17" t="n">
-        <v>0.19999999999999962</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T17" t="n">
-        <v>1.724031012969E12</v>
+        <v>1.723708313541E12</v>
       </c>
       <c r="AA17" t="s">
         <v>1352</v>
@@ -6975,7 +6420,7 @@
         <v>0.0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.724031047772E12</v>
+        <v>1.721608172859E12</v>
       </c>
       <c r="AA18" t="s">
         <v>1353</v>
@@ -7005,10 +6450,10 @@
         <v>30</v>
       </c>
       <c r="R19" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T19" t="n">
-        <v>1.724052787307E12</v>
+        <v>1.721640801704E12</v>
       </c>
       <c r="AA19" t="s">
         <v>1354</v>
@@ -7038,10 +6483,10 @@
         <v>120</v>
       </c>
       <c r="R20" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T20" t="n">
-        <v>1.724052792524E12</v>
+        <v>1.721640803644E12</v>
       </c>
       <c r="AA20" t="s">
         <v>1350</v>
@@ -7074,7 +6519,7 @@
         <v>0.0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.724031065498E12</v>
+        <v>1.721608190619E12</v>
       </c>
       <c r="AA21" t="s">
         <v>1355</v>
@@ -7104,10 +6549,10 @@
         <v>105</v>
       </c>
       <c r="R22" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T22" t="n">
-        <v>1.724031072592E12</v>
+        <v>1.721640805098E12</v>
       </c>
       <c r="AA22" t="s">
         <v>1356</v>
@@ -7140,7 +6585,7 @@
         <v>0.0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.724031085873E12</v>
+        <v>1.721608544688E12</v>
       </c>
       <c r="AA23" t="s">
         <v>1357</v>
@@ -7170,10 +6615,10 @@
         <v>115</v>
       </c>
       <c r="R24" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T24" t="n">
-        <v>1.724031090581E12</v>
+        <v>1.721640811425E12</v>
       </c>
       <c r="AA24" t="s">
         <v>1358</v>
@@ -7203,10 +6648,10 @@
         <v>120</v>
       </c>
       <c r="R25" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T25" t="n">
-        <v>1.724031280437E12</v>
+        <v>1.721640830314E12</v>
       </c>
       <c r="AA25" t="s">
         <v>1351</v>
@@ -7236,10 +6681,10 @@
         <v>120</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T26" t="n">
-        <v>1.724052794636E12</v>
+        <v>1.721640833099E12</v>
       </c>
       <c r="AA26" t="s">
         <v>1359</v>
@@ -7272,7 +6717,7 @@
         <v>0.0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.724031343785E12</v>
+        <v>1.721610521122E12</v>
       </c>
       <c r="AA27" t="s">
         <v>1356</v>
@@ -7305,7 +6750,7 @@
         <v>0.0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.724031347138E12</v>
+        <v>1.721610533076E12</v>
       </c>
       <c r="AA28" t="s">
         <v>1360</v>
@@ -7338,7 +6783,7 @@
         <v>0.0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.724031384268E12</v>
+        <v>1.721611182385E12</v>
       </c>
       <c r="AA29" t="s">
         <v>1361</v>
@@ -7368,10 +6813,10 @@
         <v>140</v>
       </c>
       <c r="R30" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T30" t="n">
-        <v>1.724052797393E12</v>
+        <v>1.721640835328E12</v>
       </c>
       <c r="AA30" t="s">
         <v>1355</v>
@@ -7404,7 +6849,7 @@
         <v>0.0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.724031475346E12</v>
+        <v>1.721611282311E12</v>
       </c>
       <c r="AA31" t="s">
         <v>1362</v>
@@ -7434,10 +6879,10 @@
         <v>150</v>
       </c>
       <c r="R32" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T32" t="n">
-        <v>1.724031484132E12</v>
+        <v>1.721640839381E12</v>
       </c>
       <c r="AA32" t="s">
         <v>1363</v>
@@ -7467,10 +6912,10 @@
         <v>155</v>
       </c>
       <c r="R33" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T33" t="n">
-        <v>1.72403153788E12</v>
+        <v>1.721640862942E12</v>
       </c>
       <c r="AA33" t="s">
         <v>1364</v>
@@ -7500,10 +6945,10 @@
         <v>5</v>
       </c>
       <c r="R34" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.724052799609E12</v>
+        <v>1.721611301423E12</v>
       </c>
       <c r="AA34" t="s">
         <v>1365</v>
@@ -7536,7 +6981,7 @@
         <v>0.0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.724031817406E12</v>
+        <v>1.721611306549E12</v>
       </c>
       <c r="AA35" t="s">
         <v>1361</v>
@@ -7566,10 +7011,10 @@
         <v>166</v>
       </c>
       <c r="R36" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T36" t="n">
-        <v>1.724031834845E12</v>
+        <v>1.721640866267E12</v>
       </c>
       <c r="AA36" t="s">
         <v>1366</v>
@@ -7602,7 +7047,7 @@
         <v>0.0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.724031865088E12</v>
+        <v>1.721611393539E12</v>
       </c>
       <c r="AA37" t="s">
         <v>1367</v>
@@ -7632,10 +7077,10 @@
         <v>75</v>
       </c>
       <c r="R38" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T38" t="n">
-        <v>1.724031868117E12</v>
+        <v>1.721640868308E12</v>
       </c>
       <c r="AA38" t="s">
         <v>1368</v>
@@ -7665,10 +7110,10 @@
         <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T39" t="n">
-        <v>1.724052833934E12</v>
+        <v>1.721640870173E12</v>
       </c>
       <c r="AA39" t="s">
         <v>1369</v>
@@ -7701,7 +7146,7 @@
         <v>0.0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.724032017591E12</v>
+        <v>1.721611422841E12</v>
       </c>
       <c r="AA40" t="s">
         <v>1369</v>
@@ -7734,7 +7179,7 @@
         <v>0.0</v>
       </c>
       <c r="T41" t="n">
-        <v>1.72403202406E12</v>
+        <v>1.721611427909E12</v>
       </c>
       <c r="AA41" t="s">
         <v>1359</v>
@@ -7767,7 +7212,7 @@
         <v>0.0</v>
       </c>
       <c r="T42" t="n">
-        <v>1.724032026734E12</v>
+        <v>1.721611430862E12</v>
       </c>
       <c r="AA42" t="s">
         <v>1370</v>
@@ -7797,10 +7242,10 @@
         <v>195</v>
       </c>
       <c r="R43" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.72405284387E12</v>
+        <v>1.72161155929E12</v>
       </c>
       <c r="AA43" t="s">
         <v>1371</v>
@@ -7833,7 +7278,7 @@
         <v>0.0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.724032675114E12</v>
+        <v>1.721611567498E12</v>
       </c>
       <c r="AA44" t="s">
         <v>1372</v>
@@ -7863,10 +7308,10 @@
         <v>205</v>
       </c>
       <c r="R45" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T45" t="n">
-        <v>1.724052862178E12</v>
+        <v>1.721640872394E12</v>
       </c>
       <c r="AA45" t="s">
         <v>1361</v>
@@ -7896,10 +7341,10 @@
         <v>210</v>
       </c>
       <c r="R46" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T46" t="n">
-        <v>1.724032839531E12</v>
+        <v>1.721640873927E12</v>
       </c>
       <c r="AA46" t="s">
         <v>1356</v>
@@ -7929,10 +7374,10 @@
         <v>215</v>
       </c>
       <c r="R47" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T47" t="n">
-        <v>1.724032842104E12</v>
+        <v>1.721640875159E12</v>
       </c>
       <c r="AA47" t="s">
         <v>1355</v>
@@ -7965,7 +7410,7 @@
         <v>0.0</v>
       </c>
       <c r="T48" t="n">
-        <v>1.724032853751E12</v>
+        <v>1.721611590255E12</v>
       </c>
       <c r="AA48" t="s">
         <v>1373</v>
@@ -7995,10 +7440,10 @@
         <v>225</v>
       </c>
       <c r="R49" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T49" t="n">
-        <v>1.724052871716E12</v>
+        <v>1.721640878211E12</v>
       </c>
       <c r="AA49" t="s">
         <v>1361</v>
@@ -8028,10 +7473,10 @@
         <v>230</v>
       </c>
       <c r="R50" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T50" t="n">
-        <v>1.724032919572E12</v>
+        <v>1.721640880948E12</v>
       </c>
       <c r="AA50" t="s">
         <v>1356</v>
@@ -8061,10 +7506,10 @@
         <v>235</v>
       </c>
       <c r="R51" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T51" t="n">
-        <v>1.724032931533E12</v>
+        <v>1.721640884489E12</v>
       </c>
       <c r="AA51" t="s">
         <v>1365</v>
@@ -8094,10 +7539,10 @@
         <v>240</v>
       </c>
       <c r="R52" t="n">
-        <v>2.15</v>
+        <v>0.65</v>
       </c>
       <c r="T52" t="n">
-        <v>1.724134707764E12</v>
+        <v>1.721640891232E12</v>
       </c>
       <c r="AA52" t="s">
         <v>1374</v>
@@ -8130,7 +7575,7 @@
         <v>0.0</v>
       </c>
       <c r="T53" t="n">
-        <v>1.724032952617E12</v>
+        <v>1.721611731411E12</v>
       </c>
       <c r="AA53" t="s">
         <v>1359</v>
@@ -8160,10 +7605,10 @@
         <v>250</v>
       </c>
       <c r="R54" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T54" t="n">
-        <v>1.724052992271E12</v>
+        <v>1.72164089311E12</v>
       </c>
       <c r="AA54" t="s">
         <v>1369</v>
@@ -8193,10 +7638,10 @@
         <v>255</v>
       </c>
       <c r="R55" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T55" t="n">
-        <v>1.724033030104E12</v>
+        <v>1.72164090438E12</v>
       </c>
       <c r="AA55" t="s">
         <v>1359</v>
@@ -8226,10 +7671,10 @@
         <v>260</v>
       </c>
       <c r="R56" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T56" t="n">
-        <v>1.724033052672E12</v>
+        <v>1.721640912568E12</v>
       </c>
       <c r="AA56" t="s">
         <v>1375</v>
@@ -8262,7 +7707,7 @@
         <v>0.0</v>
       </c>
       <c r="T57" t="n">
-        <v>1.724033061506E12</v>
+        <v>1.721611806284E12</v>
       </c>
       <c r="AA57" t="s">
         <v>1376</v>
@@ -8295,7 +7740,7 @@
         <v>0.0</v>
       </c>
       <c r="T58" t="n">
-        <v>1.724033067126E12</v>
+        <v>1.721611811403E12</v>
       </c>
       <c r="AA58" t="s">
         <v>1377</v>
@@ -8328,7 +7773,7 @@
         <v>0.0</v>
       </c>
       <c r="T59" t="n">
-        <v>1.724033073176E12</v>
+        <v>1.721611819852E12</v>
       </c>
       <c r="AA59" t="s">
         <v>1378</v>
@@ -8358,10 +7803,10 @@
         <v>276</v>
       </c>
       <c r="R60" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T60" t="n">
-        <v>1.724033082524E12</v>
+        <v>1.721640916923E12</v>
       </c>
       <c r="AA60" t="s">
         <v>1379</v>
@@ -8391,10 +7836,10 @@
         <v>281</v>
       </c>
       <c r="R61" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T61" t="n">
-        <v>1.724053032615E12</v>
+        <v>1.721640919261E12</v>
       </c>
       <c r="AA61" t="s">
         <v>1380</v>
@@ -8424,10 +7869,10 @@
         <v>286</v>
       </c>
       <c r="R62" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T62" t="n">
-        <v>1.724053037381E12</v>
+        <v>1.721640925152E12</v>
       </c>
       <c r="AA62" t="s">
         <v>1365</v>
@@ -8460,7 +7905,7 @@
         <v>0.0</v>
       </c>
       <c r="T63" t="n">
-        <v>1.724033114143E12</v>
+        <v>1.721611866282E12</v>
       </c>
       <c r="AA63" t="s">
         <v>1356</v>
@@ -8493,7 +7938,7 @@
         <v>0.0</v>
       </c>
       <c r="T64" t="n">
-        <v>1.724033122507E12</v>
+        <v>1.721611876331E12</v>
       </c>
       <c r="AA64" t="s">
         <v>1381</v>
@@ -8526,7 +7971,7 @@
         <v>0.0</v>
       </c>
       <c r="T65" t="n">
-        <v>1.724033130194E12</v>
+        <v>1.72161188525E12</v>
       </c>
       <c r="AA65" t="s">
         <v>1365</v>
@@ -8559,7 +8004,7 @@
         <v>0.0</v>
       </c>
       <c r="T66" t="n">
-        <v>1.724033163077E12</v>
+        <v>1.721611891015E12</v>
       </c>
       <c r="AA66" t="s">
         <v>1382</v>
@@ -8592,7 +8037,7 @@
         <v>0.0</v>
       </c>
       <c r="T67" t="n">
-        <v>1.72403317324E12</v>
+        <v>1.72161189849E12</v>
       </c>
       <c r="AA67" t="s">
         <v>1362</v>
@@ -8622,10 +8067,10 @@
         <v>316</v>
       </c>
       <c r="R68" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T68" t="n">
-        <v>1.724033177869E12</v>
+        <v>1.721640926728E12</v>
       </c>
       <c r="AA68" t="s">
         <v>1383</v>
@@ -8658,7 +8103,7 @@
         <v>0.0</v>
       </c>
       <c r="T69" t="n">
-        <v>1.724033251543E12</v>
+        <v>1.721611944616E12</v>
       </c>
       <c r="AA69" t="s">
         <v>1359</v>
@@ -8691,7 +8136,7 @@
         <v>0.0</v>
       </c>
       <c r="T70" t="n">
-        <v>1.724033259023E12</v>
+        <v>1.72161195401E12</v>
       </c>
       <c r="AA70" t="s">
         <v>1356</v>
@@ -8721,10 +8166,10 @@
         <v>330</v>
       </c>
       <c r="R71" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T71" t="n">
-        <v>1.724053055392E12</v>
+        <v>1.721640929831E12</v>
       </c>
       <c r="AA71" t="s">
         <v>1384</v>
@@ -8754,10 +8199,10 @@
         <v>335</v>
       </c>
       <c r="R72" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T72" t="n">
-        <v>1.724033302636E12</v>
+        <v>1.721640937409E12</v>
       </c>
       <c r="AA72" t="s">
         <v>1359</v>
@@ -8790,7 +8235,7 @@
         <v>0.0</v>
       </c>
       <c r="T73" t="n">
-        <v>1.724033333874E12</v>
+        <v>1.721612027153E12</v>
       </c>
       <c r="AA73" t="s">
         <v>1385</v>
@@ -8823,7 +8268,7 @@
         <v>0.0</v>
       </c>
       <c r="T74" t="n">
-        <v>1.724033346359E12</v>
+        <v>1.72161203387E12</v>
       </c>
       <c r="AA74" t="s">
         <v>1386</v>
@@ -8853,10 +8298,10 @@
         <v>350</v>
       </c>
       <c r="R75" t="n">
-        <v>0.19999999999999962</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T75" t="n">
-        <v>1.724033350208E12</v>
+        <v>1.723708315866E12</v>
       </c>
       <c r="AA75" t="s">
         <v>1387</v>
@@ -8889,7 +8334,7 @@
         <v>0.0</v>
       </c>
       <c r="T76" t="n">
-        <v>1.724033422897E12</v>
+        <v>1.721612046036E12</v>
       </c>
       <c r="AA76" t="s">
         <v>1361</v>
@@ -8922,7 +8367,7 @@
         <v>0.0</v>
       </c>
       <c r="T77" t="n">
-        <v>1.724033434601E12</v>
+        <v>1.72161205153E12</v>
       </c>
       <c r="AA77" t="s">
         <v>1355</v>
@@ -8955,7 +8400,7 @@
         <v>0.0</v>
       </c>
       <c r="T78" t="n">
-        <v>1.724033443943E12</v>
+        <v>1.721612060001E12</v>
       </c>
       <c r="AA78" t="s">
         <v>1356</v>
@@ -8988,7 +8433,7 @@
         <v>0.0</v>
       </c>
       <c r="T79" t="n">
-        <v>1.724033453643E12</v>
+        <v>1.721612517028E12</v>
       </c>
       <c r="AA79" t="s">
         <v>1356</v>
@@ -9021,7 +8466,7 @@
         <v>0.0</v>
       </c>
       <c r="T80" t="n">
-        <v>1.72403384481E12</v>
+        <v>1.721612520967E12</v>
       </c>
       <c r="AA80" t="s">
         <v>1388</v>
@@ -9054,7 +8499,7 @@
         <v>0.0</v>
       </c>
       <c r="T81" t="n">
-        <v>1.724033851108E12</v>
+        <v>1.721612527265E12</v>
       </c>
       <c r="AA81" t="s">
         <v>1389</v>
@@ -9087,7 +8532,7 @@
         <v>0.0</v>
       </c>
       <c r="T82" t="n">
-        <v>1.724033869715E12</v>
+        <v>1.721612532551E12</v>
       </c>
       <c r="AA82" t="s">
         <v>1390</v>
@@ -9117,10 +8562,10 @@
         <v>376</v>
       </c>
       <c r="R83" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="T83" t="n">
-        <v>1.724053091091E12</v>
+        <v>1.721612535981E12</v>
       </c>
       <c r="AA83" t="s">
         <v>1391</v>
@@ -9148,13 +8593,13 @@
       </c>
       <c r="H84" s="5"/>
       <c r="R84" t="n">
-        <v>0.2499999999999999</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T84" t="n">
-        <v>1.724033897865E12</v>
+        <v>1.723623395484E12</v>
       </c>
       <c r="AA84" t="s">
-        <v>1392</v>
+        <v>1356</v>
       </c>
     </row>
     <row ht="199.5" r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -9181,13 +8626,10 @@
         <v>389</v>
       </c>
       <c r="R85" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T85" t="n">
-        <v>1.724053103894E12</v>
-      </c>
-      <c r="AA85" t="s">
-        <v>1393</v>
+        <v>1.721640952549E12</v>
       </c>
     </row>
     <row ht="71.25" r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -9217,10 +8659,7 @@
         <v>0.0</v>
       </c>
       <c r="T86" t="n">
-        <v>1.724033980934E12</v>
-      </c>
-      <c r="AA86" t="s">
-        <v>1394</v>
+        <v>1.721612698194E12</v>
       </c>
     </row>
     <row ht="71.25" r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -9247,13 +8686,10 @@
         <v>224</v>
       </c>
       <c r="R87" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="T87" t="n">
-        <v>1.724053114233E12</v>
-      </c>
-      <c r="AA87" t="s">
-        <v>1395</v>
+        <v>1.721612728778E12</v>
       </c>
     </row>
     <row ht="28.5" r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -9283,10 +8719,7 @@
         <v>0.0</v>
       </c>
       <c r="T88" t="n">
-        <v>1.72403400751E12</v>
-      </c>
-      <c r="AA88" t="s">
-        <v>1396</v>
+        <v>1.721612732229E12</v>
       </c>
     </row>
     <row ht="114" r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -9316,10 +8749,7 @@
         <v>0.0</v>
       </c>
       <c r="T89" t="n">
-        <v>1.724035640983E12</v>
-      </c>
-      <c r="AA89" t="s">
-        <v>1397</v>
+        <v>1.72161273872E12</v>
       </c>
     </row>
     <row ht="171" r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -9349,10 +8779,7 @@
         <v>0.0</v>
       </c>
       <c r="T90" t="n">
-        <v>1.724035661528E12</v>
-      </c>
-      <c r="AA90" t="s">
-        <v>1398</v>
+        <v>1.721612767988E12</v>
       </c>
     </row>
     <row ht="156.75" r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -9379,13 +8806,10 @@
         <v>411</v>
       </c>
       <c r="R91" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T91" t="n">
-        <v>1.724053395888E12</v>
-      </c>
-      <c r="AA91" t="s">
-        <v>1399</v>
+        <v>1.72164095725E12</v>
       </c>
     </row>
     <row ht="71.25" r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -9415,7 +8839,7 @@
         <v>0.0</v>
       </c>
       <c r="T92" t="n">
-        <v>1.724035679763E12</v>
+        <v>1.721613163335E12</v>
       </c>
     </row>
     <row ht="85.5" r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -9445,7 +8869,7 @@
         <v>0.0</v>
       </c>
       <c r="T93" t="n">
-        <v>1.724035684284E12</v>
+        <v>1.721613208796E12</v>
       </c>
     </row>
     <row ht="85.5" r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -9475,7 +8899,7 @@
         <v>0.0</v>
       </c>
       <c r="T94" t="n">
-        <v>1.724035687992E12</v>
+        <v>1.721613213875E12</v>
       </c>
     </row>
     <row ht="85.5" r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -9502,10 +8926,10 @@
         <v>431</v>
       </c>
       <c r="R95" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T95" t="n">
-        <v>1.72405339945E12</v>
+        <v>1.721640961755E12</v>
       </c>
     </row>
     <row ht="142.5" r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -9532,10 +8956,10 @@
         <v>11</v>
       </c>
       <c r="R96" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T96" t="n">
-        <v>1.724035714686E12</v>
+        <v>1.721640964161E12</v>
       </c>
     </row>
     <row ht="185.25" r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -9565,7 +8989,7 @@
         <v>0.0</v>
       </c>
       <c r="T97" t="n">
-        <v>1.724036153257E12</v>
+        <v>1.721613301E12</v>
       </c>
     </row>
     <row ht="128.25" r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -9595,7 +9019,7 @@
         <v>0.0</v>
       </c>
       <c r="T98" t="n">
-        <v>1.724036160964E12</v>
+        <v>1.721613365411E12</v>
       </c>
     </row>
     <row ht="28.5" r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -9625,7 +9049,7 @@
         <v>0.0</v>
       </c>
       <c r="T99" t="n">
-        <v>1.724036163347E12</v>
+        <v>1.721613368604E12</v>
       </c>
     </row>
     <row ht="99.75" r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -9655,7 +9079,7 @@
         <v>0.0</v>
       </c>
       <c r="T100" t="n">
-        <v>1.724036170279E12</v>
+        <v>1.721613515369E12</v>
       </c>
     </row>
     <row ht="85.5" r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -9682,10 +9106,10 @@
         <v>454</v>
       </c>
       <c r="R101" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T101" t="n">
-        <v>1.724036174661E12</v>
+        <v>1.721640967163E12</v>
       </c>
     </row>
     <row ht="114" r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -9715,7 +9139,7 @@
         <v>0.0</v>
       </c>
       <c r="T102" t="n">
-        <v>1.724036386893E12</v>
+        <v>1.721613940973E12</v>
       </c>
     </row>
     <row ht="185.25" r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -9745,7 +9169,7 @@
         <v>0.0</v>
       </c>
       <c r="T103" t="n">
-        <v>1.724036394738E12</v>
+        <v>1.721613952262E12</v>
       </c>
     </row>
     <row ht="71.25" r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -9772,10 +9196,10 @@
         <v>120</v>
       </c>
       <c r="R104" t="n">
-        <v>0.19999999999999962</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T104" t="n">
-        <v>1.724036398212E12</v>
+        <v>1.723708318321E12</v>
       </c>
     </row>
     <row ht="71.25" r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -9805,7 +9229,7 @@
         <v>0.0</v>
       </c>
       <c r="T105" t="n">
-        <v>1.724036488732E12</v>
+        <v>1.721613996251E12</v>
       </c>
     </row>
     <row ht="185.25" r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -9832,10 +9256,10 @@
         <v>15</v>
       </c>
       <c r="R106" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T106" t="n">
-        <v>1.724053402737E12</v>
+        <v>1.721640979682E12</v>
       </c>
     </row>
     <row ht="85.5" r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -9862,10 +9286,10 @@
         <v>479</v>
       </c>
       <c r="R107" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T107" t="n">
-        <v>1.72403651039E12</v>
+        <v>1.72164100352E12</v>
       </c>
     </row>
     <row ht="171" r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -9895,7 +9319,7 @@
         <v>0.0</v>
       </c>
       <c r="T108" t="n">
-        <v>1.724036559969E12</v>
+        <v>1.721614027355E12</v>
       </c>
     </row>
     <row ht="142.5" r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -9922,10 +9346,10 @@
         <v>485</v>
       </c>
       <c r="R109" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T109" t="n">
-        <v>1.724053651543E12</v>
+        <v>1.721641008403E12</v>
       </c>
     </row>
     <row ht="114" r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -9955,7 +9379,7 @@
         <v>0.0</v>
       </c>
       <c r="T110" t="n">
-        <v>1.724036593442E12</v>
+        <v>1.72161404706E12</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -9985,7 +9409,7 @@
         <v>0.0</v>
       </c>
       <c r="T111" t="n">
-        <v>1.724036800559E12</v>
+        <v>1.721614056935E12</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -10015,7 +9439,7 @@
         <v>0.0</v>
       </c>
       <c r="T112" t="n">
-        <v>1.724036803623E12</v>
+        <v>1.721614062126E12</v>
       </c>
     </row>
     <row ht="99.75" r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -10045,7 +9469,7 @@
         <v>0.0</v>
       </c>
       <c r="T113" t="n">
-        <v>1.724036811692E12</v>
+        <v>1.72161417707E12</v>
       </c>
     </row>
     <row ht="213.75" r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -10075,7 +9499,7 @@
         <v>0.0</v>
       </c>
       <c r="T114" t="n">
-        <v>1.724036867744E12</v>
+        <v>1.721614185122E12</v>
       </c>
     </row>
     <row ht="99.75" r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -10102,10 +9526,10 @@
         <v>511</v>
       </c>
       <c r="R115" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="T115" t="n">
-        <v>1.724053658176E12</v>
+        <v>1.721614210784E12</v>
       </c>
     </row>
     <row ht="114" r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -10135,7 +9559,7 @@
         <v>0.0</v>
       </c>
       <c r="T116" t="n">
-        <v>1.724036908999E12</v>
+        <v>1.721614215621E12</v>
       </c>
     </row>
     <row ht="128.25" r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -10162,10 +9586,10 @@
         <v>521</v>
       </c>
       <c r="R117" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T117" t="n">
-        <v>1.724053661473E12</v>
+        <v>1.721641038156E12</v>
       </c>
     </row>
     <row ht="71.25" r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -10192,10 +9616,10 @@
         <v>526</v>
       </c>
       <c r="R118" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T118" t="n">
-        <v>1.724053664011E12</v>
+        <v>1.721641039926E12</v>
       </c>
     </row>
     <row ht="71.25" r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -10225,7 +9649,7 @@
         <v>0.0</v>
       </c>
       <c r="T119" t="n">
-        <v>1.724037007729E12</v>
+        <v>1.721614238357E12</v>
       </c>
     </row>
     <row ht="114" r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -10255,7 +9679,7 @@
         <v>0.0</v>
       </c>
       <c r="T120" t="n">
-        <v>1.724037049891E12</v>
+        <v>1.721614240816E12</v>
       </c>
     </row>
     <row ht="99.75" r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -10282,10 +9706,10 @@
         <v>540</v>
       </c>
       <c r="R121" t="n">
-        <v>0.19999999999999962</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T121" t="n">
-        <v>1.72403705263E12</v>
+        <v>1.723708320218E12</v>
       </c>
     </row>
     <row ht="57" r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -10312,10 +9736,10 @@
         <v>545</v>
       </c>
       <c r="R122" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T122" t="n">
-        <v>1.724053671662E12</v>
+        <v>1.721641057018E12</v>
       </c>
     </row>
     <row ht="99.75" r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -10345,7 +9769,7 @@
         <v>0.0</v>
       </c>
       <c r="T123" t="n">
-        <v>1.724037085917E12</v>
+        <v>1.721614277348E12</v>
       </c>
     </row>
     <row ht="71.25" r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -10372,10 +9796,10 @@
         <v>552</v>
       </c>
       <c r="R124" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T124" t="n">
-        <v>1.724037090958E12</v>
+        <v>1.72164106202E12</v>
       </c>
     </row>
     <row ht="185.25" r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -10402,10 +9826,10 @@
         <v>557</v>
       </c>
       <c r="R125" t="n">
-        <v>0.14999999999999936</v>
+        <v>0.49999999999999933</v>
       </c>
       <c r="T125" t="n">
-        <v>1.724037095016E12</v>
+        <v>1.723708394133E12</v>
       </c>
     </row>
     <row ht="156.75" r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -10432,10 +9856,10 @@
         <v>562</v>
       </c>
       <c r="R126" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T126" t="n">
-        <v>1.724037098002E12</v>
+        <v>1.721641075607E12</v>
       </c>
     </row>
     <row ht="142.5" r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -10465,7 +9889,7 @@
         <v>0.0</v>
       </c>
       <c r="T127" t="n">
-        <v>1.724037137785E12</v>
+        <v>1.721614313045E12</v>
       </c>
     </row>
     <row ht="99.75" r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -10495,7 +9919,7 @@
         <v>0.0</v>
       </c>
       <c r="T128" t="n">
-        <v>1.724037142215E12</v>
+        <v>1.721614322782E12</v>
       </c>
     </row>
     <row ht="213.75" r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -10525,7 +9949,7 @@
         <v>0.0</v>
       </c>
       <c r="T129" t="n">
-        <v>1.724037168405E12</v>
+        <v>1.721614326558E12</v>
       </c>
     </row>
     <row ht="142.5" r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -10555,7 +9979,7 @@
         <v>0.0</v>
       </c>
       <c r="T130" t="n">
-        <v>1.724037229043E12</v>
+        <v>1.721614335466E12</v>
       </c>
     </row>
     <row ht="99.75" r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -10582,10 +10006,10 @@
         <v>587</v>
       </c>
       <c r="R131" t="n">
-        <v>1.3999999999999992</v>
+        <v>0.6499999999999992</v>
       </c>
       <c r="T131" t="n">
-        <v>1.724053690843E12</v>
+        <v>1.723623569897E12</v>
       </c>
     </row>
     <row ht="142.5" r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -10615,7 +10039,7 @@
         <v>0.0</v>
       </c>
       <c r="T132" t="n">
-        <v>1.724037263111E12</v>
+        <v>1.721614348242E12</v>
       </c>
     </row>
     <row ht="85.5" r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -10645,7 +10069,7 @@
         <v>0.0</v>
       </c>
       <c r="T133" t="n">
-        <v>1.724037281537E12</v>
+        <v>1.721614353737E12</v>
       </c>
     </row>
     <row ht="242.25" r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -10672,10 +10096,10 @@
         <v>602</v>
       </c>
       <c r="R134" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T134" t="n">
-        <v>1.724053693584E12</v>
+        <v>1.721641093489E12</v>
       </c>
     </row>
     <row ht="114" r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -10705,7 +10129,7 @@
         <v>0.0</v>
       </c>
       <c r="T135" t="n">
-        <v>1.724037295975E12</v>
+        <v>1.721614366495E12</v>
       </c>
     </row>
     <row ht="128.25" r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -10732,10 +10156,10 @@
         <v>612</v>
       </c>
       <c r="R136" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T136" t="n">
-        <v>1.724037303254E12</v>
+        <v>1.721641097136E12</v>
       </c>
     </row>
     <row ht="171" r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -10762,10 +10186,10 @@
         <v>614</v>
       </c>
       <c r="R137" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T137" t="n">
-        <v>1.724053697795E12</v>
+        <v>1.721641107709E12</v>
       </c>
     </row>
     <row ht="185.25" r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -10792,10 +10216,10 @@
         <v>614</v>
       </c>
       <c r="R138" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T138" t="n">
-        <v>1.724053728504E12</v>
+        <v>1.721641112142E12</v>
       </c>
     </row>
     <row ht="342" r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -10825,7 +10249,7 @@
         <v>0.0</v>
       </c>
       <c r="T139" t="n">
-        <v>1.72403736386E12</v>
+        <v>1.72161450513E12</v>
       </c>
     </row>
     <row ht="156.75" r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -10852,10 +10276,10 @@
         <v>614</v>
       </c>
       <c r="R140" t="n">
-        <v>2.15</v>
+        <v>0.65</v>
       </c>
       <c r="T140" t="n">
-        <v>1.724134711643E12</v>
+        <v>1.721641116637E12</v>
       </c>
     </row>
     <row ht="228" r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -10882,10 +10306,10 @@
         <v>622</v>
       </c>
       <c r="R141" t="n">
-        <v>1.75</v>
+        <v>0.0</v>
       </c>
       <c r="T141" t="n">
-        <v>1.724057642287E12</v>
+        <v>1.721614574826E12</v>
       </c>
     </row>
     <row ht="242.25" r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -10912,10 +10336,10 @@
         <v>627</v>
       </c>
       <c r="R142" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T142" t="n">
-        <v>1.724037497767E12</v>
+        <v>1.721641121007E12</v>
       </c>
     </row>
     <row ht="99.75" r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -10942,10 +10366,10 @@
         <v>632</v>
       </c>
       <c r="R143" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T143" t="n">
-        <v>1.724054280053E12</v>
+        <v>1.721641123611E12</v>
       </c>
     </row>
     <row ht="28.5" r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -10972,10 +10396,10 @@
         <v>637</v>
       </c>
       <c r="R144" t="n">
-        <v>0.19999999999999962</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T144" t="n">
-        <v>1.724037514332E12</v>
+        <v>1.723708492914E12</v>
       </c>
     </row>
     <row ht="28.5" r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -11002,10 +10426,10 @@
         <v>637</v>
       </c>
       <c r="R145" t="n">
-        <v>2.0499999999999994</v>
+        <v>0.8999999999999995</v>
       </c>
       <c r="T145" t="n">
-        <v>1.724134719202E12</v>
+        <v>1.723957178E12</v>
       </c>
     </row>
     <row ht="28.5" r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -11032,10 +10456,10 @@
         <v>637</v>
       </c>
       <c r="R146" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="T146" t="n">
-        <v>1.72405438863E12</v>
+        <v>1.721614614474E12</v>
       </c>
     </row>
     <row ht="28.5" r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -11062,10 +10486,10 @@
         <v>637</v>
       </c>
       <c r="R147" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T147" t="n">
-        <v>1.724037558046E12</v>
+        <v>1.721641145563E12</v>
       </c>
     </row>
     <row ht="71.25" r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -11092,10 +10516,10 @@
         <v>645</v>
       </c>
       <c r="R148" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T148" t="n">
-        <v>1.724054412688E12</v>
+        <v>1.721641149828E12</v>
       </c>
     </row>
     <row ht="114" r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -11122,10 +10546,10 @@
         <v>650</v>
       </c>
       <c r="R149" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="T149" t="n">
-        <v>1.724054433129E12</v>
+        <v>1.721614688791E12</v>
       </c>
     </row>
     <row ht="85.5" r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -11155,7 +10579,7 @@
         <v>0.0</v>
       </c>
       <c r="T150" t="n">
-        <v>1.724037583525E12</v>
+        <v>1.721614692693E12</v>
       </c>
     </row>
     <row ht="99.75" r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -11185,7 +10609,7 @@
         <v>0.0</v>
       </c>
       <c r="T151" t="n">
-        <v>1.724037592609E12</v>
+        <v>1.721614699102E12</v>
       </c>
     </row>
     <row ht="85.5" r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -11208,10 +10632,10 @@
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
       <c r="R152" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T152" t="n">
-        <v>1.724037602131E12</v>
+        <v>1.721641152735E12</v>
       </c>
     </row>
     <row ht="171" r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -11237,7 +10661,7 @@
         <v>0.0</v>
       </c>
       <c r="T153" t="n">
-        <v>1.724037605616E12</v>
+        <v>1.721614712996E12</v>
       </c>
     </row>
     <row ht="99.75" r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -11263,7 +10687,7 @@
         <v>0.0</v>
       </c>
       <c r="T154" t="n">
-        <v>1.724037609201E12</v>
+        <v>1.721614715693E12</v>
       </c>
     </row>
     <row ht="114" r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -11289,7 +10713,7 @@
         <v>0.0</v>
       </c>
       <c r="T155" t="n">
-        <v>1.724037612862E12</v>
+        <v>1.721614719062E12</v>
       </c>
     </row>
     <row ht="156.75" r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -11315,7 +10739,7 @@
         <v>0.0</v>
       </c>
       <c r="T156" t="n">
-        <v>1.724037638738E12</v>
+        <v>1.721614722475E12</v>
       </c>
     </row>
     <row ht="142.5" r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -11341,7 +10765,7 @@
         <v>0.0</v>
       </c>
       <c r="T157" t="n">
-        <v>1.724037685636E12</v>
+        <v>1.721614726027E12</v>
       </c>
     </row>
     <row ht="71.25" r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -11367,7 +10791,7 @@
         <v>0.0</v>
       </c>
       <c r="T158" t="n">
-        <v>1.724037712676E12</v>
+        <v>1.721614731035E12</v>
       </c>
     </row>
     <row ht="128.25" r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -11390,10 +10814,10 @@
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
       <c r="R159" t="n">
-        <v>0.09999999999999909</v>
+        <v>0.44999999999999907</v>
       </c>
       <c r="T159" t="n">
-        <v>1.724037715996E12</v>
+        <v>1.72371127336E12</v>
       </c>
     </row>
     <row ht="128.25" r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -11419,7 +10843,7 @@
         <v>0.0</v>
       </c>
       <c r="T160" t="n">
-        <v>1.724037718517E12</v>
+        <v>1.721614739335E12</v>
       </c>
     </row>
     <row ht="199.5" r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -11445,7 +10869,7 @@
         <v>0.0</v>
       </c>
       <c r="T161" t="n">
-        <v>1.724037721584E12</v>
+        <v>1.721614744855E12</v>
       </c>
     </row>
     <row ht="99.75" r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -11471,7 +10895,7 @@
         <v>0.0</v>
       </c>
       <c r="T162" t="n">
-        <v>1.724037725481E12</v>
+        <v>1.72161474758E12</v>
       </c>
     </row>
     <row ht="270.75" r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -11494,10 +10918,10 @@
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
       <c r="R163" t="n">
-        <v>1.3499999999999999</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T163" t="n">
-        <v>1.724054444257E12</v>
+        <v>1.723623625996E12</v>
       </c>
     </row>
     <row ht="185.25" r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -11520,10 +10944,10 @@
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
       <c r="R164" t="n">
-        <v>2.15</v>
+        <v>0.65</v>
       </c>
       <c r="T164" t="n">
-        <v>1.724134721492E12</v>
+        <v>1.721641167481E12</v>
       </c>
     </row>
     <row ht="99.75" r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -11549,7 +10973,7 @@
         <v>0.0</v>
       </c>
       <c r="T165" t="n">
-        <v>1.72403773927E12</v>
+        <v>1.721614763832E12</v>
       </c>
     </row>
     <row ht="142.5" r="166" spans="1:8" x14ac:dyDescent="0.2">
@@ -11572,10 +10996,10 @@
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
       <c r="R166" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T166" t="n">
-        <v>1.724037741062E12</v>
+        <v>1.721641172549E12</v>
       </c>
     </row>
     <row ht="156.75" r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -11601,7 +11025,7 @@
         <v>0.0</v>
       </c>
       <c r="T167" t="n">
-        <v>1.724037745528E12</v>
+        <v>1.72161488617E12</v>
       </c>
     </row>
     <row ht="71.25" r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -11627,7 +11051,7 @@
         <v>0.0</v>
       </c>
       <c r="T168" t="n">
-        <v>1.724037747359E12</v>
+        <v>1.721614888073E12</v>
       </c>
     </row>
     <row ht="114" r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -11653,7 +11077,7 @@
         <v>0.0</v>
       </c>
       <c r="T169" t="n">
-        <v>1.724037749703E12</v>
+        <v>1.721614889786E12</v>
       </c>
     </row>
     <row ht="228" r="170" spans="1:8" x14ac:dyDescent="0.2">
@@ -11676,10 +11100,10 @@
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
       <c r="R170" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T170" t="n">
-        <v>1.724055076664E12</v>
+        <v>1.721641175914E12</v>
       </c>
     </row>
     <row ht="156.75" r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -11702,10 +11126,10 @@
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
       <c r="R171" t="n">
-        <v>1.3499999999999999</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T171" t="n">
-        <v>1.724055078984E12</v>
+        <v>1.723623631008E12</v>
       </c>
     </row>
     <row ht="85.5" r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -11731,7 +11155,7 @@
         <v>0.0</v>
       </c>
       <c r="T172" t="n">
-        <v>1.724037981671E12</v>
+        <v>1.721614901238E12</v>
       </c>
     </row>
     <row ht="114" r="173" spans="1:8" x14ac:dyDescent="0.2">
@@ -11754,10 +11178,10 @@
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
       <c r="R173" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T173" t="n">
-        <v>1.724037988821E12</v>
+        <v>1.721641184449E12</v>
       </c>
     </row>
     <row ht="71.25" r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -11783,7 +11207,7 @@
         <v>0.0</v>
       </c>
       <c r="T174" t="n">
-        <v>1.724037992233E12</v>
+        <v>1.721614941191E12</v>
       </c>
     </row>
     <row ht="71.25" r="175" spans="1:8" x14ac:dyDescent="0.2">
@@ -11806,10 +11230,10 @@
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
       <c r="R175" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T175" t="n">
-        <v>1.724037993905E12</v>
+        <v>1.721641186074E12</v>
       </c>
     </row>
     <row ht="242.25" r="176" spans="1:8" x14ac:dyDescent="0.2">
@@ -11835,7 +11259,7 @@
         <v>0.0</v>
       </c>
       <c r="T176" t="n">
-        <v>1.724038009969E12</v>
+        <v>1.721615017001E12</v>
       </c>
     </row>
     <row ht="114" r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -11861,7 +11285,7 @@
         <v>0.0</v>
       </c>
       <c r="T177" t="n">
-        <v>1.724038013564E12</v>
+        <v>1.721615020268E12</v>
       </c>
     </row>
     <row ht="99.75" r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -11884,10 +11308,10 @@
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
       <c r="R178" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T178" t="n">
-        <v>1.724038021107E12</v>
+        <v>1.721641187745E12</v>
       </c>
     </row>
     <row ht="142.5" r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -11913,7 +11337,7 @@
         <v>0.0</v>
       </c>
       <c r="T179" t="n">
-        <v>1.7240380294E12</v>
+        <v>1.721615081784E12</v>
       </c>
     </row>
     <row ht="42.75" r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -11939,7 +11363,7 @@
         <v>0.0</v>
       </c>
       <c r="T180" t="n">
-        <v>1.724038031734E12</v>
+        <v>1.72161508413E12</v>
       </c>
     </row>
     <row ht="128.25" r="181" spans="1:8" x14ac:dyDescent="0.2">
@@ -11962,10 +11386,10 @@
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
       <c r="R181" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T181" t="n">
-        <v>1.724055081515E12</v>
+        <v>1.721641191015E12</v>
       </c>
     </row>
     <row ht="156.75" r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -11991,7 +11415,7 @@
         <v>0.0</v>
       </c>
       <c r="T182" t="n">
-        <v>1.724038046442E12</v>
+        <v>1.721615131266E12</v>
       </c>
     </row>
     <row ht="171" r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -12014,10 +11438,10 @@
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
       <c r="R183" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T183" t="n">
-        <v>1.7240380489E12</v>
+        <v>1.721641193246E12</v>
       </c>
     </row>
     <row ht="242.25" r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -12043,7 +11467,7 @@
         <v>0.0</v>
       </c>
       <c r="T184" t="n">
-        <v>1.724038194316E12</v>
+        <v>1.721615141734E12</v>
       </c>
     </row>
     <row ht="114" r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -12069,7 +11493,7 @@
         <v>0.0</v>
       </c>
       <c r="T185" t="n">
-        <v>1.724038196943E12</v>
+        <v>1.721615145408E12</v>
       </c>
     </row>
     <row ht="114" r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -12095,7 +11519,7 @@
         <v>0.0</v>
       </c>
       <c r="T186" t="n">
-        <v>1.724038199992E12</v>
+        <v>1.721615150229E12</v>
       </c>
     </row>
     <row ht="199.5" r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -12121,7 +11545,7 @@
         <v>0.0</v>
       </c>
       <c r="T187" t="n">
-        <v>1.724038216798E12</v>
+        <v>1.721615153255E12</v>
       </c>
     </row>
     <row ht="85.5" r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -12147,7 +11571,7 @@
         <v>0.0</v>
       </c>
       <c r="T188" t="n">
-        <v>1.724038230971E12</v>
+        <v>1.721615156371E12</v>
       </c>
     </row>
     <row ht="99.75" r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -12170,10 +11594,10 @@
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
       <c r="R189" t="n">
-        <v>1.75</v>
+        <v>0.0</v>
       </c>
       <c r="T189" t="n">
-        <v>1.724057652246E12</v>
+        <v>1.721615160423E12</v>
       </c>
     </row>
     <row ht="242.25" r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -12199,7 +11623,7 @@
         <v>0.0</v>
       </c>
       <c r="T190" t="n">
-        <v>1.72403824996E12</v>
+        <v>1.721615163431E12</v>
       </c>
     </row>
     <row ht="199.5" r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -12225,7 +11649,7 @@
         <v>0.0</v>
       </c>
       <c r="T191" t="n">
-        <v>1.724038255112E12</v>
+        <v>1.721615167207E12</v>
       </c>
     </row>
     <row ht="99.75" r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -12251,7 +11675,7 @@
         <v>0.0</v>
       </c>
       <c r="T192" t="n">
-        <v>1.724038258484E12</v>
+        <v>1.7216151707E12</v>
       </c>
     </row>
     <row ht="99.75" r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -12277,7 +11701,7 @@
         <v>0.0</v>
       </c>
       <c r="T193" t="n">
-        <v>1.724038279614E12</v>
+        <v>1.721615173922E12</v>
       </c>
     </row>
     <row ht="85.5" r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -12300,10 +11724,10 @@
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
       <c r="R194" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T194" t="n">
-        <v>1.724055096569E12</v>
+        <v>1.721641195625E12</v>
       </c>
     </row>
     <row ht="156.75" r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -12329,7 +11753,7 @@
         <v>0.0</v>
       </c>
       <c r="T195" t="n">
-        <v>1.724038286133E12</v>
+        <v>1.721615268655E12</v>
       </c>
     </row>
     <row ht="171" r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -12355,7 +11779,7 @@
         <v>0.0</v>
       </c>
       <c r="T196" t="n">
-        <v>1.724038289391E12</v>
+        <v>1.721615271159E12</v>
       </c>
     </row>
     <row ht="99.75" r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -12378,10 +11802,10 @@
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="R197" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T197" t="n">
-        <v>1.724055128485E12</v>
+        <v>1.72164119743E12</v>
       </c>
     </row>
     <row ht="213.75" r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -12404,10 +11828,10 @@
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
       <c r="R198" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T198" t="n">
-        <v>1.72405533116E12</v>
+        <v>1.72164120058E12</v>
       </c>
     </row>
     <row ht="114" r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -12433,7 +11857,7 @@
         <v>0.0</v>
       </c>
       <c r="T199" t="n">
-        <v>1.724038298227E12</v>
+        <v>1.721615286908E12</v>
       </c>
     </row>
     <row ht="142.5" r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -12459,7 +11883,7 @@
         <v>0.0</v>
       </c>
       <c r="T200" t="n">
-        <v>1.724038300355E12</v>
+        <v>1.721615289608E12</v>
       </c>
     </row>
     <row ht="342" r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -12482,10 +11906,10 @@
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
       <c r="R201" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="T201" t="n">
-        <v>1.724055337504E12</v>
+        <v>1.721615291842E12</v>
       </c>
     </row>
     <row ht="256.5" r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -12508,10 +11932,10 @@
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
       <c r="R202" t="n">
-        <v>0.19999999999999962</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T202" t="n">
-        <v>1.724048577168E12</v>
+        <v>1.723711275132E12</v>
       </c>
     </row>
     <row ht="199.5" r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -12534,10 +11958,10 @@
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="R203" t="n">
-        <v>0.19999999999999962</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T203" t="n">
-        <v>1.724048582367E12</v>
+        <v>1.723711277854E12</v>
       </c>
     </row>
     <row ht="57" r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -12563,7 +11987,7 @@
         <v>0.0</v>
       </c>
       <c r="T204" t="n">
-        <v>1.724048585583E12</v>
+        <v>1.721615382439E12</v>
       </c>
     </row>
     <row ht="171" r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -12586,10 +12010,10 @@
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
       <c r="R205" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T205" t="n">
-        <v>1.724055340476E12</v>
+        <v>1.721641212263E12</v>
       </c>
     </row>
     <row ht="99.75" r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -12615,7 +12039,7 @@
         <v>0.0</v>
       </c>
       <c r="T206" t="n">
-        <v>1.724048603401E12</v>
+        <v>1.721615393722E12</v>
       </c>
     </row>
     <row ht="114" r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -12641,7 +12065,7 @@
         <v>0.0</v>
       </c>
       <c r="T207" t="n">
-        <v>1.724048611652E12</v>
+        <v>1.721615398045E12</v>
       </c>
     </row>
     <row ht="213.75" r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -12667,7 +12091,7 @@
         <v>0.0</v>
       </c>
       <c r="T208" t="n">
-        <v>1.724048619722E12</v>
+        <v>1.721615409168E12</v>
       </c>
     </row>
     <row ht="185.25" r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -12693,7 +12117,7 @@
         <v>0.0</v>
       </c>
       <c r="T209" t="n">
-        <v>1.724048622877E12</v>
+        <v>1.72161541439E12</v>
       </c>
     </row>
     <row ht="171" r="210" spans="1:8" x14ac:dyDescent="0.2">
@@ -12719,7 +12143,7 @@
         <v>0.0</v>
       </c>
       <c r="T210" t="n">
-        <v>1.724048626812E12</v>
+        <v>1.721615417808E12</v>
       </c>
     </row>
     <row ht="142.5" r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -12745,7 +12169,7 @@
         <v>0.0</v>
       </c>
       <c r="T211" t="n">
-        <v>1.724048631845E12</v>
+        <v>1.721615421654E12</v>
       </c>
     </row>
     <row ht="114" r="212" spans="1:8" x14ac:dyDescent="0.2">
@@ -12771,7 +12195,7 @@
         <v>0.0</v>
       </c>
       <c r="T212" t="n">
-        <v>1.724048643992E12</v>
+        <v>1.721615425404E12</v>
       </c>
     </row>
     <row ht="199.5" r="213" spans="1:8" x14ac:dyDescent="0.2">
@@ -12797,7 +12221,7 @@
         <v>0.0</v>
       </c>
       <c r="T213" t="n">
-        <v>1.724048649431E12</v>
+        <v>1.721615428885E12</v>
       </c>
     </row>
     <row ht="71.25" r="214" spans="1:8" x14ac:dyDescent="0.2">
@@ -12820,10 +12244,10 @@
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
       <c r="R214" t="n">
-        <v>0.19999999999999962</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T214" t="n">
-        <v>1.724048651331E12</v>
+        <v>1.723711279189E12</v>
       </c>
     </row>
     <row ht="199.5" r="215" spans="1:8" x14ac:dyDescent="0.2">
@@ -12849,7 +12273,7 @@
         <v>0.0</v>
       </c>
       <c r="T215" t="n">
-        <v>1.724048703864E12</v>
+        <v>1.721615437561E12</v>
       </c>
     </row>
     <row ht="142.5" r="216" spans="1:8" x14ac:dyDescent="0.2">
@@ -12875,7 +12299,7 @@
         <v>0.0</v>
       </c>
       <c r="T216" t="n">
-        <v>1.72404870786E12</v>
+        <v>1.721615440174E12</v>
       </c>
     </row>
     <row ht="71.25" r="217" spans="1:8" x14ac:dyDescent="0.2">
@@ -12901,7 +12325,7 @@
         <v>0.0</v>
       </c>
       <c r="T217" t="n">
-        <v>1.724048712193E12</v>
+        <v>1.721615444429E12</v>
       </c>
     </row>
     <row ht="85.5" r="218" spans="1:8" x14ac:dyDescent="0.2">
@@ -12927,7 +12351,7 @@
         <v>0.0</v>
       </c>
       <c r="T218" t="n">
-        <v>1.724048714798E12</v>
+        <v>1.721615446159E12</v>
       </c>
     </row>
     <row ht="156.75" r="219" spans="1:8" x14ac:dyDescent="0.2">
@@ -12953,7 +12377,7 @@
         <v>0.0</v>
       </c>
       <c r="T219" t="n">
-        <v>1.72404871874E12</v>
+        <v>1.721615448321E12</v>
       </c>
     </row>
     <row ht="99.75" r="220" spans="1:8" x14ac:dyDescent="0.2">
@@ -12979,7 +12403,7 @@
         <v>0.0</v>
       </c>
       <c r="T220" t="n">
-        <v>1.724048721645E12</v>
+        <v>1.721615450361E12</v>
       </c>
     </row>
     <row ht="99.75" r="221" spans="1:8" x14ac:dyDescent="0.2">
@@ -13005,7 +12429,7 @@
         <v>0.0</v>
       </c>
       <c r="T221" t="n">
-        <v>1.724048929318E12</v>
+        <v>1.721615452981E12</v>
       </c>
     </row>
     <row ht="213.75" r="222" spans="1:8" x14ac:dyDescent="0.2">
@@ -13031,7 +12455,7 @@
         <v>0.0</v>
       </c>
       <c r="T222" t="n">
-        <v>1.724048935475E12</v>
+        <v>1.721615456241E12</v>
       </c>
     </row>
     <row ht="99.75" r="223" spans="1:8" x14ac:dyDescent="0.2">
@@ -13054,10 +12478,10 @@
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
       <c r="R223" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T223" t="n">
-        <v>1.724055343579E12</v>
+        <v>1.721641218816E12</v>
       </c>
     </row>
     <row ht="71.25" r="224" spans="1:8" x14ac:dyDescent="0.2">
@@ -13080,10 +12504,10 @@
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
       <c r="R224" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T224" t="n">
-        <v>1.724049185656E12</v>
+        <v>1.721641222941E12</v>
       </c>
     </row>
     <row ht="99.75" r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -13106,10 +12530,10 @@
       <c r="G225" s="5"/>
       <c r="H225" s="5"/>
       <c r="R225" t="n">
-        <v>0.2499999999999999</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T225" t="n">
-        <v>1.724049190515E12</v>
+        <v>1.723623642298E12</v>
       </c>
     </row>
     <row ht="85.5" r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -13132,10 +12556,10 @@
       <c r="G226" s="5"/>
       <c r="H226" s="5"/>
       <c r="R226" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="T226" t="n">
-        <v>1.724055345578E12</v>
+        <v>1.721615585378E12</v>
       </c>
     </row>
     <row ht="99.75" r="227" spans="1:8" x14ac:dyDescent="0.2">
@@ -13158,10 +12582,10 @@
       <c r="G227" s="5"/>
       <c r="H227" s="5"/>
       <c r="R227" t="n">
-        <v>1.75</v>
+        <v>0.0</v>
       </c>
       <c r="T227" t="n">
-        <v>1.724057654534E12</v>
+        <v>1.721615588147E12</v>
       </c>
     </row>
     <row ht="185.25" r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -13184,10 +12608,10 @@
       <c r="G228" s="5"/>
       <c r="H228" s="5"/>
       <c r="R228" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T228" t="n">
-        <v>1.724049221753E12</v>
+        <v>1.721641229659E12</v>
       </c>
     </row>
     <row ht="85.5" r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -13210,10 +12634,10 @@
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
       <c r="R229" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T229" t="n">
-        <v>1.724049224102E12</v>
+        <v>1.721641233453E12</v>
       </c>
     </row>
     <row ht="213.75" r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -13239,7 +12663,7 @@
         <v>0.0</v>
       </c>
       <c r="T230" t="n">
-        <v>1.724049231196E12</v>
+        <v>1.721617545278E12</v>
       </c>
     </row>
     <row ht="128.25" r="231" spans="1:8" x14ac:dyDescent="0.2">
@@ -13265,7 +12689,7 @@
         <v>0.0</v>
       </c>
       <c r="T231" t="n">
-        <v>1.724049235009E12</v>
+        <v>1.72161754952E12</v>
       </c>
     </row>
     <row ht="142.5" r="232" spans="1:8" x14ac:dyDescent="0.2">
@@ -13288,10 +12712,10 @@
       <c r="G232" s="5"/>
       <c r="H232" s="5"/>
       <c r="R232" t="n">
-        <v>3.4</v>
+        <v>0.65</v>
       </c>
       <c r="T232" t="n">
-        <v>1.724134725343E12</v>
+        <v>1.721641236969E12</v>
       </c>
     </row>
     <row ht="57" r="233" spans="1:8" x14ac:dyDescent="0.2">
@@ -13317,7 +12741,7 @@
         <v>0.0</v>
       </c>
       <c r="T233" t="n">
-        <v>1.724049244866E12</v>
+        <v>1.721617594123E12</v>
       </c>
     </row>
     <row ht="71.25" r="234" spans="1:8" x14ac:dyDescent="0.2">
@@ -13340,10 +12764,10 @@
       <c r="G234" s="5"/>
       <c r="H234" s="5"/>
       <c r="R234" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="T234" t="n">
-        <v>1.724055379169E12</v>
+        <v>1.721617596714E12</v>
       </c>
     </row>
     <row ht="156.75" r="235" spans="1:8" x14ac:dyDescent="0.2">
@@ -13366,10 +12790,10 @@
       <c r="G235" s="5"/>
       <c r="H235" s="5"/>
       <c r="R235" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="T235" t="n">
-        <v>1.724055382306E12</v>
+        <v>1.721617604146E12</v>
       </c>
     </row>
     <row ht="85.5" r="236" spans="1:8" x14ac:dyDescent="0.2">
@@ -13392,10 +12816,10 @@
       <c r="G236" s="5"/>
       <c r="H236" s="5"/>
       <c r="R236" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T236" t="n">
-        <v>1.724049262576E12</v>
+        <v>1.721641240696E12</v>
       </c>
     </row>
     <row ht="185.25" r="237" spans="1:8" x14ac:dyDescent="0.2">
@@ -13418,10 +12842,10 @@
       <c r="G237" s="5"/>
       <c r="H237" s="5"/>
       <c r="R237" t="n">
-        <v>0.2499999999999999</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T237" t="n">
-        <v>1.724049264686E12</v>
+        <v>1.723623644636E12</v>
       </c>
     </row>
     <row ht="285" r="238" spans="1:8" x14ac:dyDescent="0.2">
@@ -13447,7 +12871,7 @@
         <v>0.0</v>
       </c>
       <c r="T238" t="n">
-        <v>1.724049297014E12</v>
+        <v>1.721617634154E12</v>
       </c>
     </row>
     <row ht="142.5" r="239" spans="1:8" x14ac:dyDescent="0.2">
@@ -13473,7 +12897,7 @@
         <v>0.0</v>
       </c>
       <c r="T239" t="n">
-        <v>1.724049301579E12</v>
+        <v>1.721617639134E12</v>
       </c>
     </row>
     <row ht="171" r="240" spans="1:8" x14ac:dyDescent="0.2">
@@ -13499,7 +12923,7 @@
         <v>0.0</v>
       </c>
       <c r="T240" t="n">
-        <v>1.724049358384E12</v>
+        <v>1.721617680177E12</v>
       </c>
     </row>
     <row ht="99.75" r="241" spans="1:8" x14ac:dyDescent="0.2">
@@ -13525,7 +12949,7 @@
         <v>0.0</v>
       </c>
       <c r="T241" t="n">
-        <v>1.724049360882E12</v>
+        <v>1.72161768255E12</v>
       </c>
     </row>
     <row ht="99.75" r="242" spans="1:8" x14ac:dyDescent="0.2">
@@ -13551,7 +12975,7 @@
         <v>0.0</v>
       </c>
       <c r="T242" t="n">
-        <v>1.724049365639E12</v>
+        <v>1.721617687362E12</v>
       </c>
     </row>
     <row ht="213.75" r="243" spans="1:8" x14ac:dyDescent="0.2">
@@ -13577,7 +13001,7 @@
         <v>0.0</v>
       </c>
       <c r="T243" t="n">
-        <v>1.724049414959E12</v>
+        <v>1.721617690453E12</v>
       </c>
     </row>
     <row ht="228" r="244" spans="1:8" x14ac:dyDescent="0.2">
@@ -13603,7 +13027,7 @@
         <v>0.0</v>
       </c>
       <c r="T244" t="n">
-        <v>1.724049420518E12</v>
+        <v>1.721617692632E12</v>
       </c>
     </row>
     <row ht="171" r="245" spans="1:8" x14ac:dyDescent="0.2">
@@ -13626,10 +13050,10 @@
       <c r="G245" s="5"/>
       <c r="H245" s="5"/>
       <c r="R245" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T245" t="n">
-        <v>1.724049426065E12</v>
+        <v>1.721641249449E12</v>
       </c>
     </row>
     <row ht="327.75" r="246" spans="1:8" x14ac:dyDescent="0.2">
@@ -13655,7 +13079,7 @@
         <v>0.0</v>
       </c>
       <c r="T246" t="n">
-        <v>1.724049428673E12</v>
+        <v>1.721617705902E12</v>
       </c>
     </row>
     <row ht="185.25" r="247" spans="1:8" x14ac:dyDescent="0.2">
@@ -13678,10 +13102,10 @@
       <c r="G247" s="5"/>
       <c r="H247" s="5"/>
       <c r="R247" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="T247" t="n">
-        <v>1.724055384376E12</v>
+        <v>1.721617709964E12</v>
       </c>
     </row>
     <row ht="171" r="248" spans="1:8" x14ac:dyDescent="0.2">
@@ -13707,7 +13131,7 @@
         <v>0.0</v>
       </c>
       <c r="T248" t="n">
-        <v>1.724049439759E12</v>
+        <v>1.721617712975E12</v>
       </c>
     </row>
     <row ht="185.25" r="249" spans="1:8" x14ac:dyDescent="0.2">
@@ -13730,10 +13154,10 @@
       <c r="G249" s="5"/>
       <c r="H249" s="5"/>
       <c r="R249" t="n">
-        <v>0.2499999999999999</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T249" t="n">
-        <v>1.724049450583E12</v>
+        <v>1.723623651812E12</v>
       </c>
     </row>
     <row ht="171" r="250" spans="1:8" x14ac:dyDescent="0.2">
@@ -13759,7 +13183,7 @@
         <v>0.0</v>
       </c>
       <c r="T250" t="n">
-        <v>1.724049458508E12</v>
+        <v>1.721617728001E12</v>
       </c>
     </row>
     <row ht="99.75" r="251" spans="1:8" x14ac:dyDescent="0.2">
@@ -13782,10 +13206,10 @@
       <c r="G251" s="5"/>
       <c r="H251" s="5"/>
       <c r="R251" t="n">
-        <v>0.19999999999999962</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T251" t="n">
-        <v>1.724049460236E12</v>
+        <v>1.723711280441E12</v>
       </c>
     </row>
     <row ht="171" r="252" spans="1:8" x14ac:dyDescent="0.2">
@@ -13812,10 +13236,10 @@
         <v>769</v>
       </c>
       <c r="R252" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T252" t="n">
-        <v>1.724055388248E12</v>
+        <v>1.721641265132E12</v>
       </c>
     </row>
     <row ht="99.75" r="253" spans="1:8" x14ac:dyDescent="0.2">
@@ -13842,10 +13266,10 @@
         <v>775</v>
       </c>
       <c r="R253" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T253" t="n">
-        <v>1.724055392739E12</v>
+        <v>1.721641268396E12</v>
       </c>
     </row>
     <row ht="85.5" r="254" spans="1:8" x14ac:dyDescent="0.2">
@@ -13872,10 +13296,10 @@
         <v>781</v>
       </c>
       <c r="R254" t="n">
-        <v>0.3999999999999988</v>
+        <v>0.7499999999999988</v>
       </c>
       <c r="T254" t="n">
-        <v>1.724049502052E12</v>
+        <v>1.723623660314E12</v>
       </c>
     </row>
     <row ht="342" r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -13902,10 +13326,10 @@
         <v>786</v>
       </c>
       <c r="R255" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T255" t="n">
-        <v>1.724049577414E12</v>
+        <v>1.721641279235E12</v>
       </c>
     </row>
     <row ht="142.5" r="256" spans="1:8" x14ac:dyDescent="0.2">
@@ -13932,10 +13356,10 @@
         <v>792</v>
       </c>
       <c r="R256" t="n">
-        <v>3.4</v>
+        <v>0.65</v>
       </c>
       <c r="T256" t="n">
-        <v>1.724134755608E12</v>
+        <v>1.721641290837E12</v>
       </c>
     </row>
     <row ht="71.25" r="257" spans="1:8" x14ac:dyDescent="0.2">
@@ -13965,7 +13389,7 @@
         <v>0.0</v>
       </c>
       <c r="T257" t="n">
-        <v>1.724049618582E12</v>
+        <v>1.72161792591E12</v>
       </c>
     </row>
     <row ht="71.25" r="258" spans="1:8" x14ac:dyDescent="0.2">
@@ -13992,10 +13416,10 @@
         <v>803</v>
       </c>
       <c r="R258" t="n">
-        <v>0.14999999999999936</v>
+        <v>0.49999999999999933</v>
       </c>
       <c r="T258" t="n">
-        <v>1.724049621047E12</v>
+        <v>1.723711283301E12</v>
       </c>
     </row>
     <row ht="85.5" r="259" spans="1:8" x14ac:dyDescent="0.2">
@@ -14025,7 +13449,7 @@
         <v>0.0</v>
       </c>
       <c r="T259" t="n">
-        <v>1.724049626267E12</v>
+        <v>1.721618038204E12</v>
       </c>
     </row>
     <row ht="71.25" r="260" spans="1:8" x14ac:dyDescent="0.2">
@@ -14052,10 +13476,10 @@
         <v>814</v>
       </c>
       <c r="R260" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T260" t="n">
-        <v>1.724049639004E12</v>
+        <v>1.721641304635E12</v>
       </c>
     </row>
     <row ht="99.75" r="261" spans="1:8" x14ac:dyDescent="0.2">
@@ -14085,7 +13509,7 @@
         <v>0.0</v>
       </c>
       <c r="T261" t="n">
-        <v>1.724049673753E12</v>
+        <v>1.721618049935E12</v>
       </c>
     </row>
     <row ht="99.75" r="262" spans="1:8" x14ac:dyDescent="0.2">
@@ -14112,10 +13536,10 @@
         <v>825</v>
       </c>
       <c r="R262" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T262" t="n">
-        <v>1.724055429801E12</v>
+        <v>1.721641310176E12</v>
       </c>
     </row>
     <row ht="85.5" r="263" spans="1:8" x14ac:dyDescent="0.2">
@@ -14142,10 +13566,10 @@
         <v>829</v>
       </c>
       <c r="R263" t="n">
-        <v>0.09999999999999909</v>
+        <v>0.44999999999999907</v>
       </c>
       <c r="T263" t="n">
-        <v>1.724049712389E12</v>
+        <v>1.723711288173E12</v>
       </c>
     </row>
     <row ht="99.75" r="264" spans="1:8" x14ac:dyDescent="0.2">
@@ -14172,10 +13596,10 @@
         <v>834</v>
       </c>
       <c r="R264" t="n">
-        <v>0.29999999999999793</v>
+        <v>0.6499999999999979</v>
       </c>
       <c r="T264" t="n">
-        <v>1.724049736368E12</v>
+        <v>1.723623662001E12</v>
       </c>
     </row>
     <row ht="85.5" r="265" spans="1:8" x14ac:dyDescent="0.2">
@@ -14202,10 +13626,10 @@
         <v>839</v>
       </c>
       <c r="R265" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="T265" t="n">
-        <v>1.724055439885E12</v>
+        <v>1.72161810511E12</v>
       </c>
     </row>
     <row ht="156.75" r="266" spans="1:8" x14ac:dyDescent="0.2">
@@ -14232,10 +13656,10 @@
         <v>844</v>
       </c>
       <c r="R266" t="n">
-        <v>0.2499999999999999</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T266" t="n">
-        <v>1.724049761939E12</v>
+        <v>1.723623671737E12</v>
       </c>
     </row>
     <row ht="85.5" r="267" spans="1:8" x14ac:dyDescent="0.2">
@@ -14262,10 +13686,10 @@
         <v>849</v>
       </c>
       <c r="R267" t="n">
-        <v>0.19999999999999962</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T267" t="n">
-        <v>1.724049780186E12</v>
+        <v>1.723711290775E12</v>
       </c>
     </row>
     <row ht="42.75" r="268" spans="1:8" x14ac:dyDescent="0.2">
@@ -14292,10 +13716,10 @@
         <v>854</v>
       </c>
       <c r="R268" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="T268" t="n">
-        <v>1.724055450413E12</v>
+        <v>1.721618125322E12</v>
       </c>
     </row>
     <row ht="57" r="269" spans="1:8" x14ac:dyDescent="0.2">
@@ -14322,10 +13746,10 @@
         <v>860</v>
       </c>
       <c r="R269" t="n">
-        <v>0.19999999999999962</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T269" t="n">
-        <v>1.724049804969E12</v>
+        <v>1.723711293113E12</v>
       </c>
     </row>
     <row ht="71.25" r="270" spans="1:8" x14ac:dyDescent="0.2">
@@ -14352,10 +13776,10 @@
         <v>865</v>
       </c>
       <c r="R270" t="n">
-        <v>0.14999999999999936</v>
+        <v>0.49999999999999933</v>
       </c>
       <c r="T270" t="n">
-        <v>1.724049810629E12</v>
+        <v>1.723711295339E12</v>
       </c>
     </row>
     <row ht="99.75" r="271" spans="1:8" x14ac:dyDescent="0.2">
@@ -14382,10 +13806,10 @@
         <v>870</v>
       </c>
       <c r="R271" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T271" t="n">
-        <v>1.72405545417E12</v>
+        <v>1.721692999208E12</v>
       </c>
     </row>
     <row ht="85.5" r="272" spans="1:8" x14ac:dyDescent="0.2">
@@ -14415,7 +13839,7 @@
         <v>0.0</v>
       </c>
       <c r="T272" t="n">
-        <v>1.724049841505E12</v>
+        <v>1.721618177451E12</v>
       </c>
     </row>
     <row ht="85.5" r="273" spans="1:8" x14ac:dyDescent="0.2">
@@ -14442,10 +13866,10 @@
         <v>431</v>
       </c>
       <c r="R273" t="n">
-        <v>0.09999999999999909</v>
+        <v>0.44999999999999907</v>
       </c>
       <c r="T273" t="n">
-        <v>1.724049900441E12</v>
+        <v>1.723711298043E12</v>
       </c>
     </row>
     <row ht="85.5" r="274" spans="1:8" x14ac:dyDescent="0.2">
@@ -14472,10 +13896,10 @@
         <v>881</v>
       </c>
       <c r="R274" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="T274" t="n">
-        <v>1.724055457034E12</v>
+        <v>1.721618220691E12</v>
       </c>
     </row>
     <row ht="71.25" r="275" spans="1:8" x14ac:dyDescent="0.2">
@@ -14502,10 +13926,10 @@
         <v>886</v>
       </c>
       <c r="R275" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T275" t="n">
-        <v>1.724049924116E12</v>
+        <v>1.72169301823E12</v>
       </c>
     </row>
     <row ht="142.5" r="276" spans="1:8" x14ac:dyDescent="0.2">
@@ -14535,7 +13959,7 @@
         <v>0.0</v>
       </c>
       <c r="T276" t="n">
-        <v>1.724049933205E12</v>
+        <v>1.721618262239E12</v>
       </c>
     </row>
     <row ht="185.25" r="277" spans="1:8" x14ac:dyDescent="0.2">
@@ -14562,10 +13986,10 @@
         <v>896</v>
       </c>
       <c r="R277" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T277" t="n">
-        <v>1.724055461423E12</v>
+        <v>1.721693020218E12</v>
       </c>
     </row>
     <row ht="85.5" r="278" spans="1:8" x14ac:dyDescent="0.2">
@@ -14592,10 +14016,10 @@
         <v>901</v>
       </c>
       <c r="R278" t="n">
-        <v>0.09999999999999909</v>
+        <v>0.44999999999999907</v>
       </c>
       <c r="T278" t="n">
-        <v>1.724049997147E12</v>
+        <v>1.723711302373E12</v>
       </c>
     </row>
     <row ht="85.5" r="279" spans="1:8" x14ac:dyDescent="0.2">
@@ -14625,7 +14049,7 @@
         <v>0.0</v>
       </c>
       <c r="T279" t="n">
-        <v>1.724050038558E12</v>
+        <v>1.721618316145E12</v>
       </c>
     </row>
     <row ht="71.25" r="280" spans="1:8" x14ac:dyDescent="0.2">
@@ -14652,10 +14076,10 @@
         <v>911</v>
       </c>
       <c r="R280" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T280" t="n">
-        <v>1.724055463328E12</v>
+        <v>1.7216930362E12</v>
       </c>
     </row>
     <row ht="156.75" r="281" spans="1:8" x14ac:dyDescent="0.2">
@@ -14682,10 +14106,10 @@
         <v>914</v>
       </c>
       <c r="R281" t="n">
-        <v>0.3999999999999988</v>
+        <v>0.7499999999999988</v>
       </c>
       <c r="T281" t="n">
-        <v>1.724050066433E12</v>
+        <v>1.723623686481E12</v>
       </c>
     </row>
     <row ht="57" r="282" spans="1:8" x14ac:dyDescent="0.2">
@@ -14715,7 +14139,7 @@
         <v>0.0</v>
       </c>
       <c r="T282" t="n">
-        <v>1.724050072153E12</v>
+        <v>1.721618337845E12</v>
       </c>
     </row>
     <row ht="128.25" r="283" spans="1:8" x14ac:dyDescent="0.2">
@@ -14745,7 +14169,7 @@
         <v>0.0</v>
       </c>
       <c r="T283" t="n">
-        <v>1.724050078602E12</v>
+        <v>1.721618340324E12</v>
       </c>
     </row>
     <row ht="57" r="284" spans="1:8" x14ac:dyDescent="0.2">
@@ -14772,10 +14196,10 @@
         <v>930</v>
       </c>
       <c r="R284" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T284" t="n">
-        <v>1.724055465302E12</v>
+        <v>1.721693046003E12</v>
       </c>
     </row>
     <row ht="71.25" r="285" spans="1:8" x14ac:dyDescent="0.2">
@@ -14802,10 +14226,10 @@
         <v>935</v>
       </c>
       <c r="R285" t="n">
-        <v>0.2499999999999999</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T285" t="n">
-        <v>1.72405010681E12</v>
+        <v>1.723623688682E12</v>
       </c>
     </row>
     <row ht="85.5" r="286" spans="1:8" x14ac:dyDescent="0.2">
@@ -14835,7 +14259,7 @@
         <v>0.0</v>
       </c>
       <c r="T286" t="n">
-        <v>1.72405011062E12</v>
+        <v>1.721618353089E12</v>
       </c>
     </row>
     <row ht="71.25" r="287" spans="1:8" x14ac:dyDescent="0.2">
@@ -14865,7 +14289,7 @@
         <v>0.0</v>
       </c>
       <c r="T287" t="n">
-        <v>1.724050204349E12</v>
+        <v>1.721618356994E12</v>
       </c>
     </row>
     <row ht="114" r="288" spans="1:8" x14ac:dyDescent="0.2">
@@ -14895,7 +14319,7 @@
         <v>0.0</v>
       </c>
       <c r="T288" t="n">
-        <v>1.724050271305E12</v>
+        <v>1.721618360788E12</v>
       </c>
     </row>
     <row ht="85.5" r="289" spans="1:8" x14ac:dyDescent="0.2">
@@ -14925,7 +14349,7 @@
         <v>0.0</v>
       </c>
       <c r="T289" t="n">
-        <v>1.724050292488E12</v>
+        <v>1.721618423305E12</v>
       </c>
     </row>
     <row ht="99.75" r="290" spans="1:8" x14ac:dyDescent="0.2">
@@ -14955,7 +14379,7 @@
         <v>0.0</v>
       </c>
       <c r="T290" t="n">
-        <v>1.724050298331E12</v>
+        <v>1.721618445533E12</v>
       </c>
     </row>
     <row ht="99.75" r="291" spans="1:8" x14ac:dyDescent="0.2">
@@ -14982,10 +14406,10 @@
         <v>961</v>
       </c>
       <c r="R291" t="n">
-        <v>1.3499999999999999</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T291" t="n">
-        <v>1.724055476744E12</v>
+        <v>1.723623693953E12</v>
       </c>
     </row>
     <row ht="185.25" r="292" spans="1:8" x14ac:dyDescent="0.2">
@@ -15015,7 +14439,7 @@
         <v>0.0</v>
       </c>
       <c r="T292" t="n">
-        <v>1.724050318942E12</v>
+        <v>1.721618455336E12</v>
       </c>
     </row>
     <row ht="42.75" r="293" spans="1:8" x14ac:dyDescent="0.2">
@@ -15042,10 +14466,10 @@
         <v>971</v>
       </c>
       <c r="R293" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T293" t="n">
-        <v>1.724055479897E12</v>
+        <v>1.721693085541E12</v>
       </c>
     </row>
     <row ht="114" r="294" spans="1:8" x14ac:dyDescent="0.2">
@@ -15075,7 +14499,7 @@
         <v>0.0</v>
       </c>
       <c r="T294" t="n">
-        <v>1.724050484949E12</v>
+        <v>1.721618521467E12</v>
       </c>
     </row>
     <row ht="356.25" r="295" spans="1:8" x14ac:dyDescent="0.2">
@@ -15105,7 +14529,7 @@
         <v>0.0</v>
       </c>
       <c r="T295" t="n">
-        <v>1.724050559131E12</v>
+        <v>1.721618523416E12</v>
       </c>
     </row>
     <row ht="57" r="296" spans="1:8" x14ac:dyDescent="0.2">
@@ -15135,7 +14559,7 @@
         <v>0.0</v>
       </c>
       <c r="T296" t="n">
-        <v>1.724050562926E12</v>
+        <v>1.721618525068E12</v>
       </c>
     </row>
     <row ht="156.75" r="297" spans="1:8" x14ac:dyDescent="0.2">
@@ -15162,10 +14586,10 @@
         <v>991</v>
       </c>
       <c r="R297" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T297" t="n">
-        <v>1.724055484541E12</v>
+        <v>1.721693092612E12</v>
       </c>
     </row>
     <row ht="85.5" r="298" spans="1:8" x14ac:dyDescent="0.2">
@@ -15192,10 +14616,10 @@
         <v>996</v>
       </c>
       <c r="R298" t="n">
-        <v>0.34999999999999853</v>
+        <v>0.6999999999999985</v>
       </c>
       <c r="T298" t="n">
-        <v>1.724050783156E12</v>
+        <v>1.723623696247E12</v>
       </c>
     </row>
     <row ht="85.5" r="299" spans="1:8" x14ac:dyDescent="0.2">
@@ -15225,7 +14649,7 @@
         <v>0.0</v>
       </c>
       <c r="T299" t="n">
-        <v>1.724050790391E12</v>
+        <v>1.721618551847E12</v>
       </c>
     </row>
     <row ht="199.5" r="300" spans="1:8" x14ac:dyDescent="0.2">
@@ -15255,7 +14679,7 @@
         <v>0.0</v>
       </c>
       <c r="T300" t="n">
-        <v>1.724050811689E12</v>
+        <v>1.721618554374E12</v>
       </c>
     </row>
     <row ht="71.25" r="301" spans="1:8" x14ac:dyDescent="0.2">
@@ -15282,10 +14706,10 @@
         <v>1011</v>
       </c>
       <c r="R301" t="n">
-        <v>0.14999999999999936</v>
+        <v>0.49999999999999933</v>
       </c>
       <c r="T301" t="n">
-        <v>1.724050814674E12</v>
+        <v>1.723711304277E12</v>
       </c>
     </row>
     <row ht="156.75" r="302" spans="1:8" x14ac:dyDescent="0.2">
@@ -15312,10 +14736,10 @@
         <v>1016</v>
       </c>
       <c r="R302" t="n">
-        <v>0.24999999999999856</v>
+        <v>0.5999999999999985</v>
       </c>
       <c r="T302" t="n">
-        <v>1.724051440413E12</v>
+        <v>1.723623699633E12</v>
       </c>
     </row>
     <row ht="213.75" r="303" spans="1:8" x14ac:dyDescent="0.2">
@@ -15342,10 +14766,10 @@
         <v>1021</v>
       </c>
       <c r="R303" t="n">
-        <v>2.15</v>
+        <v>0.65</v>
       </c>
       <c r="T303" t="n">
-        <v>1.724134766322E12</v>
+        <v>1.721693122576E12</v>
       </c>
     </row>
     <row ht="409.5" r="304" spans="1:8" x14ac:dyDescent="0.2">
@@ -15372,10 +14796,10 @@
         <v>99.980999999999995</v>
       </c>
       <c r="R304" t="n">
-        <v>1.75</v>
+        <v>0.0</v>
       </c>
       <c r="T304" t="n">
-        <v>1.724057674635E12</v>
+        <v>1.721618627621E12</v>
       </c>
     </row>
     <row ht="409.5" r="305" spans="1:8" x14ac:dyDescent="0.2">
@@ -15402,10 +14826,10 @@
         <v>99.992000000000004</v>
       </c>
       <c r="R305" t="n">
-        <v>0.2499999999999999</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T305" t="n">
-        <v>1.724051519418E12</v>
+        <v>1.723623703271E12</v>
       </c>
     </row>
     <row ht="409.5" r="306" spans="1:8" x14ac:dyDescent="0.2">
@@ -15432,10 +14856,10 @@
         <v>99.933000000000007</v>
       </c>
       <c r="R306" t="n">
-        <v>0.19999999999999962</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T306" t="n">
-        <v>1.724051522689E12</v>
+        <v>1.72371130824E12</v>
       </c>
     </row>
     <row ht="313.5" r="307" spans="1:8" x14ac:dyDescent="0.2">
@@ -15462,10 +14886,10 @@
         <v>16</v>
       </c>
       <c r="R307" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T307" t="n">
-        <v>1.72405555947E12</v>
+        <v>1.721693142641E12</v>
       </c>
     </row>
     <row ht="85.5" r="308" spans="1:8" x14ac:dyDescent="0.2">
@@ -15495,7 +14919,7 @@
         <v>0.0</v>
       </c>
       <c r="T308" t="n">
-        <v>1.72405156778E12</v>
+        <v>1.72161882152E12</v>
       </c>
     </row>
     <row ht="128.25" r="309" spans="1:8" x14ac:dyDescent="0.2">
@@ -15522,10 +14946,10 @@
         <v>1031</v>
       </c>
       <c r="R309" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T309" t="n">
-        <v>1.724055585243E12</v>
+        <v>1.721693153993E12</v>
       </c>
     </row>
     <row ht="85.5" r="310" spans="1:8" x14ac:dyDescent="0.2">
@@ -15555,7 +14979,7 @@
         <v>0.0</v>
       </c>
       <c r="T310" t="n">
-        <v>1.724051586842E12</v>
+        <v>1.721618877782E12</v>
       </c>
     </row>
     <row ht="85.5" r="311" spans="1:8" x14ac:dyDescent="0.2">
@@ -15585,7 +15009,7 @@
         <v>0.0</v>
       </c>
       <c r="T311" t="n">
-        <v>1.724051591612E12</v>
+        <v>1.721618883673E12</v>
       </c>
     </row>
     <row ht="28.5" r="312" spans="1:8" x14ac:dyDescent="0.2">
@@ -15615,7 +15039,7 @@
         <v>0.0</v>
       </c>
       <c r="T312" t="n">
-        <v>1.724051594554E12</v>
+        <v>1.721618886615E12</v>
       </c>
     </row>
     <row ht="71.25" r="313" spans="1:8" x14ac:dyDescent="0.2">
@@ -15642,10 +15066,10 @@
         <v>1051</v>
       </c>
       <c r="R313" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T313" t="n">
-        <v>1.724051630971E12</v>
+        <v>1.721693161764E12</v>
       </c>
     </row>
     <row ht="142.5" r="314" spans="1:8" x14ac:dyDescent="0.2">
@@ -15672,10 +15096,10 @@
         <v>1056</v>
       </c>
       <c r="R314" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T314" t="n">
-        <v>1.72405174207E12</v>
+        <v>1.72169316528E12</v>
       </c>
     </row>
     <row ht="71.25" r="315" spans="1:8" x14ac:dyDescent="0.2">
@@ -15702,10 +15126,10 @@
         <v>250</v>
       </c>
       <c r="R315" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="T315" t="n">
-        <v>1.724055589001E12</v>
+        <v>1.721635538786E12</v>
       </c>
     </row>
     <row ht="57" r="316" spans="1:8" x14ac:dyDescent="0.2">
@@ -15735,7 +15159,7 @@
         <v>0.0</v>
       </c>
       <c r="T316" t="n">
-        <v>1.724051753512E12</v>
+        <v>1.721635545796E12</v>
       </c>
     </row>
     <row ht="114" r="317" spans="1:8" x14ac:dyDescent="0.2">
@@ -15762,10 +15186,10 @@
         <v>1064</v>
       </c>
       <c r="R317" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T317" t="n">
-        <v>1.724051760914E12</v>
+        <v>1.721693168779E12</v>
       </c>
     </row>
     <row ht="85.5" r="318" spans="1:8" x14ac:dyDescent="0.2">
@@ -15792,10 +15216,10 @@
         <v>1069</v>
       </c>
       <c r="R318" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T318" t="n">
-        <v>1.724051817475E12</v>
+        <v>1.721693174569E12</v>
       </c>
     </row>
     <row ht="99.75" r="319" spans="1:8" x14ac:dyDescent="0.2">
@@ -15822,10 +15246,10 @@
         <v>1072</v>
       </c>
       <c r="R319" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T319" t="n">
-        <v>1.724051822155E12</v>
+        <v>1.721693199786E12</v>
       </c>
     </row>
     <row ht="128.25" r="320" spans="1:8" x14ac:dyDescent="0.2">
@@ -15852,10 +15276,10 @@
         <v>1072</v>
       </c>
       <c r="R320" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T320" t="n">
-        <v>1.724055599853E12</v>
+        <v>1.72169321336E12</v>
       </c>
     </row>
     <row ht="114" r="321" spans="1:8" x14ac:dyDescent="0.2">
@@ -15885,7 +15309,7 @@
         <v>0.0</v>
       </c>
       <c r="T321" t="n">
-        <v>1.724051841824E12</v>
+        <v>1.721635638586E12</v>
       </c>
     </row>
     <row ht="213.75" r="322" spans="1:8" x14ac:dyDescent="0.2">
@@ -15912,10 +15336,10 @@
         <v>1083</v>
       </c>
       <c r="R322" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="T322" t="n">
-        <v>1.724055679805E12</v>
+        <v>1.721635647215E12</v>
       </c>
     </row>
     <row ht="57" r="323" spans="1:8" x14ac:dyDescent="0.2">
@@ -15942,10 +15366,10 @@
         <v>1088</v>
       </c>
       <c r="R323" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T323" t="n">
-        <v>1.724051858486E12</v>
+        <v>1.721693221291E12</v>
       </c>
     </row>
     <row ht="128.25" r="324" spans="1:8" x14ac:dyDescent="0.2">
@@ -15972,10 +15396,10 @@
         <v>1093</v>
       </c>
       <c r="R324" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T324" t="n">
-        <v>1.724051866279E12</v>
+        <v>1.72169322421E12</v>
       </c>
     </row>
     <row ht="128.25" r="325" spans="1:8" x14ac:dyDescent="0.2">
@@ -16002,10 +15426,10 @@
         <v>1098</v>
       </c>
       <c r="R325" t="n">
-        <v>0.2499999999999999</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T325" t="n">
-        <v>1.724051871124E12</v>
+        <v>1.723623724177E12</v>
       </c>
     </row>
     <row ht="171" r="326" spans="1:8" x14ac:dyDescent="0.2">
@@ -16032,10 +15456,10 @@
         <v>1103</v>
       </c>
       <c r="R326" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T326" t="n">
-        <v>1.724055685604E12</v>
+        <v>1.721693257559E12</v>
       </c>
     </row>
     <row ht="185.25" r="327" spans="1:8" x14ac:dyDescent="0.2">
@@ -16062,10 +15486,10 @@
         <v>1103</v>
       </c>
       <c r="R327" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T327" t="n">
-        <v>1.724055689672E12</v>
+        <v>1.721693268683E12</v>
       </c>
     </row>
     <row ht="185.25" r="328" spans="1:8" x14ac:dyDescent="0.2">
@@ -16092,10 +15516,10 @@
         <v>1103</v>
       </c>
       <c r="R328" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T328" t="n">
-        <v>1.724055693156E12</v>
+        <v>1.721693271978E12</v>
       </c>
     </row>
     <row ht="57" r="329" spans="1:8" x14ac:dyDescent="0.2">
@@ -16122,10 +15546,10 @@
         <v>1110</v>
       </c>
       <c r="R329" t="n">
-        <v>2.0999999999999996</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T329" t="n">
-        <v>1.724134769161E12</v>
+        <v>1.723623730801E12</v>
       </c>
     </row>
     <row ht="356.25" r="330" spans="1:8" x14ac:dyDescent="0.2">
@@ -16152,10 +15576,10 @@
         <v>1115</v>
       </c>
       <c r="R330" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T330" t="n">
-        <v>1.724055727141E12</v>
+        <v>1.72169343317E12</v>
       </c>
     </row>
     <row ht="213.75" r="331" spans="1:8" x14ac:dyDescent="0.2">
@@ -16182,10 +15606,10 @@
         <v>1119</v>
       </c>
       <c r="R331" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T331" t="n">
-        <v>1.724055736605E12</v>
+        <v>1.721693438586E12</v>
       </c>
     </row>
     <row ht="142.5" r="332" spans="1:8" x14ac:dyDescent="0.2">
@@ -16215,7 +15639,7 @@
         <v>0.0</v>
       </c>
       <c r="T332" t="n">
-        <v>1.724052067329E12</v>
+        <v>1.721635934616E12</v>
       </c>
     </row>
     <row ht="142.5" r="333" spans="1:8" x14ac:dyDescent="0.2">
@@ -16245,7 +15669,7 @@
         <v>0.0</v>
       </c>
       <c r="T333" t="n">
-        <v>1.724052080424E12</v>
+        <v>1.721635937541E12</v>
       </c>
     </row>
     <row ht="128.25" r="334" spans="1:8" x14ac:dyDescent="0.2">
@@ -16272,10 +15696,10 @@
         <v>1134</v>
       </c>
       <c r="R334" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="T334" t="n">
-        <v>1.72405574547E12</v>
+        <v>1.721635954237E12</v>
       </c>
     </row>
     <row ht="114" r="335" spans="1:8" x14ac:dyDescent="0.2">
@@ -16302,10 +15726,10 @@
         <v>1139</v>
       </c>
       <c r="R335" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T335" t="n">
-        <v>1.724055749698E12</v>
+        <v>1.721693442329E12</v>
       </c>
     </row>
     <row ht="99.75" r="336" spans="1:8" x14ac:dyDescent="0.2">
@@ -16332,10 +15756,10 @@
         <v>1144</v>
       </c>
       <c r="R336" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T336" t="n">
-        <v>1.724055753992E12</v>
+        <v>1.721693448845E12</v>
       </c>
     </row>
     <row ht="156.75" r="337" spans="1:8" x14ac:dyDescent="0.2">
@@ -16362,10 +15786,10 @@
         <v>1149</v>
       </c>
       <c r="R337" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T337" t="n">
-        <v>1.724055757357E12</v>
+        <v>1.721693454725E12</v>
       </c>
     </row>
     <row ht="57" r="338" spans="1:8" x14ac:dyDescent="0.2">
@@ -16392,10 +15816,10 @@
         <v>1154</v>
       </c>
       <c r="R338" t="n">
-        <v>0.2499999999999999</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="T338" t="n">
-        <v>1.72405217116E12</v>
+        <v>1.723623733962E12</v>
       </c>
     </row>
     <row ht="71.25" r="339" spans="1:8" x14ac:dyDescent="0.2">
@@ -16422,10 +15846,10 @@
         <v>1159</v>
       </c>
       <c r="R339" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T339" t="n">
-        <v>1.724052176792E12</v>
+        <v>1.721693477447E12</v>
       </c>
     </row>
     <row ht="42.75" r="340" spans="1:8" x14ac:dyDescent="0.2">
@@ -16455,7 +15879,7 @@
         <v>0.0</v>
       </c>
       <c r="T340" t="n">
-        <v>1.724052180027E12</v>
+        <v>1.721636010385E12</v>
       </c>
     </row>
     <row ht="114" r="341" spans="1:8" x14ac:dyDescent="0.2">
@@ -16482,10 +15906,10 @@
         <v>1169</v>
       </c>
       <c r="R341" t="n">
-        <v>1.2499999999999993</v>
+        <v>0.49999999999999933</v>
       </c>
       <c r="T341" t="n">
-        <v>1.724055762771E12</v>
+        <v>1.72371139123E12</v>
       </c>
     </row>
     <row ht="57" r="342" spans="1:8" x14ac:dyDescent="0.2">
@@ -16515,7 +15939,7 @@
         <v>0.0</v>
       </c>
       <c r="T342" t="n">
-        <v>1.72405219116E12</v>
+        <v>1.721636024139E12</v>
       </c>
     </row>
     <row ht="71.25" r="343" spans="1:8" x14ac:dyDescent="0.2">
@@ -16542,10 +15966,10 @@
         <v>1179</v>
       </c>
       <c r="R343" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T343" t="n">
-        <v>1.724055766644E12</v>
+        <v>1.721693521681E12</v>
       </c>
     </row>
     <row ht="270.75" r="344" spans="1:8" x14ac:dyDescent="0.2">
@@ -16575,7 +15999,7 @@
         <v>0.0</v>
       </c>
       <c r="T344" t="n">
-        <v>1.724052221507E12</v>
+        <v>1.721636042365E12</v>
       </c>
     </row>
     <row ht="114" r="345" spans="1:8" x14ac:dyDescent="0.2">
@@ -16602,10 +16026,10 @@
         <v>1189</v>
       </c>
       <c r="R345" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="T345" t="n">
-        <v>1.724055950517E12</v>
+        <v>1.721636047105E12</v>
       </c>
     </row>
     <row ht="85.5" r="346" spans="1:8" x14ac:dyDescent="0.2">
@@ -16632,10 +16056,10 @@
         <v>1194</v>
       </c>
       <c r="R346" t="n">
-        <v>1.2999999999999996</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T346" t="n">
-        <v>1.724055954855E12</v>
+        <v>1.723711393666E12</v>
       </c>
     </row>
     <row ht="71.25" r="347" spans="1:8" x14ac:dyDescent="0.2">
@@ -16665,7 +16089,7 @@
         <v>0.0</v>
       </c>
       <c r="T347" t="n">
-        <v>1.724052279387E12</v>
+        <v>1.721636066568E12</v>
       </c>
     </row>
     <row ht="42.75" r="348" spans="1:8" x14ac:dyDescent="0.2">
@@ -16695,7 +16119,7 @@
         <v>0.0</v>
       </c>
       <c r="T348" t="n">
-        <v>1.724052282673E12</v>
+        <v>1.721636069338E12</v>
       </c>
     </row>
     <row ht="57" r="349" spans="1:8" x14ac:dyDescent="0.2">
@@ -16725,7 +16149,7 @@
         <v>0.0</v>
       </c>
       <c r="T349" t="n">
-        <v>1.724052285365E12</v>
+        <v>1.72163607357E12</v>
       </c>
     </row>
     <row ht="42.75" r="350" spans="1:8" x14ac:dyDescent="0.2">
@@ -16752,10 +16176,10 @@
         <v>1214</v>
       </c>
       <c r="R350" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T350" t="n">
-        <v>1.724052289415E12</v>
+        <v>1.721693529435E12</v>
       </c>
     </row>
     <row ht="99.75" r="351" spans="1:8" x14ac:dyDescent="0.2">
@@ -16782,10 +16206,10 @@
         <v>6.6124999999999998</v>
       </c>
       <c r="R351" t="n">
-        <v>0.19999999999999962</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T351" t="n">
-        <v>1.724052295357E12</v>
+        <v>1.723711449143E12</v>
       </c>
     </row>
     <row ht="85.5" r="352" spans="1:8" x14ac:dyDescent="0.2">
@@ -16815,7 +16239,7 @@
         <v>0.0</v>
       </c>
       <c r="T352" t="n">
-        <v>1.724052299417E12</v>
+        <v>1.721636099858E12</v>
       </c>
     </row>
     <row ht="85.5" r="353" spans="1:8" x14ac:dyDescent="0.2">
@@ -16838,10 +16262,10 @@
       <c r="G353" s="6"/>
       <c r="H353" s="6"/>
       <c r="R353" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T353" t="n">
-        <v>1.724055959896E12</v>
+        <v>1.721693538387E12</v>
       </c>
     </row>
     <row ht="85.5" r="354" spans="1:8" x14ac:dyDescent="0.2">
@@ -16867,7 +16291,7 @@
         <v>0.0</v>
       </c>
       <c r="T354" t="n">
-        <v>1.72405231002E12</v>
+        <v>1.721636186329E12</v>
       </c>
     </row>
     <row ht="185.25" r="355" spans="1:8" x14ac:dyDescent="0.2">
@@ -16893,7 +16317,7 @@
         <v>0.0</v>
       </c>
       <c r="T355" t="n">
-        <v>1.724052315822E12</v>
+        <v>1.721636193689E12</v>
       </c>
     </row>
     <row ht="256.5" r="356" spans="1:8" x14ac:dyDescent="0.2">
@@ -16916,10 +16340,10 @@
       <c r="G356" s="6"/>
       <c r="H356" s="6"/>
       <c r="R356" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T356" t="n">
-        <v>1.724055962304E12</v>
+        <v>1.721693540734E12</v>
       </c>
     </row>
     <row ht="142.5" r="357" spans="1:8" x14ac:dyDescent="0.2">
@@ -16942,10 +16366,10 @@
       <c r="G357" s="6"/>
       <c r="H357" s="6"/>
       <c r="R357" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="T357" t="n">
-        <v>1.724055966272E12</v>
+        <v>1.721636199688E12</v>
       </c>
     </row>
     <row ht="285" r="358" spans="1:8" x14ac:dyDescent="0.2">
@@ -16971,7 +16395,7 @@
         <v>0.0</v>
       </c>
       <c r="T358" t="n">
-        <v>1.72405234415E12</v>
+        <v>1.721636201498E12</v>
       </c>
     </row>
     <row ht="228" r="359" spans="1:8" x14ac:dyDescent="0.2">
@@ -16997,7 +16421,7 @@
         <v>0.0</v>
       </c>
       <c r="T359" t="n">
-        <v>1.724052348319E12</v>
+        <v>1.721636202976E12</v>
       </c>
     </row>
     <row ht="99.75" r="360" spans="1:8" x14ac:dyDescent="0.2">
@@ -17023,7 +16447,7 @@
         <v>0.0</v>
       </c>
       <c r="T360" t="n">
-        <v>1.724052350916E12</v>
+        <v>1.721636206914E12</v>
       </c>
     </row>
     <row ht="199.5" r="361" spans="1:8" x14ac:dyDescent="0.2">
@@ -17046,10 +16470,10 @@
       <c r="G361" s="6"/>
       <c r="H361" s="6"/>
       <c r="R361" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T361" t="n">
-        <v>1.724052354755E12</v>
+        <v>1.721693543349E12</v>
       </c>
     </row>
     <row ht="242.25" r="362" spans="1:8" x14ac:dyDescent="0.2">
@@ -17075,7 +16499,7 @@
         <v>0.0</v>
       </c>
       <c r="T362" t="n">
-        <v>1.724052360169E12</v>
+        <v>1.721636211575E12</v>
       </c>
     </row>
     <row ht="85.5" r="363" spans="1:8" x14ac:dyDescent="0.2">
@@ -17098,10 +16522,10 @@
       <c r="G363" s="6"/>
       <c r="H363" s="6"/>
       <c r="R363" t="n">
-        <v>0.14999999999999936</v>
+        <v>0.49999999999999933</v>
       </c>
       <c r="T363" t="n">
-        <v>1.724052362019E12</v>
+        <v>1.723711451164E12</v>
       </c>
     </row>
     <row ht="142.5" r="364" spans="1:8" x14ac:dyDescent="0.2">
@@ -17127,7 +16551,7 @@
         <v>0.0</v>
       </c>
       <c r="T364" t="n">
-        <v>1.724052365312E12</v>
+        <v>1.721636217598E12</v>
       </c>
     </row>
     <row ht="114" r="365" spans="1:8" x14ac:dyDescent="0.2">
@@ -17153,7 +16577,7 @@
         <v>0.0</v>
       </c>
       <c r="T365" t="n">
-        <v>1.724052367641E12</v>
+        <v>1.721636219889E12</v>
       </c>
     </row>
     <row ht="114" r="366" spans="1:8" x14ac:dyDescent="0.2">
@@ -17176,10 +16600,10 @@
       <c r="G366" s="6"/>
       <c r="H366" s="6"/>
       <c r="R366" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T366" t="n">
-        <v>1.724052371584E12</v>
+        <v>1.721693567334E12</v>
       </c>
     </row>
     <row ht="128.25" r="367" spans="1:8" x14ac:dyDescent="0.2">
@@ -17202,10 +16626,10 @@
       <c r="G367" s="6"/>
       <c r="H367" s="6"/>
       <c r="R367" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T367" t="n">
-        <v>1.724055979161E12</v>
+        <v>1.721693571762E12</v>
       </c>
     </row>
     <row ht="128.25" r="368" spans="1:8" x14ac:dyDescent="0.2">
@@ -17231,7 +16655,7 @@
         <v>0.0</v>
       </c>
       <c r="T368" t="n">
-        <v>1.724052399151E12</v>
+        <v>1.721636233435E12</v>
       </c>
     </row>
     <row ht="114" r="369" spans="1:8" x14ac:dyDescent="0.2">
@@ -17257,7 +16681,7 @@
         <v>0.0</v>
       </c>
       <c r="T369" t="n">
-        <v>1.724052402757E12</v>
+        <v>1.721636238707E12</v>
       </c>
     </row>
     <row ht="185.25" r="370" spans="1:8" x14ac:dyDescent="0.2">
@@ -17280,10 +16704,10 @@
       <c r="G370" s="6"/>
       <c r="H370" s="6"/>
       <c r="R370" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T370" t="n">
-        <v>1.724055982695E12</v>
+        <v>1.721693575143E12</v>
       </c>
     </row>
     <row ht="142.5" r="371" spans="1:8" x14ac:dyDescent="0.2">
@@ -17306,10 +16730,10 @@
       <c r="G371" s="6"/>
       <c r="H371" s="6"/>
       <c r="R371" t="n">
-        <v>0.19999999999999962</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T371" t="n">
-        <v>1.724052411042E12</v>
+        <v>1.723711452795E12</v>
       </c>
     </row>
     <row ht="114" r="372" spans="1:8" x14ac:dyDescent="0.2">
@@ -17332,10 +16756,10 @@
       <c r="G372" s="6"/>
       <c r="H372" s="6"/>
       <c r="R372" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T372" t="n">
-        <v>1.724055984754E12</v>
+        <v>1.72169358452E12</v>
       </c>
     </row>
     <row ht="99.75" r="373" spans="1:8" x14ac:dyDescent="0.2">
@@ -17358,10 +16782,10 @@
       <c r="G373" s="6"/>
       <c r="H373" s="6"/>
       <c r="R373" t="n">
-        <v>1.75</v>
+        <v>0.0</v>
       </c>
       <c r="T373" t="n">
-        <v>1.724057681144E12</v>
+        <v>1.721636259248E12</v>
       </c>
     </row>
     <row ht="185.25" r="374" spans="1:8" x14ac:dyDescent="0.2">
@@ -17387,7 +16811,7 @@
         <v>0.0</v>
       </c>
       <c r="T374" t="n">
-        <v>1.724052427137E12</v>
+        <v>1.72163626347E12</v>
       </c>
     </row>
     <row ht="142.5" r="375" spans="1:8" x14ac:dyDescent="0.2">
@@ -17413,7 +16837,7 @@
         <v>0.0</v>
       </c>
       <c r="T375" t="n">
-        <v>1.724052432486E12</v>
+        <v>1.721636266394E12</v>
       </c>
     </row>
     <row ht="171" r="376" spans="1:8" x14ac:dyDescent="0.2">
@@ -17439,7 +16863,7 @@
         <v>0.0</v>
       </c>
       <c r="T376" t="n">
-        <v>1.724052435304E12</v>
+        <v>1.721636269294E12</v>
       </c>
     </row>
     <row ht="199.5" r="377" spans="1:8" x14ac:dyDescent="0.2">
@@ -17462,10 +16886,10 @@
       <c r="G377" s="6"/>
       <c r="H377" s="6"/>
       <c r="R377" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T377" t="n">
-        <v>1.724055994546E12</v>
+        <v>1.721693588325E12</v>
       </c>
     </row>
     <row ht="171" r="378" spans="1:8" x14ac:dyDescent="0.2">
@@ -17491,7 +16915,7 @@
         <v>0.0</v>
       </c>
       <c r="T378" t="n">
-        <v>1.724052449213E12</v>
+        <v>1.721636277489E12</v>
       </c>
     </row>
     <row ht="128.25" r="379" spans="1:8" x14ac:dyDescent="0.2">
@@ -17517,7 +16941,7 @@
         <v>0.0</v>
       </c>
       <c r="T379" t="n">
-        <v>1.724052462022E12</v>
+        <v>1.721636280905E12</v>
       </c>
     </row>
     <row ht="156.75" r="380" spans="1:8" x14ac:dyDescent="0.2">
@@ -17540,10 +16964,10 @@
       <c r="G380" s="6"/>
       <c r="H380" s="6"/>
       <c r="R380" t="n">
-        <v>0.19999999999999962</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T380" t="n">
-        <v>1.724052465745E12</v>
+        <v>1.723711455166E12</v>
       </c>
     </row>
     <row ht="85.5" r="381" spans="1:8" x14ac:dyDescent="0.2">
@@ -17566,10 +16990,10 @@
       <c r="G381" s="6"/>
       <c r="H381" s="6"/>
       <c r="R381" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="T381" t="n">
-        <v>1.724055997604E12</v>
+        <v>1.721636299006E12</v>
       </c>
     </row>
     <row ht="114" r="382" spans="1:8" x14ac:dyDescent="0.2">
@@ -17595,7 +17019,7 @@
         <v>0.0</v>
       </c>
       <c r="T382" t="n">
-        <v>1.724052473866E12</v>
+        <v>1.721636302357E12</v>
       </c>
     </row>
     <row ht="285" r="383" spans="1:8" x14ac:dyDescent="0.2">
@@ -17621,7 +17045,7 @@
         <v>0.0</v>
       </c>
       <c r="T383" t="n">
-        <v>1.724052478155E12</v>
+        <v>1.72163630513E12</v>
       </c>
     </row>
     <row ht="128.25" r="384" spans="1:8" x14ac:dyDescent="0.2">
@@ -17647,7 +17071,7 @@
         <v>0.0</v>
       </c>
       <c r="T384" t="n">
-        <v>1.724052480893E12</v>
+        <v>1.721636307687E12</v>
       </c>
     </row>
     <row ht="42.75" r="385" spans="1:8" x14ac:dyDescent="0.2">
@@ -17670,10 +17094,10 @@
       <c r="G385" s="6"/>
       <c r="H385" s="6"/>
       <c r="R385" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T385" t="n">
-        <v>1.724056000101E12</v>
+        <v>1.721693595166E12</v>
       </c>
     </row>
     <row ht="171" r="386" spans="1:8" x14ac:dyDescent="0.2">
@@ -17699,7 +17123,7 @@
         <v>0.0</v>
       </c>
       <c r="T386" t="n">
-        <v>1.724052519924E12</v>
+        <v>1.721636351164E12</v>
       </c>
     </row>
     <row ht="57" r="387" spans="1:8" x14ac:dyDescent="0.2">
@@ -17726,10 +17150,10 @@
         <v>1256</v>
       </c>
       <c r="R387" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="T387" t="n">
-        <v>1.72405600661E12</v>
+        <v>1.721636359788E12</v>
       </c>
     </row>
     <row ht="85.5" r="388" spans="1:8" x14ac:dyDescent="0.2">
@@ -17756,10 +17180,10 @@
         <v>1261</v>
       </c>
       <c r="R388" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="T388" t="n">
-        <v>1.724056008555E12</v>
+        <v>1.721693601445E12</v>
       </c>
     </row>
     <row ht="85.5" r="389" spans="1:8" x14ac:dyDescent="0.2">
@@ -17786,10 +17210,10 @@
         <v>1266</v>
       </c>
       <c r="R389" t="n">
-        <v>3.4</v>
+        <v>0.65</v>
       </c>
       <c r="T389" t="n">
-        <v>1.724134777318E12</v>
+        <v>1.721693611414E12</v>
       </c>
     </row>
     <row ht="213.75" r="390" spans="1:8" x14ac:dyDescent="0.2">
@@ -17816,10 +17240,10 @@
         <v>1271</v>
       </c>
       <c r="R390" t="n">
-        <v>0.19999999999999962</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T390" t="n">
-        <v>1.724052570999E12</v>
+        <v>1.723711502058E12</v>
       </c>
     </row>
     <row ht="185.25" r="391" spans="1:8" x14ac:dyDescent="0.2">
@@ -17849,7 +17273,7 @@
         <v>0.0</v>
       </c>
       <c r="T391" t="n">
-        <v>1.724052579769E12</v>
+        <v>1.721636506548E12</v>
       </c>
     </row>
     <row ht="57" r="392" spans="1:8" x14ac:dyDescent="0.2">
@@ -17876,10 +17300,10 @@
         <v>1280</v>
       </c>
       <c r="R392" t="n">
-        <v>1.2999999999999996</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="T392" t="n">
-        <v>1.724056042979E12</v>
+        <v>1.723711506024E12</v>
       </c>
     </row>
     <row ht="156.75" r="393" spans="1:8" x14ac:dyDescent="0.2">
@@ -17906,10 +17330,10 @@
         <v>1285</v>
       </c>
       <c r="R393" t="n">
-        <v>0.34999999999999853</v>
+        <v>0.6999999999999985</v>
       </c>
       <c r="T393" t="n">
-        <v>1.724052594299E12</v>
+        <v>1.723623793183E12</v>
       </c>
     </row>
     <row ht="228" r="394" spans="1:8" x14ac:dyDescent="0.2">
@@ -17936,10 +17360,10 @@
         <v>1289</v>
       </c>
       <c r="R394" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="T394" t="n">
-        <v>1.724052602832E12</v>
+        <v>1.721693636745E12</v>
       </c>
     </row>
     <row ht="128.25" r="395" spans="1:8" x14ac:dyDescent="0.2">
@@ -17966,10 +17390,10 @@
         <v>1294</v>
       </c>
       <c r="R395" t="n">
-        <v>1.2499999999999993</v>
+        <v>0.49999999999999933</v>
       </c>
       <c r="T395" t="n">
-        <v>1.724056055898E12</v>
+        <v>1.723711510956E12</v>
       </c>
     </row>
     <row ht="142.5" r="396" spans="1:8" x14ac:dyDescent="0.2">
@@ -17996,10 +17420,10 @@
         <v>1298</v>
       </c>
       <c r="R396" t="n">
-        <v>0.3999999999999988</v>
+        <v>0.7499999999999988</v>
       </c>
       <c r="T396" t="n">
-        <v>1.724052615594E12</v>
+        <v>1.723623795041E12</v>
       </c>
     </row>
     <row ht="99.75" r="397" spans="1:8" x14ac:dyDescent="0.2">
@@ -18026,10 +17450,10 @@
         <v>1303</v>
       </c>
       <c r="R397" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="T397" t="n">
-        <v>1.724056062576E12</v>
+        <v>1.721637214255E12</v>
       </c>
     </row>
     <row ht="57" r="398" spans="1:8" x14ac:dyDescent="0.2">
@@ -18059,7 +17483,7 @@
         <v>0.0</v>
       </c>
       <c r="T398" t="n">
-        <v>1.724052666018E12</v>
+        <v>1.721637321206E12</v>
       </c>
     </row>
     <row ht="57" r="399" spans="1:8" x14ac:dyDescent="0.2">
@@ -18086,10 +17510,10 @@
         <v>1313</v>
       </c>
       <c r="R399" t="n">
-        <v>0.14999999999999936</v>
+        <v>0.49999999999999933</v>
       </c>
       <c r="T399" t="n">
-        <v>1.724052670509E12</v>
+        <v>1.723711514188E12</v>
       </c>
     </row>
     <row ht="85.5" r="400" spans="1:8" x14ac:dyDescent="0.2">
@@ -18116,10 +17540,10 @@
         <v>1319</v>
       </c>
       <c r="R400" t="n">
-        <v>0.2499999999999981</v>
+        <v>0.5999999999999981</v>
       </c>
       <c r="T400" t="n">
-        <v>1.724052685471E12</v>
+        <v>1.723623803545E12</v>
       </c>
     </row>
     <row ht="71.25" r="401" spans="1:8" x14ac:dyDescent="0.2">
@@ -18146,10 +17570,10 @@
         <v>1324</v>
       </c>
       <c r="R401" t="n">
-        <v>0.09999999999999909</v>
+        <v>0.44999999999999907</v>
       </c>
       <c r="T401" t="n">
-        <v>1.724052695058E12</v>
+        <v>1.723711515802E12</v>
       </c>
     </row>
     <row ht="71.25" r="402" spans="1:8" x14ac:dyDescent="0.2">
@@ -18176,10 +17600,10 @@
         <v>1329</v>
       </c>
       <c r="R402" t="n">
-        <v>1.0499999999999998</v>
+        <v>0.65</v>
       </c>
       <c r="T402" t="n">
-        <v>1.724056069857E12</v>
+        <v>1.721693670906E12</v>
       </c>
     </row>
     <row ht="57" r="403" spans="1:8" x14ac:dyDescent="0.2">
@@ -18209,7 +17633,7 @@
         <v>0.0</v>
       </c>
       <c r="T403" t="n">
-        <v>1.724052747166E12</v>
+        <v>1.721637524145E12</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/中级工应知应会题库.xlsx
+++ b/target/classes/中级工应知应会题库.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3388" uniqueCount="1400">
   <si>
     <t>试题编号</t>
   </si>
@@ -4203,7 +4203,31 @@
     <t>您一共做了: 32题	您的得分： 96.875	做题时长约为53.416666666666664Min</t>
   </si>
   <si>
-    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.13333333333333333Min</t>
+    <t>您一共做了: 2题	您的得分： 50.0	做题时长约为1.0833333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 81.0	做题时长约为90.33333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 74.0	做题时长约为32.0Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 78.0	做题时长约为37.35Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 63.0	做题时长约为21.85Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.7833333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 106题	您的得分： 86.79245283018868	做题时长约为54.78333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 14题	您的得分： 92.85714285714286	做题时长约为0.8666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 9题	您的得分： 77.77777777777779	做题时长约为1.2Min</t>
   </si>
 </sst>
 </file>
@@ -4310,7 +4334,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1216">
+  <cellXfs count="1747">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5543,8 +5567,539 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -5886,10 +6441,10 @@
         <v>13</v>
       </c>
       <c r="R2" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T2" t="n">
-        <v>1.721640339311E12</v>
+        <v>1.72403075885E12</v>
       </c>
       <c r="AA2" t="s">
         <v>1337</v>
@@ -5922,7 +6477,7 @@
         <v>0.0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.721607789012E12</v>
+        <v>1.724030783175E12</v>
       </c>
       <c r="AA3" t="s">
         <v>1338</v>
@@ -5955,13 +6510,13 @@
         <v>0.0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.721607793891E12</v>
+        <v>1.724030789839E12</v>
       </c>
       <c r="AA4" t="s">
         <v>1339</v>
       </c>
       <c r="AB4" t="n">
-        <v>401.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row ht="114" r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -5988,10 +6543,10 @@
         <v>30</v>
       </c>
       <c r="R5" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T5" t="n">
-        <v>1.721640342972E12</v>
+        <v>1.724030839008E12</v>
       </c>
       <c r="AA5" t="s">
         <v>1340</v>
@@ -6024,7 +6579,7 @@
         <v>0.0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.721607866181E12</v>
+        <v>1.72403087063E12</v>
       </c>
       <c r="AA6" t="s">
         <v>1341</v>
@@ -6054,10 +6609,10 @@
         <v>41</v>
       </c>
       <c r="R7" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T7" t="n">
-        <v>1.721640557121E12</v>
+        <v>1.724030873957E12</v>
       </c>
       <c r="AA7" t="s">
         <v>1342</v>
@@ -6087,10 +6642,10 @@
         <v>46</v>
       </c>
       <c r="R8" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T8" t="n">
-        <v>1.721640575497E12</v>
+        <v>1.72403088074E12</v>
       </c>
       <c r="AA8" t="s">
         <v>1343</v>
@@ -6120,10 +6675,10 @@
         <v>51</v>
       </c>
       <c r="R9" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T9" t="n">
-        <v>1.721640733457E12</v>
+        <v>1.724030884776E12</v>
       </c>
       <c r="AA9" t="s">
         <v>1344</v>
@@ -6156,7 +6711,7 @@
         <v>0.0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.721607935308E12</v>
+        <v>1.724030888684E12</v>
       </c>
       <c r="AA10" t="s">
         <v>1345</v>
@@ -6186,10 +6741,10 @@
         <v>62</v>
       </c>
       <c r="R11" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T11" t="n">
-        <v>1.721640740179E12</v>
+        <v>1.724030958682E12</v>
       </c>
       <c r="AA11" t="s">
         <v>1346</v>
@@ -6219,10 +6774,10 @@
         <v>62</v>
       </c>
       <c r="R12" t="n">
-        <v>0.6999999999999985</v>
+        <v>0.34999999999999853</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72362337209E12</v>
+        <v>1.724030963002E12</v>
       </c>
       <c r="AA12" t="s">
         <v>1347</v>
@@ -6255,7 +6810,7 @@
         <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.72160804786E12</v>
+        <v>1.724030965139E12</v>
       </c>
       <c r="AA13" t="s">
         <v>1348</v>
@@ -6285,10 +6840,10 @@
         <v>73</v>
       </c>
       <c r="R14" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T14" t="n">
-        <v>1.721640769413E12</v>
+        <v>1.72403099837E12</v>
       </c>
       <c r="AA14" t="s">
         <v>1349</v>
@@ -6321,7 +6876,7 @@
         <v>0.0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.721608152183E12</v>
+        <v>1.724031000922E12</v>
       </c>
       <c r="AA15" t="s">
         <v>1350</v>
@@ -6354,7 +6909,7 @@
         <v>0.0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.721608156028E12</v>
+        <v>1.724031010465E12</v>
       </c>
       <c r="AA16" t="s">
         <v>1351</v>
@@ -6384,10 +6939,10 @@
         <v>88</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T17" t="n">
-        <v>1.723708313541E12</v>
+        <v>1.724031012969E12</v>
       </c>
       <c r="AA17" t="s">
         <v>1352</v>
@@ -6420,7 +6975,7 @@
         <v>0.0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.721608172859E12</v>
+        <v>1.724031047772E12</v>
       </c>
       <c r="AA18" t="s">
         <v>1353</v>
@@ -6450,10 +7005,10 @@
         <v>30</v>
       </c>
       <c r="R19" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.721640801704E12</v>
+        <v>1.724052787307E12</v>
       </c>
       <c r="AA19" t="s">
         <v>1354</v>
@@ -6483,10 +7038,10 @@
         <v>120</v>
       </c>
       <c r="R20" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.721640803644E12</v>
+        <v>1.724052792524E12</v>
       </c>
       <c r="AA20" t="s">
         <v>1350</v>
@@ -6519,7 +7074,7 @@
         <v>0.0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.721608190619E12</v>
+        <v>1.724031065498E12</v>
       </c>
       <c r="AA21" t="s">
         <v>1355</v>
@@ -6549,10 +7104,10 @@
         <v>105</v>
       </c>
       <c r="R22" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T22" t="n">
-        <v>1.721640805098E12</v>
+        <v>1.724031072592E12</v>
       </c>
       <c r="AA22" t="s">
         <v>1356</v>
@@ -6585,7 +7140,7 @@
         <v>0.0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.721608544688E12</v>
+        <v>1.724031085873E12</v>
       </c>
       <c r="AA23" t="s">
         <v>1357</v>
@@ -6615,10 +7170,10 @@
         <v>115</v>
       </c>
       <c r="R24" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T24" t="n">
-        <v>1.721640811425E12</v>
+        <v>1.724031090581E12</v>
       </c>
       <c r="AA24" t="s">
         <v>1358</v>
@@ -6648,10 +7203,10 @@
         <v>120</v>
       </c>
       <c r="R25" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T25" t="n">
-        <v>1.721640830314E12</v>
+        <v>1.724031280437E12</v>
       </c>
       <c r="AA25" t="s">
         <v>1351</v>
@@ -6681,10 +7236,10 @@
         <v>120</v>
       </c>
       <c r="R26" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.721640833099E12</v>
+        <v>1.724052794636E12</v>
       </c>
       <c r="AA26" t="s">
         <v>1359</v>
@@ -6717,7 +7272,7 @@
         <v>0.0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.721610521122E12</v>
+        <v>1.724031343785E12</v>
       </c>
       <c r="AA27" t="s">
         <v>1356</v>
@@ -6750,7 +7305,7 @@
         <v>0.0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.721610533076E12</v>
+        <v>1.724031347138E12</v>
       </c>
       <c r="AA28" t="s">
         <v>1360</v>
@@ -6783,7 +7338,7 @@
         <v>0.0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.721611182385E12</v>
+        <v>1.724031384268E12</v>
       </c>
       <c r="AA29" t="s">
         <v>1361</v>
@@ -6813,10 +7368,10 @@
         <v>140</v>
       </c>
       <c r="R30" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T30" t="n">
-        <v>1.721640835328E12</v>
+        <v>1.724052797393E12</v>
       </c>
       <c r="AA30" t="s">
         <v>1355</v>
@@ -6849,7 +7404,7 @@
         <v>0.0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.721611282311E12</v>
+        <v>1.724031475346E12</v>
       </c>
       <c r="AA31" t="s">
         <v>1362</v>
@@ -6879,10 +7434,10 @@
         <v>150</v>
       </c>
       <c r="R32" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T32" t="n">
-        <v>1.721640839381E12</v>
+        <v>1.724031484132E12</v>
       </c>
       <c r="AA32" t="s">
         <v>1363</v>
@@ -6912,10 +7467,10 @@
         <v>155</v>
       </c>
       <c r="R33" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T33" t="n">
-        <v>1.721640862942E12</v>
+        <v>1.72403153788E12</v>
       </c>
       <c r="AA33" t="s">
         <v>1364</v>
@@ -6945,10 +7500,10 @@
         <v>5</v>
       </c>
       <c r="R34" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T34" t="n">
-        <v>1.721611301423E12</v>
+        <v>1.724052799609E12</v>
       </c>
       <c r="AA34" t="s">
         <v>1365</v>
@@ -6981,7 +7536,7 @@
         <v>0.0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.721611306549E12</v>
+        <v>1.724031817406E12</v>
       </c>
       <c r="AA35" t="s">
         <v>1361</v>
@@ -7011,10 +7566,10 @@
         <v>166</v>
       </c>
       <c r="R36" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T36" t="n">
-        <v>1.721640866267E12</v>
+        <v>1.724031834845E12</v>
       </c>
       <c r="AA36" t="s">
         <v>1366</v>
@@ -7047,7 +7602,7 @@
         <v>0.0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.721611393539E12</v>
+        <v>1.724031865088E12</v>
       </c>
       <c r="AA37" t="s">
         <v>1367</v>
@@ -7077,10 +7632,10 @@
         <v>75</v>
       </c>
       <c r="R38" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T38" t="n">
-        <v>1.721640868308E12</v>
+        <v>1.724031868117E12</v>
       </c>
       <c r="AA38" t="s">
         <v>1368</v>
@@ -7110,10 +7665,10 @@
         <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T39" t="n">
-        <v>1.721640870173E12</v>
+        <v>1.724052833934E12</v>
       </c>
       <c r="AA39" t="s">
         <v>1369</v>
@@ -7146,7 +7701,7 @@
         <v>0.0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.721611422841E12</v>
+        <v>1.724032017591E12</v>
       </c>
       <c r="AA40" t="s">
         <v>1369</v>
@@ -7179,7 +7734,7 @@
         <v>0.0</v>
       </c>
       <c r="T41" t="n">
-        <v>1.721611427909E12</v>
+        <v>1.72403202406E12</v>
       </c>
       <c r="AA41" t="s">
         <v>1359</v>
@@ -7212,7 +7767,7 @@
         <v>0.0</v>
       </c>
       <c r="T42" t="n">
-        <v>1.721611430862E12</v>
+        <v>1.724032026734E12</v>
       </c>
       <c r="AA42" t="s">
         <v>1370</v>
@@ -7242,10 +7797,10 @@
         <v>195</v>
       </c>
       <c r="R43" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T43" t="n">
-        <v>1.72161155929E12</v>
+        <v>1.72405284387E12</v>
       </c>
       <c r="AA43" t="s">
         <v>1371</v>
@@ -7278,7 +7833,7 @@
         <v>0.0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.721611567498E12</v>
+        <v>1.724032675114E12</v>
       </c>
       <c r="AA44" t="s">
         <v>1372</v>
@@ -7308,10 +7863,10 @@
         <v>205</v>
       </c>
       <c r="R45" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T45" t="n">
-        <v>1.721640872394E12</v>
+        <v>1.724052862178E12</v>
       </c>
       <c r="AA45" t="s">
         <v>1361</v>
@@ -7341,10 +7896,10 @@
         <v>210</v>
       </c>
       <c r="R46" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T46" t="n">
-        <v>1.721640873927E12</v>
+        <v>1.724032839531E12</v>
       </c>
       <c r="AA46" t="s">
         <v>1356</v>
@@ -7374,10 +7929,10 @@
         <v>215</v>
       </c>
       <c r="R47" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T47" t="n">
-        <v>1.721640875159E12</v>
+        <v>1.724032842104E12</v>
       </c>
       <c r="AA47" t="s">
         <v>1355</v>
@@ -7410,7 +7965,7 @@
         <v>0.0</v>
       </c>
       <c r="T48" t="n">
-        <v>1.721611590255E12</v>
+        <v>1.724032853751E12</v>
       </c>
       <c r="AA48" t="s">
         <v>1373</v>
@@ -7440,10 +7995,10 @@
         <v>225</v>
       </c>
       <c r="R49" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T49" t="n">
-        <v>1.721640878211E12</v>
+        <v>1.724052871716E12</v>
       </c>
       <c r="AA49" t="s">
         <v>1361</v>
@@ -7473,10 +8028,10 @@
         <v>230</v>
       </c>
       <c r="R50" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T50" t="n">
-        <v>1.721640880948E12</v>
+        <v>1.724032919572E12</v>
       </c>
       <c r="AA50" t="s">
         <v>1356</v>
@@ -7506,10 +8061,10 @@
         <v>235</v>
       </c>
       <c r="R51" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T51" t="n">
-        <v>1.721640884489E12</v>
+        <v>1.724032931533E12</v>
       </c>
       <c r="AA51" t="s">
         <v>1365</v>
@@ -7539,10 +8094,10 @@
         <v>240</v>
       </c>
       <c r="R52" t="n">
-        <v>0.65</v>
+        <v>2.15</v>
       </c>
       <c r="T52" t="n">
-        <v>1.721640891232E12</v>
+        <v>1.724134707764E12</v>
       </c>
       <c r="AA52" t="s">
         <v>1374</v>
@@ -7575,7 +8130,7 @@
         <v>0.0</v>
       </c>
       <c r="T53" t="n">
-        <v>1.721611731411E12</v>
+        <v>1.724032952617E12</v>
       </c>
       <c r="AA53" t="s">
         <v>1359</v>
@@ -7605,10 +8160,10 @@
         <v>250</v>
       </c>
       <c r="R54" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T54" t="n">
-        <v>1.72164089311E12</v>
+        <v>1.724052992271E12</v>
       </c>
       <c r="AA54" t="s">
         <v>1369</v>
@@ -7638,10 +8193,10 @@
         <v>255</v>
       </c>
       <c r="R55" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T55" t="n">
-        <v>1.72164090438E12</v>
+        <v>1.724033030104E12</v>
       </c>
       <c r="AA55" t="s">
         <v>1359</v>
@@ -7671,10 +8226,10 @@
         <v>260</v>
       </c>
       <c r="R56" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T56" t="n">
-        <v>1.721640912568E12</v>
+        <v>1.724033052672E12</v>
       </c>
       <c r="AA56" t="s">
         <v>1375</v>
@@ -7707,7 +8262,7 @@
         <v>0.0</v>
       </c>
       <c r="T57" t="n">
-        <v>1.721611806284E12</v>
+        <v>1.724033061506E12</v>
       </c>
       <c r="AA57" t="s">
         <v>1376</v>
@@ -7740,7 +8295,7 @@
         <v>0.0</v>
       </c>
       <c r="T58" t="n">
-        <v>1.721611811403E12</v>
+        <v>1.724033067126E12</v>
       </c>
       <c r="AA58" t="s">
         <v>1377</v>
@@ -7773,7 +8328,7 @@
         <v>0.0</v>
       </c>
       <c r="T59" t="n">
-        <v>1.721611819852E12</v>
+        <v>1.724033073176E12</v>
       </c>
       <c r="AA59" t="s">
         <v>1378</v>
@@ -7803,10 +8358,10 @@
         <v>276</v>
       </c>
       <c r="R60" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T60" t="n">
-        <v>1.721640916923E12</v>
+        <v>1.724033082524E12</v>
       </c>
       <c r="AA60" t="s">
         <v>1379</v>
@@ -7836,10 +8391,10 @@
         <v>281</v>
       </c>
       <c r="R61" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T61" t="n">
-        <v>1.721640919261E12</v>
+        <v>1.724053032615E12</v>
       </c>
       <c r="AA61" t="s">
         <v>1380</v>
@@ -7869,10 +8424,10 @@
         <v>286</v>
       </c>
       <c r="R62" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T62" t="n">
-        <v>1.721640925152E12</v>
+        <v>1.724053037381E12</v>
       </c>
       <c r="AA62" t="s">
         <v>1365</v>
@@ -7905,7 +8460,7 @@
         <v>0.0</v>
       </c>
       <c r="T63" t="n">
-        <v>1.721611866282E12</v>
+        <v>1.724033114143E12</v>
       </c>
       <c r="AA63" t="s">
         <v>1356</v>
@@ -7938,7 +8493,7 @@
         <v>0.0</v>
       </c>
       <c r="T64" t="n">
-        <v>1.721611876331E12</v>
+        <v>1.724033122507E12</v>
       </c>
       <c r="AA64" t="s">
         <v>1381</v>
@@ -7971,7 +8526,7 @@
         <v>0.0</v>
       </c>
       <c r="T65" t="n">
-        <v>1.72161188525E12</v>
+        <v>1.724033130194E12</v>
       </c>
       <c r="AA65" t="s">
         <v>1365</v>
@@ -8004,7 +8559,7 @@
         <v>0.0</v>
       </c>
       <c r="T66" t="n">
-        <v>1.721611891015E12</v>
+        <v>1.724033163077E12</v>
       </c>
       <c r="AA66" t="s">
         <v>1382</v>
@@ -8037,7 +8592,7 @@
         <v>0.0</v>
       </c>
       <c r="T67" t="n">
-        <v>1.72161189849E12</v>
+        <v>1.72403317324E12</v>
       </c>
       <c r="AA67" t="s">
         <v>1362</v>
@@ -8067,10 +8622,10 @@
         <v>316</v>
       </c>
       <c r="R68" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T68" t="n">
-        <v>1.721640926728E12</v>
+        <v>1.724033177869E12</v>
       </c>
       <c r="AA68" t="s">
         <v>1383</v>
@@ -8103,7 +8658,7 @@
         <v>0.0</v>
       </c>
       <c r="T69" t="n">
-        <v>1.721611944616E12</v>
+        <v>1.724033251543E12</v>
       </c>
       <c r="AA69" t="s">
         <v>1359</v>
@@ -8136,7 +8691,7 @@
         <v>0.0</v>
       </c>
       <c r="T70" t="n">
-        <v>1.72161195401E12</v>
+        <v>1.724033259023E12</v>
       </c>
       <c r="AA70" t="s">
         <v>1356</v>
@@ -8166,10 +8721,10 @@
         <v>330</v>
       </c>
       <c r="R71" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T71" t="n">
-        <v>1.721640929831E12</v>
+        <v>1.724053055392E12</v>
       </c>
       <c r="AA71" t="s">
         <v>1384</v>
@@ -8199,10 +8754,10 @@
         <v>335</v>
       </c>
       <c r="R72" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T72" t="n">
-        <v>1.721640937409E12</v>
+        <v>1.724033302636E12</v>
       </c>
       <c r="AA72" t="s">
         <v>1359</v>
@@ -8235,7 +8790,7 @@
         <v>0.0</v>
       </c>
       <c r="T73" t="n">
-        <v>1.721612027153E12</v>
+        <v>1.724033333874E12</v>
       </c>
       <c r="AA73" t="s">
         <v>1385</v>
@@ -8268,7 +8823,7 @@
         <v>0.0</v>
       </c>
       <c r="T74" t="n">
-        <v>1.72161203387E12</v>
+        <v>1.724033346359E12</v>
       </c>
       <c r="AA74" t="s">
         <v>1386</v>
@@ -8298,10 +8853,10 @@
         <v>350</v>
       </c>
       <c r="R75" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T75" t="n">
-        <v>1.723708315866E12</v>
+        <v>1.724033350208E12</v>
       </c>
       <c r="AA75" t="s">
         <v>1387</v>
@@ -8334,7 +8889,7 @@
         <v>0.0</v>
       </c>
       <c r="T76" t="n">
-        <v>1.721612046036E12</v>
+        <v>1.724033422897E12</v>
       </c>
       <c r="AA76" t="s">
         <v>1361</v>
@@ -8367,7 +8922,7 @@
         <v>0.0</v>
       </c>
       <c r="T77" t="n">
-        <v>1.72161205153E12</v>
+        <v>1.724033434601E12</v>
       </c>
       <c r="AA77" t="s">
         <v>1355</v>
@@ -8400,7 +8955,7 @@
         <v>0.0</v>
       </c>
       <c r="T78" t="n">
-        <v>1.721612060001E12</v>
+        <v>1.724033443943E12</v>
       </c>
       <c r="AA78" t="s">
         <v>1356</v>
@@ -8433,7 +8988,7 @@
         <v>0.0</v>
       </c>
       <c r="T79" t="n">
-        <v>1.721612517028E12</v>
+        <v>1.724033453643E12</v>
       </c>
       <c r="AA79" t="s">
         <v>1356</v>
@@ -8466,7 +9021,7 @@
         <v>0.0</v>
       </c>
       <c r="T80" t="n">
-        <v>1.721612520967E12</v>
+        <v>1.72403384481E12</v>
       </c>
       <c r="AA80" t="s">
         <v>1388</v>
@@ -8499,7 +9054,7 @@
         <v>0.0</v>
       </c>
       <c r="T81" t="n">
-        <v>1.721612527265E12</v>
+        <v>1.724033851108E12</v>
       </c>
       <c r="AA81" t="s">
         <v>1389</v>
@@ -8532,7 +9087,7 @@
         <v>0.0</v>
       </c>
       <c r="T82" t="n">
-        <v>1.721612532551E12</v>
+        <v>1.724033869715E12</v>
       </c>
       <c r="AA82" t="s">
         <v>1390</v>
@@ -8562,10 +9117,10 @@
         <v>376</v>
       </c>
       <c r="R83" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T83" t="n">
-        <v>1.721612535981E12</v>
+        <v>1.724053091091E12</v>
       </c>
       <c r="AA83" t="s">
         <v>1391</v>
@@ -8593,13 +9148,13 @@
       </c>
       <c r="H84" s="5"/>
       <c r="R84" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="T84" t="n">
-        <v>1.723623395484E12</v>
+        <v>1.724033897865E12</v>
       </c>
       <c r="AA84" t="s">
-        <v>1356</v>
+        <v>1392</v>
       </c>
     </row>
     <row ht="199.5" r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -8626,10 +9181,13 @@
         <v>389</v>
       </c>
       <c r="R85" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T85" t="n">
-        <v>1.721640952549E12</v>
+        <v>1.724053103894E12</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>1393</v>
       </c>
     </row>
     <row ht="71.25" r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -8659,7 +9217,10 @@
         <v>0.0</v>
       </c>
       <c r="T86" t="n">
-        <v>1.721612698194E12</v>
+        <v>1.724033980934E12</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>1394</v>
       </c>
     </row>
     <row ht="71.25" r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -8686,10 +9247,13 @@
         <v>224</v>
       </c>
       <c r="R87" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T87" t="n">
-        <v>1.721612728778E12</v>
+        <v>1.724053114233E12</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>1395</v>
       </c>
     </row>
     <row ht="28.5" r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -8719,7 +9283,10 @@
         <v>0.0</v>
       </c>
       <c r="T88" t="n">
-        <v>1.721612732229E12</v>
+        <v>1.72403400751E12</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>1396</v>
       </c>
     </row>
     <row ht="114" r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -8749,7 +9316,10 @@
         <v>0.0</v>
       </c>
       <c r="T89" t="n">
-        <v>1.72161273872E12</v>
+        <v>1.724035640983E12</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>1397</v>
       </c>
     </row>
     <row ht="171" r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -8779,7 +9349,10 @@
         <v>0.0</v>
       </c>
       <c r="T90" t="n">
-        <v>1.721612767988E12</v>
+        <v>1.724035661528E12</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>1398</v>
       </c>
     </row>
     <row ht="156.75" r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -8806,10 +9379,13 @@
         <v>411</v>
       </c>
       <c r="R91" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T91" t="n">
-        <v>1.72164095725E12</v>
+        <v>1.724053395888E12</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>1399</v>
       </c>
     </row>
     <row ht="71.25" r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -8839,7 +9415,7 @@
         <v>0.0</v>
       </c>
       <c r="T92" t="n">
-        <v>1.721613163335E12</v>
+        <v>1.724035679763E12</v>
       </c>
     </row>
     <row ht="85.5" r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -8869,7 +9445,7 @@
         <v>0.0</v>
       </c>
       <c r="T93" t="n">
-        <v>1.721613208796E12</v>
+        <v>1.724035684284E12</v>
       </c>
     </row>
     <row ht="85.5" r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -8899,7 +9475,7 @@
         <v>0.0</v>
       </c>
       <c r="T94" t="n">
-        <v>1.721613213875E12</v>
+        <v>1.724035687992E12</v>
       </c>
     </row>
     <row ht="85.5" r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -8926,10 +9502,10 @@
         <v>431</v>
       </c>
       <c r="R95" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T95" t="n">
-        <v>1.721640961755E12</v>
+        <v>1.72405339945E12</v>
       </c>
     </row>
     <row ht="142.5" r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -8956,10 +9532,10 @@
         <v>11</v>
       </c>
       <c r="R96" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T96" t="n">
-        <v>1.721640964161E12</v>
+        <v>1.724035714686E12</v>
       </c>
     </row>
     <row ht="185.25" r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -8989,7 +9565,7 @@
         <v>0.0</v>
       </c>
       <c r="T97" t="n">
-        <v>1.721613301E12</v>
+        <v>1.724036153257E12</v>
       </c>
     </row>
     <row ht="128.25" r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -9019,7 +9595,7 @@
         <v>0.0</v>
       </c>
       <c r="T98" t="n">
-        <v>1.721613365411E12</v>
+        <v>1.724036160964E12</v>
       </c>
     </row>
     <row ht="28.5" r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -9049,7 +9625,7 @@
         <v>0.0</v>
       </c>
       <c r="T99" t="n">
-        <v>1.721613368604E12</v>
+        <v>1.724036163347E12</v>
       </c>
     </row>
     <row ht="99.75" r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -9079,7 +9655,7 @@
         <v>0.0</v>
       </c>
       <c r="T100" t="n">
-        <v>1.721613515369E12</v>
+        <v>1.724036170279E12</v>
       </c>
     </row>
     <row ht="85.5" r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -9106,10 +9682,10 @@
         <v>454</v>
       </c>
       <c r="R101" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T101" t="n">
-        <v>1.721640967163E12</v>
+        <v>1.724036174661E12</v>
       </c>
     </row>
     <row ht="114" r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -9139,7 +9715,7 @@
         <v>0.0</v>
       </c>
       <c r="T102" t="n">
-        <v>1.721613940973E12</v>
+        <v>1.724036386893E12</v>
       </c>
     </row>
     <row ht="185.25" r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -9169,7 +9745,7 @@
         <v>0.0</v>
       </c>
       <c r="T103" t="n">
-        <v>1.721613952262E12</v>
+        <v>1.724036394738E12</v>
       </c>
     </row>
     <row ht="71.25" r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -9196,10 +9772,10 @@
         <v>120</v>
       </c>
       <c r="R104" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T104" t="n">
-        <v>1.723708318321E12</v>
+        <v>1.724036398212E12</v>
       </c>
     </row>
     <row ht="71.25" r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -9229,7 +9805,7 @@
         <v>0.0</v>
       </c>
       <c r="T105" t="n">
-        <v>1.721613996251E12</v>
+        <v>1.724036488732E12</v>
       </c>
     </row>
     <row ht="185.25" r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -9256,10 +9832,10 @@
         <v>15</v>
       </c>
       <c r="R106" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T106" t="n">
-        <v>1.721640979682E12</v>
+        <v>1.724053402737E12</v>
       </c>
     </row>
     <row ht="85.5" r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -9286,10 +9862,10 @@
         <v>479</v>
       </c>
       <c r="R107" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T107" t="n">
-        <v>1.72164100352E12</v>
+        <v>1.72403651039E12</v>
       </c>
     </row>
     <row ht="171" r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -9319,7 +9895,7 @@
         <v>0.0</v>
       </c>
       <c r="T108" t="n">
-        <v>1.721614027355E12</v>
+        <v>1.724036559969E12</v>
       </c>
     </row>
     <row ht="142.5" r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -9346,10 +9922,10 @@
         <v>485</v>
       </c>
       <c r="R109" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T109" t="n">
-        <v>1.721641008403E12</v>
+        <v>1.724053651543E12</v>
       </c>
     </row>
     <row ht="114" r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -9379,7 +9955,7 @@
         <v>0.0</v>
       </c>
       <c r="T110" t="n">
-        <v>1.72161404706E12</v>
+        <v>1.724036593442E12</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -9409,7 +9985,7 @@
         <v>0.0</v>
       </c>
       <c r="T111" t="n">
-        <v>1.721614056935E12</v>
+        <v>1.724036800559E12</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -9439,7 +10015,7 @@
         <v>0.0</v>
       </c>
       <c r="T112" t="n">
-        <v>1.721614062126E12</v>
+        <v>1.724036803623E12</v>
       </c>
     </row>
     <row ht="99.75" r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -9469,7 +10045,7 @@
         <v>0.0</v>
       </c>
       <c r="T113" t="n">
-        <v>1.72161417707E12</v>
+        <v>1.724036811692E12</v>
       </c>
     </row>
     <row ht="213.75" r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -9499,7 +10075,7 @@
         <v>0.0</v>
       </c>
       <c r="T114" t="n">
-        <v>1.721614185122E12</v>
+        <v>1.724036867744E12</v>
       </c>
     </row>
     <row ht="99.75" r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -9526,10 +10102,10 @@
         <v>511</v>
       </c>
       <c r="R115" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T115" t="n">
-        <v>1.721614210784E12</v>
+        <v>1.724053658176E12</v>
       </c>
     </row>
     <row ht="114" r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -9559,7 +10135,7 @@
         <v>0.0</v>
       </c>
       <c r="T116" t="n">
-        <v>1.721614215621E12</v>
+        <v>1.724036908999E12</v>
       </c>
     </row>
     <row ht="128.25" r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -9586,10 +10162,10 @@
         <v>521</v>
       </c>
       <c r="R117" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T117" t="n">
-        <v>1.721641038156E12</v>
+        <v>1.724053661473E12</v>
       </c>
     </row>
     <row ht="71.25" r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -9616,10 +10192,10 @@
         <v>526</v>
       </c>
       <c r="R118" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T118" t="n">
-        <v>1.721641039926E12</v>
+        <v>1.724053664011E12</v>
       </c>
     </row>
     <row ht="71.25" r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -9649,7 +10225,7 @@
         <v>0.0</v>
       </c>
       <c r="T119" t="n">
-        <v>1.721614238357E12</v>
+        <v>1.724037007729E12</v>
       </c>
     </row>
     <row ht="114" r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -9679,7 +10255,7 @@
         <v>0.0</v>
       </c>
       <c r="T120" t="n">
-        <v>1.721614240816E12</v>
+        <v>1.724037049891E12</v>
       </c>
     </row>
     <row ht="99.75" r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -9706,10 +10282,10 @@
         <v>540</v>
       </c>
       <c r="R121" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T121" t="n">
-        <v>1.723708320218E12</v>
+        <v>1.72403705263E12</v>
       </c>
     </row>
     <row ht="57" r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -9736,10 +10312,10 @@
         <v>545</v>
       </c>
       <c r="R122" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T122" t="n">
-        <v>1.721641057018E12</v>
+        <v>1.724053671662E12</v>
       </c>
     </row>
     <row ht="99.75" r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -9769,7 +10345,7 @@
         <v>0.0</v>
       </c>
       <c r="T123" t="n">
-        <v>1.721614277348E12</v>
+        <v>1.724037085917E12</v>
       </c>
     </row>
     <row ht="71.25" r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -9796,10 +10372,10 @@
         <v>552</v>
       </c>
       <c r="R124" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T124" t="n">
-        <v>1.72164106202E12</v>
+        <v>1.724037090958E12</v>
       </c>
     </row>
     <row ht="185.25" r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -9826,10 +10402,10 @@
         <v>557</v>
       </c>
       <c r="R125" t="n">
-        <v>0.49999999999999933</v>
+        <v>0.14999999999999936</v>
       </c>
       <c r="T125" t="n">
-        <v>1.723708394133E12</v>
+        <v>1.724037095016E12</v>
       </c>
     </row>
     <row ht="156.75" r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -9856,10 +10432,10 @@
         <v>562</v>
       </c>
       <c r="R126" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T126" t="n">
-        <v>1.721641075607E12</v>
+        <v>1.724037098002E12</v>
       </c>
     </row>
     <row ht="142.5" r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -9889,7 +10465,7 @@
         <v>0.0</v>
       </c>
       <c r="T127" t="n">
-        <v>1.721614313045E12</v>
+        <v>1.724037137785E12</v>
       </c>
     </row>
     <row ht="99.75" r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -9919,7 +10495,7 @@
         <v>0.0</v>
       </c>
       <c r="T128" t="n">
-        <v>1.721614322782E12</v>
+        <v>1.724037142215E12</v>
       </c>
     </row>
     <row ht="213.75" r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -9949,7 +10525,7 @@
         <v>0.0</v>
       </c>
       <c r="T129" t="n">
-        <v>1.721614326558E12</v>
+        <v>1.724037168405E12</v>
       </c>
     </row>
     <row ht="142.5" r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -9979,7 +10555,7 @@
         <v>0.0</v>
       </c>
       <c r="T130" t="n">
-        <v>1.721614335466E12</v>
+        <v>1.724037229043E12</v>
       </c>
     </row>
     <row ht="99.75" r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -10006,10 +10582,10 @@
         <v>587</v>
       </c>
       <c r="R131" t="n">
-        <v>0.6499999999999992</v>
+        <v>1.3999999999999992</v>
       </c>
       <c r="T131" t="n">
-        <v>1.723623569897E12</v>
+        <v>1.724053690843E12</v>
       </c>
     </row>
     <row ht="142.5" r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -10039,7 +10615,7 @@
         <v>0.0</v>
       </c>
       <c r="T132" t="n">
-        <v>1.721614348242E12</v>
+        <v>1.724037263111E12</v>
       </c>
     </row>
     <row ht="85.5" r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -10069,7 +10645,7 @@
         <v>0.0</v>
       </c>
       <c r="T133" t="n">
-        <v>1.721614353737E12</v>
+        <v>1.724037281537E12</v>
       </c>
     </row>
     <row ht="242.25" r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -10096,10 +10672,10 @@
         <v>602</v>
       </c>
       <c r="R134" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T134" t="n">
-        <v>1.721641093489E12</v>
+        <v>1.724053693584E12</v>
       </c>
     </row>
     <row ht="114" r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -10129,7 +10705,7 @@
         <v>0.0</v>
       </c>
       <c r="T135" t="n">
-        <v>1.721614366495E12</v>
+        <v>1.724037295975E12</v>
       </c>
     </row>
     <row ht="128.25" r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -10156,10 +10732,10 @@
         <v>612</v>
       </c>
       <c r="R136" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T136" t="n">
-        <v>1.721641097136E12</v>
+        <v>1.724037303254E12</v>
       </c>
     </row>
     <row ht="171" r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -10186,10 +10762,10 @@
         <v>614</v>
       </c>
       <c r="R137" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T137" t="n">
-        <v>1.721641107709E12</v>
+        <v>1.724053697795E12</v>
       </c>
     </row>
     <row ht="185.25" r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -10216,10 +10792,10 @@
         <v>614</v>
       </c>
       <c r="R138" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T138" t="n">
-        <v>1.721641112142E12</v>
+        <v>1.724053728504E12</v>
       </c>
     </row>
     <row ht="342" r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -10249,7 +10825,7 @@
         <v>0.0</v>
       </c>
       <c r="T139" t="n">
-        <v>1.72161450513E12</v>
+        <v>1.72403736386E12</v>
       </c>
     </row>
     <row ht="156.75" r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -10276,10 +10852,10 @@
         <v>614</v>
       </c>
       <c r="R140" t="n">
-        <v>0.65</v>
+        <v>2.15</v>
       </c>
       <c r="T140" t="n">
-        <v>1.721641116637E12</v>
+        <v>1.724134711643E12</v>
       </c>
     </row>
     <row ht="228" r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -10306,10 +10882,10 @@
         <v>622</v>
       </c>
       <c r="R141" t="n">
-        <v>0.0</v>
+        <v>1.75</v>
       </c>
       <c r="T141" t="n">
-        <v>1.721614574826E12</v>
+        <v>1.724057642287E12</v>
       </c>
     </row>
     <row ht="242.25" r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -10336,10 +10912,10 @@
         <v>627</v>
       </c>
       <c r="R142" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T142" t="n">
-        <v>1.721641121007E12</v>
+        <v>1.724037497767E12</v>
       </c>
     </row>
     <row ht="99.75" r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -10366,10 +10942,10 @@
         <v>632</v>
       </c>
       <c r="R143" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T143" t="n">
-        <v>1.721641123611E12</v>
+        <v>1.724054280053E12</v>
       </c>
     </row>
     <row ht="28.5" r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -10396,10 +10972,10 @@
         <v>637</v>
       </c>
       <c r="R144" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T144" t="n">
-        <v>1.723708492914E12</v>
+        <v>1.724037514332E12</v>
       </c>
     </row>
     <row ht="28.5" r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -10426,10 +11002,10 @@
         <v>637</v>
       </c>
       <c r="R145" t="n">
-        <v>0.8999999999999995</v>
+        <v>2.0499999999999994</v>
       </c>
       <c r="T145" t="n">
-        <v>1.723957178E12</v>
+        <v>1.724134719202E12</v>
       </c>
     </row>
     <row ht="28.5" r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -10456,10 +11032,10 @@
         <v>637</v>
       </c>
       <c r="R146" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T146" t="n">
-        <v>1.721614614474E12</v>
+        <v>1.72405438863E12</v>
       </c>
     </row>
     <row ht="28.5" r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -10486,10 +11062,10 @@
         <v>637</v>
       </c>
       <c r="R147" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T147" t="n">
-        <v>1.721641145563E12</v>
+        <v>1.724037558046E12</v>
       </c>
     </row>
     <row ht="71.25" r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -10516,10 +11092,10 @@
         <v>645</v>
       </c>
       <c r="R148" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T148" t="n">
-        <v>1.721641149828E12</v>
+        <v>1.724054412688E12</v>
       </c>
     </row>
     <row ht="114" r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -10546,10 +11122,10 @@
         <v>650</v>
       </c>
       <c r="R149" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T149" t="n">
-        <v>1.721614688791E12</v>
+        <v>1.724054433129E12</v>
       </c>
     </row>
     <row ht="85.5" r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -10579,7 +11155,7 @@
         <v>0.0</v>
       </c>
       <c r="T150" t="n">
-        <v>1.721614692693E12</v>
+        <v>1.724037583525E12</v>
       </c>
     </row>
     <row ht="99.75" r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -10609,7 +11185,7 @@
         <v>0.0</v>
       </c>
       <c r="T151" t="n">
-        <v>1.721614699102E12</v>
+        <v>1.724037592609E12</v>
       </c>
     </row>
     <row ht="85.5" r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -10632,10 +11208,10 @@
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
       <c r="R152" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T152" t="n">
-        <v>1.721641152735E12</v>
+        <v>1.724037602131E12</v>
       </c>
     </row>
     <row ht="171" r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -10661,7 +11237,7 @@
         <v>0.0</v>
       </c>
       <c r="T153" t="n">
-        <v>1.721614712996E12</v>
+        <v>1.724037605616E12</v>
       </c>
     </row>
     <row ht="99.75" r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -10687,7 +11263,7 @@
         <v>0.0</v>
       </c>
       <c r="T154" t="n">
-        <v>1.721614715693E12</v>
+        <v>1.724037609201E12</v>
       </c>
     </row>
     <row ht="114" r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -10713,7 +11289,7 @@
         <v>0.0</v>
       </c>
       <c r="T155" t="n">
-        <v>1.721614719062E12</v>
+        <v>1.724037612862E12</v>
       </c>
     </row>
     <row ht="156.75" r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -10739,7 +11315,7 @@
         <v>0.0</v>
       </c>
       <c r="T156" t="n">
-        <v>1.721614722475E12</v>
+        <v>1.724037638738E12</v>
       </c>
     </row>
     <row ht="142.5" r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -10765,7 +11341,7 @@
         <v>0.0</v>
       </c>
       <c r="T157" t="n">
-        <v>1.721614726027E12</v>
+        <v>1.724037685636E12</v>
       </c>
     </row>
     <row ht="71.25" r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -10791,7 +11367,7 @@
         <v>0.0</v>
       </c>
       <c r="T158" t="n">
-        <v>1.721614731035E12</v>
+        <v>1.724037712676E12</v>
       </c>
     </row>
     <row ht="128.25" r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -10814,10 +11390,10 @@
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
       <c r="R159" t="n">
-        <v>0.44999999999999907</v>
+        <v>0.09999999999999909</v>
       </c>
       <c r="T159" t="n">
-        <v>1.72371127336E12</v>
+        <v>1.724037715996E12</v>
       </c>
     </row>
     <row ht="128.25" r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -10843,7 +11419,7 @@
         <v>0.0</v>
       </c>
       <c r="T160" t="n">
-        <v>1.721614739335E12</v>
+        <v>1.724037718517E12</v>
       </c>
     </row>
     <row ht="199.5" r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -10869,7 +11445,7 @@
         <v>0.0</v>
       </c>
       <c r="T161" t="n">
-        <v>1.721614744855E12</v>
+        <v>1.724037721584E12</v>
       </c>
     </row>
     <row ht="99.75" r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -10895,7 +11471,7 @@
         <v>0.0</v>
       </c>
       <c r="T162" t="n">
-        <v>1.72161474758E12</v>
+        <v>1.724037725481E12</v>
       </c>
     </row>
     <row ht="270.75" r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -10918,10 +11494,10 @@
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
       <c r="R163" t="n">
-        <v>0.5999999999999999</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="T163" t="n">
-        <v>1.723623625996E12</v>
+        <v>1.724054444257E12</v>
       </c>
     </row>
     <row ht="185.25" r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -10944,10 +11520,10 @@
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
       <c r="R164" t="n">
-        <v>0.65</v>
+        <v>2.15</v>
       </c>
       <c r="T164" t="n">
-        <v>1.721641167481E12</v>
+        <v>1.724134721492E12</v>
       </c>
     </row>
     <row ht="99.75" r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -10973,7 +11549,7 @@
         <v>0.0</v>
       </c>
       <c r="T165" t="n">
-        <v>1.721614763832E12</v>
+        <v>1.72403773927E12</v>
       </c>
     </row>
     <row ht="142.5" r="166" spans="1:8" x14ac:dyDescent="0.2">
@@ -10996,10 +11572,10 @@
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
       <c r="R166" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T166" t="n">
-        <v>1.721641172549E12</v>
+        <v>1.724037741062E12</v>
       </c>
     </row>
     <row ht="156.75" r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -11025,7 +11601,7 @@
         <v>0.0</v>
       </c>
       <c r="T167" t="n">
-        <v>1.72161488617E12</v>
+        <v>1.724037745528E12</v>
       </c>
     </row>
     <row ht="71.25" r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -11051,7 +11627,7 @@
         <v>0.0</v>
       </c>
       <c r="T168" t="n">
-        <v>1.721614888073E12</v>
+        <v>1.724037747359E12</v>
       </c>
     </row>
     <row ht="114" r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -11077,7 +11653,7 @@
         <v>0.0</v>
       </c>
       <c r="T169" t="n">
-        <v>1.721614889786E12</v>
+        <v>1.724037749703E12</v>
       </c>
     </row>
     <row ht="228" r="170" spans="1:8" x14ac:dyDescent="0.2">
@@ -11100,10 +11676,10 @@
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
       <c r="R170" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T170" t="n">
-        <v>1.721641175914E12</v>
+        <v>1.724055076664E12</v>
       </c>
     </row>
     <row ht="156.75" r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -11126,10 +11702,10 @@
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
       <c r="R171" t="n">
-        <v>0.5999999999999999</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="T171" t="n">
-        <v>1.723623631008E12</v>
+        <v>1.724055078984E12</v>
       </c>
     </row>
     <row ht="85.5" r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -11155,7 +11731,7 @@
         <v>0.0</v>
       </c>
       <c r="T172" t="n">
-        <v>1.721614901238E12</v>
+        <v>1.724037981671E12</v>
       </c>
     </row>
     <row ht="114" r="173" spans="1:8" x14ac:dyDescent="0.2">
@@ -11178,10 +11754,10 @@
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
       <c r="R173" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T173" t="n">
-        <v>1.721641184449E12</v>
+        <v>1.724037988821E12</v>
       </c>
     </row>
     <row ht="71.25" r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -11207,7 +11783,7 @@
         <v>0.0</v>
       </c>
       <c r="T174" t="n">
-        <v>1.721614941191E12</v>
+        <v>1.724037992233E12</v>
       </c>
     </row>
     <row ht="71.25" r="175" spans="1:8" x14ac:dyDescent="0.2">
@@ -11230,10 +11806,10 @@
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
       <c r="R175" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T175" t="n">
-        <v>1.721641186074E12</v>
+        <v>1.724037993905E12</v>
       </c>
     </row>
     <row ht="242.25" r="176" spans="1:8" x14ac:dyDescent="0.2">
@@ -11259,7 +11835,7 @@
         <v>0.0</v>
       </c>
       <c r="T176" t="n">
-        <v>1.721615017001E12</v>
+        <v>1.724038009969E12</v>
       </c>
     </row>
     <row ht="114" r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -11285,7 +11861,7 @@
         <v>0.0</v>
       </c>
       <c r="T177" t="n">
-        <v>1.721615020268E12</v>
+        <v>1.724038013564E12</v>
       </c>
     </row>
     <row ht="99.75" r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -11308,10 +11884,10 @@
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
       <c r="R178" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T178" t="n">
-        <v>1.721641187745E12</v>
+        <v>1.724038021107E12</v>
       </c>
     </row>
     <row ht="142.5" r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -11337,7 +11913,7 @@
         <v>0.0</v>
       </c>
       <c r="T179" t="n">
-        <v>1.721615081784E12</v>
+        <v>1.7240380294E12</v>
       </c>
     </row>
     <row ht="42.75" r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -11363,7 +11939,7 @@
         <v>0.0</v>
       </c>
       <c r="T180" t="n">
-        <v>1.72161508413E12</v>
+        <v>1.724038031734E12</v>
       </c>
     </row>
     <row ht="128.25" r="181" spans="1:8" x14ac:dyDescent="0.2">
@@ -11386,10 +11962,10 @@
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
       <c r="R181" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T181" t="n">
-        <v>1.721641191015E12</v>
+        <v>1.724055081515E12</v>
       </c>
     </row>
     <row ht="156.75" r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -11415,7 +11991,7 @@
         <v>0.0</v>
       </c>
       <c r="T182" t="n">
-        <v>1.721615131266E12</v>
+        <v>1.724038046442E12</v>
       </c>
     </row>
     <row ht="171" r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -11438,10 +12014,10 @@
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
       <c r="R183" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T183" t="n">
-        <v>1.721641193246E12</v>
+        <v>1.7240380489E12</v>
       </c>
     </row>
     <row ht="242.25" r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -11467,7 +12043,7 @@
         <v>0.0</v>
       </c>
       <c r="T184" t="n">
-        <v>1.721615141734E12</v>
+        <v>1.724038194316E12</v>
       </c>
     </row>
     <row ht="114" r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -11493,7 +12069,7 @@
         <v>0.0</v>
       </c>
       <c r="T185" t="n">
-        <v>1.721615145408E12</v>
+        <v>1.724038196943E12</v>
       </c>
     </row>
     <row ht="114" r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -11519,7 +12095,7 @@
         <v>0.0</v>
       </c>
       <c r="T186" t="n">
-        <v>1.721615150229E12</v>
+        <v>1.724038199992E12</v>
       </c>
     </row>
     <row ht="199.5" r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -11545,7 +12121,7 @@
         <v>0.0</v>
       </c>
       <c r="T187" t="n">
-        <v>1.721615153255E12</v>
+        <v>1.724038216798E12</v>
       </c>
     </row>
     <row ht="85.5" r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -11571,7 +12147,7 @@
         <v>0.0</v>
       </c>
       <c r="T188" t="n">
-        <v>1.721615156371E12</v>
+        <v>1.724038230971E12</v>
       </c>
     </row>
     <row ht="99.75" r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -11594,10 +12170,10 @@
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
       <c r="R189" t="n">
-        <v>0.0</v>
+        <v>1.75</v>
       </c>
       <c r="T189" t="n">
-        <v>1.721615160423E12</v>
+        <v>1.724057652246E12</v>
       </c>
     </row>
     <row ht="242.25" r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -11623,7 +12199,7 @@
         <v>0.0</v>
       </c>
       <c r="T190" t="n">
-        <v>1.721615163431E12</v>
+        <v>1.72403824996E12</v>
       </c>
     </row>
     <row ht="199.5" r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -11649,7 +12225,7 @@
         <v>0.0</v>
       </c>
       <c r="T191" t="n">
-        <v>1.721615167207E12</v>
+        <v>1.724038255112E12</v>
       </c>
     </row>
     <row ht="99.75" r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -11675,7 +12251,7 @@
         <v>0.0</v>
       </c>
       <c r="T192" t="n">
-        <v>1.7216151707E12</v>
+        <v>1.724038258484E12</v>
       </c>
     </row>
     <row ht="99.75" r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -11701,7 +12277,7 @@
         <v>0.0</v>
       </c>
       <c r="T193" t="n">
-        <v>1.721615173922E12</v>
+        <v>1.724038279614E12</v>
       </c>
     </row>
     <row ht="85.5" r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -11724,10 +12300,10 @@
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
       <c r="R194" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T194" t="n">
-        <v>1.721641195625E12</v>
+        <v>1.724055096569E12</v>
       </c>
     </row>
     <row ht="156.75" r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -11753,7 +12329,7 @@
         <v>0.0</v>
       </c>
       <c r="T195" t="n">
-        <v>1.721615268655E12</v>
+        <v>1.724038286133E12</v>
       </c>
     </row>
     <row ht="171" r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -11779,7 +12355,7 @@
         <v>0.0</v>
       </c>
       <c r="T196" t="n">
-        <v>1.721615271159E12</v>
+        <v>1.724038289391E12</v>
       </c>
     </row>
     <row ht="99.75" r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -11802,10 +12378,10 @@
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="R197" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T197" t="n">
-        <v>1.72164119743E12</v>
+        <v>1.724055128485E12</v>
       </c>
     </row>
     <row ht="213.75" r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -11828,10 +12404,10 @@
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
       <c r="R198" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T198" t="n">
-        <v>1.72164120058E12</v>
+        <v>1.72405533116E12</v>
       </c>
     </row>
     <row ht="114" r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -11857,7 +12433,7 @@
         <v>0.0</v>
       </c>
       <c r="T199" t="n">
-        <v>1.721615286908E12</v>
+        <v>1.724038298227E12</v>
       </c>
     </row>
     <row ht="142.5" r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -11883,7 +12459,7 @@
         <v>0.0</v>
       </c>
       <c r="T200" t="n">
-        <v>1.721615289608E12</v>
+        <v>1.724038300355E12</v>
       </c>
     </row>
     <row ht="342" r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -11906,10 +12482,10 @@
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
       <c r="R201" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T201" t="n">
-        <v>1.721615291842E12</v>
+        <v>1.724055337504E12</v>
       </c>
     </row>
     <row ht="256.5" r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -11932,10 +12508,10 @@
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
       <c r="R202" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T202" t="n">
-        <v>1.723711275132E12</v>
+        <v>1.724048577168E12</v>
       </c>
     </row>
     <row ht="199.5" r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -11958,10 +12534,10 @@
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="R203" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T203" t="n">
-        <v>1.723711277854E12</v>
+        <v>1.724048582367E12</v>
       </c>
     </row>
     <row ht="57" r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -11987,7 +12563,7 @@
         <v>0.0</v>
       </c>
       <c r="T204" t="n">
-        <v>1.721615382439E12</v>
+        <v>1.724048585583E12</v>
       </c>
     </row>
     <row ht="171" r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -12010,10 +12586,10 @@
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
       <c r="R205" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T205" t="n">
-        <v>1.721641212263E12</v>
+        <v>1.724055340476E12</v>
       </c>
     </row>
     <row ht="99.75" r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -12039,7 +12615,7 @@
         <v>0.0</v>
       </c>
       <c r="T206" t="n">
-        <v>1.721615393722E12</v>
+        <v>1.724048603401E12</v>
       </c>
     </row>
     <row ht="114" r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -12065,7 +12641,7 @@
         <v>0.0</v>
       </c>
       <c r="T207" t="n">
-        <v>1.721615398045E12</v>
+        <v>1.724048611652E12</v>
       </c>
     </row>
     <row ht="213.75" r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -12091,7 +12667,7 @@
         <v>0.0</v>
       </c>
       <c r="T208" t="n">
-        <v>1.721615409168E12</v>
+        <v>1.724048619722E12</v>
       </c>
     </row>
     <row ht="185.25" r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -12117,7 +12693,7 @@
         <v>0.0</v>
       </c>
       <c r="T209" t="n">
-        <v>1.72161541439E12</v>
+        <v>1.724048622877E12</v>
       </c>
     </row>
     <row ht="171" r="210" spans="1:8" x14ac:dyDescent="0.2">
@@ -12143,7 +12719,7 @@
         <v>0.0</v>
       </c>
       <c r="T210" t="n">
-        <v>1.721615417808E12</v>
+        <v>1.724048626812E12</v>
       </c>
     </row>
     <row ht="142.5" r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -12169,7 +12745,7 @@
         <v>0.0</v>
       </c>
       <c r="T211" t="n">
-        <v>1.721615421654E12</v>
+        <v>1.724048631845E12</v>
       </c>
     </row>
     <row ht="114" r="212" spans="1:8" x14ac:dyDescent="0.2">
@@ -12195,7 +12771,7 @@
         <v>0.0</v>
       </c>
       <c r="T212" t="n">
-        <v>1.721615425404E12</v>
+        <v>1.724048643992E12</v>
       </c>
     </row>
     <row ht="199.5" r="213" spans="1:8" x14ac:dyDescent="0.2">
@@ -12221,7 +12797,7 @@
         <v>0.0</v>
       </c>
       <c r="T213" t="n">
-        <v>1.721615428885E12</v>
+        <v>1.724048649431E12</v>
       </c>
     </row>
     <row ht="71.25" r="214" spans="1:8" x14ac:dyDescent="0.2">
@@ -12244,10 +12820,10 @@
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
       <c r="R214" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T214" t="n">
-        <v>1.723711279189E12</v>
+        <v>1.724048651331E12</v>
       </c>
     </row>
     <row ht="199.5" r="215" spans="1:8" x14ac:dyDescent="0.2">
@@ -12273,7 +12849,7 @@
         <v>0.0</v>
       </c>
       <c r="T215" t="n">
-        <v>1.721615437561E12</v>
+        <v>1.724048703864E12</v>
       </c>
     </row>
     <row ht="142.5" r="216" spans="1:8" x14ac:dyDescent="0.2">
@@ -12299,7 +12875,7 @@
         <v>0.0</v>
       </c>
       <c r="T216" t="n">
-        <v>1.721615440174E12</v>
+        <v>1.72404870786E12</v>
       </c>
     </row>
     <row ht="71.25" r="217" spans="1:8" x14ac:dyDescent="0.2">
@@ -12325,7 +12901,7 @@
         <v>0.0</v>
       </c>
       <c r="T217" t="n">
-        <v>1.721615444429E12</v>
+        <v>1.724048712193E12</v>
       </c>
     </row>
     <row ht="85.5" r="218" spans="1:8" x14ac:dyDescent="0.2">
@@ -12351,7 +12927,7 @@
         <v>0.0</v>
       </c>
       <c r="T218" t="n">
-        <v>1.721615446159E12</v>
+        <v>1.724048714798E12</v>
       </c>
     </row>
     <row ht="156.75" r="219" spans="1:8" x14ac:dyDescent="0.2">
@@ -12377,7 +12953,7 @@
         <v>0.0</v>
       </c>
       <c r="T219" t="n">
-        <v>1.721615448321E12</v>
+        <v>1.72404871874E12</v>
       </c>
     </row>
     <row ht="99.75" r="220" spans="1:8" x14ac:dyDescent="0.2">
@@ -12403,7 +12979,7 @@
         <v>0.0</v>
       </c>
       <c r="T220" t="n">
-        <v>1.721615450361E12</v>
+        <v>1.724048721645E12</v>
       </c>
     </row>
     <row ht="99.75" r="221" spans="1:8" x14ac:dyDescent="0.2">
@@ -12429,7 +13005,7 @@
         <v>0.0</v>
       </c>
       <c r="T221" t="n">
-        <v>1.721615452981E12</v>
+        <v>1.724048929318E12</v>
       </c>
     </row>
     <row ht="213.75" r="222" spans="1:8" x14ac:dyDescent="0.2">
@@ -12455,7 +13031,7 @@
         <v>0.0</v>
       </c>
       <c r="T222" t="n">
-        <v>1.721615456241E12</v>
+        <v>1.724048935475E12</v>
       </c>
     </row>
     <row ht="99.75" r="223" spans="1:8" x14ac:dyDescent="0.2">
@@ -12478,10 +13054,10 @@
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
       <c r="R223" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T223" t="n">
-        <v>1.721641218816E12</v>
+        <v>1.724055343579E12</v>
       </c>
     </row>
     <row ht="71.25" r="224" spans="1:8" x14ac:dyDescent="0.2">
@@ -12504,10 +13080,10 @@
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
       <c r="R224" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T224" t="n">
-        <v>1.721641222941E12</v>
+        <v>1.724049185656E12</v>
       </c>
     </row>
     <row ht="99.75" r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -12530,10 +13106,10 @@
       <c r="G225" s="5"/>
       <c r="H225" s="5"/>
       <c r="R225" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="T225" t="n">
-        <v>1.723623642298E12</v>
+        <v>1.724049190515E12</v>
       </c>
     </row>
     <row ht="85.5" r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -12556,10 +13132,10 @@
       <c r="G226" s="5"/>
       <c r="H226" s="5"/>
       <c r="R226" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T226" t="n">
-        <v>1.721615585378E12</v>
+        <v>1.724055345578E12</v>
       </c>
     </row>
     <row ht="99.75" r="227" spans="1:8" x14ac:dyDescent="0.2">
@@ -12582,10 +13158,10 @@
       <c r="G227" s="5"/>
       <c r="H227" s="5"/>
       <c r="R227" t="n">
-        <v>0.0</v>
+        <v>1.75</v>
       </c>
       <c r="T227" t="n">
-        <v>1.721615588147E12</v>
+        <v>1.724057654534E12</v>
       </c>
     </row>
     <row ht="185.25" r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -12608,10 +13184,10 @@
       <c r="G228" s="5"/>
       <c r="H228" s="5"/>
       <c r="R228" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T228" t="n">
-        <v>1.721641229659E12</v>
+        <v>1.724049221753E12</v>
       </c>
     </row>
     <row ht="85.5" r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -12634,10 +13210,10 @@
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
       <c r="R229" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T229" t="n">
-        <v>1.721641233453E12</v>
+        <v>1.724049224102E12</v>
       </c>
     </row>
     <row ht="213.75" r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -12663,7 +13239,7 @@
         <v>0.0</v>
       </c>
       <c r="T230" t="n">
-        <v>1.721617545278E12</v>
+        <v>1.724049231196E12</v>
       </c>
     </row>
     <row ht="128.25" r="231" spans="1:8" x14ac:dyDescent="0.2">
@@ -12689,7 +13265,7 @@
         <v>0.0</v>
       </c>
       <c r="T231" t="n">
-        <v>1.72161754952E12</v>
+        <v>1.724049235009E12</v>
       </c>
     </row>
     <row ht="142.5" r="232" spans="1:8" x14ac:dyDescent="0.2">
@@ -12712,10 +13288,10 @@
       <c r="G232" s="5"/>
       <c r="H232" s="5"/>
       <c r="R232" t="n">
-        <v>0.65</v>
+        <v>3.4</v>
       </c>
       <c r="T232" t="n">
-        <v>1.721641236969E12</v>
+        <v>1.724134725343E12</v>
       </c>
     </row>
     <row ht="57" r="233" spans="1:8" x14ac:dyDescent="0.2">
@@ -12741,7 +13317,7 @@
         <v>0.0</v>
       </c>
       <c r="T233" t="n">
-        <v>1.721617594123E12</v>
+        <v>1.724049244866E12</v>
       </c>
     </row>
     <row ht="71.25" r="234" spans="1:8" x14ac:dyDescent="0.2">
@@ -12764,10 +13340,10 @@
       <c r="G234" s="5"/>
       <c r="H234" s="5"/>
       <c r="R234" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T234" t="n">
-        <v>1.721617596714E12</v>
+        <v>1.724055379169E12</v>
       </c>
     </row>
     <row ht="156.75" r="235" spans="1:8" x14ac:dyDescent="0.2">
@@ -12790,10 +13366,10 @@
       <c r="G235" s="5"/>
       <c r="H235" s="5"/>
       <c r="R235" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T235" t="n">
-        <v>1.721617604146E12</v>
+        <v>1.724055382306E12</v>
       </c>
     </row>
     <row ht="85.5" r="236" spans="1:8" x14ac:dyDescent="0.2">
@@ -12816,10 +13392,10 @@
       <c r="G236" s="5"/>
       <c r="H236" s="5"/>
       <c r="R236" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T236" t="n">
-        <v>1.721641240696E12</v>
+        <v>1.724049262576E12</v>
       </c>
     </row>
     <row ht="185.25" r="237" spans="1:8" x14ac:dyDescent="0.2">
@@ -12842,10 +13418,10 @@
       <c r="G237" s="5"/>
       <c r="H237" s="5"/>
       <c r="R237" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="T237" t="n">
-        <v>1.723623644636E12</v>
+        <v>1.724049264686E12</v>
       </c>
     </row>
     <row ht="285" r="238" spans="1:8" x14ac:dyDescent="0.2">
@@ -12871,7 +13447,7 @@
         <v>0.0</v>
       </c>
       <c r="T238" t="n">
-        <v>1.721617634154E12</v>
+        <v>1.724049297014E12</v>
       </c>
     </row>
     <row ht="142.5" r="239" spans="1:8" x14ac:dyDescent="0.2">
@@ -12897,7 +13473,7 @@
         <v>0.0</v>
       </c>
       <c r="T239" t="n">
-        <v>1.721617639134E12</v>
+        <v>1.724049301579E12</v>
       </c>
     </row>
     <row ht="171" r="240" spans="1:8" x14ac:dyDescent="0.2">
@@ -12923,7 +13499,7 @@
         <v>0.0</v>
       </c>
       <c r="T240" t="n">
-        <v>1.721617680177E12</v>
+        <v>1.724049358384E12</v>
       </c>
     </row>
     <row ht="99.75" r="241" spans="1:8" x14ac:dyDescent="0.2">
@@ -12949,7 +13525,7 @@
         <v>0.0</v>
       </c>
       <c r="T241" t="n">
-        <v>1.72161768255E12</v>
+        <v>1.724049360882E12</v>
       </c>
     </row>
     <row ht="99.75" r="242" spans="1:8" x14ac:dyDescent="0.2">
@@ -12975,7 +13551,7 @@
         <v>0.0</v>
       </c>
       <c r="T242" t="n">
-        <v>1.721617687362E12</v>
+        <v>1.724049365639E12</v>
       </c>
     </row>
     <row ht="213.75" r="243" spans="1:8" x14ac:dyDescent="0.2">
@@ -13001,7 +13577,7 @@
         <v>0.0</v>
       </c>
       <c r="T243" t="n">
-        <v>1.721617690453E12</v>
+        <v>1.724049414959E12</v>
       </c>
     </row>
     <row ht="228" r="244" spans="1:8" x14ac:dyDescent="0.2">
@@ -13027,7 +13603,7 @@
         <v>0.0</v>
       </c>
       <c r="T244" t="n">
-        <v>1.721617692632E12</v>
+        <v>1.724049420518E12</v>
       </c>
     </row>
     <row ht="171" r="245" spans="1:8" x14ac:dyDescent="0.2">
@@ -13050,10 +13626,10 @@
       <c r="G245" s="5"/>
       <c r="H245" s="5"/>
       <c r="R245" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T245" t="n">
-        <v>1.721641249449E12</v>
+        <v>1.724049426065E12</v>
       </c>
     </row>
     <row ht="327.75" r="246" spans="1:8" x14ac:dyDescent="0.2">
@@ -13079,7 +13655,7 @@
         <v>0.0</v>
       </c>
       <c r="T246" t="n">
-        <v>1.721617705902E12</v>
+        <v>1.724049428673E12</v>
       </c>
     </row>
     <row ht="185.25" r="247" spans="1:8" x14ac:dyDescent="0.2">
@@ -13102,10 +13678,10 @@
       <c r="G247" s="5"/>
       <c r="H247" s="5"/>
       <c r="R247" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T247" t="n">
-        <v>1.721617709964E12</v>
+        <v>1.724055384376E12</v>
       </c>
     </row>
     <row ht="171" r="248" spans="1:8" x14ac:dyDescent="0.2">
@@ -13131,7 +13707,7 @@
         <v>0.0</v>
       </c>
       <c r="T248" t="n">
-        <v>1.721617712975E12</v>
+        <v>1.724049439759E12</v>
       </c>
     </row>
     <row ht="185.25" r="249" spans="1:8" x14ac:dyDescent="0.2">
@@ -13154,10 +13730,10 @@
       <c r="G249" s="5"/>
       <c r="H249" s="5"/>
       <c r="R249" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="T249" t="n">
-        <v>1.723623651812E12</v>
+        <v>1.724049450583E12</v>
       </c>
     </row>
     <row ht="171" r="250" spans="1:8" x14ac:dyDescent="0.2">
@@ -13183,7 +13759,7 @@
         <v>0.0</v>
       </c>
       <c r="T250" t="n">
-        <v>1.721617728001E12</v>
+        <v>1.724049458508E12</v>
       </c>
     </row>
     <row ht="99.75" r="251" spans="1:8" x14ac:dyDescent="0.2">
@@ -13206,10 +13782,10 @@
       <c r="G251" s="5"/>
       <c r="H251" s="5"/>
       <c r="R251" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T251" t="n">
-        <v>1.723711280441E12</v>
+        <v>1.724049460236E12</v>
       </c>
     </row>
     <row ht="171" r="252" spans="1:8" x14ac:dyDescent="0.2">
@@ -13236,10 +13812,10 @@
         <v>769</v>
       </c>
       <c r="R252" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T252" t="n">
-        <v>1.721641265132E12</v>
+        <v>1.724055388248E12</v>
       </c>
     </row>
     <row ht="99.75" r="253" spans="1:8" x14ac:dyDescent="0.2">
@@ -13266,10 +13842,10 @@
         <v>775</v>
       </c>
       <c r="R253" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T253" t="n">
-        <v>1.721641268396E12</v>
+        <v>1.724055392739E12</v>
       </c>
     </row>
     <row ht="85.5" r="254" spans="1:8" x14ac:dyDescent="0.2">
@@ -13296,10 +13872,10 @@
         <v>781</v>
       </c>
       <c r="R254" t="n">
-        <v>0.7499999999999988</v>
+        <v>0.3999999999999988</v>
       </c>
       <c r="T254" t="n">
-        <v>1.723623660314E12</v>
+        <v>1.724049502052E12</v>
       </c>
     </row>
     <row ht="342" r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -13326,10 +13902,10 @@
         <v>786</v>
       </c>
       <c r="R255" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T255" t="n">
-        <v>1.721641279235E12</v>
+        <v>1.724049577414E12</v>
       </c>
     </row>
     <row ht="142.5" r="256" spans="1:8" x14ac:dyDescent="0.2">
@@ -13356,10 +13932,10 @@
         <v>792</v>
       </c>
       <c r="R256" t="n">
-        <v>0.65</v>
+        <v>3.4</v>
       </c>
       <c r="T256" t="n">
-        <v>1.721641290837E12</v>
+        <v>1.724134755608E12</v>
       </c>
     </row>
     <row ht="71.25" r="257" spans="1:8" x14ac:dyDescent="0.2">
@@ -13389,7 +13965,7 @@
         <v>0.0</v>
       </c>
       <c r="T257" t="n">
-        <v>1.72161792591E12</v>
+        <v>1.724049618582E12</v>
       </c>
     </row>
     <row ht="71.25" r="258" spans="1:8" x14ac:dyDescent="0.2">
@@ -13416,10 +13992,10 @@
         <v>803</v>
       </c>
       <c r="R258" t="n">
-        <v>0.49999999999999933</v>
+        <v>0.14999999999999936</v>
       </c>
       <c r="T258" t="n">
-        <v>1.723711283301E12</v>
+        <v>1.724049621047E12</v>
       </c>
     </row>
     <row ht="85.5" r="259" spans="1:8" x14ac:dyDescent="0.2">
@@ -13449,7 +14025,7 @@
         <v>0.0</v>
       </c>
       <c r="T259" t="n">
-        <v>1.721618038204E12</v>
+        <v>1.724049626267E12</v>
       </c>
     </row>
     <row ht="71.25" r="260" spans="1:8" x14ac:dyDescent="0.2">
@@ -13476,10 +14052,10 @@
         <v>814</v>
       </c>
       <c r="R260" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T260" t="n">
-        <v>1.721641304635E12</v>
+        <v>1.724049639004E12</v>
       </c>
     </row>
     <row ht="99.75" r="261" spans="1:8" x14ac:dyDescent="0.2">
@@ -13509,7 +14085,7 @@
         <v>0.0</v>
       </c>
       <c r="T261" t="n">
-        <v>1.721618049935E12</v>
+        <v>1.724049673753E12</v>
       </c>
     </row>
     <row ht="99.75" r="262" spans="1:8" x14ac:dyDescent="0.2">
@@ -13536,10 +14112,10 @@
         <v>825</v>
       </c>
       <c r="R262" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T262" t="n">
-        <v>1.721641310176E12</v>
+        <v>1.724055429801E12</v>
       </c>
     </row>
     <row ht="85.5" r="263" spans="1:8" x14ac:dyDescent="0.2">
@@ -13566,10 +14142,10 @@
         <v>829</v>
       </c>
       <c r="R263" t="n">
-        <v>0.44999999999999907</v>
+        <v>0.09999999999999909</v>
       </c>
       <c r="T263" t="n">
-        <v>1.723711288173E12</v>
+        <v>1.724049712389E12</v>
       </c>
     </row>
     <row ht="99.75" r="264" spans="1:8" x14ac:dyDescent="0.2">
@@ -13596,10 +14172,10 @@
         <v>834</v>
       </c>
       <c r="R264" t="n">
-        <v>0.6499999999999979</v>
+        <v>0.29999999999999793</v>
       </c>
       <c r="T264" t="n">
-        <v>1.723623662001E12</v>
+        <v>1.724049736368E12</v>
       </c>
     </row>
     <row ht="85.5" r="265" spans="1:8" x14ac:dyDescent="0.2">
@@ -13626,10 +14202,10 @@
         <v>839</v>
       </c>
       <c r="R265" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T265" t="n">
-        <v>1.72161810511E12</v>
+        <v>1.724055439885E12</v>
       </c>
     </row>
     <row ht="156.75" r="266" spans="1:8" x14ac:dyDescent="0.2">
@@ -13656,10 +14232,10 @@
         <v>844</v>
       </c>
       <c r="R266" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="T266" t="n">
-        <v>1.723623671737E12</v>
+        <v>1.724049761939E12</v>
       </c>
     </row>
     <row ht="85.5" r="267" spans="1:8" x14ac:dyDescent="0.2">
@@ -13686,10 +14262,10 @@
         <v>849</v>
       </c>
       <c r="R267" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T267" t="n">
-        <v>1.723711290775E12</v>
+        <v>1.724049780186E12</v>
       </c>
     </row>
     <row ht="42.75" r="268" spans="1:8" x14ac:dyDescent="0.2">
@@ -13716,10 +14292,10 @@
         <v>854</v>
       </c>
       <c r="R268" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T268" t="n">
-        <v>1.721618125322E12</v>
+        <v>1.724055450413E12</v>
       </c>
     </row>
     <row ht="57" r="269" spans="1:8" x14ac:dyDescent="0.2">
@@ -13746,10 +14322,10 @@
         <v>860</v>
       </c>
       <c r="R269" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T269" t="n">
-        <v>1.723711293113E12</v>
+        <v>1.724049804969E12</v>
       </c>
     </row>
     <row ht="71.25" r="270" spans="1:8" x14ac:dyDescent="0.2">
@@ -13776,10 +14352,10 @@
         <v>865</v>
       </c>
       <c r="R270" t="n">
-        <v>0.49999999999999933</v>
+        <v>0.14999999999999936</v>
       </c>
       <c r="T270" t="n">
-        <v>1.723711295339E12</v>
+        <v>1.724049810629E12</v>
       </c>
     </row>
     <row ht="99.75" r="271" spans="1:8" x14ac:dyDescent="0.2">
@@ -13806,10 +14382,10 @@
         <v>870</v>
       </c>
       <c r="R271" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T271" t="n">
-        <v>1.721692999208E12</v>
+        <v>1.72405545417E12</v>
       </c>
     </row>
     <row ht="85.5" r="272" spans="1:8" x14ac:dyDescent="0.2">
@@ -13839,7 +14415,7 @@
         <v>0.0</v>
       </c>
       <c r="T272" t="n">
-        <v>1.721618177451E12</v>
+        <v>1.724049841505E12</v>
       </c>
     </row>
     <row ht="85.5" r="273" spans="1:8" x14ac:dyDescent="0.2">
@@ -13866,10 +14442,10 @@
         <v>431</v>
       </c>
       <c r="R273" t="n">
-        <v>0.44999999999999907</v>
+        <v>0.09999999999999909</v>
       </c>
       <c r="T273" t="n">
-        <v>1.723711298043E12</v>
+        <v>1.724049900441E12</v>
       </c>
     </row>
     <row ht="85.5" r="274" spans="1:8" x14ac:dyDescent="0.2">
@@ -13896,10 +14472,10 @@
         <v>881</v>
       </c>
       <c r="R274" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T274" t="n">
-        <v>1.721618220691E12</v>
+        <v>1.724055457034E12</v>
       </c>
     </row>
     <row ht="71.25" r="275" spans="1:8" x14ac:dyDescent="0.2">
@@ -13926,10 +14502,10 @@
         <v>886</v>
       </c>
       <c r="R275" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T275" t="n">
-        <v>1.72169301823E12</v>
+        <v>1.724049924116E12</v>
       </c>
     </row>
     <row ht="142.5" r="276" spans="1:8" x14ac:dyDescent="0.2">
@@ -13959,7 +14535,7 @@
         <v>0.0</v>
       </c>
       <c r="T276" t="n">
-        <v>1.721618262239E12</v>
+        <v>1.724049933205E12</v>
       </c>
     </row>
     <row ht="185.25" r="277" spans="1:8" x14ac:dyDescent="0.2">
@@ -13986,10 +14562,10 @@
         <v>896</v>
       </c>
       <c r="R277" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T277" t="n">
-        <v>1.721693020218E12</v>
+        <v>1.724055461423E12</v>
       </c>
     </row>
     <row ht="85.5" r="278" spans="1:8" x14ac:dyDescent="0.2">
@@ -14016,10 +14592,10 @@
         <v>901</v>
       </c>
       <c r="R278" t="n">
-        <v>0.44999999999999907</v>
+        <v>0.09999999999999909</v>
       </c>
       <c r="T278" t="n">
-        <v>1.723711302373E12</v>
+        <v>1.724049997147E12</v>
       </c>
     </row>
     <row ht="85.5" r="279" spans="1:8" x14ac:dyDescent="0.2">
@@ -14049,7 +14625,7 @@
         <v>0.0</v>
       </c>
       <c r="T279" t="n">
-        <v>1.721618316145E12</v>
+        <v>1.724050038558E12</v>
       </c>
     </row>
     <row ht="71.25" r="280" spans="1:8" x14ac:dyDescent="0.2">
@@ -14076,10 +14652,10 @@
         <v>911</v>
       </c>
       <c r="R280" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T280" t="n">
-        <v>1.7216930362E12</v>
+        <v>1.724055463328E12</v>
       </c>
     </row>
     <row ht="156.75" r="281" spans="1:8" x14ac:dyDescent="0.2">
@@ -14106,10 +14682,10 @@
         <v>914</v>
       </c>
       <c r="R281" t="n">
-        <v>0.7499999999999988</v>
+        <v>0.3999999999999988</v>
       </c>
       <c r="T281" t="n">
-        <v>1.723623686481E12</v>
+        <v>1.724050066433E12</v>
       </c>
     </row>
     <row ht="57" r="282" spans="1:8" x14ac:dyDescent="0.2">
@@ -14139,7 +14715,7 @@
         <v>0.0</v>
       </c>
       <c r="T282" t="n">
-        <v>1.721618337845E12</v>
+        <v>1.724050072153E12</v>
       </c>
     </row>
     <row ht="128.25" r="283" spans="1:8" x14ac:dyDescent="0.2">
@@ -14169,7 +14745,7 @@
         <v>0.0</v>
       </c>
       <c r="T283" t="n">
-        <v>1.721618340324E12</v>
+        <v>1.724050078602E12</v>
       </c>
     </row>
     <row ht="57" r="284" spans="1:8" x14ac:dyDescent="0.2">
@@ -14196,10 +14772,10 @@
         <v>930</v>
       </c>
       <c r="R284" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T284" t="n">
-        <v>1.721693046003E12</v>
+        <v>1.724055465302E12</v>
       </c>
     </row>
     <row ht="71.25" r="285" spans="1:8" x14ac:dyDescent="0.2">
@@ -14226,10 +14802,10 @@
         <v>935</v>
       </c>
       <c r="R285" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="T285" t="n">
-        <v>1.723623688682E12</v>
+        <v>1.72405010681E12</v>
       </c>
     </row>
     <row ht="85.5" r="286" spans="1:8" x14ac:dyDescent="0.2">
@@ -14259,7 +14835,7 @@
         <v>0.0</v>
       </c>
       <c r="T286" t="n">
-        <v>1.721618353089E12</v>
+        <v>1.72405011062E12</v>
       </c>
     </row>
     <row ht="71.25" r="287" spans="1:8" x14ac:dyDescent="0.2">
@@ -14289,7 +14865,7 @@
         <v>0.0</v>
       </c>
       <c r="T287" t="n">
-        <v>1.721618356994E12</v>
+        <v>1.724050204349E12</v>
       </c>
     </row>
     <row ht="114" r="288" spans="1:8" x14ac:dyDescent="0.2">
@@ -14319,7 +14895,7 @@
         <v>0.0</v>
       </c>
       <c r="T288" t="n">
-        <v>1.721618360788E12</v>
+        <v>1.724050271305E12</v>
       </c>
     </row>
     <row ht="85.5" r="289" spans="1:8" x14ac:dyDescent="0.2">
@@ -14349,7 +14925,7 @@
         <v>0.0</v>
       </c>
       <c r="T289" t="n">
-        <v>1.721618423305E12</v>
+        <v>1.724050292488E12</v>
       </c>
     </row>
     <row ht="99.75" r="290" spans="1:8" x14ac:dyDescent="0.2">
@@ -14379,7 +14955,7 @@
         <v>0.0</v>
       </c>
       <c r="T290" t="n">
-        <v>1.721618445533E12</v>
+        <v>1.724050298331E12</v>
       </c>
     </row>
     <row ht="99.75" r="291" spans="1:8" x14ac:dyDescent="0.2">
@@ -14406,10 +14982,10 @@
         <v>961</v>
       </c>
       <c r="R291" t="n">
-        <v>0.5999999999999999</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="T291" t="n">
-        <v>1.723623693953E12</v>
+        <v>1.724055476744E12</v>
       </c>
     </row>
     <row ht="185.25" r="292" spans="1:8" x14ac:dyDescent="0.2">
@@ -14439,7 +15015,7 @@
         <v>0.0</v>
       </c>
       <c r="T292" t="n">
-        <v>1.721618455336E12</v>
+        <v>1.724050318942E12</v>
       </c>
     </row>
     <row ht="42.75" r="293" spans="1:8" x14ac:dyDescent="0.2">
@@ -14466,10 +15042,10 @@
         <v>971</v>
       </c>
       <c r="R293" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T293" t="n">
-        <v>1.721693085541E12</v>
+        <v>1.724055479897E12</v>
       </c>
     </row>
     <row ht="114" r="294" spans="1:8" x14ac:dyDescent="0.2">
@@ -14499,7 +15075,7 @@
         <v>0.0</v>
       </c>
       <c r="T294" t="n">
-        <v>1.721618521467E12</v>
+        <v>1.724050484949E12</v>
       </c>
     </row>
     <row ht="356.25" r="295" spans="1:8" x14ac:dyDescent="0.2">
@@ -14529,7 +15105,7 @@
         <v>0.0</v>
       </c>
       <c r="T295" t="n">
-        <v>1.721618523416E12</v>
+        <v>1.724050559131E12</v>
       </c>
     </row>
     <row ht="57" r="296" spans="1:8" x14ac:dyDescent="0.2">
@@ -14559,7 +15135,7 @@
         <v>0.0</v>
       </c>
       <c r="T296" t="n">
-        <v>1.721618525068E12</v>
+        <v>1.724050562926E12</v>
       </c>
     </row>
     <row ht="156.75" r="297" spans="1:8" x14ac:dyDescent="0.2">
@@ -14586,10 +15162,10 @@
         <v>991</v>
       </c>
       <c r="R297" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T297" t="n">
-        <v>1.721693092612E12</v>
+        <v>1.724055484541E12</v>
       </c>
     </row>
     <row ht="85.5" r="298" spans="1:8" x14ac:dyDescent="0.2">
@@ -14616,10 +15192,10 @@
         <v>996</v>
       </c>
       <c r="R298" t="n">
-        <v>0.6999999999999985</v>
+        <v>0.34999999999999853</v>
       </c>
       <c r="T298" t="n">
-        <v>1.723623696247E12</v>
+        <v>1.724050783156E12</v>
       </c>
     </row>
     <row ht="85.5" r="299" spans="1:8" x14ac:dyDescent="0.2">
@@ -14649,7 +15225,7 @@
         <v>0.0</v>
       </c>
       <c r="T299" t="n">
-        <v>1.721618551847E12</v>
+        <v>1.724050790391E12</v>
       </c>
     </row>
     <row ht="199.5" r="300" spans="1:8" x14ac:dyDescent="0.2">
@@ -14679,7 +15255,7 @@
         <v>0.0</v>
       </c>
       <c r="T300" t="n">
-        <v>1.721618554374E12</v>
+        <v>1.724050811689E12</v>
       </c>
     </row>
     <row ht="71.25" r="301" spans="1:8" x14ac:dyDescent="0.2">
@@ -14706,10 +15282,10 @@
         <v>1011</v>
       </c>
       <c r="R301" t="n">
-        <v>0.49999999999999933</v>
+        <v>0.14999999999999936</v>
       </c>
       <c r="T301" t="n">
-        <v>1.723711304277E12</v>
+        <v>1.724050814674E12</v>
       </c>
     </row>
     <row ht="156.75" r="302" spans="1:8" x14ac:dyDescent="0.2">
@@ -14736,10 +15312,10 @@
         <v>1016</v>
       </c>
       <c r="R302" t="n">
-        <v>0.5999999999999985</v>
+        <v>0.24999999999999856</v>
       </c>
       <c r="T302" t="n">
-        <v>1.723623699633E12</v>
+        <v>1.724051440413E12</v>
       </c>
     </row>
     <row ht="213.75" r="303" spans="1:8" x14ac:dyDescent="0.2">
@@ -14766,10 +15342,10 @@
         <v>1021</v>
       </c>
       <c r="R303" t="n">
-        <v>0.65</v>
+        <v>2.15</v>
       </c>
       <c r="T303" t="n">
-        <v>1.721693122576E12</v>
+        <v>1.724134766322E12</v>
       </c>
     </row>
     <row ht="409.5" r="304" spans="1:8" x14ac:dyDescent="0.2">
@@ -14796,10 +15372,10 @@
         <v>99.980999999999995</v>
       </c>
       <c r="R304" t="n">
-        <v>0.0</v>
+        <v>1.75</v>
       </c>
       <c r="T304" t="n">
-        <v>1.721618627621E12</v>
+        <v>1.724057674635E12</v>
       </c>
     </row>
     <row ht="409.5" r="305" spans="1:8" x14ac:dyDescent="0.2">
@@ -14826,10 +15402,10 @@
         <v>99.992000000000004</v>
       </c>
       <c r="R305" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="T305" t="n">
-        <v>1.723623703271E12</v>
+        <v>1.724051519418E12</v>
       </c>
     </row>
     <row ht="409.5" r="306" spans="1:8" x14ac:dyDescent="0.2">
@@ -14856,10 +15432,10 @@
         <v>99.933000000000007</v>
       </c>
       <c r="R306" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T306" t="n">
-        <v>1.72371130824E12</v>
+        <v>1.724051522689E12</v>
       </c>
     </row>
     <row ht="313.5" r="307" spans="1:8" x14ac:dyDescent="0.2">
@@ -14886,10 +15462,10 @@
         <v>16</v>
       </c>
       <c r="R307" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T307" t="n">
-        <v>1.721693142641E12</v>
+        <v>1.72405555947E12</v>
       </c>
     </row>
     <row ht="85.5" r="308" spans="1:8" x14ac:dyDescent="0.2">
@@ -14919,7 +15495,7 @@
         <v>0.0</v>
       </c>
       <c r="T308" t="n">
-        <v>1.72161882152E12</v>
+        <v>1.72405156778E12</v>
       </c>
     </row>
     <row ht="128.25" r="309" spans="1:8" x14ac:dyDescent="0.2">
@@ -14946,10 +15522,10 @@
         <v>1031</v>
       </c>
       <c r="R309" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T309" t="n">
-        <v>1.721693153993E12</v>
+        <v>1.724055585243E12</v>
       </c>
     </row>
     <row ht="85.5" r="310" spans="1:8" x14ac:dyDescent="0.2">
@@ -14979,7 +15555,7 @@
         <v>0.0</v>
       </c>
       <c r="T310" t="n">
-        <v>1.721618877782E12</v>
+        <v>1.724051586842E12</v>
       </c>
     </row>
     <row ht="85.5" r="311" spans="1:8" x14ac:dyDescent="0.2">
@@ -15009,7 +15585,7 @@
         <v>0.0</v>
       </c>
       <c r="T311" t="n">
-        <v>1.721618883673E12</v>
+        <v>1.724051591612E12</v>
       </c>
     </row>
     <row ht="28.5" r="312" spans="1:8" x14ac:dyDescent="0.2">
@@ -15039,7 +15615,7 @@
         <v>0.0</v>
       </c>
       <c r="T312" t="n">
-        <v>1.721618886615E12</v>
+        <v>1.724051594554E12</v>
       </c>
     </row>
     <row ht="71.25" r="313" spans="1:8" x14ac:dyDescent="0.2">
@@ -15066,10 +15642,10 @@
         <v>1051</v>
       </c>
       <c r="R313" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T313" t="n">
-        <v>1.721693161764E12</v>
+        <v>1.724051630971E12</v>
       </c>
     </row>
     <row ht="142.5" r="314" spans="1:8" x14ac:dyDescent="0.2">
@@ -15096,10 +15672,10 @@
         <v>1056</v>
       </c>
       <c r="R314" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T314" t="n">
-        <v>1.72169316528E12</v>
+        <v>1.72405174207E12</v>
       </c>
     </row>
     <row ht="71.25" r="315" spans="1:8" x14ac:dyDescent="0.2">
@@ -15126,10 +15702,10 @@
         <v>250</v>
       </c>
       <c r="R315" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T315" t="n">
-        <v>1.721635538786E12</v>
+        <v>1.724055589001E12</v>
       </c>
     </row>
     <row ht="57" r="316" spans="1:8" x14ac:dyDescent="0.2">
@@ -15159,7 +15735,7 @@
         <v>0.0</v>
       </c>
       <c r="T316" t="n">
-        <v>1.721635545796E12</v>
+        <v>1.724051753512E12</v>
       </c>
     </row>
     <row ht="114" r="317" spans="1:8" x14ac:dyDescent="0.2">
@@ -15186,10 +15762,10 @@
         <v>1064</v>
       </c>
       <c r="R317" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T317" t="n">
-        <v>1.721693168779E12</v>
+        <v>1.724051760914E12</v>
       </c>
     </row>
     <row ht="85.5" r="318" spans="1:8" x14ac:dyDescent="0.2">
@@ -15216,10 +15792,10 @@
         <v>1069</v>
       </c>
       <c r="R318" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T318" t="n">
-        <v>1.721693174569E12</v>
+        <v>1.724051817475E12</v>
       </c>
     </row>
     <row ht="99.75" r="319" spans="1:8" x14ac:dyDescent="0.2">
@@ -15246,10 +15822,10 @@
         <v>1072</v>
       </c>
       <c r="R319" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T319" t="n">
-        <v>1.721693199786E12</v>
+        <v>1.724051822155E12</v>
       </c>
     </row>
     <row ht="128.25" r="320" spans="1:8" x14ac:dyDescent="0.2">
@@ -15276,10 +15852,10 @@
         <v>1072</v>
       </c>
       <c r="R320" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T320" t="n">
-        <v>1.72169321336E12</v>
+        <v>1.724055599853E12</v>
       </c>
     </row>
     <row ht="114" r="321" spans="1:8" x14ac:dyDescent="0.2">
@@ -15309,7 +15885,7 @@
         <v>0.0</v>
       </c>
       <c r="T321" t="n">
-        <v>1.721635638586E12</v>
+        <v>1.724051841824E12</v>
       </c>
     </row>
     <row ht="213.75" r="322" spans="1:8" x14ac:dyDescent="0.2">
@@ -15336,10 +15912,10 @@
         <v>1083</v>
       </c>
       <c r="R322" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T322" t="n">
-        <v>1.721635647215E12</v>
+        <v>1.724055679805E12</v>
       </c>
     </row>
     <row ht="57" r="323" spans="1:8" x14ac:dyDescent="0.2">
@@ -15366,10 +15942,10 @@
         <v>1088</v>
       </c>
       <c r="R323" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T323" t="n">
-        <v>1.721693221291E12</v>
+        <v>1.724051858486E12</v>
       </c>
     </row>
     <row ht="128.25" r="324" spans="1:8" x14ac:dyDescent="0.2">
@@ -15396,10 +15972,10 @@
         <v>1093</v>
       </c>
       <c r="R324" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T324" t="n">
-        <v>1.72169322421E12</v>
+        <v>1.724051866279E12</v>
       </c>
     </row>
     <row ht="128.25" r="325" spans="1:8" x14ac:dyDescent="0.2">
@@ -15426,10 +16002,10 @@
         <v>1098</v>
       </c>
       <c r="R325" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="T325" t="n">
-        <v>1.723623724177E12</v>
+        <v>1.724051871124E12</v>
       </c>
     </row>
     <row ht="171" r="326" spans="1:8" x14ac:dyDescent="0.2">
@@ -15456,10 +16032,10 @@
         <v>1103</v>
       </c>
       <c r="R326" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T326" t="n">
-        <v>1.721693257559E12</v>
+        <v>1.724055685604E12</v>
       </c>
     </row>
     <row ht="185.25" r="327" spans="1:8" x14ac:dyDescent="0.2">
@@ -15486,10 +16062,10 @@
         <v>1103</v>
       </c>
       <c r="R327" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T327" t="n">
-        <v>1.721693268683E12</v>
+        <v>1.724055689672E12</v>
       </c>
     </row>
     <row ht="185.25" r="328" spans="1:8" x14ac:dyDescent="0.2">
@@ -15516,10 +16092,10 @@
         <v>1103</v>
       </c>
       <c r="R328" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T328" t="n">
-        <v>1.721693271978E12</v>
+        <v>1.724055693156E12</v>
       </c>
     </row>
     <row ht="57" r="329" spans="1:8" x14ac:dyDescent="0.2">
@@ -15546,10 +16122,10 @@
         <v>1110</v>
       </c>
       <c r="R329" t="n">
-        <v>0.5999999999999999</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="T329" t="n">
-        <v>1.723623730801E12</v>
+        <v>1.724134769161E12</v>
       </c>
     </row>
     <row ht="356.25" r="330" spans="1:8" x14ac:dyDescent="0.2">
@@ -15576,10 +16152,10 @@
         <v>1115</v>
       </c>
       <c r="R330" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T330" t="n">
-        <v>1.72169343317E12</v>
+        <v>1.724055727141E12</v>
       </c>
     </row>
     <row ht="213.75" r="331" spans="1:8" x14ac:dyDescent="0.2">
@@ -15606,10 +16182,10 @@
         <v>1119</v>
       </c>
       <c r="R331" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T331" t="n">
-        <v>1.721693438586E12</v>
+        <v>1.724055736605E12</v>
       </c>
     </row>
     <row ht="142.5" r="332" spans="1:8" x14ac:dyDescent="0.2">
@@ -15639,7 +16215,7 @@
         <v>0.0</v>
       </c>
       <c r="T332" t="n">
-        <v>1.721635934616E12</v>
+        <v>1.724052067329E12</v>
       </c>
     </row>
     <row ht="142.5" r="333" spans="1:8" x14ac:dyDescent="0.2">
@@ -15669,7 +16245,7 @@
         <v>0.0</v>
       </c>
       <c r="T333" t="n">
-        <v>1.721635937541E12</v>
+        <v>1.724052080424E12</v>
       </c>
     </row>
     <row ht="128.25" r="334" spans="1:8" x14ac:dyDescent="0.2">
@@ -15696,10 +16272,10 @@
         <v>1134</v>
       </c>
       <c r="R334" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T334" t="n">
-        <v>1.721635954237E12</v>
+        <v>1.72405574547E12</v>
       </c>
     </row>
     <row ht="114" r="335" spans="1:8" x14ac:dyDescent="0.2">
@@ -15726,10 +16302,10 @@
         <v>1139</v>
       </c>
       <c r="R335" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T335" t="n">
-        <v>1.721693442329E12</v>
+        <v>1.724055749698E12</v>
       </c>
     </row>
     <row ht="99.75" r="336" spans="1:8" x14ac:dyDescent="0.2">
@@ -15756,10 +16332,10 @@
         <v>1144</v>
       </c>
       <c r="R336" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T336" t="n">
-        <v>1.721693448845E12</v>
+        <v>1.724055753992E12</v>
       </c>
     </row>
     <row ht="156.75" r="337" spans="1:8" x14ac:dyDescent="0.2">
@@ -15786,10 +16362,10 @@
         <v>1149</v>
       </c>
       <c r="R337" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T337" t="n">
-        <v>1.721693454725E12</v>
+        <v>1.724055757357E12</v>
       </c>
     </row>
     <row ht="57" r="338" spans="1:8" x14ac:dyDescent="0.2">
@@ -15816,10 +16392,10 @@
         <v>1154</v>
       </c>
       <c r="R338" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="T338" t="n">
-        <v>1.723623733962E12</v>
+        <v>1.72405217116E12</v>
       </c>
     </row>
     <row ht="71.25" r="339" spans="1:8" x14ac:dyDescent="0.2">
@@ -15846,10 +16422,10 @@
         <v>1159</v>
       </c>
       <c r="R339" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T339" t="n">
-        <v>1.721693477447E12</v>
+        <v>1.724052176792E12</v>
       </c>
     </row>
     <row ht="42.75" r="340" spans="1:8" x14ac:dyDescent="0.2">
@@ -15879,7 +16455,7 @@
         <v>0.0</v>
       </c>
       <c r="T340" t="n">
-        <v>1.721636010385E12</v>
+        <v>1.724052180027E12</v>
       </c>
     </row>
     <row ht="114" r="341" spans="1:8" x14ac:dyDescent="0.2">
@@ -15906,10 +16482,10 @@
         <v>1169</v>
       </c>
       <c r="R341" t="n">
-        <v>0.49999999999999933</v>
+        <v>1.2499999999999993</v>
       </c>
       <c r="T341" t="n">
-        <v>1.72371139123E12</v>
+        <v>1.724055762771E12</v>
       </c>
     </row>
     <row ht="57" r="342" spans="1:8" x14ac:dyDescent="0.2">
@@ -15939,7 +16515,7 @@
         <v>0.0</v>
       </c>
       <c r="T342" t="n">
-        <v>1.721636024139E12</v>
+        <v>1.72405219116E12</v>
       </c>
     </row>
     <row ht="71.25" r="343" spans="1:8" x14ac:dyDescent="0.2">
@@ -15966,10 +16542,10 @@
         <v>1179</v>
       </c>
       <c r="R343" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T343" t="n">
-        <v>1.721693521681E12</v>
+        <v>1.724055766644E12</v>
       </c>
     </row>
     <row ht="270.75" r="344" spans="1:8" x14ac:dyDescent="0.2">
@@ -15999,7 +16575,7 @@
         <v>0.0</v>
       </c>
       <c r="T344" t="n">
-        <v>1.721636042365E12</v>
+        <v>1.724052221507E12</v>
       </c>
     </row>
     <row ht="114" r="345" spans="1:8" x14ac:dyDescent="0.2">
@@ -16026,10 +16602,10 @@
         <v>1189</v>
       </c>
       <c r="R345" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T345" t="n">
-        <v>1.721636047105E12</v>
+        <v>1.724055950517E12</v>
       </c>
     </row>
     <row ht="85.5" r="346" spans="1:8" x14ac:dyDescent="0.2">
@@ -16056,10 +16632,10 @@
         <v>1194</v>
       </c>
       <c r="R346" t="n">
-        <v>0.5499999999999996</v>
+        <v>1.2999999999999996</v>
       </c>
       <c r="T346" t="n">
-        <v>1.723711393666E12</v>
+        <v>1.724055954855E12</v>
       </c>
     </row>
     <row ht="71.25" r="347" spans="1:8" x14ac:dyDescent="0.2">
@@ -16089,7 +16665,7 @@
         <v>0.0</v>
       </c>
       <c r="T347" t="n">
-        <v>1.721636066568E12</v>
+        <v>1.724052279387E12</v>
       </c>
     </row>
     <row ht="42.75" r="348" spans="1:8" x14ac:dyDescent="0.2">
@@ -16119,7 +16695,7 @@
         <v>0.0</v>
       </c>
       <c r="T348" t="n">
-        <v>1.721636069338E12</v>
+        <v>1.724052282673E12</v>
       </c>
     </row>
     <row ht="57" r="349" spans="1:8" x14ac:dyDescent="0.2">
@@ -16149,7 +16725,7 @@
         <v>0.0</v>
       </c>
       <c r="T349" t="n">
-        <v>1.72163607357E12</v>
+        <v>1.724052285365E12</v>
       </c>
     </row>
     <row ht="42.75" r="350" spans="1:8" x14ac:dyDescent="0.2">
@@ -16176,10 +16752,10 @@
         <v>1214</v>
       </c>
       <c r="R350" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T350" t="n">
-        <v>1.721693529435E12</v>
+        <v>1.724052289415E12</v>
       </c>
     </row>
     <row ht="99.75" r="351" spans="1:8" x14ac:dyDescent="0.2">
@@ -16206,10 +16782,10 @@
         <v>6.6124999999999998</v>
       </c>
       <c r="R351" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T351" t="n">
-        <v>1.723711449143E12</v>
+        <v>1.724052295357E12</v>
       </c>
     </row>
     <row ht="85.5" r="352" spans="1:8" x14ac:dyDescent="0.2">
@@ -16239,7 +16815,7 @@
         <v>0.0</v>
       </c>
       <c r="T352" t="n">
-        <v>1.721636099858E12</v>
+        <v>1.724052299417E12</v>
       </c>
     </row>
     <row ht="85.5" r="353" spans="1:8" x14ac:dyDescent="0.2">
@@ -16262,10 +16838,10 @@
       <c r="G353" s="6"/>
       <c r="H353" s="6"/>
       <c r="R353" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T353" t="n">
-        <v>1.721693538387E12</v>
+        <v>1.724055959896E12</v>
       </c>
     </row>
     <row ht="85.5" r="354" spans="1:8" x14ac:dyDescent="0.2">
@@ -16291,7 +16867,7 @@
         <v>0.0</v>
       </c>
       <c r="T354" t="n">
-        <v>1.721636186329E12</v>
+        <v>1.72405231002E12</v>
       </c>
     </row>
     <row ht="185.25" r="355" spans="1:8" x14ac:dyDescent="0.2">
@@ -16317,7 +16893,7 @@
         <v>0.0</v>
       </c>
       <c r="T355" t="n">
-        <v>1.721636193689E12</v>
+        <v>1.724052315822E12</v>
       </c>
     </row>
     <row ht="256.5" r="356" spans="1:8" x14ac:dyDescent="0.2">
@@ -16340,10 +16916,10 @@
       <c r="G356" s="6"/>
       <c r="H356" s="6"/>
       <c r="R356" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T356" t="n">
-        <v>1.721693540734E12</v>
+        <v>1.724055962304E12</v>
       </c>
     </row>
     <row ht="142.5" r="357" spans="1:8" x14ac:dyDescent="0.2">
@@ -16366,10 +16942,10 @@
       <c r="G357" s="6"/>
       <c r="H357" s="6"/>
       <c r="R357" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T357" t="n">
-        <v>1.721636199688E12</v>
+        <v>1.724055966272E12</v>
       </c>
     </row>
     <row ht="285" r="358" spans="1:8" x14ac:dyDescent="0.2">
@@ -16395,7 +16971,7 @@
         <v>0.0</v>
       </c>
       <c r="T358" t="n">
-        <v>1.721636201498E12</v>
+        <v>1.72405234415E12</v>
       </c>
     </row>
     <row ht="228" r="359" spans="1:8" x14ac:dyDescent="0.2">
@@ -16421,7 +16997,7 @@
         <v>0.0</v>
       </c>
       <c r="T359" t="n">
-        <v>1.721636202976E12</v>
+        <v>1.724052348319E12</v>
       </c>
     </row>
     <row ht="99.75" r="360" spans="1:8" x14ac:dyDescent="0.2">
@@ -16447,7 +17023,7 @@
         <v>0.0</v>
       </c>
       <c r="T360" t="n">
-        <v>1.721636206914E12</v>
+        <v>1.724052350916E12</v>
       </c>
     </row>
     <row ht="199.5" r="361" spans="1:8" x14ac:dyDescent="0.2">
@@ -16470,10 +17046,10 @@
       <c r="G361" s="6"/>
       <c r="H361" s="6"/>
       <c r="R361" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T361" t="n">
-        <v>1.721693543349E12</v>
+        <v>1.724052354755E12</v>
       </c>
     </row>
     <row ht="242.25" r="362" spans="1:8" x14ac:dyDescent="0.2">
@@ -16499,7 +17075,7 @@
         <v>0.0</v>
       </c>
       <c r="T362" t="n">
-        <v>1.721636211575E12</v>
+        <v>1.724052360169E12</v>
       </c>
     </row>
     <row ht="85.5" r="363" spans="1:8" x14ac:dyDescent="0.2">
@@ -16522,10 +17098,10 @@
       <c r="G363" s="6"/>
       <c r="H363" s="6"/>
       <c r="R363" t="n">
-        <v>0.49999999999999933</v>
+        <v>0.14999999999999936</v>
       </c>
       <c r="T363" t="n">
-        <v>1.723711451164E12</v>
+        <v>1.724052362019E12</v>
       </c>
     </row>
     <row ht="142.5" r="364" spans="1:8" x14ac:dyDescent="0.2">
@@ -16551,7 +17127,7 @@
         <v>0.0</v>
       </c>
       <c r="T364" t="n">
-        <v>1.721636217598E12</v>
+        <v>1.724052365312E12</v>
       </c>
     </row>
     <row ht="114" r="365" spans="1:8" x14ac:dyDescent="0.2">
@@ -16577,7 +17153,7 @@
         <v>0.0</v>
       </c>
       <c r="T365" t="n">
-        <v>1.721636219889E12</v>
+        <v>1.724052367641E12</v>
       </c>
     </row>
     <row ht="114" r="366" spans="1:8" x14ac:dyDescent="0.2">
@@ -16600,10 +17176,10 @@
       <c r="G366" s="6"/>
       <c r="H366" s="6"/>
       <c r="R366" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T366" t="n">
-        <v>1.721693567334E12</v>
+        <v>1.724052371584E12</v>
       </c>
     </row>
     <row ht="128.25" r="367" spans="1:8" x14ac:dyDescent="0.2">
@@ -16626,10 +17202,10 @@
       <c r="G367" s="6"/>
       <c r="H367" s="6"/>
       <c r="R367" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T367" t="n">
-        <v>1.721693571762E12</v>
+        <v>1.724055979161E12</v>
       </c>
     </row>
     <row ht="128.25" r="368" spans="1:8" x14ac:dyDescent="0.2">
@@ -16655,7 +17231,7 @@
         <v>0.0</v>
       </c>
       <c r="T368" t="n">
-        <v>1.721636233435E12</v>
+        <v>1.724052399151E12</v>
       </c>
     </row>
     <row ht="114" r="369" spans="1:8" x14ac:dyDescent="0.2">
@@ -16681,7 +17257,7 @@
         <v>0.0</v>
       </c>
       <c r="T369" t="n">
-        <v>1.721636238707E12</v>
+        <v>1.724052402757E12</v>
       </c>
     </row>
     <row ht="185.25" r="370" spans="1:8" x14ac:dyDescent="0.2">
@@ -16704,10 +17280,10 @@
       <c r="G370" s="6"/>
       <c r="H370" s="6"/>
       <c r="R370" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T370" t="n">
-        <v>1.721693575143E12</v>
+        <v>1.724055982695E12</v>
       </c>
     </row>
     <row ht="142.5" r="371" spans="1:8" x14ac:dyDescent="0.2">
@@ -16730,10 +17306,10 @@
       <c r="G371" s="6"/>
       <c r="H371" s="6"/>
       <c r="R371" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T371" t="n">
-        <v>1.723711452795E12</v>
+        <v>1.724052411042E12</v>
       </c>
     </row>
     <row ht="114" r="372" spans="1:8" x14ac:dyDescent="0.2">
@@ -16756,10 +17332,10 @@
       <c r="G372" s="6"/>
       <c r="H372" s="6"/>
       <c r="R372" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T372" t="n">
-        <v>1.72169358452E12</v>
+        <v>1.724055984754E12</v>
       </c>
     </row>
     <row ht="99.75" r="373" spans="1:8" x14ac:dyDescent="0.2">
@@ -16782,10 +17358,10 @@
       <c r="G373" s="6"/>
       <c r="H373" s="6"/>
       <c r="R373" t="n">
-        <v>0.0</v>
+        <v>1.75</v>
       </c>
       <c r="T373" t="n">
-        <v>1.721636259248E12</v>
+        <v>1.724057681144E12</v>
       </c>
     </row>
     <row ht="185.25" r="374" spans="1:8" x14ac:dyDescent="0.2">
@@ -16811,7 +17387,7 @@
         <v>0.0</v>
       </c>
       <c r="T374" t="n">
-        <v>1.72163626347E12</v>
+        <v>1.724052427137E12</v>
       </c>
     </row>
     <row ht="142.5" r="375" spans="1:8" x14ac:dyDescent="0.2">
@@ -16837,7 +17413,7 @@
         <v>0.0</v>
       </c>
       <c r="T375" t="n">
-        <v>1.721636266394E12</v>
+        <v>1.724052432486E12</v>
       </c>
     </row>
     <row ht="171" r="376" spans="1:8" x14ac:dyDescent="0.2">
@@ -16863,7 +17439,7 @@
         <v>0.0</v>
       </c>
       <c r="T376" t="n">
-        <v>1.721636269294E12</v>
+        <v>1.724052435304E12</v>
       </c>
     </row>
     <row ht="199.5" r="377" spans="1:8" x14ac:dyDescent="0.2">
@@ -16886,10 +17462,10 @@
       <c r="G377" s="6"/>
       <c r="H377" s="6"/>
       <c r="R377" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T377" t="n">
-        <v>1.721693588325E12</v>
+        <v>1.724055994546E12</v>
       </c>
     </row>
     <row ht="171" r="378" spans="1:8" x14ac:dyDescent="0.2">
@@ -16915,7 +17491,7 @@
         <v>0.0</v>
       </c>
       <c r="T378" t="n">
-        <v>1.721636277489E12</v>
+        <v>1.724052449213E12</v>
       </c>
     </row>
     <row ht="128.25" r="379" spans="1:8" x14ac:dyDescent="0.2">
@@ -16941,7 +17517,7 @@
         <v>0.0</v>
       </c>
       <c r="T379" t="n">
-        <v>1.721636280905E12</v>
+        <v>1.724052462022E12</v>
       </c>
     </row>
     <row ht="156.75" r="380" spans="1:8" x14ac:dyDescent="0.2">
@@ -16964,10 +17540,10 @@
       <c r="G380" s="6"/>
       <c r="H380" s="6"/>
       <c r="R380" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T380" t="n">
-        <v>1.723711455166E12</v>
+        <v>1.724052465745E12</v>
       </c>
     </row>
     <row ht="85.5" r="381" spans="1:8" x14ac:dyDescent="0.2">
@@ -16990,10 +17566,10 @@
       <c r="G381" s="6"/>
       <c r="H381" s="6"/>
       <c r="R381" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T381" t="n">
-        <v>1.721636299006E12</v>
+        <v>1.724055997604E12</v>
       </c>
     </row>
     <row ht="114" r="382" spans="1:8" x14ac:dyDescent="0.2">
@@ -17019,7 +17595,7 @@
         <v>0.0</v>
       </c>
       <c r="T382" t="n">
-        <v>1.721636302357E12</v>
+        <v>1.724052473866E12</v>
       </c>
     </row>
     <row ht="285" r="383" spans="1:8" x14ac:dyDescent="0.2">
@@ -17045,7 +17621,7 @@
         <v>0.0</v>
       </c>
       <c r="T383" t="n">
-        <v>1.72163630513E12</v>
+        <v>1.724052478155E12</v>
       </c>
     </row>
     <row ht="128.25" r="384" spans="1:8" x14ac:dyDescent="0.2">
@@ -17071,7 +17647,7 @@
         <v>0.0</v>
       </c>
       <c r="T384" t="n">
-        <v>1.721636307687E12</v>
+        <v>1.724052480893E12</v>
       </c>
     </row>
     <row ht="42.75" r="385" spans="1:8" x14ac:dyDescent="0.2">
@@ -17094,10 +17670,10 @@
       <c r="G385" s="6"/>
       <c r="H385" s="6"/>
       <c r="R385" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T385" t="n">
-        <v>1.721693595166E12</v>
+        <v>1.724056000101E12</v>
       </c>
     </row>
     <row ht="171" r="386" spans="1:8" x14ac:dyDescent="0.2">
@@ -17123,7 +17699,7 @@
         <v>0.0</v>
       </c>
       <c r="T386" t="n">
-        <v>1.721636351164E12</v>
+        <v>1.724052519924E12</v>
       </c>
     </row>
     <row ht="57" r="387" spans="1:8" x14ac:dyDescent="0.2">
@@ -17150,10 +17726,10 @@
         <v>1256</v>
       </c>
       <c r="R387" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T387" t="n">
-        <v>1.721636359788E12</v>
+        <v>1.72405600661E12</v>
       </c>
     </row>
     <row ht="85.5" r="388" spans="1:8" x14ac:dyDescent="0.2">
@@ -17180,10 +17756,10 @@
         <v>1261</v>
       </c>
       <c r="R388" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="T388" t="n">
-        <v>1.721693601445E12</v>
+        <v>1.724056008555E12</v>
       </c>
     </row>
     <row ht="85.5" r="389" spans="1:8" x14ac:dyDescent="0.2">
@@ -17210,10 +17786,10 @@
         <v>1266</v>
       </c>
       <c r="R389" t="n">
-        <v>0.65</v>
+        <v>3.4</v>
       </c>
       <c r="T389" t="n">
-        <v>1.721693611414E12</v>
+        <v>1.724134777318E12</v>
       </c>
     </row>
     <row ht="213.75" r="390" spans="1:8" x14ac:dyDescent="0.2">
@@ -17240,10 +17816,10 @@
         <v>1271</v>
       </c>
       <c r="R390" t="n">
-        <v>0.5499999999999996</v>
+        <v>0.19999999999999962</v>
       </c>
       <c r="T390" t="n">
-        <v>1.723711502058E12</v>
+        <v>1.724052570999E12</v>
       </c>
     </row>
     <row ht="185.25" r="391" spans="1:8" x14ac:dyDescent="0.2">
@@ -17273,7 +17849,7 @@
         <v>0.0</v>
       </c>
       <c r="T391" t="n">
-        <v>1.721636506548E12</v>
+        <v>1.724052579769E12</v>
       </c>
     </row>
     <row ht="57" r="392" spans="1:8" x14ac:dyDescent="0.2">
@@ -17300,10 +17876,10 @@
         <v>1280</v>
       </c>
       <c r="R392" t="n">
-        <v>0.5499999999999996</v>
+        <v>1.2999999999999996</v>
       </c>
       <c r="T392" t="n">
-        <v>1.723711506024E12</v>
+        <v>1.724056042979E12</v>
       </c>
     </row>
     <row ht="156.75" r="393" spans="1:8" x14ac:dyDescent="0.2">
@@ -17330,10 +17906,10 @@
         <v>1285</v>
       </c>
       <c r="R393" t="n">
-        <v>0.6999999999999985</v>
+        <v>0.34999999999999853</v>
       </c>
       <c r="T393" t="n">
-        <v>1.723623793183E12</v>
+        <v>1.724052594299E12</v>
       </c>
     </row>
     <row ht="228" r="394" spans="1:8" x14ac:dyDescent="0.2">
@@ -17360,10 +17936,10 @@
         <v>1289</v>
       </c>
       <c r="R394" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T394" t="n">
-        <v>1.721693636745E12</v>
+        <v>1.724052602832E12</v>
       </c>
     </row>
     <row ht="128.25" r="395" spans="1:8" x14ac:dyDescent="0.2">
@@ -17390,10 +17966,10 @@
         <v>1294</v>
       </c>
       <c r="R395" t="n">
-        <v>0.49999999999999933</v>
+        <v>1.2499999999999993</v>
       </c>
       <c r="T395" t="n">
-        <v>1.723711510956E12</v>
+        <v>1.724056055898E12</v>
       </c>
     </row>
     <row ht="142.5" r="396" spans="1:8" x14ac:dyDescent="0.2">
@@ -17420,10 +17996,10 @@
         <v>1298</v>
       </c>
       <c r="R396" t="n">
-        <v>0.7499999999999988</v>
+        <v>0.3999999999999988</v>
       </c>
       <c r="T396" t="n">
-        <v>1.723623795041E12</v>
+        <v>1.724052615594E12</v>
       </c>
     </row>
     <row ht="99.75" r="397" spans="1:8" x14ac:dyDescent="0.2">
@@ -17450,10 +18026,10 @@
         <v>1303</v>
       </c>
       <c r="R397" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="T397" t="n">
-        <v>1.721637214255E12</v>
+        <v>1.724056062576E12</v>
       </c>
     </row>
     <row ht="57" r="398" spans="1:8" x14ac:dyDescent="0.2">
@@ -17483,7 +18059,7 @@
         <v>0.0</v>
       </c>
       <c r="T398" t="n">
-        <v>1.721637321206E12</v>
+        <v>1.724052666018E12</v>
       </c>
     </row>
     <row ht="57" r="399" spans="1:8" x14ac:dyDescent="0.2">
@@ -17510,10 +18086,10 @@
         <v>1313</v>
       </c>
       <c r="R399" t="n">
-        <v>0.49999999999999933</v>
+        <v>0.14999999999999936</v>
       </c>
       <c r="T399" t="n">
-        <v>1.723711514188E12</v>
+        <v>1.724052670509E12</v>
       </c>
     </row>
     <row ht="85.5" r="400" spans="1:8" x14ac:dyDescent="0.2">
@@ -17540,10 +18116,10 @@
         <v>1319</v>
       </c>
       <c r="R400" t="n">
-        <v>0.5999999999999981</v>
+        <v>0.2499999999999981</v>
       </c>
       <c r="T400" t="n">
-        <v>1.723623803545E12</v>
+        <v>1.724052685471E12</v>
       </c>
     </row>
     <row ht="71.25" r="401" spans="1:8" x14ac:dyDescent="0.2">
@@ -17570,10 +18146,10 @@
         <v>1324</v>
       </c>
       <c r="R401" t="n">
-        <v>0.44999999999999907</v>
+        <v>0.09999999999999909</v>
       </c>
       <c r="T401" t="n">
-        <v>1.723711515802E12</v>
+        <v>1.724052695058E12</v>
       </c>
     </row>
     <row ht="71.25" r="402" spans="1:8" x14ac:dyDescent="0.2">
@@ -17600,10 +18176,10 @@
         <v>1329</v>
       </c>
       <c r="R402" t="n">
-        <v>0.65</v>
+        <v>1.0499999999999998</v>
       </c>
       <c r="T402" t="n">
-        <v>1.721693670906E12</v>
+        <v>1.724056069857E12</v>
       </c>
     </row>
     <row ht="57" r="403" spans="1:8" x14ac:dyDescent="0.2">
@@ -17633,7 +18209,7 @@
         <v>0.0</v>
       </c>
       <c r="T403" t="n">
-        <v>1.721637524145E12</v>
+        <v>1.724052747166E12</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/中级工应知应会题库.xlsx
+++ b/target/classes/中级工应知应会题库.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3388" uniqueCount="1400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="1408">
   <si>
     <t>试题编号</t>
   </si>
@@ -4228,6 +4228,30 @@
   </si>
   <si>
     <t>您一共做了: 9题	您的得分： 77.77777777777779	做题时长约为1.2Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 66.66666666666666	做题时长约为0.35Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.11666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 9题	您的得分： 100.0	做题时长约为1.45Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 83题	您的得分： 81.92771084337349	做题时长约为12.733333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 18题	您的得分： 100.0	做题时长约为1.4333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 82题	您的得分： 93.90243902439023	做题时长约为27.183333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 10题	您的得分： 100.0	做题时长约为2.95Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 31题	您的得分： 100.0	做题时长约为2.683333333333333Min</t>
   </si>
 </sst>
 </file>
@@ -4334,7 +4358,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1747">
+  <cellXfs count="1988">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6100,6 +6124,247 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -7005,10 +7270,10 @@
         <v>30</v>
       </c>
       <c r="R19" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T19" t="n">
-        <v>1.724052787307E12</v>
+        <v>1.724243918784E12</v>
       </c>
       <c r="AA19" t="s">
         <v>1354</v>
@@ -7038,10 +7303,10 @@
         <v>120</v>
       </c>
       <c r="R20" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T20" t="n">
-        <v>1.724052792524E12</v>
+        <v>1.724243921696E12</v>
       </c>
       <c r="AA20" t="s">
         <v>1350</v>
@@ -7236,10 +7501,10 @@
         <v>120</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T26" t="n">
-        <v>1.724052794636E12</v>
+        <v>1.724243924768E12</v>
       </c>
       <c r="AA26" t="s">
         <v>1359</v>
@@ -7368,10 +7633,10 @@
         <v>140</v>
       </c>
       <c r="R30" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T30" t="n">
-        <v>1.724052797393E12</v>
+        <v>1.72424392693E12</v>
       </c>
       <c r="AA30" t="s">
         <v>1355</v>
@@ -7665,10 +7930,10 @@
         <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="T39" t="n">
-        <v>1.724052833934E12</v>
+        <v>1.72424522179E12</v>
       </c>
       <c r="AA39" t="s">
         <v>1369</v>
@@ -7863,10 +8128,10 @@
         <v>205</v>
       </c>
       <c r="R45" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T45" t="n">
-        <v>1.724052862178E12</v>
+        <v>1.724243934836E12</v>
       </c>
       <c r="AA45" t="s">
         <v>1361</v>
@@ -7995,10 +8260,10 @@
         <v>225</v>
       </c>
       <c r="R49" t="n">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="T49" t="n">
-        <v>1.724052871716E12</v>
+        <v>1.724245226443E12</v>
       </c>
       <c r="AA49" t="s">
         <v>1361</v>
@@ -8094,10 +8359,10 @@
         <v>240</v>
       </c>
       <c r="R52" t="n">
-        <v>2.15</v>
+        <v>1.31</v>
       </c>
       <c r="T52" t="n">
-        <v>1.724134707764E12</v>
+        <v>1.72424523533E12</v>
       </c>
       <c r="AA52" t="s">
         <v>1374</v>
@@ -8160,10 +8425,10 @@
         <v>250</v>
       </c>
       <c r="R54" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T54" t="n">
-        <v>1.724052992271E12</v>
+        <v>1.724243969157E12</v>
       </c>
       <c r="AA54" t="s">
         <v>1369</v>
@@ -8391,10 +8656,10 @@
         <v>281</v>
       </c>
       <c r="R61" t="n">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="T61" t="n">
-        <v>1.724053032615E12</v>
+        <v>1.724245238635E12</v>
       </c>
       <c r="AA61" t="s">
         <v>1380</v>
@@ -8424,10 +8689,10 @@
         <v>286</v>
       </c>
       <c r="R62" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T62" t="n">
-        <v>1.724053037381E12</v>
+        <v>1.724243980399E12</v>
       </c>
       <c r="AA62" t="s">
         <v>1365</v>
@@ -8721,10 +8986,10 @@
         <v>330</v>
       </c>
       <c r="R71" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T71" t="n">
-        <v>1.724053055392E12</v>
+        <v>1.724243995361E12</v>
       </c>
       <c r="AA71" t="s">
         <v>1384</v>
@@ -9181,10 +9446,10 @@
         <v>389</v>
       </c>
       <c r="R85" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T85" t="n">
-        <v>1.724053103894E12</v>
+        <v>1.724244051724E12</v>
       </c>
       <c r="AA85" t="s">
         <v>1393</v>
@@ -9379,10 +9644,10 @@
         <v>411</v>
       </c>
       <c r="R91" t="n">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="T91" t="n">
-        <v>1.724053395888E12</v>
+        <v>1.724245243081E12</v>
       </c>
       <c r="AA91" t="s">
         <v>1399</v>
@@ -9417,6 +9682,9 @@
       <c r="T92" t="n">
         <v>1.724035679763E12</v>
       </c>
+      <c r="AA92" t="s">
+        <v>1400</v>
+      </c>
     </row>
     <row ht="85.5" r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
@@ -9447,6 +9715,9 @@
       <c r="T93" t="n">
         <v>1.724035684284E12</v>
       </c>
+      <c r="AA93" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row ht="85.5" r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
@@ -9477,6 +9748,9 @@
       <c r="T94" t="n">
         <v>1.724035687992E12</v>
       </c>
+      <c r="AA94" t="s">
+        <v>1356</v>
+      </c>
     </row>
     <row ht="85.5" r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
@@ -9502,10 +9776,13 @@
         <v>431</v>
       </c>
       <c r="R95" t="n">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="T95" t="n">
-        <v>1.72405339945E12</v>
+        <v>1.724245246251E12</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>1402</v>
       </c>
     </row>
     <row ht="142.5" r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -9537,6 +9814,9 @@
       <c r="T96" t="n">
         <v>1.724035714686E12</v>
       </c>
+      <c r="AA96" t="s">
+        <v>1403</v>
+      </c>
     </row>
     <row ht="185.25" r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
@@ -9567,6 +9847,9 @@
       <c r="T97" t="n">
         <v>1.724036153257E12</v>
       </c>
+      <c r="AA97" t="s">
+        <v>1356</v>
+      </c>
     </row>
     <row ht="128.25" r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
@@ -9597,6 +9880,9 @@
       <c r="T98" t="n">
         <v>1.724036160964E12</v>
       </c>
+      <c r="AA98" t="s">
+        <v>1404</v>
+      </c>
     </row>
     <row ht="28.5" r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
@@ -9627,6 +9913,9 @@
       <c r="T99" t="n">
         <v>1.724036163347E12</v>
       </c>
+      <c r="AA99" t="s">
+        <v>1405</v>
+      </c>
     </row>
     <row ht="99.75" r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
@@ -9657,6 +9946,9 @@
       <c r="T100" t="n">
         <v>1.724036170279E12</v>
       </c>
+      <c r="AA100" t="s">
+        <v>1406</v>
+      </c>
     </row>
     <row ht="85.5" r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
@@ -9687,6 +9979,9 @@
       <c r="T101" t="n">
         <v>1.724036174661E12</v>
       </c>
+      <c r="AA101" t="s">
+        <v>1407</v>
+      </c>
     </row>
     <row ht="114" r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
@@ -9832,10 +10127,10 @@
         <v>15</v>
       </c>
       <c r="R106" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T106" t="n">
-        <v>1.724053402737E12</v>
+        <v>1.724244058215E12</v>
       </c>
     </row>
     <row ht="85.5" r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -9922,10 +10217,10 @@
         <v>485</v>
       </c>
       <c r="R109" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T109" t="n">
-        <v>1.724053651543E12</v>
+        <v>1.724244062868E12</v>
       </c>
     </row>
     <row ht="114" r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -10162,10 +10457,10 @@
         <v>521</v>
       </c>
       <c r="R117" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T117" t="n">
-        <v>1.724053661473E12</v>
+        <v>1.724244068742E12</v>
       </c>
     </row>
     <row ht="71.25" r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -10192,10 +10487,10 @@
         <v>526</v>
       </c>
       <c r="R118" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T118" t="n">
-        <v>1.724053664011E12</v>
+        <v>1.724244070219E12</v>
       </c>
     </row>
     <row ht="71.25" r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -10312,10 +10607,10 @@
         <v>545</v>
       </c>
       <c r="R122" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T122" t="n">
-        <v>1.724053671662E12</v>
+        <v>1.724244076566E12</v>
       </c>
     </row>
     <row ht="99.75" r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -10582,10 +10877,10 @@
         <v>587</v>
       </c>
       <c r="R131" t="n">
-        <v>1.3999999999999992</v>
+        <v>1.7699999999999996</v>
       </c>
       <c r="T131" t="n">
-        <v>1.724053690843E12</v>
+        <v>1.724245252744E12</v>
       </c>
     </row>
     <row ht="142.5" r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -10672,10 +10967,10 @@
         <v>602</v>
       </c>
       <c r="R134" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T134" t="n">
-        <v>1.724053693584E12</v>
+        <v>1.724244081776E12</v>
       </c>
     </row>
     <row ht="114" r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -10762,10 +11057,10 @@
         <v>614</v>
       </c>
       <c r="R137" t="n">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="T137" t="n">
-        <v>1.724053697795E12</v>
+        <v>1.72424527709E12</v>
       </c>
     </row>
     <row ht="185.25" r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -10792,10 +11087,10 @@
         <v>614</v>
       </c>
       <c r="R138" t="n">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="T138" t="n">
-        <v>1.724053728504E12</v>
+        <v>1.724245286218E12</v>
       </c>
     </row>
     <row ht="342" r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -10852,10 +11147,10 @@
         <v>614</v>
       </c>
       <c r="R140" t="n">
-        <v>2.15</v>
+        <v>1.31</v>
       </c>
       <c r="T140" t="n">
-        <v>1.724134711643E12</v>
+        <v>1.724245289226E12</v>
       </c>
     </row>
     <row ht="228" r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -10882,10 +11177,10 @@
         <v>622</v>
       </c>
       <c r="R141" t="n">
-        <v>1.75</v>
+        <v>1.12</v>
       </c>
       <c r="T141" t="n">
-        <v>1.724057642287E12</v>
+        <v>1.724245293578E12</v>
       </c>
     </row>
     <row ht="242.25" r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -10942,10 +11237,10 @@
         <v>632</v>
       </c>
       <c r="R143" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T143" t="n">
-        <v>1.724054280053E12</v>
+        <v>1.724244153946E12</v>
       </c>
     </row>
     <row ht="28.5" r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -11002,10 +11297,10 @@
         <v>637</v>
       </c>
       <c r="R145" t="n">
-        <v>2.0499999999999994</v>
+        <v>1.2099999999999995</v>
       </c>
       <c r="T145" t="n">
-        <v>1.724134719202E12</v>
+        <v>1.724245315961E12</v>
       </c>
     </row>
     <row ht="28.5" r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -11092,10 +11387,10 @@
         <v>645</v>
       </c>
       <c r="R148" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T148" t="n">
-        <v>1.724054412688E12</v>
+        <v>1.724244176304E12</v>
       </c>
     </row>
     <row ht="114" r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -11494,10 +11789,10 @@
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
       <c r="R163" t="n">
-        <v>1.3499999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="T163" t="n">
-        <v>1.724054444257E12</v>
+        <v>1.724244427198E12</v>
       </c>
     </row>
     <row ht="185.25" r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -11520,10 +11815,10 @@
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
       <c r="R164" t="n">
-        <v>2.15</v>
+        <v>1.31</v>
       </c>
       <c r="T164" t="n">
-        <v>1.724134721492E12</v>
+        <v>1.7242453175E12</v>
       </c>
     </row>
     <row ht="99.75" r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -11676,10 +11971,10 @@
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
       <c r="R170" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T170" t="n">
-        <v>1.724055076664E12</v>
+        <v>1.724244432696E12</v>
       </c>
     </row>
     <row ht="156.75" r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -11702,10 +11997,10 @@
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
       <c r="R171" t="n">
-        <v>1.3499999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="T171" t="n">
-        <v>1.724055078984E12</v>
+        <v>1.724244434267E12</v>
       </c>
     </row>
     <row ht="85.5" r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -11962,10 +12257,10 @@
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
       <c r="R181" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T181" t="n">
-        <v>1.724055081515E12</v>
+        <v>1.724244436214E12</v>
       </c>
     </row>
     <row ht="156.75" r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -12170,10 +12465,10 @@
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
       <c r="R189" t="n">
-        <v>1.75</v>
+        <v>1.9100000000000001</v>
       </c>
       <c r="T189" t="n">
-        <v>1.724057652246E12</v>
+        <v>1.724245319845E12</v>
       </c>
     </row>
     <row ht="242.25" r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -12300,10 +12595,10 @@
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
       <c r="R194" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T194" t="n">
-        <v>1.724055096569E12</v>
+        <v>1.724244441144E12</v>
       </c>
     </row>
     <row ht="156.75" r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -12378,10 +12673,10 @@
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="R197" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T197" t="n">
-        <v>1.724055128485E12</v>
+        <v>1.724244442554E12</v>
       </c>
     </row>
     <row ht="213.75" r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -12404,10 +12699,10 @@
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
       <c r="R198" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T198" t="n">
-        <v>1.72405533116E12</v>
+        <v>1.72424444409E12</v>
       </c>
     </row>
     <row ht="114" r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -12586,10 +12881,10 @@
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
       <c r="R205" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T205" t="n">
-        <v>1.724055340476E12</v>
+        <v>1.724244445577E12</v>
       </c>
     </row>
     <row ht="99.75" r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -13054,10 +13349,10 @@
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
       <c r="R223" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T223" t="n">
-        <v>1.724055343579E12</v>
+        <v>1.724244448053E12</v>
       </c>
     </row>
     <row ht="71.25" r="224" spans="1:8" x14ac:dyDescent="0.2">
@@ -13158,10 +13453,10 @@
       <c r="G227" s="5"/>
       <c r="H227" s="5"/>
       <c r="R227" t="n">
-        <v>1.75</v>
+        <v>1.12</v>
       </c>
       <c r="T227" t="n">
-        <v>1.724057654534E12</v>
+        <v>1.724245321399E12</v>
       </c>
     </row>
     <row ht="185.25" r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -13288,10 +13583,10 @@
       <c r="G232" s="5"/>
       <c r="H232" s="5"/>
       <c r="R232" t="n">
-        <v>3.4</v>
+        <v>1.7200000000000002</v>
       </c>
       <c r="T232" t="n">
-        <v>1.724134725343E12</v>
+        <v>1.724245323772E12</v>
       </c>
     </row>
     <row ht="57" r="233" spans="1:8" x14ac:dyDescent="0.2">
@@ -13812,10 +14107,10 @@
         <v>769</v>
       </c>
       <c r="R252" t="n">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="T252" t="n">
-        <v>1.724055388248E12</v>
+        <v>1.724245327573E12</v>
       </c>
     </row>
     <row ht="99.75" r="253" spans="1:8" x14ac:dyDescent="0.2">
@@ -13842,10 +14137,10 @@
         <v>775</v>
       </c>
       <c r="R253" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T253" t="n">
-        <v>1.724055392739E12</v>
+        <v>1.724244583361E12</v>
       </c>
     </row>
     <row ht="85.5" r="254" spans="1:8" x14ac:dyDescent="0.2">
@@ -13932,10 +14227,10 @@
         <v>792</v>
       </c>
       <c r="R256" t="n">
-        <v>3.4</v>
+        <v>2.5100000000000007</v>
       </c>
       <c r="T256" t="n">
-        <v>1.724134755608E12</v>
+        <v>1.724245329916E12</v>
       </c>
     </row>
     <row ht="71.25" r="257" spans="1:8" x14ac:dyDescent="0.2">
@@ -14112,10 +14407,10 @@
         <v>825</v>
       </c>
       <c r="R262" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T262" t="n">
-        <v>1.724055429801E12</v>
+        <v>1.724244589531E12</v>
       </c>
     </row>
     <row ht="85.5" r="263" spans="1:8" x14ac:dyDescent="0.2">
@@ -14382,10 +14677,10 @@
         <v>870</v>
       </c>
       <c r="R271" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T271" t="n">
-        <v>1.72405545417E12</v>
+        <v>1.724244598148E12</v>
       </c>
     </row>
     <row ht="85.5" r="272" spans="1:8" x14ac:dyDescent="0.2">
@@ -14562,10 +14857,10 @@
         <v>896</v>
       </c>
       <c r="R277" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T277" t="n">
-        <v>1.724055461423E12</v>
+        <v>1.724244601913E12</v>
       </c>
     </row>
     <row ht="85.5" r="278" spans="1:8" x14ac:dyDescent="0.2">
@@ -14652,10 +14947,10 @@
         <v>911</v>
       </c>
       <c r="R280" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T280" t="n">
-        <v>1.724055463328E12</v>
+        <v>1.724244603581E12</v>
       </c>
     </row>
     <row ht="156.75" r="281" spans="1:8" x14ac:dyDescent="0.2">
@@ -14772,10 +15067,10 @@
         <v>930</v>
       </c>
       <c r="R284" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T284" t="n">
-        <v>1.724055465302E12</v>
+        <v>1.724244605786E12</v>
       </c>
     </row>
     <row ht="71.25" r="285" spans="1:8" x14ac:dyDescent="0.2">
@@ -14982,10 +15277,10 @@
         <v>961</v>
       </c>
       <c r="R291" t="n">
-        <v>1.3499999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="T291" t="n">
-        <v>1.724055476744E12</v>
+        <v>1.724244616464E12</v>
       </c>
     </row>
     <row ht="185.25" r="292" spans="1:8" x14ac:dyDescent="0.2">
@@ -15042,10 +15337,10 @@
         <v>971</v>
       </c>
       <c r="R293" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T293" t="n">
-        <v>1.724055479897E12</v>
+        <v>1.724244619162E12</v>
       </c>
     </row>
     <row ht="114" r="294" spans="1:8" x14ac:dyDescent="0.2">
@@ -15162,10 +15457,10 @@
         <v>991</v>
       </c>
       <c r="R297" t="n">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="T297" t="n">
-        <v>1.724055484541E12</v>
+        <v>1.724245345574E12</v>
       </c>
     </row>
     <row ht="85.5" r="298" spans="1:8" x14ac:dyDescent="0.2">
@@ -15342,10 +15637,10 @@
         <v>1021</v>
       </c>
       <c r="R303" t="n">
-        <v>2.15</v>
+        <v>2.31</v>
       </c>
       <c r="T303" t="n">
-        <v>1.724134766322E12</v>
+        <v>1.724245350003E12</v>
       </c>
     </row>
     <row ht="409.5" r="304" spans="1:8" x14ac:dyDescent="0.2">
@@ -15372,10 +15667,10 @@
         <v>99.980999999999995</v>
       </c>
       <c r="R304" t="n">
-        <v>1.75</v>
+        <v>1.12</v>
       </c>
       <c r="T304" t="n">
-        <v>1.724057674635E12</v>
+        <v>1.724245352009E12</v>
       </c>
     </row>
     <row ht="409.5" r="305" spans="1:8" x14ac:dyDescent="0.2">
@@ -15462,10 +15757,10 @@
         <v>16</v>
       </c>
       <c r="R307" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T307" t="n">
-        <v>1.72405555947E12</v>
+        <v>1.724244746516E12</v>
       </c>
     </row>
     <row ht="85.5" r="308" spans="1:8" x14ac:dyDescent="0.2">
@@ -15522,10 +15817,10 @@
         <v>1031</v>
       </c>
       <c r="R309" t="n">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="T309" t="n">
-        <v>1.724055585243E12</v>
+        <v>1.724245355039E12</v>
       </c>
     </row>
     <row ht="85.5" r="310" spans="1:8" x14ac:dyDescent="0.2">
@@ -15852,10 +16147,10 @@
         <v>1072</v>
       </c>
       <c r="R320" t="n">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="T320" t="n">
-        <v>1.724055599853E12</v>
+        <v>1.724245357665E12</v>
       </c>
     </row>
     <row ht="114" r="321" spans="1:8" x14ac:dyDescent="0.2">
@@ -16032,10 +16327,10 @@
         <v>1103</v>
       </c>
       <c r="R326" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T326" t="n">
-        <v>1.724055685604E12</v>
+        <v>1.724244766219E12</v>
       </c>
     </row>
     <row ht="185.25" r="327" spans="1:8" x14ac:dyDescent="0.2">
@@ -16062,10 +16357,10 @@
         <v>1103</v>
       </c>
       <c r="R327" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T327" t="n">
-        <v>1.724055689672E12</v>
+        <v>1.724244769782E12</v>
       </c>
     </row>
     <row ht="185.25" r="328" spans="1:8" x14ac:dyDescent="0.2">
@@ -16092,10 +16387,10 @@
         <v>1103</v>
       </c>
       <c r="R328" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T328" t="n">
-        <v>1.724055693156E12</v>
+        <v>1.724244772717E12</v>
       </c>
     </row>
     <row ht="57" r="329" spans="1:8" x14ac:dyDescent="0.2">
@@ -16122,10 +16417,10 @@
         <v>1110</v>
       </c>
       <c r="R329" t="n">
-        <v>2.0999999999999996</v>
+        <v>1.2599999999999998</v>
       </c>
       <c r="T329" t="n">
-        <v>1.724134769161E12</v>
+        <v>1.724245361246E12</v>
       </c>
     </row>
     <row ht="356.25" r="330" spans="1:8" x14ac:dyDescent="0.2">
@@ -16152,10 +16447,10 @@
         <v>1115</v>
       </c>
       <c r="R330" t="n">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="T330" t="n">
-        <v>1.724055727141E12</v>
+        <v>1.724245362745E12</v>
       </c>
     </row>
     <row ht="213.75" r="331" spans="1:8" x14ac:dyDescent="0.2">
@@ -16182,10 +16477,10 @@
         <v>1119</v>
       </c>
       <c r="R331" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T331" t="n">
-        <v>1.724055736605E12</v>
+        <v>1.7242447908E12</v>
       </c>
     </row>
     <row ht="142.5" r="332" spans="1:8" x14ac:dyDescent="0.2">
@@ -16302,10 +16597,10 @@
         <v>1139</v>
       </c>
       <c r="R335" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T335" t="n">
-        <v>1.724055749698E12</v>
+        <v>1.724244796036E12</v>
       </c>
     </row>
     <row ht="99.75" r="336" spans="1:8" x14ac:dyDescent="0.2">
@@ -16332,10 +16627,10 @@
         <v>1144</v>
       </c>
       <c r="R336" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T336" t="n">
-        <v>1.724055753992E12</v>
+        <v>1.724244800556E12</v>
       </c>
     </row>
     <row ht="156.75" r="337" spans="1:8" x14ac:dyDescent="0.2">
@@ -16362,10 +16657,10 @@
         <v>1149</v>
       </c>
       <c r="R337" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T337" t="n">
-        <v>1.724055757357E12</v>
+        <v>1.724244804105E12</v>
       </c>
     </row>
     <row ht="57" r="338" spans="1:8" x14ac:dyDescent="0.2">
@@ -16482,10 +16777,10 @@
         <v>1169</v>
       </c>
       <c r="R341" t="n">
-        <v>1.2499999999999993</v>
+        <v>1.6199999999999992</v>
       </c>
       <c r="T341" t="n">
-        <v>1.724055762771E12</v>
+        <v>1.724245368488E12</v>
       </c>
     </row>
     <row ht="57" r="342" spans="1:8" x14ac:dyDescent="0.2">
@@ -16542,10 +16837,10 @@
         <v>1179</v>
       </c>
       <c r="R343" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T343" t="n">
-        <v>1.724055766644E12</v>
+        <v>1.724244850135E12</v>
       </c>
     </row>
     <row ht="270.75" r="344" spans="1:8" x14ac:dyDescent="0.2">
@@ -16632,10 +16927,10 @@
         <v>1194</v>
       </c>
       <c r="R346" t="n">
-        <v>1.2999999999999996</v>
+        <v>0.8799999999999997</v>
       </c>
       <c r="T346" t="n">
-        <v>1.724055954855E12</v>
+        <v>1.724244864127E12</v>
       </c>
     </row>
     <row ht="71.25" r="347" spans="1:8" x14ac:dyDescent="0.2">
@@ -16838,10 +17133,10 @@
       <c r="G353" s="6"/>
       <c r="H353" s="6"/>
       <c r="R353" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T353" t="n">
-        <v>1.724055959896E12</v>
+        <v>1.724244912281E12</v>
       </c>
     </row>
     <row ht="85.5" r="354" spans="1:8" x14ac:dyDescent="0.2">
@@ -16916,10 +17211,10 @@
       <c r="G356" s="6"/>
       <c r="H356" s="6"/>
       <c r="R356" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T356" t="n">
-        <v>1.724055962304E12</v>
+        <v>1.724244913882E12</v>
       </c>
     </row>
     <row ht="142.5" r="357" spans="1:8" x14ac:dyDescent="0.2">
@@ -17202,10 +17497,10 @@
       <c r="G367" s="6"/>
       <c r="H367" s="6"/>
       <c r="R367" t="n">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="T367" t="n">
-        <v>1.724055979161E12</v>
+        <v>1.724245371311E12</v>
       </c>
     </row>
     <row ht="128.25" r="368" spans="1:8" x14ac:dyDescent="0.2">
@@ -17280,10 +17575,10 @@
       <c r="G370" s="6"/>
       <c r="H370" s="6"/>
       <c r="R370" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T370" t="n">
-        <v>1.724055982695E12</v>
+        <v>1.724245010159E12</v>
       </c>
     </row>
     <row ht="142.5" r="371" spans="1:8" x14ac:dyDescent="0.2">
@@ -17332,10 +17627,10 @@
       <c r="G372" s="6"/>
       <c r="H372" s="6"/>
       <c r="R372" t="n">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="T372" t="n">
-        <v>1.724055984754E12</v>
+        <v>1.724245374406E12</v>
       </c>
     </row>
     <row ht="99.75" r="373" spans="1:8" x14ac:dyDescent="0.2">
@@ -17358,10 +17653,10 @@
       <c r="G373" s="6"/>
       <c r="H373" s="6"/>
       <c r="R373" t="n">
-        <v>1.75</v>
+        <v>1.9100000000000001</v>
       </c>
       <c r="T373" t="n">
-        <v>1.724057681144E12</v>
+        <v>1.724245375908E12</v>
       </c>
     </row>
     <row ht="185.25" r="374" spans="1:8" x14ac:dyDescent="0.2">
@@ -17462,10 +17757,10 @@
       <c r="G377" s="6"/>
       <c r="H377" s="6"/>
       <c r="R377" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T377" t="n">
-        <v>1.724055994546E12</v>
+        <v>1.72424501908E12</v>
       </c>
     </row>
     <row ht="171" r="378" spans="1:8" x14ac:dyDescent="0.2">
@@ -17670,10 +17965,10 @@
       <c r="G385" s="6"/>
       <c r="H385" s="6"/>
       <c r="R385" t="n">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="T385" t="n">
-        <v>1.724056000101E12</v>
+        <v>1.724245376944E12</v>
       </c>
     </row>
     <row ht="171" r="386" spans="1:8" x14ac:dyDescent="0.2">
@@ -17756,10 +18051,10 @@
         <v>1261</v>
       </c>
       <c r="R388" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T388" t="n">
-        <v>1.724056008555E12</v>
+        <v>1.724245022909E12</v>
       </c>
     </row>
     <row ht="85.5" r="389" spans="1:8" x14ac:dyDescent="0.2">
@@ -17786,10 +18081,10 @@
         <v>1266</v>
       </c>
       <c r="R389" t="n">
-        <v>3.4</v>
+        <v>1.7200000000000002</v>
       </c>
       <c r="T389" t="n">
-        <v>1.724134777318E12</v>
+        <v>1.724245378814E12</v>
       </c>
     </row>
     <row ht="213.75" r="390" spans="1:8" x14ac:dyDescent="0.2">
@@ -17876,10 +18171,10 @@
         <v>1280</v>
       </c>
       <c r="R392" t="n">
-        <v>1.2999999999999996</v>
+        <v>0.8799999999999997</v>
       </c>
       <c r="T392" t="n">
-        <v>1.724056042979E12</v>
+        <v>1.724245027687E12</v>
       </c>
     </row>
     <row ht="156.75" r="393" spans="1:8" x14ac:dyDescent="0.2">
@@ -17966,10 +18261,10 @@
         <v>1294</v>
       </c>
       <c r="R395" t="n">
-        <v>1.2499999999999993</v>
+        <v>0.8299999999999994</v>
       </c>
       <c r="T395" t="n">
-        <v>1.724056055898E12</v>
+        <v>1.724245030604E12</v>
       </c>
     </row>
     <row ht="142.5" r="396" spans="1:8" x14ac:dyDescent="0.2">
@@ -18176,10 +18471,10 @@
         <v>1329</v>
       </c>
       <c r="R402" t="n">
-        <v>1.0499999999999998</v>
+        <v>0.8399999999999999</v>
       </c>
       <c r="T402" t="n">
-        <v>1.724056069857E12</v>
+        <v>1.724231099684E12</v>
       </c>
     </row>
     <row ht="57" r="403" spans="1:8" x14ac:dyDescent="0.2">

--- a/target/classes/中级工应知应会题库.xlsx
+++ b/target/classes/中级工应知应会题库.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="1408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="1414">
   <si>
     <t>试题编号</t>
   </si>
@@ -4252,6 +4252,24 @@
   </si>
   <si>
     <t>您一共做了: 31题	您的得分： 100.0	做题时长约为2.683333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 50.0	做题时长约为0.13333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 31题	您的得分： 96.7741935483871	做题时长约为2.0Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 83题	您的得分： 100.0	做题时长约为25.466666666666665Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 0.0	做题时长约为0.05Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 23题	您的得分： 95.65217391304348	做题时长约为1.4333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.16666666666666666Min</t>
   </si>
 </sst>
 </file>
@@ -4358,7 +4376,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1988">
+  <cellXfs count="2138">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6334,6 +6352,156 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7270,10 +7438,10 @@
         <v>30</v>
       </c>
       <c r="R19" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T19" t="n">
-        <v>1.724243918784E12</v>
+        <v>1.724288182394E12</v>
       </c>
       <c r="AA19" t="s">
         <v>1354</v>
@@ -7303,10 +7471,10 @@
         <v>120</v>
       </c>
       <c r="R20" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T20" t="n">
-        <v>1.724243921696E12</v>
+        <v>1.724288185735E12</v>
       </c>
       <c r="AA20" t="s">
         <v>1350</v>
@@ -7501,10 +7669,10 @@
         <v>120</v>
       </c>
       <c r="R26" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T26" t="n">
-        <v>1.724243924768E12</v>
+        <v>1.724288191242E12</v>
       </c>
       <c r="AA26" t="s">
         <v>1359</v>
@@ -7633,10 +7801,10 @@
         <v>140</v>
       </c>
       <c r="R30" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T30" t="n">
-        <v>1.72424392693E12</v>
+        <v>1.72428819278E12</v>
       </c>
       <c r="AA30" t="s">
         <v>1355</v>
@@ -7930,10 +8098,10 @@
         <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>1.77</v>
+        <v>0.6500000000000001</v>
       </c>
       <c r="T39" t="n">
-        <v>1.72424522179E12</v>
+        <v>1.724295179102E12</v>
       </c>
       <c r="AA39" t="s">
         <v>1369</v>
@@ -8128,10 +8296,10 @@
         <v>205</v>
       </c>
       <c r="R45" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T45" t="n">
-        <v>1.724243934836E12</v>
+        <v>1.724288201051E12</v>
       </c>
       <c r="AA45" t="s">
         <v>1361</v>
@@ -8260,10 +8428,10 @@
         <v>225</v>
       </c>
       <c r="R49" t="n">
-        <v>1.77</v>
+        <v>0.6500000000000001</v>
       </c>
       <c r="T49" t="n">
-        <v>1.724245226443E12</v>
+        <v>1.724295182361E12</v>
       </c>
       <c r="AA49" t="s">
         <v>1361</v>
@@ -8359,10 +8527,10 @@
         <v>240</v>
       </c>
       <c r="R52" t="n">
-        <v>1.31</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T52" t="n">
-        <v>1.72424523533E12</v>
+        <v>1.724288206725E12</v>
       </c>
       <c r="AA52" t="s">
         <v>1374</v>
@@ -8425,10 +8593,10 @@
         <v>250</v>
       </c>
       <c r="R54" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T54" t="n">
-        <v>1.724243969157E12</v>
+        <v>1.724288211132E12</v>
       </c>
       <c r="AA54" t="s">
         <v>1369</v>
@@ -8656,10 +8824,10 @@
         <v>281</v>
       </c>
       <c r="R61" t="n">
-        <v>1.77</v>
+        <v>0.6500000000000001</v>
       </c>
       <c r="T61" t="n">
-        <v>1.724245238635E12</v>
+        <v>1.724295184561E12</v>
       </c>
       <c r="AA61" t="s">
         <v>1380</v>
@@ -8689,10 +8857,10 @@
         <v>286</v>
       </c>
       <c r="R62" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T62" t="n">
-        <v>1.724243980399E12</v>
+        <v>1.724288217549E12</v>
       </c>
       <c r="AA62" t="s">
         <v>1365</v>
@@ -8986,10 +9154,10 @@
         <v>330</v>
       </c>
       <c r="R71" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T71" t="n">
-        <v>1.724243995361E12</v>
+        <v>1.724288221687E12</v>
       </c>
       <c r="AA71" t="s">
         <v>1384</v>
@@ -9446,10 +9614,10 @@
         <v>389</v>
       </c>
       <c r="R85" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T85" t="n">
-        <v>1.724244051724E12</v>
+        <v>1.724288227642E12</v>
       </c>
       <c r="AA85" t="s">
         <v>1393</v>
@@ -9644,10 +9812,10 @@
         <v>411</v>
       </c>
       <c r="R91" t="n">
-        <v>1.77</v>
+        <v>0.6500000000000001</v>
       </c>
       <c r="T91" t="n">
-        <v>1.724245243081E12</v>
+        <v>1.72429518652E12</v>
       </c>
       <c r="AA91" t="s">
         <v>1399</v>
@@ -9776,10 +9944,10 @@
         <v>431</v>
       </c>
       <c r="R95" t="n">
-        <v>1.77</v>
+        <v>0.6500000000000001</v>
       </c>
       <c r="T95" t="n">
-        <v>1.724245246251E12</v>
+        <v>1.724295188934E12</v>
       </c>
       <c r="AA95" t="s">
         <v>1402</v>
@@ -10012,6 +10180,9 @@
       <c r="T102" t="n">
         <v>1.724036386893E12</v>
       </c>
+      <c r="AA102" t="s">
+        <v>1408</v>
+      </c>
     </row>
     <row ht="185.25" r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
@@ -10042,6 +10213,9 @@
       <c r="T103" t="n">
         <v>1.724036394738E12</v>
       </c>
+      <c r="AA103" t="s">
+        <v>1355</v>
+      </c>
     </row>
     <row ht="71.25" r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
@@ -10072,6 +10246,9 @@
       <c r="T104" t="n">
         <v>1.724036398212E12</v>
       </c>
+      <c r="AA104" t="s">
+        <v>1355</v>
+      </c>
     </row>
     <row ht="71.25" r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
@@ -10102,6 +10279,9 @@
       <c r="T105" t="n">
         <v>1.724036488732E12</v>
       </c>
+      <c r="AA105" t="s">
+        <v>1409</v>
+      </c>
     </row>
     <row ht="185.25" r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
@@ -10127,10 +10307,13 @@
         <v>15</v>
       </c>
       <c r="R106" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T106" t="n">
-        <v>1.724244058215E12</v>
+        <v>1.72428823696E12</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>1410</v>
       </c>
     </row>
     <row ht="85.5" r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -10162,6 +10345,9 @@
       <c r="T107" t="n">
         <v>1.72403651039E12</v>
       </c>
+      <c r="AA107" t="s">
+        <v>1411</v>
+      </c>
     </row>
     <row ht="171" r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
@@ -10192,6 +10378,9 @@
       <c r="T108" t="n">
         <v>1.724036559969E12</v>
       </c>
+      <c r="AA108" t="s">
+        <v>1355</v>
+      </c>
     </row>
     <row ht="142.5" r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
@@ -10217,10 +10406,13 @@
         <v>485</v>
       </c>
       <c r="R109" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T109" t="n">
-        <v>1.724244062868E12</v>
+        <v>1.724288243058E12</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row ht="114" r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -10252,6 +10444,9 @@
       <c r="T110" t="n">
         <v>1.724036593442E12</v>
       </c>
+      <c r="AA110" t="s">
+        <v>1355</v>
+      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
@@ -10282,6 +10477,9 @@
       <c r="T111" t="n">
         <v>1.724036800559E12</v>
       </c>
+      <c r="AA111" t="s">
+        <v>1356</v>
+      </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
@@ -10312,6 +10510,9 @@
       <c r="T112" t="n">
         <v>1.724036803623E12</v>
       </c>
+      <c r="AA112" t="s">
+        <v>1412</v>
+      </c>
     </row>
     <row ht="99.75" r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
@@ -10342,6 +10543,9 @@
       <c r="T113" t="n">
         <v>1.724036811692E12</v>
       </c>
+      <c r="AA113" t="s">
+        <v>1355</v>
+      </c>
     </row>
     <row ht="213.75" r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
@@ -10372,6 +10576,9 @@
       <c r="T114" t="n">
         <v>1.724036867744E12</v>
       </c>
+      <c r="AA114" t="s">
+        <v>1355</v>
+      </c>
     </row>
     <row ht="99.75" r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
@@ -10402,6 +10609,9 @@
       <c r="T115" t="n">
         <v>1.724053658176E12</v>
       </c>
+      <c r="AA115" t="s">
+        <v>1413</v>
+      </c>
     </row>
     <row ht="114" r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
@@ -10457,10 +10667,10 @@
         <v>521</v>
       </c>
       <c r="R117" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T117" t="n">
-        <v>1.724244068742E12</v>
+        <v>1.724288247725E12</v>
       </c>
     </row>
     <row ht="71.25" r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -10487,10 +10697,10 @@
         <v>526</v>
       </c>
       <c r="R118" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T118" t="n">
-        <v>1.724244070219E12</v>
+        <v>1.724288261904E12</v>
       </c>
     </row>
     <row ht="71.25" r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -10607,10 +10817,10 @@
         <v>545</v>
       </c>
       <c r="R122" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T122" t="n">
-        <v>1.724244076566E12</v>
+        <v>1.724288271541E12</v>
       </c>
     </row>
     <row ht="99.75" r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -10877,10 +11087,10 @@
         <v>587</v>
       </c>
       <c r="R131" t="n">
-        <v>1.7699999999999996</v>
+        <v>0.6499999999999997</v>
       </c>
       <c r="T131" t="n">
-        <v>1.724245252744E12</v>
+        <v>1.724295191978E12</v>
       </c>
     </row>
     <row ht="142.5" r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -10967,10 +11177,10 @@
         <v>602</v>
       </c>
       <c r="R134" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T134" t="n">
-        <v>1.724244081776E12</v>
+        <v>1.724288276369E12</v>
       </c>
     </row>
     <row ht="114" r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -11057,10 +11267,10 @@
         <v>614</v>
       </c>
       <c r="R137" t="n">
-        <v>1.77</v>
+        <v>0.6500000000000001</v>
       </c>
       <c r="T137" t="n">
-        <v>1.72424527709E12</v>
+        <v>1.724295195475E12</v>
       </c>
     </row>
     <row ht="185.25" r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -11087,10 +11297,10 @@
         <v>614</v>
       </c>
       <c r="R138" t="n">
-        <v>1.77</v>
+        <v>0.6500000000000001</v>
       </c>
       <c r="T138" t="n">
-        <v>1.724245286218E12</v>
+        <v>1.724295199795E12</v>
       </c>
     </row>
     <row ht="342" r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -11147,10 +11357,10 @@
         <v>614</v>
       </c>
       <c r="R140" t="n">
-        <v>1.31</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T140" t="n">
-        <v>1.724245289226E12</v>
+        <v>1.724288284655E12</v>
       </c>
     </row>
     <row ht="228" r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -11177,10 +11387,10 @@
         <v>622</v>
       </c>
       <c r="R141" t="n">
-        <v>1.12</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="T141" t="n">
-        <v>1.724245293578E12</v>
+        <v>1.724288287085E12</v>
       </c>
     </row>
     <row ht="242.25" r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -11237,10 +11447,10 @@
         <v>632</v>
       </c>
       <c r="R143" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T143" t="n">
-        <v>1.724244153946E12</v>
+        <v>1.724288288945E12</v>
       </c>
     </row>
     <row ht="28.5" r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -11297,10 +11507,10 @@
         <v>637</v>
       </c>
       <c r="R145" t="n">
-        <v>1.2099999999999995</v>
+        <v>0.7899999999999996</v>
       </c>
       <c r="T145" t="n">
-        <v>1.724245315961E12</v>
+        <v>1.724288292902E12</v>
       </c>
     </row>
     <row ht="28.5" r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -11387,10 +11597,10 @@
         <v>645</v>
       </c>
       <c r="R148" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T148" t="n">
-        <v>1.724244176304E12</v>
+        <v>1.724288296738E12</v>
       </c>
     </row>
     <row ht="114" r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -11789,10 +11999,10 @@
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
       <c r="R163" t="n">
-        <v>0.9299999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="T163" t="n">
-        <v>1.724244427198E12</v>
+        <v>1.724288299756E12</v>
       </c>
     </row>
     <row ht="185.25" r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -11815,10 +12025,10 @@
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
       <c r="R164" t="n">
-        <v>1.31</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T164" t="n">
-        <v>1.7242453175E12</v>
+        <v>1.724288300972E12</v>
       </c>
     </row>
     <row ht="99.75" r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -11971,10 +12181,10 @@
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
       <c r="R170" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T170" t="n">
-        <v>1.724244432696E12</v>
+        <v>1.724288304204E12</v>
       </c>
     </row>
     <row ht="156.75" r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -11997,10 +12207,10 @@
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
       <c r="R171" t="n">
-        <v>0.9299999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="T171" t="n">
-        <v>1.724244434267E12</v>
+        <v>1.724288306004E12</v>
       </c>
     </row>
     <row ht="85.5" r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -12257,10 +12467,10 @@
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
       <c r="R181" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T181" t="n">
-        <v>1.724244436214E12</v>
+        <v>1.724288308321E12</v>
       </c>
     </row>
     <row ht="156.75" r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -12465,10 +12675,10 @@
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
       <c r="R189" t="n">
-        <v>1.9100000000000001</v>
+        <v>0.7900000000000003</v>
       </c>
       <c r="T189" t="n">
-        <v>1.724245319845E12</v>
+        <v>1.724295202928E12</v>
       </c>
     </row>
     <row ht="242.25" r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -12595,10 +12805,10 @@
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
       <c r="R194" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T194" t="n">
-        <v>1.724244441144E12</v>
+        <v>1.724288321978E12</v>
       </c>
     </row>
     <row ht="156.75" r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -12673,10 +12883,10 @@
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="R197" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T197" t="n">
-        <v>1.724244442554E12</v>
+        <v>1.724288323911E12</v>
       </c>
     </row>
     <row ht="213.75" r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -12699,10 +12909,10 @@
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
       <c r="R198" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T198" t="n">
-        <v>1.72424444409E12</v>
+        <v>1.724289324164E12</v>
       </c>
     </row>
     <row ht="114" r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -12881,10 +13091,10 @@
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
       <c r="R205" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T205" t="n">
-        <v>1.724244445577E12</v>
+        <v>1.724289325703E12</v>
       </c>
     </row>
     <row ht="99.75" r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -13349,10 +13559,10 @@
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
       <c r="R223" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T223" t="n">
-        <v>1.724244448053E12</v>
+        <v>1.724289327691E12</v>
       </c>
     </row>
     <row ht="71.25" r="224" spans="1:8" x14ac:dyDescent="0.2">
@@ -13453,10 +13663,10 @@
       <c r="G227" s="5"/>
       <c r="H227" s="5"/>
       <c r="R227" t="n">
-        <v>1.12</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="T227" t="n">
-        <v>1.724245321399E12</v>
+        <v>1.724289329061E12</v>
       </c>
     </row>
     <row ht="185.25" r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -13583,10 +13793,10 @@
       <c r="G232" s="5"/>
       <c r="H232" s="5"/>
       <c r="R232" t="n">
-        <v>1.7200000000000002</v>
+        <v>0.6000000000000003</v>
       </c>
       <c r="T232" t="n">
-        <v>1.724245323772E12</v>
+        <v>1.724295207342E12</v>
       </c>
     </row>
     <row ht="57" r="233" spans="1:8" x14ac:dyDescent="0.2">
@@ -14107,10 +14317,10 @@
         <v>769</v>
       </c>
       <c r="R252" t="n">
-        <v>1.77</v>
+        <v>0.6500000000000001</v>
       </c>
       <c r="T252" t="n">
-        <v>1.724245327573E12</v>
+        <v>1.724295211751E12</v>
       </c>
     </row>
     <row ht="99.75" r="253" spans="1:8" x14ac:dyDescent="0.2">
@@ -14137,10 +14347,10 @@
         <v>775</v>
       </c>
       <c r="R253" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T253" t="n">
-        <v>1.724244583361E12</v>
+        <v>1.724289338044E12</v>
       </c>
     </row>
     <row ht="85.5" r="254" spans="1:8" x14ac:dyDescent="0.2">
@@ -14227,10 +14437,10 @@
         <v>792</v>
       </c>
       <c r="R256" t="n">
-        <v>2.5100000000000007</v>
+        <v>0.48000000000000087</v>
       </c>
       <c r="T256" t="n">
-        <v>1.724245329916E12</v>
+        <v>1.724295279943E12</v>
       </c>
     </row>
     <row ht="71.25" r="257" spans="1:8" x14ac:dyDescent="0.2">
@@ -14407,10 +14617,10 @@
         <v>825</v>
       </c>
       <c r="R262" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T262" t="n">
-        <v>1.724244589531E12</v>
+        <v>1.724289356917E12</v>
       </c>
     </row>
     <row ht="85.5" r="263" spans="1:8" x14ac:dyDescent="0.2">
@@ -14677,10 +14887,10 @@
         <v>870</v>
       </c>
       <c r="R271" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T271" t="n">
-        <v>1.724244598148E12</v>
+        <v>1.724289359477E12</v>
       </c>
     </row>
     <row ht="85.5" r="272" spans="1:8" x14ac:dyDescent="0.2">
@@ -14857,10 +15067,10 @@
         <v>896</v>
       </c>
       <c r="R277" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T277" t="n">
-        <v>1.724244601913E12</v>
+        <v>1.724289361815E12</v>
       </c>
     </row>
     <row ht="85.5" r="278" spans="1:8" x14ac:dyDescent="0.2">
@@ -14947,10 +15157,10 @@
         <v>911</v>
       </c>
       <c r="R280" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T280" t="n">
-        <v>1.724244603581E12</v>
+        <v>1.724289365887E12</v>
       </c>
     </row>
     <row ht="156.75" r="281" spans="1:8" x14ac:dyDescent="0.2">
@@ -15067,10 +15277,10 @@
         <v>930</v>
       </c>
       <c r="R284" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T284" t="n">
-        <v>1.724244605786E12</v>
+        <v>1.724289368379E12</v>
       </c>
     </row>
     <row ht="71.25" r="285" spans="1:8" x14ac:dyDescent="0.2">
@@ -15277,10 +15487,10 @@
         <v>961</v>
       </c>
       <c r="R291" t="n">
-        <v>0.9299999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="T291" t="n">
-        <v>1.724244616464E12</v>
+        <v>1.724289549888E12</v>
       </c>
     </row>
     <row ht="185.25" r="292" spans="1:8" x14ac:dyDescent="0.2">
@@ -15337,10 +15547,10 @@
         <v>971</v>
       </c>
       <c r="R293" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T293" t="n">
-        <v>1.724244619162E12</v>
+        <v>1.724289552962E12</v>
       </c>
     </row>
     <row ht="114" r="294" spans="1:8" x14ac:dyDescent="0.2">
@@ -15457,10 +15667,10 @@
         <v>991</v>
       </c>
       <c r="R297" t="n">
-        <v>1.77</v>
+        <v>0.6500000000000001</v>
       </c>
       <c r="T297" t="n">
-        <v>1.724245345574E12</v>
+        <v>1.724295224032E12</v>
       </c>
     </row>
     <row ht="85.5" r="298" spans="1:8" x14ac:dyDescent="0.2">
@@ -15637,10 +15847,10 @@
         <v>1021</v>
       </c>
       <c r="R303" t="n">
-        <v>2.31</v>
+        <v>0.7799999999999989</v>
       </c>
       <c r="T303" t="n">
-        <v>1.724245350003E12</v>
+        <v>1.724295281602E12</v>
       </c>
     </row>
     <row ht="409.5" r="304" spans="1:8" x14ac:dyDescent="0.2">
@@ -15667,10 +15877,10 @@
         <v>99.980999999999995</v>
       </c>
       <c r="R304" t="n">
-        <v>1.12</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="T304" t="n">
-        <v>1.724245352009E12</v>
+        <v>1.724289568271E12</v>
       </c>
     </row>
     <row ht="409.5" r="305" spans="1:8" x14ac:dyDescent="0.2">
@@ -15757,10 +15967,10 @@
         <v>16</v>
       </c>
       <c r="R307" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T307" t="n">
-        <v>1.724244746516E12</v>
+        <v>1.724289570024E12</v>
       </c>
     </row>
     <row ht="85.5" r="308" spans="1:8" x14ac:dyDescent="0.2">
@@ -15817,10 +16027,10 @@
         <v>1031</v>
       </c>
       <c r="R309" t="n">
-        <v>1.77</v>
+        <v>0.6500000000000001</v>
       </c>
       <c r="T309" t="n">
-        <v>1.724245355039E12</v>
+        <v>1.724295243508E12</v>
       </c>
     </row>
     <row ht="85.5" r="310" spans="1:8" x14ac:dyDescent="0.2">
@@ -16147,10 +16357,10 @@
         <v>1072</v>
       </c>
       <c r="R320" t="n">
-        <v>1.77</v>
+        <v>0.6500000000000001</v>
       </c>
       <c r="T320" t="n">
-        <v>1.724245357665E12</v>
+        <v>1.724295246727E12</v>
       </c>
     </row>
     <row ht="114" r="321" spans="1:8" x14ac:dyDescent="0.2">
@@ -16327,10 +16537,10 @@
         <v>1103</v>
       </c>
       <c r="R326" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T326" t="n">
-        <v>1.724244766219E12</v>
+        <v>1.724289587577E12</v>
       </c>
     </row>
     <row ht="185.25" r="327" spans="1:8" x14ac:dyDescent="0.2">
@@ -16357,10 +16567,10 @@
         <v>1103</v>
       </c>
       <c r="R327" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T327" t="n">
-        <v>1.724244769782E12</v>
+        <v>1.724289590851E12</v>
       </c>
     </row>
     <row ht="185.25" r="328" spans="1:8" x14ac:dyDescent="0.2">
@@ -16387,10 +16597,10 @@
         <v>1103</v>
       </c>
       <c r="R328" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T328" t="n">
-        <v>1.724244772717E12</v>
+        <v>1.724289592423E12</v>
       </c>
     </row>
     <row ht="57" r="329" spans="1:8" x14ac:dyDescent="0.2">
@@ -16417,10 +16627,10 @@
         <v>1110</v>
       </c>
       <c r="R329" t="n">
-        <v>1.2599999999999998</v>
+        <v>0.8399999999999999</v>
       </c>
       <c r="T329" t="n">
-        <v>1.724245361246E12</v>
+        <v>1.724289594999E12</v>
       </c>
     </row>
     <row ht="356.25" r="330" spans="1:8" x14ac:dyDescent="0.2">
@@ -16447,10 +16657,10 @@
         <v>1115</v>
       </c>
       <c r="R330" t="n">
-        <v>1.77</v>
+        <v>0.6500000000000001</v>
       </c>
       <c r="T330" t="n">
-        <v>1.724245362745E12</v>
+        <v>1.724295248293E12</v>
       </c>
     </row>
     <row ht="213.75" r="331" spans="1:8" x14ac:dyDescent="0.2">
@@ -16477,10 +16687,10 @@
         <v>1119</v>
       </c>
       <c r="R331" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T331" t="n">
-        <v>1.7242447908E12</v>
+        <v>1.724289604055E12</v>
       </c>
     </row>
     <row ht="142.5" r="332" spans="1:8" x14ac:dyDescent="0.2">
@@ -16597,10 +16807,10 @@
         <v>1139</v>
       </c>
       <c r="R335" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T335" t="n">
-        <v>1.724244796036E12</v>
+        <v>1.724289618318E12</v>
       </c>
     </row>
     <row ht="99.75" r="336" spans="1:8" x14ac:dyDescent="0.2">
@@ -16627,10 +16837,10 @@
         <v>1144</v>
       </c>
       <c r="R336" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T336" t="n">
-        <v>1.724244800556E12</v>
+        <v>1.724289621964E12</v>
       </c>
     </row>
     <row ht="156.75" r="337" spans="1:8" x14ac:dyDescent="0.2">
@@ -16657,10 +16867,10 @@
         <v>1149</v>
       </c>
       <c r="R337" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T337" t="n">
-        <v>1.724244804105E12</v>
+        <v>1.72428962559E12</v>
       </c>
     </row>
     <row ht="57" r="338" spans="1:8" x14ac:dyDescent="0.2">
@@ -16777,10 +16987,10 @@
         <v>1169</v>
       </c>
       <c r="R341" t="n">
-        <v>1.6199999999999992</v>
+        <v>0.49999999999999933</v>
       </c>
       <c r="T341" t="n">
-        <v>1.724245368488E12</v>
+        <v>1.724295251541E12</v>
       </c>
     </row>
     <row ht="57" r="342" spans="1:8" x14ac:dyDescent="0.2">
@@ -16837,10 +17047,10 @@
         <v>1179</v>
       </c>
       <c r="R343" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T343" t="n">
-        <v>1.724244850135E12</v>
+        <v>1.724289660035E12</v>
       </c>
     </row>
     <row ht="270.75" r="344" spans="1:8" x14ac:dyDescent="0.2">
@@ -16927,10 +17137,10 @@
         <v>1194</v>
       </c>
       <c r="R346" t="n">
-        <v>0.8799999999999997</v>
+        <v>0.6699999999999997</v>
       </c>
       <c r="T346" t="n">
-        <v>1.724244864127E12</v>
+        <v>1.724289661146E12</v>
       </c>
     </row>
     <row ht="71.25" r="347" spans="1:8" x14ac:dyDescent="0.2">
@@ -17133,10 +17343,10 @@
       <c r="G353" s="6"/>
       <c r="H353" s="6"/>
       <c r="R353" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T353" t="n">
-        <v>1.724244912281E12</v>
+        <v>1.724289662879E12</v>
       </c>
     </row>
     <row ht="85.5" r="354" spans="1:8" x14ac:dyDescent="0.2">
@@ -17211,10 +17421,10 @@
       <c r="G356" s="6"/>
       <c r="H356" s="6"/>
       <c r="R356" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T356" t="n">
-        <v>1.724244913882E12</v>
+        <v>1.724289665282E12</v>
       </c>
     </row>
     <row ht="142.5" r="357" spans="1:8" x14ac:dyDescent="0.2">
@@ -17497,10 +17707,10 @@
       <c r="G367" s="6"/>
       <c r="H367" s="6"/>
       <c r="R367" t="n">
-        <v>1.77</v>
+        <v>0.6500000000000001</v>
       </c>
       <c r="T367" t="n">
-        <v>1.724245371311E12</v>
+        <v>1.724295253452E12</v>
       </c>
     </row>
     <row ht="128.25" r="368" spans="1:8" x14ac:dyDescent="0.2">
@@ -17575,10 +17785,10 @@
       <c r="G370" s="6"/>
       <c r="H370" s="6"/>
       <c r="R370" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T370" t="n">
-        <v>1.724245010159E12</v>
+        <v>1.724289670135E12</v>
       </c>
     </row>
     <row ht="142.5" r="371" spans="1:8" x14ac:dyDescent="0.2">
@@ -17627,10 +17837,10 @@
       <c r="G372" s="6"/>
       <c r="H372" s="6"/>
       <c r="R372" t="n">
-        <v>1.77</v>
+        <v>0.6500000000000001</v>
       </c>
       <c r="T372" t="n">
-        <v>1.724245374406E12</v>
+        <v>1.724295254946E12</v>
       </c>
     </row>
     <row ht="99.75" r="373" spans="1:8" x14ac:dyDescent="0.2">
@@ -17653,10 +17863,10 @@
       <c r="G373" s="6"/>
       <c r="H373" s="6"/>
       <c r="R373" t="n">
-        <v>1.9100000000000001</v>
+        <v>0.7900000000000003</v>
       </c>
       <c r="T373" t="n">
-        <v>1.724245375908E12</v>
+        <v>1.724295256443E12</v>
       </c>
     </row>
     <row ht="185.25" r="374" spans="1:8" x14ac:dyDescent="0.2">
@@ -17757,10 +17967,10 @@
       <c r="G377" s="6"/>
       <c r="H377" s="6"/>
       <c r="R377" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T377" t="n">
-        <v>1.72424501908E12</v>
+        <v>1.724289679505E12</v>
       </c>
     </row>
     <row ht="171" r="378" spans="1:8" x14ac:dyDescent="0.2">
@@ -17965,10 +18175,10 @@
       <c r="G385" s="6"/>
       <c r="H385" s="6"/>
       <c r="R385" t="n">
-        <v>1.77</v>
+        <v>0.6500000000000001</v>
       </c>
       <c r="T385" t="n">
-        <v>1.724245376944E12</v>
+        <v>1.724295257712E12</v>
       </c>
     </row>
     <row ht="171" r="386" spans="1:8" x14ac:dyDescent="0.2">
@@ -18051,10 +18261,10 @@
         <v>1261</v>
       </c>
       <c r="R388" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="T388" t="n">
-        <v>1.724245022909E12</v>
+        <v>1.724289684253E12</v>
       </c>
     </row>
     <row ht="85.5" r="389" spans="1:8" x14ac:dyDescent="0.2">
@@ -18081,10 +18291,10 @@
         <v>1266</v>
       </c>
       <c r="R389" t="n">
-        <v>1.7200000000000002</v>
+        <v>0.6000000000000003</v>
       </c>
       <c r="T389" t="n">
-        <v>1.724245378814E12</v>
+        <v>1.724295262704E12</v>
       </c>
     </row>
     <row ht="213.75" r="390" spans="1:8" x14ac:dyDescent="0.2">
@@ -18171,10 +18381,10 @@
         <v>1280</v>
       </c>
       <c r="R392" t="n">
-        <v>0.8799999999999997</v>
+        <v>0.6699999999999997</v>
       </c>
       <c r="T392" t="n">
-        <v>1.724245027687E12</v>
+        <v>1.724289692477E12</v>
       </c>
     </row>
     <row ht="156.75" r="393" spans="1:8" x14ac:dyDescent="0.2">
@@ -18261,10 +18471,10 @@
         <v>1294</v>
       </c>
       <c r="R395" t="n">
-        <v>0.8299999999999994</v>
+        <v>0.6199999999999994</v>
       </c>
       <c r="T395" t="n">
-        <v>1.724245030604E12</v>
+        <v>1.7242896957E12</v>
       </c>
     </row>
     <row ht="142.5" r="396" spans="1:8" x14ac:dyDescent="0.2">
@@ -18471,10 +18681,10 @@
         <v>1329</v>
       </c>
       <c r="R402" t="n">
-        <v>0.8399999999999999</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="T402" t="n">
-        <v>1.724231099684E12</v>
+        <v>1.724289707434E12</v>
       </c>
     </row>
     <row ht="57" r="403" spans="1:8" x14ac:dyDescent="0.2">

--- a/target/classes/中级工应知应会题库.xlsx
+++ b/target/classes/中级工应知应会题库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="1437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="1442">
   <si>
     <t>试题编号</t>
   </si>
@@ -4328,6 +4328,21 @@
   </si>
   <si>
     <t>您一共做了: 8题	您的得分： 100.0	做题时长约为0.45Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 8题	您的得分： 87.5	做题时长约为1.0166666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 52题	您的得分： 80.76923076923077	做题时长约为7.683333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 34题	您的得分： 100.0	做题时长约为1.95Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 52题	您的得分： 94.23076923076923	做题时长约为9.833333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 8题	您的得分： 100.0	做题时长约为0.38333333333333336Min</t>
   </si>
 </sst>
 </file>
@@ -4387,11 +4402,168 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="167">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4971,11 +5143,11 @@
       <c r="H7" t="s">
         <v>1141</v>
       </c>
-      <c r="R7">
-        <v>6.5</v>
-      </c>
-      <c r="T7">
-        <v>1724314065645</v>
+      <c r="R7" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.724396252452E12</v>
       </c>
       <c r="AA7" t="s">
         <v>1360</v>
@@ -5451,11 +5623,11 @@
       <c r="H22" t="s">
         <v>1152</v>
       </c>
-      <c r="R22">
-        <v>6.5</v>
-      </c>
-      <c r="T22">
-        <v>1724314203029</v>
+      <c r="R22" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.724396256E12</v>
       </c>
       <c r="AA22" t="s">
         <v>1374</v>
@@ -6155,11 +6327,11 @@
       <c r="H44" t="s">
         <v>1168</v>
       </c>
-      <c r="R44">
-        <v>5</v>
-      </c>
-      <c r="T44">
-        <v>1724314381514</v>
+      <c r="R44" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.724396259587E12</v>
       </c>
       <c r="AA44" t="s">
         <v>1390</v>
@@ -6795,11 +6967,11 @@
       <c r="H64" t="s">
         <v>1186</v>
       </c>
-      <c r="R64">
-        <v>5</v>
-      </c>
-      <c r="T64">
-        <v>1724314471317</v>
+      <c r="R64" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.724396262436E12</v>
       </c>
       <c r="AA64" t="s">
         <v>1399</v>
@@ -6891,11 +7063,11 @@
       <c r="H67" t="s">
         <v>1189</v>
       </c>
-      <c r="R67">
-        <v>5</v>
-      </c>
-      <c r="T67">
-        <v>1724314534801</v>
+      <c r="R67" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.724396600354E12</v>
       </c>
       <c r="AA67" t="s">
         <v>1380</v>
@@ -7051,11 +7223,11 @@
       <c r="H72" t="s">
         <v>1194</v>
       </c>
-      <c r="R72">
-        <v>6.5</v>
-      </c>
-      <c r="T72">
-        <v>1724314571101</v>
+      <c r="R72" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.72439660483E12</v>
       </c>
       <c r="AA72" t="s">
         <v>1377</v>
@@ -7115,11 +7287,11 @@
       <c r="H74" t="s">
         <v>1196</v>
       </c>
-      <c r="R74">
-        <v>5</v>
-      </c>
-      <c r="T74">
-        <v>1724314594283</v>
+      <c r="R74" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.724396607978E12</v>
       </c>
       <c r="AA74" t="s">
         <v>1404</v>
@@ -7147,11 +7319,11 @@
       <c r="H75" t="s">
         <v>1197</v>
       </c>
-      <c r="R75">
-        <v>5.999999999999998</v>
-      </c>
-      <c r="T75">
-        <v>1724314599894</v>
+      <c r="R75" t="n">
+        <v>4.979999999999999</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.724396612858E12</v>
       </c>
       <c r="AA75" t="s">
         <v>1405</v>
@@ -7243,11 +7415,11 @@
       <c r="H78" t="s">
         <v>1200</v>
       </c>
-      <c r="R78">
-        <v>5</v>
-      </c>
-      <c r="T78">
-        <v>1724314617309</v>
+      <c r="R78" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.72439661495E12</v>
       </c>
       <c r="AA78" t="s">
         <v>1374</v>
@@ -7496,11 +7668,11 @@
       <c r="H86">
         <v>67</v>
       </c>
-      <c r="R86">
-        <v>5</v>
-      </c>
-      <c r="T86">
-        <v>1724314665173</v>
+      <c r="R86" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.724396617857E12</v>
       </c>
       <c r="AA86" t="s">
         <v>1412</v>
@@ -7529,10 +7701,10 @@
         <v>224</v>
       </c>
       <c r="R87" t="n">
-        <v>8.55</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="T87" t="n">
-        <v>1.724317934618E12</v>
+        <v>1.724404293398E12</v>
       </c>
       <c r="AA87" t="s">
         <v>1413</v>
@@ -7624,11 +7796,11 @@
       <c r="H90" t="s">
         <v>1206</v>
       </c>
-      <c r="R90">
-        <v>5</v>
-      </c>
-      <c r="T90">
-        <v>1724314700432</v>
+      <c r="R90" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.724396622295E12</v>
       </c>
       <c r="AA90" t="s">
         <v>1416</v>
@@ -7816,11 +7988,11 @@
       <c r="H96">
         <v>11</v>
       </c>
-      <c r="R96">
-        <v>6.5</v>
-      </c>
-      <c r="T96">
-        <v>1724314782613</v>
+      <c r="R96" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.724396624236E12</v>
       </c>
       <c r="AA96" t="s">
         <v>1421</v>
@@ -7976,11 +8148,11 @@
       <c r="H101" t="s">
         <v>1215</v>
       </c>
-      <c r="R101">
-        <v>6.5</v>
-      </c>
-      <c r="T101">
-        <v>1724314814260</v>
+      <c r="R101" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1.72439662668E12</v>
       </c>
       <c r="AA101" t="s">
         <v>1425</v>
@@ -8654,6 +8826,9 @@
       <c r="T122">
         <v>1724315073838</v>
       </c>
+      <c r="AA122" t="s">
+        <v>1437</v>
+      </c>
     </row>
     <row r="123" spans="2:27">
       <c r="B123" t="s">
@@ -8683,6 +8858,9 @@
       <c r="T123">
         <v>1724315080350</v>
       </c>
+      <c r="AA123" t="s">
+        <v>1438</v>
+      </c>
     </row>
     <row r="124" spans="2:27">
       <c r="B124" t="s">
@@ -8712,6 +8890,9 @@
       <c r="T124">
         <v>1724315083107</v>
       </c>
+      <c r="AA124" t="s">
+        <v>1374</v>
+      </c>
     </row>
     <row r="125" spans="2:27">
       <c r="B125" t="s">
@@ -8741,6 +8922,9 @@
       <c r="T125">
         <v>1724315087474</v>
       </c>
+      <c r="AA125" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="126" spans="2:27">
       <c r="B126" t="s">
@@ -8770,6 +8954,9 @@
       <c r="T126">
         <v>1724315092242</v>
       </c>
+      <c r="AA126" t="s">
+        <v>1440</v>
+      </c>
     </row>
     <row r="127" spans="2:27">
       <c r="B127" t="s">
@@ -8799,6 +8986,9 @@
       <c r="T127">
         <v>1724315097078</v>
       </c>
+      <c r="AA127" t="s">
+        <v>1374</v>
+      </c>
     </row>
     <row r="128" spans="2:27">
       <c r="B128" t="s">
@@ -8828,6 +9018,9 @@
       <c r="T128">
         <v>1724315108507</v>
       </c>
+      <c r="AA128" t="s">
+        <v>1441</v>
+      </c>
     </row>
     <row r="129" spans="2:20">
       <c r="B129" t="s">
@@ -8857,6 +9050,9 @@
       <c r="T129">
         <v>1724315122102</v>
       </c>
+      <c r="AA129" t="s">
+        <v>1374</v>
+      </c>
     </row>
     <row r="130" spans="2:20">
       <c r="B130" t="s">
@@ -8938,11 +9134,11 @@
       <c r="H132" t="s">
         <v>1239</v>
       </c>
-      <c r="R132">
-        <v>5</v>
-      </c>
-      <c r="T132">
-        <v>1724315141506</v>
+      <c r="R132" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1.724396628859E12</v>
       </c>
     </row>
     <row r="133" spans="2:20">
@@ -9141,11 +9337,11 @@
       <c r="H139" t="s">
         <v>1244</v>
       </c>
-      <c r="R139">
-        <v>5</v>
-      </c>
-      <c r="T139">
-        <v>1724315173140</v>
+      <c r="R139" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1.724396632593E12</v>
       </c>
     </row>
     <row r="140" spans="2:20">
@@ -9627,11 +9823,11 @@
       <c r="F157" t="s">
         <v>807</v>
       </c>
-      <c r="R157">
-        <v>5</v>
-      </c>
-      <c r="T157">
-        <v>1724315271813</v>
+      <c r="R157" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1.724396636423E12</v>
       </c>
     </row>
     <row r="158" spans="2:20">
@@ -9650,11 +9846,11 @@
       <c r="F158" t="s">
         <v>807</v>
       </c>
-      <c r="R158">
-        <v>5</v>
-      </c>
-      <c r="T158">
-        <v>1724315285022</v>
+      <c r="R158" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1.724396644559E12</v>
       </c>
     </row>
     <row r="159" spans="2:20">
@@ -9857,11 +10053,11 @@
       <c r="F167" t="s">
         <v>807</v>
       </c>
-      <c r="R167">
-        <v>5</v>
-      </c>
-      <c r="T167">
-        <v>1724315313424</v>
+      <c r="R167" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="T167" t="n">
+        <v>1.724396652925E12</v>
       </c>
     </row>
     <row r="168" spans="2:20">
@@ -10087,11 +10283,11 @@
       <c r="F177" t="s">
         <v>807</v>
       </c>
-      <c r="R177">
-        <v>5</v>
-      </c>
-      <c r="T177">
-        <v>1724315343294</v>
+      <c r="R177" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="T177" t="n">
+        <v>1.724396655154E12</v>
       </c>
     </row>
     <row r="178" spans="2:20">
@@ -10133,11 +10329,11 @@
       <c r="F179" t="s">
         <v>807</v>
       </c>
-      <c r="R179">
-        <v>5</v>
-      </c>
-      <c r="T179">
-        <v>1724315362686</v>
+      <c r="R179" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="T179" t="n">
+        <v>1.724396659306E12</v>
       </c>
     </row>
     <row r="180" spans="2:20">
@@ -10409,11 +10605,11 @@
       <c r="F191" t="s">
         <v>807</v>
       </c>
-      <c r="R191">
-        <v>5</v>
-      </c>
-      <c r="T191">
-        <v>1724315425687</v>
+      <c r="R191" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="T191" t="n">
+        <v>1.724396683003E12</v>
       </c>
     </row>
     <row r="192" spans="2:20">
@@ -10662,11 +10858,11 @@
       <c r="F202" t="s">
         <v>807</v>
       </c>
-      <c r="R202">
-        <v>5.999999999999998</v>
-      </c>
-      <c r="T202">
-        <v>1724315898352</v>
+      <c r="R202" t="n">
+        <v>4.979999999999999</v>
+      </c>
+      <c r="T202" t="n">
+        <v>1.724396684971E12</v>
       </c>
     </row>
     <row r="203" spans="2:20">
@@ -11007,11 +11203,11 @@
       <c r="F217" t="s">
         <v>807</v>
       </c>
-      <c r="R217">
-        <v>5</v>
-      </c>
-      <c r="T217">
-        <v>1724315985654</v>
+      <c r="R217" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="T217" t="n">
+        <v>1.724396689641E12</v>
       </c>
     </row>
     <row r="218" spans="2:20">
@@ -11168,11 +11364,11 @@
       <c r="F224" t="s">
         <v>807</v>
       </c>
-      <c r="R224">
-        <v>6.5</v>
-      </c>
-      <c r="T224">
-        <v>1724316026552</v>
+      <c r="R224" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="T224" t="n">
+        <v>1.724396691448E12</v>
       </c>
     </row>
     <row r="225" spans="2:20">
@@ -11215,10 +11411,10 @@
         <v>807</v>
       </c>
       <c r="R226" t="n">
-        <v>8.55</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="T226" t="n">
-        <v>1.724317936557E12</v>
+        <v>1.724404295395E12</v>
       </c>
     </row>
     <row r="227" spans="2:20">
@@ -11375,11 +11571,11 @@
       <c r="F233" t="s">
         <v>807</v>
       </c>
-      <c r="R233">
-        <v>5</v>
-      </c>
-      <c r="T233">
-        <v>1724316182496</v>
+      <c r="R233" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="T233" t="n">
+        <v>1.724396695458E12</v>
       </c>
     </row>
     <row r="234" spans="2:20">
@@ -11422,10 +11618,10 @@
         <v>807</v>
       </c>
       <c r="R235" t="n">
-        <v>8.55</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="T235" t="n">
-        <v>1.724317941454E12</v>
+        <v>1.724404297468E12</v>
       </c>
     </row>
     <row r="236" spans="2:20">
@@ -11605,11 +11801,11 @@
       <c r="F243" t="s">
         <v>807</v>
       </c>
-      <c r="R243">
-        <v>5</v>
-      </c>
-      <c r="T243">
-        <v>1724316245775</v>
+      <c r="R243" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="T243" t="n">
+        <v>1.724396746329E12</v>
       </c>
     </row>
     <row r="244" spans="2:20">
@@ -11905,11 +12101,11 @@
       <c r="H255" t="s">
         <v>1256</v>
       </c>
-      <c r="R255">
-        <v>6.5</v>
-      </c>
-      <c r="T255">
-        <v>1724316345442</v>
+      <c r="R255" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="T255" t="n">
+        <v>1.724396750046E12</v>
       </c>
     </row>
     <row r="256" spans="2:20">
@@ -12050,11 +12246,11 @@
       <c r="H260" t="s">
         <v>1261</v>
       </c>
-      <c r="R260">
-        <v>6.5</v>
-      </c>
-      <c r="T260">
-        <v>1724316368925</v>
+      <c r="R260" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="T260" t="n">
+        <v>1.724396752373E12</v>
       </c>
     </row>
     <row r="261" spans="2:20">
@@ -12224,11 +12420,11 @@
       <c r="H266" t="s">
         <v>1267</v>
       </c>
-      <c r="R266">
-        <v>6.25</v>
-      </c>
-      <c r="T266">
-        <v>1724316420015</v>
+      <c r="R266" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="T266" t="n">
+        <v>1.72439675542E12</v>
       </c>
     </row>
     <row r="267" spans="2:20">
@@ -12340,11 +12536,11 @@
       <c r="H270" t="s">
         <v>1271</v>
       </c>
-      <c r="R270">
-        <v>5.749999999999997</v>
-      </c>
-      <c r="T270">
-        <v>1724316440806</v>
+      <c r="R270" t="n">
+        <v>4.729999999999998</v>
+      </c>
+      <c r="T270" t="n">
+        <v>1.72439676028E12</v>
       </c>
     </row>
     <row r="271" spans="2:20">
@@ -12398,11 +12594,11 @@
       <c r="H272" t="s">
         <v>1273</v>
       </c>
-      <c r="R272">
-        <v>5</v>
-      </c>
-      <c r="T272">
-        <v>1724316452916</v>
+      <c r="R272" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="T272" t="n">
+        <v>1.72439676628E12</v>
       </c>
     </row>
     <row r="273" spans="2:20">
@@ -12427,11 +12623,11 @@
       <c r="H273" t="s">
         <v>1211</v>
       </c>
-      <c r="R273">
-        <v>5.499999999999996</v>
-      </c>
-      <c r="T273">
-        <v>1724316470161</v>
+      <c r="R273" t="n">
+        <v>4.479999999999996</v>
+      </c>
+      <c r="T273" t="n">
+        <v>1.724396778389E12</v>
       </c>
     </row>
     <row r="274" spans="2:20">
@@ -12457,10 +12653,10 @@
         <v>611</v>
       </c>
       <c r="R274" t="n">
-        <v>8.55</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="T274" t="n">
-        <v>1.724317944841E12</v>
+        <v>1.724404300277E12</v>
       </c>
     </row>
     <row r="275" spans="2:20">
@@ -12514,11 +12710,11 @@
       <c r="H276" t="s">
         <v>1275</v>
       </c>
-      <c r="R276">
-        <v>5</v>
-      </c>
-      <c r="T276">
-        <v>1724316498933</v>
+      <c r="R276" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="T276" t="n">
+        <v>1.724396793617E12</v>
       </c>
     </row>
     <row r="277" spans="2:20">
@@ -12978,11 +13174,11 @@
       <c r="H292" t="s">
         <v>1289</v>
       </c>
-      <c r="R292">
-        <v>5</v>
-      </c>
-      <c r="T292">
-        <v>1724316590252</v>
+      <c r="R292" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="T292" t="n">
+        <v>1.724396799266E12</v>
       </c>
     </row>
     <row r="293" spans="2:20">
@@ -13587,11 +13783,11 @@
       <c r="H313" t="s">
         <v>1304</v>
       </c>
-      <c r="R313">
-        <v>6.5</v>
-      </c>
-      <c r="T313">
-        <v>1724317010692</v>
+      <c r="R313" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="T313" t="n">
+        <v>1.724396803314E12</v>
       </c>
     </row>
     <row r="314" spans="2:20">
@@ -13849,10 +14045,10 @@
         <v>1310</v>
       </c>
       <c r="R322" t="n">
-        <v>8.55</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="T322" t="n">
-        <v>1.72431794794E12</v>
+        <v>1.724404302357E12</v>
       </c>
     </row>
     <row r="323" spans="2:20">
@@ -13877,11 +14073,11 @@
       <c r="H323" t="s">
         <v>1311</v>
       </c>
-      <c r="R323">
-        <v>6.5</v>
-      </c>
-      <c r="T323">
-        <v>1724317103438</v>
+      <c r="R323" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="T323" t="n">
+        <v>1.724396808814E12</v>
       </c>
     </row>
     <row r="324" spans="2:20">
@@ -13906,11 +14102,11 @@
       <c r="H324" t="s">
         <v>1312</v>
       </c>
-      <c r="R324">
-        <v>6.5</v>
-      </c>
-      <c r="T324">
-        <v>1724317112814</v>
+      <c r="R324" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="T324" t="n">
+        <v>1.724396810604E12</v>
       </c>
     </row>
     <row r="325" spans="2:20">
@@ -13935,11 +14131,11 @@
       <c r="H325" t="s">
         <v>1313</v>
       </c>
-      <c r="R325">
-        <v>6.25</v>
-      </c>
-      <c r="T325">
-        <v>1724317126908</v>
+      <c r="R325" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="T325" t="n">
+        <v>1.724396813404E12</v>
       </c>
     </row>
     <row r="326" spans="2:20">
@@ -14834,10 +15030,10 @@
         <v>807</v>
       </c>
       <c r="R357" t="n">
-        <v>8.55</v>
+        <v>7.170000000000002</v>
       </c>
       <c r="T357" t="n">
-        <v>1.724317950617E12</v>
+        <v>1.724404318477E12</v>
       </c>
     </row>
     <row r="358" spans="2:20">
@@ -15040,11 +15236,11 @@
       <c r="F366" t="s">
         <v>807</v>
       </c>
-      <c r="R366">
-        <v>6.5</v>
-      </c>
-      <c r="T366">
-        <v>1724317345589</v>
+      <c r="R366" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="T366" t="n">
+        <v>1.724396817259E12</v>
       </c>
     </row>
     <row r="367" spans="2:20">
@@ -15224,11 +15420,11 @@
       <c r="F374" t="s">
         <v>807</v>
       </c>
-      <c r="R374">
-        <v>5</v>
-      </c>
-      <c r="T374">
-        <v>1724317384966</v>
+      <c r="R374" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="T374" t="n">
+        <v>1.724396818771E12</v>
       </c>
     </row>
     <row r="375" spans="2:20">
@@ -15362,11 +15558,11 @@
       <c r="F380" t="s">
         <v>807</v>
       </c>
-      <c r="R380">
-        <v>5.999999999999998</v>
-      </c>
-      <c r="T380">
-        <v>1724317427575</v>
+      <c r="R380" t="n">
+        <v>4.979999999999999</v>
+      </c>
+      <c r="T380" t="n">
+        <v>1.724396820428E12</v>
       </c>
     </row>
     <row r="381" spans="2:20">
@@ -15530,10 +15726,10 @@
         <v>1338</v>
       </c>
       <c r="R387" t="n">
-        <v>8.55</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="T387" t="n">
-        <v>1.724317955036E12</v>
+        <v>1.724404309146E12</v>
       </c>
     </row>
     <row r="388" spans="2:20">
@@ -15645,11 +15841,11 @@
       <c r="H391" t="s">
         <v>1342</v>
       </c>
-      <c r="R391">
-        <v>5</v>
-      </c>
-      <c r="T391">
-        <v>1724317472815</v>
+      <c r="R391" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="T391" t="n">
+        <v>1.724396828107E12</v>
       </c>
     </row>
     <row r="392" spans="2:20">
@@ -15790,11 +15986,11 @@
       <c r="H396" t="s">
         <v>1347</v>
       </c>
-      <c r="R396">
-        <v>6.999999999999994</v>
-      </c>
-      <c r="T396">
-        <v>1724317514552</v>
+      <c r="R396" t="n">
+        <v>5.979999999999994</v>
+      </c>
+      <c r="T396" t="n">
+        <v>1.724396831115E12</v>
       </c>
     </row>
     <row r="397" spans="2:20">
@@ -15820,10 +16016,10 @@
         <v>1348</v>
       </c>
       <c r="R397" t="n">
-        <v>8.55</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="T397" t="n">
-        <v>1.724317957837E12</v>
+        <v>1.724404313493E12</v>
       </c>
     </row>
     <row r="398" spans="2:20">
@@ -15906,11 +16102,11 @@
       <c r="H400" t="s">
         <v>1351</v>
       </c>
-      <c r="R400">
-        <v>6.249999999999991</v>
-      </c>
-      <c r="T400">
-        <v>1724317537048</v>
+      <c r="R400" t="n">
+        <v>6.569999999999991</v>
+      </c>
+      <c r="T400" t="n">
+        <v>1.724396839114E12</v>
       </c>
     </row>
     <row r="401" spans="2:20">

--- a/target/classes/中级工应知应会题库.xlsx
+++ b/target/classes/中级工应知应会题库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="1442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="1452">
   <si>
     <t>试题编号</t>
   </si>
@@ -4343,6 +4343,36 @@
   </si>
   <si>
     <t>您一共做了: 8题	您的得分： 100.0	做题时长约为0.38333333333333336Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 31题	您的得分： 96.7741935483871	做题时长约为5.433333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.18333333333333332Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 17题	您的得分： 94.11764705882352	做题时长约为3.9166666666666665Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.15Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为1.3666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.2Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 14题	您的得分： 92.85714285714286	做题时长约为14.7Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 14题	您的得分： 100.0	做题时长约为0.55Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 52题	您的得分： 98.07692307692307	做题时长约为3.5166666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 35题	您的得分： 100.0	做题时长约为1.3Min</t>
   </si>
 </sst>
 </file>
@@ -4402,7 +4432,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="343">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -4562,6 +4592,182 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5144,10 +5350,10 @@
         <v>1141</v>
       </c>
       <c r="R7" t="n">
-        <v>5.48</v>
+        <v>3.9800000000000004</v>
       </c>
       <c r="T7" t="n">
-        <v>1.724396252452E12</v>
+        <v>1.724418404814E12</v>
       </c>
       <c r="AA7" t="s">
         <v>1360</v>
@@ -5624,10 +5830,10 @@
         <v>1152</v>
       </c>
       <c r="R22" t="n">
-        <v>5.48</v>
+        <v>3.9800000000000004</v>
       </c>
       <c r="T22" t="n">
-        <v>1.724396256E12</v>
+        <v>1.724418406556E12</v>
       </c>
       <c r="AA22" t="s">
         <v>1374</v>
@@ -6328,10 +6534,10 @@
         <v>1168</v>
       </c>
       <c r="R44" t="n">
-        <v>4.32</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="T44" t="n">
-        <v>1.724396259587E12</v>
+        <v>1.724418213568E12</v>
       </c>
       <c r="AA44" t="s">
         <v>1390</v>
@@ -6968,10 +7174,10 @@
         <v>1186</v>
       </c>
       <c r="R64" t="n">
-        <v>6.66</v>
+        <v>3.66</v>
       </c>
       <c r="T64" t="n">
-        <v>1.724396262436E12</v>
+        <v>1.72441840902E12</v>
       </c>
       <c r="AA64" t="s">
         <v>1399</v>
@@ -7064,10 +7270,10 @@
         <v>1189</v>
       </c>
       <c r="R67" t="n">
-        <v>4.32</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="T67" t="n">
-        <v>1.724396600354E12</v>
+        <v>1.724418217781E12</v>
       </c>
       <c r="AA67" t="s">
         <v>1380</v>
@@ -7224,10 +7430,10 @@
         <v>1194</v>
       </c>
       <c r="R72" t="n">
-        <v>5.48</v>
+        <v>3.9800000000000004</v>
       </c>
       <c r="T72" t="n">
-        <v>1.72439660483E12</v>
+        <v>1.724418412317E12</v>
       </c>
       <c r="AA72" t="s">
         <v>1377</v>
@@ -7288,10 +7494,10 @@
         <v>1196</v>
       </c>
       <c r="R74" t="n">
-        <v>5.66</v>
+        <v>3.66</v>
       </c>
       <c r="T74" t="n">
-        <v>1.724396607978E12</v>
+        <v>1.724418414537E12</v>
       </c>
       <c r="AA74" t="s">
         <v>1404</v>
@@ -7320,10 +7526,10 @@
         <v>1197</v>
       </c>
       <c r="R75" t="n">
-        <v>4.979999999999999</v>
+        <v>3.9799999999999986</v>
       </c>
       <c r="T75" t="n">
-        <v>1.724396612858E12</v>
+        <v>1.724418416632E12</v>
       </c>
       <c r="AA75" t="s">
         <v>1405</v>
@@ -7416,10 +7622,10 @@
         <v>1200</v>
       </c>
       <c r="R78" t="n">
-        <v>4.32</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="T78" t="n">
-        <v>1.72439661495E12</v>
+        <v>1.724418227482E12</v>
       </c>
       <c r="AA78" t="s">
         <v>1374</v>
@@ -7669,10 +7875,10 @@
         <v>67</v>
       </c>
       <c r="R86" t="n">
-        <v>4.32</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="T86" t="n">
-        <v>1.724396617857E12</v>
+        <v>1.724418229465E12</v>
       </c>
       <c r="AA86" t="s">
         <v>1412</v>
@@ -7701,10 +7907,10 @@
         <v>224</v>
       </c>
       <c r="R87" t="n">
-        <v>6.850000000000001</v>
+        <v>3.8500000000000014</v>
       </c>
       <c r="T87" t="n">
-        <v>1.724404293398E12</v>
+        <v>1.724418419396E12</v>
       </c>
       <c r="AA87" t="s">
         <v>1413</v>
@@ -7797,10 +8003,10 @@
         <v>1206</v>
       </c>
       <c r="R90" t="n">
-        <v>4.32</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="T90" t="n">
-        <v>1.724396622295E12</v>
+        <v>1.724418241142E12</v>
       </c>
       <c r="AA90" t="s">
         <v>1416</v>
@@ -7989,10 +8195,10 @@
         <v>11</v>
       </c>
       <c r="R96" t="n">
-        <v>5.48</v>
+        <v>3.9800000000000004</v>
       </c>
       <c r="T96" t="n">
-        <v>1.724396624236E12</v>
+        <v>1.724418426313E12</v>
       </c>
       <c r="AA96" t="s">
         <v>1421</v>
@@ -8149,10 +8355,10 @@
         <v>1215</v>
       </c>
       <c r="R101" t="n">
-        <v>5.48</v>
+        <v>3.9800000000000004</v>
       </c>
       <c r="T101" t="n">
-        <v>1.72439662668E12</v>
+        <v>1.724418430517E12</v>
       </c>
       <c r="AA101" t="s">
         <v>1425</v>
@@ -9082,6 +9288,9 @@
       <c r="T130">
         <v>1724315130179</v>
       </c>
+      <c r="AA130" t="s">
+        <v>1442</v>
+      </c>
     </row>
     <row r="131" spans="2:20">
       <c r="B131" t="s">
@@ -9111,6 +9320,9 @@
       <c r="T131">
         <v>1724315134840</v>
       </c>
+      <c r="AA131" t="s">
+        <v>1443</v>
+      </c>
     </row>
     <row r="132" spans="2:20">
       <c r="B132" t="s">
@@ -9135,10 +9347,13 @@
         <v>1239</v>
       </c>
       <c r="R132" t="n">
-        <v>4.32</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="T132" t="n">
-        <v>1.724396628859E12</v>
+        <v>1.724418249568E12</v>
+      </c>
+      <c r="AA132" t="s">
+        <v>1374</v>
       </c>
     </row>
     <row r="133" spans="2:20">
@@ -9169,6 +9384,9 @@
       <c r="T133">
         <v>1724315147493</v>
       </c>
+      <c r="AA133" t="s">
+        <v>1444</v>
+      </c>
     </row>
     <row r="134" spans="2:20">
       <c r="B134" t="s">
@@ -9198,6 +9416,9 @@
       <c r="T134">
         <v>1724315149834</v>
       </c>
+      <c r="AA134" t="s">
+        <v>1445</v>
+      </c>
     </row>
     <row r="135" spans="2:20">
       <c r="B135" t="s">
@@ -9227,6 +9448,9 @@
       <c r="T135">
         <v>1724315153856</v>
       </c>
+      <c r="AA135" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="136" spans="2:20">
       <c r="B136" t="s">
@@ -9256,6 +9480,9 @@
       <c r="T136">
         <v>1724315159603</v>
       </c>
+      <c r="AA136" t="s">
+        <v>1447</v>
+      </c>
     </row>
     <row r="137" spans="2:20">
       <c r="B137" t="s">
@@ -9285,6 +9512,9 @@
       <c r="T137">
         <v>1724315163024</v>
       </c>
+      <c r="AA137" t="s">
+        <v>1448</v>
+      </c>
     </row>
     <row r="138" spans="2:20">
       <c r="B138" t="s">
@@ -9314,6 +9544,9 @@
       <c r="T138">
         <v>1724315165775</v>
       </c>
+      <c r="AA138" t="s">
+        <v>1449</v>
+      </c>
     </row>
     <row r="139" spans="2:20">
       <c r="B139" t="s">
@@ -9338,10 +9571,13 @@
         <v>1244</v>
       </c>
       <c r="R139" t="n">
-        <v>4.32</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="T139" t="n">
-        <v>1.724396632593E12</v>
+        <v>1.724418262652E12</v>
+      </c>
+      <c r="AA139" t="s">
+        <v>1373</v>
       </c>
     </row>
     <row r="140" spans="2:20">
@@ -9372,6 +9608,9 @@
       <c r="T140">
         <v>1724315195556</v>
       </c>
+      <c r="AA140" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="141" spans="2:20">
       <c r="B141" t="s">
@@ -9401,6 +9640,9 @@
       <c r="T141">
         <v>1724315203751</v>
       </c>
+      <c r="AA141" t="s">
+        <v>1374</v>
+      </c>
     </row>
     <row r="142" spans="2:20">
       <c r="B142" t="s">
@@ -9430,6 +9672,9 @@
       <c r="T142">
         <v>1724315206458</v>
       </c>
+      <c r="AA142" t="s">
+        <v>1450</v>
+      </c>
     </row>
     <row r="143" spans="2:20">
       <c r="B143" t="s">
@@ -9459,6 +9704,9 @@
       <c r="T143">
         <v>1724315208369</v>
       </c>
+      <c r="AA143" t="s">
+        <v>1451</v>
+      </c>
     </row>
     <row r="144" spans="2:20">
       <c r="B144" t="s">
@@ -9488,6 +9736,9 @@
       <c r="T144">
         <v>1724315216323</v>
       </c>
+      <c r="AA144" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="145" spans="2:20">
       <c r="B145" t="s">
@@ -9517,6 +9768,9 @@
       <c r="T145">
         <v>1724315218882</v>
       </c>
+      <c r="AA145" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="146" spans="2:20">
       <c r="B146" t="s">
@@ -9545,6 +9799,9 @@
       </c>
       <c r="T146">
         <v>1724315221360</v>
+      </c>
+      <c r="AA146" t="s">
+        <v>1373</v>
       </c>
     </row>
     <row r="147" spans="2:20">
@@ -9824,10 +10081,10 @@
         <v>807</v>
       </c>
       <c r="R157" t="n">
-        <v>5.66</v>
+        <v>3.66</v>
       </c>
       <c r="T157" t="n">
-        <v>1.724396636423E12</v>
+        <v>1.72441843347E12</v>
       </c>
     </row>
     <row r="158" spans="2:20">
@@ -9847,10 +10104,10 @@
         <v>807</v>
       </c>
       <c r="R158" t="n">
-        <v>4.32</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="T158" t="n">
-        <v>1.724396644559E12</v>
+        <v>1.72441826972E12</v>
       </c>
     </row>
     <row r="159" spans="2:20">
@@ -10054,10 +10311,10 @@
         <v>807</v>
       </c>
       <c r="R167" t="n">
-        <v>4.32</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="T167" t="n">
-        <v>1.724396652925E12</v>
+        <v>1.724418276007E12</v>
       </c>
     </row>
     <row r="168" spans="2:20">
@@ -10284,10 +10541,10 @@
         <v>807</v>
       </c>
       <c r="R177" t="n">
-        <v>4.32</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="T177" t="n">
-        <v>1.724396655154E12</v>
+        <v>1.72441827754E12</v>
       </c>
     </row>
     <row r="178" spans="2:20">
@@ -10330,10 +10587,10 @@
         <v>807</v>
       </c>
       <c r="R179" t="n">
-        <v>5.32</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="T179" t="n">
-        <v>1.724396659306E12</v>
+        <v>1.724418435017E12</v>
       </c>
     </row>
     <row r="180" spans="2:20">
@@ -10606,10 +10863,10 @@
         <v>807</v>
       </c>
       <c r="R191" t="n">
-        <v>5.32</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="T191" t="n">
-        <v>1.724396683003E12</v>
+        <v>1.724418436468E12</v>
       </c>
     </row>
     <row r="192" spans="2:20">
@@ -10859,10 +11116,10 @@
         <v>807</v>
       </c>
       <c r="R202" t="n">
-        <v>4.979999999999999</v>
+        <v>3.9799999999999986</v>
       </c>
       <c r="T202" t="n">
-        <v>1.724396684971E12</v>
+        <v>1.724418437864E12</v>
       </c>
     </row>
     <row r="203" spans="2:20">
@@ -11204,10 +11461,10 @@
         <v>807</v>
       </c>
       <c r="R217" t="n">
-        <v>4.32</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="T217" t="n">
-        <v>1.724396689641E12</v>
+        <v>1.724418289466E12</v>
       </c>
     </row>
     <row r="218" spans="2:20">
@@ -11365,10 +11622,10 @@
         <v>807</v>
       </c>
       <c r="R224" t="n">
-        <v>5.48</v>
+        <v>3.9800000000000004</v>
       </c>
       <c r="T224" t="n">
-        <v>1.724396691448E12</v>
+        <v>1.724418439032E12</v>
       </c>
     </row>
     <row r="225" spans="2:20">
@@ -11411,10 +11668,10 @@
         <v>807</v>
       </c>
       <c r="R226" t="n">
-        <v>6.850000000000001</v>
+        <v>3.8500000000000014</v>
       </c>
       <c r="T226" t="n">
-        <v>1.724404295395E12</v>
+        <v>1.72441844013E12</v>
       </c>
     </row>
     <row r="227" spans="2:20">
@@ -11572,10 +11829,10 @@
         <v>807</v>
       </c>
       <c r="R233" t="n">
-        <v>4.32</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="T233" t="n">
-        <v>1.724396695458E12</v>
+        <v>1.724418293684E12</v>
       </c>
     </row>
     <row r="234" spans="2:20">
@@ -11618,10 +11875,10 @@
         <v>807</v>
       </c>
       <c r="R235" t="n">
-        <v>6.850000000000001</v>
+        <v>3.8500000000000014</v>
       </c>
       <c r="T235" t="n">
-        <v>1.724404297468E12</v>
+        <v>1.724418441422E12</v>
       </c>
     </row>
     <row r="236" spans="2:20">
@@ -11802,10 +12059,10 @@
         <v>807</v>
       </c>
       <c r="R243" t="n">
-        <v>5.32</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="T243" t="n">
-        <v>1.724396746329E12</v>
+        <v>1.724418442597E12</v>
       </c>
     </row>
     <row r="244" spans="2:20">
@@ -12102,10 +12359,10 @@
         <v>1256</v>
       </c>
       <c r="R255" t="n">
-        <v>5.48</v>
+        <v>3.9800000000000004</v>
       </c>
       <c r="T255" t="n">
-        <v>1.724396750046E12</v>
+        <v>1.724418444594E12</v>
       </c>
     </row>
     <row r="256" spans="2:20">
@@ -12247,10 +12504,10 @@
         <v>1261</v>
       </c>
       <c r="R260" t="n">
-        <v>6.82</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="T260" t="n">
-        <v>1.724396752373E12</v>
+        <v>1.72441844634E12</v>
       </c>
     </row>
     <row r="261" spans="2:20">
@@ -12421,10 +12678,10 @@
         <v>1267</v>
       </c>
       <c r="R266" t="n">
-        <v>5.23</v>
+        <v>3.7300000000000004</v>
       </c>
       <c r="T266" t="n">
-        <v>1.72439675542E12</v>
+        <v>1.724418448392E12</v>
       </c>
     </row>
     <row r="267" spans="2:20">
@@ -12537,10 +12794,10 @@
         <v>1271</v>
       </c>
       <c r="R270" t="n">
-        <v>4.729999999999998</v>
+        <v>3.7299999999999978</v>
       </c>
       <c r="T270" t="n">
-        <v>1.72439676028E12</v>
+        <v>1.724418450251E12</v>
       </c>
     </row>
     <row r="271" spans="2:20">
@@ -12595,10 +12852,10 @@
         <v>1273</v>
       </c>
       <c r="R272" t="n">
-        <v>4.32</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="T272" t="n">
-        <v>1.72439676628E12</v>
+        <v>1.724418325216E12</v>
       </c>
     </row>
     <row r="273" spans="2:20">
@@ -12624,10 +12881,10 @@
         <v>1211</v>
       </c>
       <c r="R273" t="n">
-        <v>4.479999999999996</v>
+        <v>3.979999999999996</v>
       </c>
       <c r="T273" t="n">
-        <v>1.724396778389E12</v>
+        <v>1.724418340671E12</v>
       </c>
     </row>
     <row r="274" spans="2:20">
@@ -12653,10 +12910,10 @@
         <v>611</v>
       </c>
       <c r="R274" t="n">
-        <v>6.850000000000001</v>
+        <v>3.8500000000000014</v>
       </c>
       <c r="T274" t="n">
-        <v>1.724404300277E12</v>
+        <v>1.724418452204E12</v>
       </c>
     </row>
     <row r="275" spans="2:20">
@@ -12711,10 +12968,10 @@
         <v>1275</v>
       </c>
       <c r="R276" t="n">
-        <v>4.32</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="T276" t="n">
-        <v>1.724396793617E12</v>
+        <v>1.724418354103E12</v>
       </c>
     </row>
     <row r="277" spans="2:20">
@@ -13175,10 +13432,10 @@
         <v>1289</v>
       </c>
       <c r="R292" t="n">
-        <v>4.32</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="T292" t="n">
-        <v>1.724396799266E12</v>
+        <v>1.724418366559E12</v>
       </c>
     </row>
     <row r="293" spans="2:20">
@@ -13784,10 +14041,10 @@
         <v>1304</v>
       </c>
       <c r="R313" t="n">
-        <v>5.48</v>
+        <v>3.9800000000000004</v>
       </c>
       <c r="T313" t="n">
-        <v>1.724396803314E12</v>
+        <v>1.724418453755E12</v>
       </c>
     </row>
     <row r="314" spans="2:20">
@@ -14045,10 +14302,10 @@
         <v>1310</v>
       </c>
       <c r="R322" t="n">
-        <v>6.850000000000001</v>
+        <v>3.8500000000000014</v>
       </c>
       <c r="T322" t="n">
-        <v>1.724404302357E12</v>
+        <v>1.724418455688E12</v>
       </c>
     </row>
     <row r="323" spans="2:20">
@@ -14074,10 +14331,10 @@
         <v>1311</v>
       </c>
       <c r="R323" t="n">
-        <v>6.82</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="T323" t="n">
-        <v>1.724396808814E12</v>
+        <v>1.724418458702E12</v>
       </c>
     </row>
     <row r="324" spans="2:20">
@@ -14103,10 +14360,10 @@
         <v>1312</v>
       </c>
       <c r="R324" t="n">
-        <v>6.82</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="T324" t="n">
-        <v>1.724396810604E12</v>
+        <v>1.724418459973E12</v>
       </c>
     </row>
     <row r="325" spans="2:20">
@@ -14132,10 +14389,10 @@
         <v>1313</v>
       </c>
       <c r="R325" t="n">
-        <v>6.57</v>
+        <v>3.5700000000000003</v>
       </c>
       <c r="T325" t="n">
-        <v>1.724396813404E12</v>
+        <v>1.724418462592E12</v>
       </c>
     </row>
     <row r="326" spans="2:20">
@@ -15030,10 +15287,10 @@
         <v>807</v>
       </c>
       <c r="R357" t="n">
-        <v>7.170000000000002</v>
+        <v>3.6700000000000017</v>
       </c>
       <c r="T357" t="n">
-        <v>1.724404318477E12</v>
+        <v>1.724418464227E12</v>
       </c>
     </row>
     <row r="358" spans="2:20">
@@ -15237,10 +15494,10 @@
         <v>807</v>
       </c>
       <c r="R366" t="n">
-        <v>5.48</v>
+        <v>3.9800000000000004</v>
       </c>
       <c r="T366" t="n">
-        <v>1.724396817259E12</v>
+        <v>1.724418465874E12</v>
       </c>
     </row>
     <row r="367" spans="2:20">
@@ -15421,10 +15678,10 @@
         <v>807</v>
       </c>
       <c r="R374" t="n">
-        <v>5.32</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="T374" t="n">
-        <v>1.724396818771E12</v>
+        <v>1.72441846788E12</v>
       </c>
     </row>
     <row r="375" spans="2:20">
@@ -15559,10 +15816,10 @@
         <v>807</v>
       </c>
       <c r="R380" t="n">
-        <v>4.979999999999999</v>
+        <v>3.9799999999999986</v>
       </c>
       <c r="T380" t="n">
-        <v>1.724396820428E12</v>
+        <v>1.724418494274E12</v>
       </c>
     </row>
     <row r="381" spans="2:20">
@@ -15726,10 +15983,10 @@
         <v>1338</v>
       </c>
       <c r="R387" t="n">
-        <v>6.850000000000001</v>
+        <v>3.8500000000000014</v>
       </c>
       <c r="T387" t="n">
-        <v>1.724404309146E12</v>
+        <v>1.724418471227E12</v>
       </c>
     </row>
     <row r="388" spans="2:20">
@@ -15842,10 +16099,10 @@
         <v>1342</v>
       </c>
       <c r="R391" t="n">
-        <v>4.32</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="T391" t="n">
-        <v>1.724396828107E12</v>
+        <v>1.724418392677E12</v>
       </c>
     </row>
     <row r="392" spans="2:20">
@@ -15987,10 +16244,10 @@
         <v>1347</v>
       </c>
       <c r="R396" t="n">
-        <v>5.979999999999994</v>
+        <v>3.979999999999994</v>
       </c>
       <c r="T396" t="n">
-        <v>1.724396831115E12</v>
+        <v>1.724418473108E12</v>
       </c>
     </row>
     <row r="397" spans="2:20">
@@ -16016,10 +16273,10 @@
         <v>1348</v>
       </c>
       <c r="R397" t="n">
-        <v>6.850000000000001</v>
+        <v>3.8500000000000014</v>
       </c>
       <c r="T397" t="n">
-        <v>1.724404313493E12</v>
+        <v>1.724418475239E12</v>
       </c>
     </row>
     <row r="398" spans="2:20">
@@ -16103,10 +16360,10 @@
         <v>1351</v>
       </c>
       <c r="R400" t="n">
-        <v>6.569999999999991</v>
+        <v>3.5699999999999914</v>
       </c>
       <c r="T400" t="n">
-        <v>1.724396839114E12</v>
+        <v>1.724418480553E12</v>
       </c>
     </row>
     <row r="401" spans="2:20">
